--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['9', '73', '76']</t>
+  </si>
+  <si>
+    <t>['9', '88']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -986,6 +992,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP236"/>
+  <dimension ref="A1:BP239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,7 +1905,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2096,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2224,7 +2236,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2430,7 +2442,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2714,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2842,7 +2854,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2923,7 +2935,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3872,7 +3884,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3953,7 +3965,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4078,7 +4090,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4777,7 +4789,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR17">
         <v>1.12</v>
@@ -4902,7 +4914,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4980,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18">
         <v>1.93</v>
@@ -5314,7 +5326,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5392,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5520,7 +5532,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5726,7 +5738,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5932,7 +5944,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6010,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ23">
         <v>1.47</v>
@@ -6138,7 +6150,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6219,7 +6231,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6344,7 +6356,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6550,7 +6562,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7168,7 +7180,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7455,7 +7467,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ30">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7580,7 +7592,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7786,7 +7798,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7867,7 +7879,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR32">
         <v>2.55</v>
@@ -8070,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ33">
         <v>1.93</v>
@@ -8688,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36">
         <v>1.27</v>
@@ -8816,7 +8828,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8894,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -9721,7 +9733,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9927,7 +9939,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -10052,7 +10064,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10258,7 +10270,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10670,7 +10682,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10751,7 +10763,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ46">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR46">
         <v>1.81</v>
@@ -10876,7 +10888,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10954,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ47">
         <v>1.13</v>
@@ -11700,7 +11712,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11778,7 +11790,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ51">
         <v>0.93</v>
@@ -12190,7 +12202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ53">
         <v>1.8</v>
@@ -12318,7 +12330,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12396,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>0.21</v>
@@ -12602,10 +12614,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12730,7 +12742,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12811,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12936,7 +12948,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13142,7 +13154,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13223,7 +13235,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13348,7 +13360,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13554,7 +13566,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13760,7 +13772,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14172,7 +14184,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14250,7 +14262,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14378,7 +14390,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14868,7 +14880,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ66">
         <v>0.93</v>
@@ -14996,7 +15008,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15202,7 +15214,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15820,7 +15832,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16313,7 +16325,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16438,7 +16450,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16516,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ74">
         <v>0.73</v>
@@ -17056,7 +17068,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17137,7 +17149,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17262,7 +17274,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17340,7 +17352,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ78">
         <v>2.33</v>
@@ -17468,7 +17480,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17549,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR79">
         <v>1.25</v>
@@ -17674,7 +17686,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17880,7 +17892,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18292,7 +18304,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18910,7 +18922,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19194,7 +19206,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ87">
         <v>1.07</v>
@@ -19403,7 +19415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19606,7 +19618,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ89">
         <v>1.07</v>
@@ -20227,7 +20239,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR92">
         <v>1.22</v>
@@ -20558,7 +20570,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20764,7 +20776,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20845,7 +20857,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21176,7 +21188,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -22000,7 +22012,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22490,7 +22502,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -22618,7 +22630,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22696,10 +22708,10 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22824,7 +22836,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22905,7 +22917,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23030,7 +23042,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23108,7 +23120,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ106">
         <v>1.4</v>
@@ -23317,7 +23329,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ107">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23442,7 +23454,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23726,7 +23738,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ109">
         <v>0.21</v>
@@ -23854,7 +23866,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24266,7 +24278,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25090,7 +25102,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25296,7 +25308,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25502,7 +25514,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25708,7 +25720,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25914,7 +25926,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26326,7 +26338,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27150,7 +27162,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27356,7 +27368,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27562,7 +27574,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27768,7 +27780,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27974,7 +27986,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28180,7 +28192,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28386,7 +28398,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28464,7 +28476,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ132">
         <v>1.93</v>
@@ -28876,7 +28888,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ134">
         <v>1.6</v>
@@ -29085,7 +29097,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ135">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29288,10 +29300,10 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR136">
         <v>1.69</v>
@@ -29909,7 +29921,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR139">
         <v>1.95</v>
@@ -30034,7 +30046,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30240,7 +30252,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30446,7 +30458,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30652,7 +30664,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31064,7 +31076,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31142,7 +31154,7 @@
         <v>1.56</v>
       </c>
       <c r="AP145">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ145">
         <v>1.47</v>
@@ -31270,7 +31282,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31348,7 +31360,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ146">
         <v>1.8</v>
@@ -31476,7 +31488,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31682,7 +31694,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31888,7 +31900,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32172,7 +32184,7 @@
         <v>2.33</v>
       </c>
       <c r="AP150">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -32300,7 +32312,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32381,7 +32393,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR151">
         <v>0.99</v>
@@ -32506,7 +32518,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32587,7 +32599,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ152">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32712,7 +32724,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32999,7 +33011,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ154">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33124,7 +33136,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33330,7 +33342,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33742,7 +33754,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34566,7 +34578,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34644,7 +34656,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ162">
         <v>0.93</v>
@@ -34772,7 +34784,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35184,7 +35196,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35468,7 +35480,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ166">
         <v>1.27</v>
@@ -35674,7 +35686,7 @@
         <v>1.7</v>
       </c>
       <c r="AP167">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ167">
         <v>1.47</v>
@@ -35883,7 +35895,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ168">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR168">
         <v>2.21</v>
@@ -36707,7 +36719,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ172">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR172">
         <v>2.02</v>
@@ -36913,7 +36925,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ173">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37038,7 +37050,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37244,7 +37256,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37450,7 +37462,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37862,7 +37874,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38146,7 +38158,7 @@
         <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ179">
         <v>0.33</v>
@@ -38274,7 +38286,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38480,7 +38492,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38686,7 +38698,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39098,7 +39110,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39382,7 +39394,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ185">
         <v>1.27</v>
@@ -39588,7 +39600,7 @@
         <v>0.91</v>
       </c>
       <c r="AP186">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ186">
         <v>0.73</v>
@@ -39716,7 +39728,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39922,7 +39934,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40128,7 +40140,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40209,7 +40221,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ189">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR189">
         <v>1.65</v>
@@ -40415,7 +40427,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ190">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR190">
         <v>1.56</v>
@@ -40540,7 +40552,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40621,7 +40633,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ191">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR191">
         <v>2.07</v>
@@ -40746,7 +40758,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41158,7 +41170,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41570,7 +41582,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41854,7 +41866,7 @@
         <v>0.42</v>
       </c>
       <c r="AP197">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ197">
         <v>0.33</v>
@@ -41982,7 +41994,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42188,7 +42200,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42394,7 +42406,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42887,7 +42899,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ202">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR202">
         <v>1.33</v>
@@ -43090,7 +43102,7 @@
         <v>0.25</v>
       </c>
       <c r="AP203">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ203">
         <v>0.21</v>
@@ -43218,7 +43230,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43505,7 +43517,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ205">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -43630,7 +43642,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43836,7 +43848,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -43917,7 +43929,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ207">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR207">
         <v>1.6</v>
@@ -44120,7 +44132,7 @@
         <v>2.42</v>
       </c>
       <c r="AP208">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ208">
         <v>2.33</v>
@@ -44660,7 +44672,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45768,7 +45780,7 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ216">
         <v>0.73</v>
@@ -46308,7 +46320,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46386,7 +46398,7 @@
         <v>1.54</v>
       </c>
       <c r="AP219">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ219">
         <v>1.4</v>
@@ -46720,7 +46732,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46801,7 +46813,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ221">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR221">
         <v>1.35</v>
@@ -46926,7 +46938,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47132,7 +47144,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47213,7 +47225,7 @@
         <v>1</v>
       </c>
       <c r="AQ223">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR223">
         <v>1.07</v>
@@ -47338,7 +47350,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47416,10 +47428,10 @@
         <v>1.23</v>
       </c>
       <c r="AP224">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ224">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR224">
         <v>1.32</v>
@@ -47544,7 +47556,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48780,7 +48792,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48986,7 +48998,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49192,7 +49204,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49398,7 +49410,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49967,6 +49979,624 @@
       </c>
       <c r="BP236">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7762830</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45766.33333333334</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>74</v>
+      </c>
+      <c r="H237" t="s">
+        <v>78</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237" t="s">
+        <v>222</v>
+      </c>
+      <c r="P237" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q237">
+        <v>5.75</v>
+      </c>
+      <c r="R237">
+        <v>2.2</v>
+      </c>
+      <c r="S237">
+        <v>2.25</v>
+      </c>
+      <c r="T237">
+        <v>1.42</v>
+      </c>
+      <c r="U237">
+        <v>2.65</v>
+      </c>
+      <c r="V237">
+        <v>3.04</v>
+      </c>
+      <c r="W237">
+        <v>1.35</v>
+      </c>
+      <c r="X237">
+        <v>7.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.07</v>
+      </c>
+      <c r="Z237">
+        <v>5.46</v>
+      </c>
+      <c r="AA237">
+        <v>3.55</v>
+      </c>
+      <c r="AB237">
+        <v>1.65</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>8.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.29</v>
+      </c>
+      <c r="AF237">
+        <v>3.4</v>
+      </c>
+      <c r="AG237">
+        <v>2.08</v>
+      </c>
+      <c r="AH237">
+        <v>1.73</v>
+      </c>
+      <c r="AI237">
+        <v>1.95</v>
+      </c>
+      <c r="AJ237">
+        <v>1.75</v>
+      </c>
+      <c r="AK237">
+        <v>1.27</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>1.17</v>
+      </c>
+      <c r="AN237">
+        <v>0.93</v>
+      </c>
+      <c r="AO237">
+        <v>1.36</v>
+      </c>
+      <c r="AP237">
+        <v>1.07</v>
+      </c>
+      <c r="AQ237">
+        <v>1.27</v>
+      </c>
+      <c r="AR237">
+        <v>1.35</v>
+      </c>
+      <c r="AS237">
+        <v>1.36</v>
+      </c>
+      <c r="AT237">
+        <v>2.71</v>
+      </c>
+      <c r="AU237">
+        <v>7</v>
+      </c>
+      <c r="AV237">
+        <v>3</v>
+      </c>
+      <c r="AW237">
+        <v>7</v>
+      </c>
+      <c r="AX237">
+        <v>3</v>
+      </c>
+      <c r="AY237">
+        <v>14</v>
+      </c>
+      <c r="AZ237">
+        <v>6</v>
+      </c>
+      <c r="BA237">
+        <v>2</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>2</v>
+      </c>
+      <c r="BD237">
+        <v>2.55</v>
+      </c>
+      <c r="BE237">
+        <v>6.5</v>
+      </c>
+      <c r="BF237">
+        <v>1.6</v>
+      </c>
+      <c r="BG237">
+        <v>1.54</v>
+      </c>
+      <c r="BH237">
+        <v>2.37</v>
+      </c>
+      <c r="BI237">
+        <v>1.92</v>
+      </c>
+      <c r="BJ237">
+        <v>1.88</v>
+      </c>
+      <c r="BK237">
+        <v>2.43</v>
+      </c>
+      <c r="BL237">
+        <v>1.52</v>
+      </c>
+      <c r="BM237">
+        <v>2.8</v>
+      </c>
+      <c r="BN237">
+        <v>1.38</v>
+      </c>
+      <c r="BO237">
+        <v>3.65</v>
+      </c>
+      <c r="BP237">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7762829</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45766.4375</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>72</v>
+      </c>
+      <c r="H238" t="s">
+        <v>85</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>86</v>
+      </c>
+      <c r="P238" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q238">
+        <v>2.95</v>
+      </c>
+      <c r="R238">
+        <v>1.96</v>
+      </c>
+      <c r="S238">
+        <v>3.48</v>
+      </c>
+      <c r="T238">
+        <v>1.44</v>
+      </c>
+      <c r="U238">
+        <v>2.55</v>
+      </c>
+      <c r="V238">
+        <v>3</v>
+      </c>
+      <c r="W238">
+        <v>1.33</v>
+      </c>
+      <c r="X238">
+        <v>9</v>
+      </c>
+      <c r="Y238">
+        <v>1.06</v>
+      </c>
+      <c r="Z238">
+        <v>2.62</v>
+      </c>
+      <c r="AA238">
+        <v>3.09</v>
+      </c>
+      <c r="AB238">
+        <v>2.85</v>
+      </c>
+      <c r="AC238">
+        <v>1.08</v>
+      </c>
+      <c r="AD238">
+        <v>8</v>
+      </c>
+      <c r="AE238">
+        <v>1.33</v>
+      </c>
+      <c r="AF238">
+        <v>3</v>
+      </c>
+      <c r="AG238">
+        <v>2.16</v>
+      </c>
+      <c r="AH238">
+        <v>1.67</v>
+      </c>
+      <c r="AI238">
+        <v>1.83</v>
+      </c>
+      <c r="AJ238">
+        <v>1.85</v>
+      </c>
+      <c r="AK238">
+        <v>1.33</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>1.57</v>
+      </c>
+      <c r="AN238">
+        <v>0.86</v>
+      </c>
+      <c r="AO238">
+        <v>0.71</v>
+      </c>
+      <c r="AP238">
+        <v>0.8</v>
+      </c>
+      <c r="AQ238">
+        <v>0.87</v>
+      </c>
+      <c r="AR238">
+        <v>1.35</v>
+      </c>
+      <c r="AS238">
+        <v>1.42</v>
+      </c>
+      <c r="AT238">
+        <v>2.77</v>
+      </c>
+      <c r="AU238">
+        <v>8</v>
+      </c>
+      <c r="AV238">
+        <v>4</v>
+      </c>
+      <c r="AW238">
+        <v>14</v>
+      </c>
+      <c r="AX238">
+        <v>0</v>
+      </c>
+      <c r="AY238">
+        <v>22</v>
+      </c>
+      <c r="AZ238">
+        <v>4</v>
+      </c>
+      <c r="BA238">
+        <v>7</v>
+      </c>
+      <c r="BB238">
+        <v>2</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.74</v>
+      </c>
+      <c r="BE238">
+        <v>6.2</v>
+      </c>
+      <c r="BF238">
+        <v>2.29</v>
+      </c>
+      <c r="BG238">
+        <v>1.35</v>
+      </c>
+      <c r="BH238">
+        <v>2.75</v>
+      </c>
+      <c r="BI238">
+        <v>1.74</v>
+      </c>
+      <c r="BJ238">
+        <v>2.07</v>
+      </c>
+      <c r="BK238">
+        <v>1.97</v>
+      </c>
+      <c r="BL238">
+        <v>1.74</v>
+      </c>
+      <c r="BM238">
+        <v>2.5</v>
+      </c>
+      <c r="BN238">
+        <v>1.32</v>
+      </c>
+      <c r="BO238">
+        <v>3.3</v>
+      </c>
+      <c r="BP238">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7762827</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>75</v>
+      </c>
+      <c r="H239" t="s">
+        <v>84</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>223</v>
+      </c>
+      <c r="P239" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q239">
+        <v>1.65</v>
+      </c>
+      <c r="R239">
+        <v>2.52</v>
+      </c>
+      <c r="S239">
+        <v>11.2</v>
+      </c>
+      <c r="T239">
+        <v>1.27</v>
+      </c>
+      <c r="U239">
+        <v>3.2</v>
+      </c>
+      <c r="V239">
+        <v>2.4</v>
+      </c>
+      <c r="W239">
+        <v>1.5</v>
+      </c>
+      <c r="X239">
+        <v>5.5</v>
+      </c>
+      <c r="Y239">
+        <v>1.12</v>
+      </c>
+      <c r="Z239">
+        <v>1.22</v>
+      </c>
+      <c r="AA239">
+        <v>5.5</v>
+      </c>
+      <c r="AB239">
+        <v>14</v>
+      </c>
+      <c r="AC239">
+        <v>1.01</v>
+      </c>
+      <c r="AD239">
+        <v>12</v>
+      </c>
+      <c r="AE239">
+        <v>1.18</v>
+      </c>
+      <c r="AF239">
+        <v>3.6</v>
+      </c>
+      <c r="AG239">
+        <v>1.8</v>
+      </c>
+      <c r="AH239">
+        <v>2.05</v>
+      </c>
+      <c r="AI239">
+        <v>2.35</v>
+      </c>
+      <c r="AJ239">
+        <v>1.55</v>
+      </c>
+      <c r="AK239">
+        <v>1.12</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>3.9</v>
+      </c>
+      <c r="AN239">
+        <v>2.71</v>
+      </c>
+      <c r="AO239">
+        <v>1.36</v>
+      </c>
+      <c r="AP239">
+        <v>2.73</v>
+      </c>
+      <c r="AQ239">
+        <v>1.27</v>
+      </c>
+      <c r="AR239">
+        <v>1.86</v>
+      </c>
+      <c r="AS239">
+        <v>1.13</v>
+      </c>
+      <c r="AT239">
+        <v>2.99</v>
+      </c>
+      <c r="AU239">
+        <v>9</v>
+      </c>
+      <c r="AV239">
+        <v>3</v>
+      </c>
+      <c r="AW239">
+        <v>10</v>
+      </c>
+      <c r="AX239">
+        <v>2</v>
+      </c>
+      <c r="AY239">
+        <v>19</v>
+      </c>
+      <c r="AZ239">
+        <v>5</v>
+      </c>
+      <c r="BA239">
+        <v>10</v>
+      </c>
+      <c r="BB239">
+        <v>1</v>
+      </c>
+      <c r="BC239">
+        <v>11</v>
+      </c>
+      <c r="BD239">
+        <v>1.24</v>
+      </c>
+      <c r="BE239">
+        <v>7.5</v>
+      </c>
+      <c r="BF239">
+        <v>4.35</v>
+      </c>
+      <c r="BG239">
+        <v>1.43</v>
+      </c>
+      <c r="BH239">
+        <v>2.6</v>
+      </c>
+      <c r="BI239">
+        <v>1.72</v>
+      </c>
+      <c r="BJ239">
+        <v>1.98</v>
+      </c>
+      <c r="BK239">
+        <v>2.15</v>
+      </c>
+      <c r="BL239">
+        <v>1.61</v>
+      </c>
+      <c r="BM239">
+        <v>2.7</v>
+      </c>
+      <c r="BN239">
+        <v>1.38</v>
+      </c>
+      <c r="BO239">
+        <v>3.55</v>
+      </c>
+      <c r="BP239">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -999,6 +999,9 @@
   <si>
     <t>['76']</t>
   </si>
+  <si>
+    <t>['4', '26', '45+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1359,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP239"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2317,7 +2320,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ5">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3138,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ9">
         <v>1.47</v>
@@ -3759,7 +3762,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3962,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
         <v>1.27</v>
@@ -4995,7 +4998,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -6437,7 +6440,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ25">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -7052,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ28">
         <v>0.93</v>
@@ -8085,7 +8088,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ33">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -9321,7 +9324,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9936,7 +9939,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
         <v>0.87</v>
@@ -10348,7 +10351,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ44">
         <v>1.07</v>
@@ -11381,7 +11384,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ49">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -12411,7 +12414,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>1.14</v>
@@ -12820,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ56">
         <v>0.87</v>
@@ -13438,10 +13441,10 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -15089,7 +15092,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ67">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -15910,7 +15913,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16119,7 +16122,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ72">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR72">
         <v>1.09</v>
@@ -16940,7 +16943,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
         <v>1.6</v>
@@ -17558,7 +17561,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ79">
         <v>1.27</v>
@@ -18591,7 +18594,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.5</v>
@@ -20445,7 +20448,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ93">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -20648,7 +20651,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ94">
         <v>2.33</v>
@@ -20854,7 +20857,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ95">
         <v>1.27</v>
@@ -23532,7 +23535,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>1.47</v>
@@ -23741,7 +23744,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ109">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23947,7 +23950,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ110">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -24150,7 +24153,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ111">
         <v>1.6</v>
@@ -24356,7 +24359,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
         <v>1.4</v>
@@ -26213,7 +26216,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ121">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -27240,7 +27243,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>1.8</v>
@@ -28064,7 +28067,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ130">
         <v>1.8</v>
@@ -28479,7 +28482,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -29506,7 +29509,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -30745,7 +30748,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ143">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31981,7 +31984,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.37</v>
@@ -33214,7 +33217,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ155">
         <v>0.33</v>
@@ -33832,7 +33835,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
         <v>0.93</v>
@@ -34041,7 +34044,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR159">
         <v>1.57</v>
@@ -35277,7 +35280,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ165">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.02</v>
@@ -36304,7 +36307,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ170">
         <v>0.33</v>
@@ -36513,7 +36516,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -37746,7 +37749,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ177">
         <v>0.73</v>
@@ -38573,7 +38576,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ181">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR181">
         <v>2.15</v>
@@ -39806,7 +39809,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ187">
         <v>1.07</v>
@@ -41042,10 +41045,10 @@
         <v>0.27</v>
       </c>
       <c r="AP193">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ193">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR193">
         <v>1.03</v>
@@ -42693,7 +42696,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ201">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -43105,7 +43108,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ203">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -43308,7 +43311,7 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ204">
         <v>0.73</v>
@@ -43720,7 +43723,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ206">
         <v>1.4</v>
@@ -46607,7 +46610,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ220">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR220">
         <v>1.2</v>
@@ -47019,7 +47022,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ222">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR222">
         <v>1.61</v>
@@ -47222,7 +47225,7 @@
         <v>1.23</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ223">
         <v>1.27</v>
@@ -47634,7 +47637,7 @@
         <v>2.23</v>
       </c>
       <c r="AP225">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ225">
         <v>2.33</v>
@@ -50533,19 +50536,19 @@
         <v>2.99</v>
       </c>
       <c r="AU239">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV239">
         <v>3</v>
       </c>
       <c r="AW239">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX239">
         <v>2</v>
       </c>
       <c r="AY239">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ239">
         <v>5</v>
@@ -50597,6 +50600,418 @@
       </c>
       <c r="BP239">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7762832</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45768.4375</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>77</v>
+      </c>
+      <c r="H240" t="s">
+        <v>79</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>86</v>
+      </c>
+      <c r="P240" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q240">
+        <v>8</v>
+      </c>
+      <c r="R240">
+        <v>2.3</v>
+      </c>
+      <c r="S240">
+        <v>1.86</v>
+      </c>
+      <c r="T240">
+        <v>1.28</v>
+      </c>
+      <c r="U240">
+        <v>3.2</v>
+      </c>
+      <c r="V240">
+        <v>2.4</v>
+      </c>
+      <c r="W240">
+        <v>1.47</v>
+      </c>
+      <c r="X240">
+        <v>5.2</v>
+      </c>
+      <c r="Y240">
+        <v>1.11</v>
+      </c>
+      <c r="Z240">
+        <v>7</v>
+      </c>
+      <c r="AA240">
+        <v>4.6</v>
+      </c>
+      <c r="AB240">
+        <v>1.32</v>
+      </c>
+      <c r="AC240">
+        <v>1.03</v>
+      </c>
+      <c r="AD240">
+        <v>11</v>
+      </c>
+      <c r="AE240">
+        <v>1.21</v>
+      </c>
+      <c r="AF240">
+        <v>3.8</v>
+      </c>
+      <c r="AG240">
+        <v>1.82</v>
+      </c>
+      <c r="AH240">
+        <v>1.95</v>
+      </c>
+      <c r="AI240">
+        <v>2.05</v>
+      </c>
+      <c r="AJ240">
+        <v>1.75</v>
+      </c>
+      <c r="AK240">
+        <v>1.2</v>
+      </c>
+      <c r="AL240">
+        <v>1.12</v>
+      </c>
+      <c r="AM240">
+        <v>1.06</v>
+      </c>
+      <c r="AN240">
+        <v>1</v>
+      </c>
+      <c r="AO240">
+        <v>1.93</v>
+      </c>
+      <c r="AP240">
+        <v>0.93</v>
+      </c>
+      <c r="AQ240">
+        <v>2</v>
+      </c>
+      <c r="AR240">
+        <v>1.1</v>
+      </c>
+      <c r="AS240">
+        <v>1.72</v>
+      </c>
+      <c r="AT240">
+        <v>2.82</v>
+      </c>
+      <c r="AU240">
+        <v>0</v>
+      </c>
+      <c r="AV240">
+        <v>14</v>
+      </c>
+      <c r="AW240">
+        <v>2</v>
+      </c>
+      <c r="AX240">
+        <v>7</v>
+      </c>
+      <c r="AY240">
+        <v>2</v>
+      </c>
+      <c r="AZ240">
+        <v>21</v>
+      </c>
+      <c r="BA240">
+        <v>1</v>
+      </c>
+      <c r="BB240">
+        <v>13</v>
+      </c>
+      <c r="BC240">
+        <v>14</v>
+      </c>
+      <c r="BD240">
+        <v>6.54</v>
+      </c>
+      <c r="BE240">
+        <v>7.5</v>
+      </c>
+      <c r="BF240">
+        <v>1.3</v>
+      </c>
+      <c r="BG240">
+        <v>1.29</v>
+      </c>
+      <c r="BH240">
+        <v>3.15</v>
+      </c>
+      <c r="BI240">
+        <v>1.43</v>
+      </c>
+      <c r="BJ240">
+        <v>2.62</v>
+      </c>
+      <c r="BK240">
+        <v>1.9</v>
+      </c>
+      <c r="BL240">
+        <v>2.06</v>
+      </c>
+      <c r="BM240">
+        <v>2.25</v>
+      </c>
+      <c r="BN240">
+        <v>1.68</v>
+      </c>
+      <c r="BO240">
+        <v>2.67</v>
+      </c>
+      <c r="BP240">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7762826</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45768.54166666666</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>81</v>
+      </c>
+      <c r="H241" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>3</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>3</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>98</v>
+      </c>
+      <c r="P241" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q241">
+        <v>1.84</v>
+      </c>
+      <c r="R241">
+        <v>2.4</v>
+      </c>
+      <c r="S241">
+        <v>6.25</v>
+      </c>
+      <c r="T241">
+        <v>1.3</v>
+      </c>
+      <c r="U241">
+        <v>3.2</v>
+      </c>
+      <c r="V241">
+        <v>2.47</v>
+      </c>
+      <c r="W241">
+        <v>1.48</v>
+      </c>
+      <c r="X241">
+        <v>5.5</v>
+      </c>
+      <c r="Y241">
+        <v>1.11</v>
+      </c>
+      <c r="Z241">
+        <v>1.35</v>
+      </c>
+      <c r="AA241">
+        <v>4.5</v>
+      </c>
+      <c r="AB241">
+        <v>8</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <v>1.22</v>
+      </c>
+      <c r="AF241">
+        <v>3.96</v>
+      </c>
+      <c r="AG241">
+        <v>1.77</v>
+      </c>
+      <c r="AH241">
+        <v>2.1</v>
+      </c>
+      <c r="AI241">
+        <v>1.9</v>
+      </c>
+      <c r="AJ241">
+        <v>1.83</v>
+      </c>
+      <c r="AK241">
+        <v>1.17</v>
+      </c>
+      <c r="AL241">
+        <v>1.17</v>
+      </c>
+      <c r="AM241">
+        <v>2.73</v>
+      </c>
+      <c r="AN241">
+        <v>1.21</v>
+      </c>
+      <c r="AO241">
+        <v>0.21</v>
+      </c>
+      <c r="AP241">
+        <v>1.13</v>
+      </c>
+      <c r="AQ241">
+        <v>0.4</v>
+      </c>
+      <c r="AR241">
+        <v>1.77</v>
+      </c>
+      <c r="AS241">
+        <v>1.05</v>
+      </c>
+      <c r="AT241">
+        <v>2.82</v>
+      </c>
+      <c r="AU241">
+        <v>10</v>
+      </c>
+      <c r="AV241">
+        <v>5</v>
+      </c>
+      <c r="AW241">
+        <v>10</v>
+      </c>
+      <c r="AX241">
+        <v>4</v>
+      </c>
+      <c r="AY241">
+        <v>20</v>
+      </c>
+      <c r="AZ241">
+        <v>9</v>
+      </c>
+      <c r="BA241">
+        <v>10</v>
+      </c>
+      <c r="BB241">
+        <v>4</v>
+      </c>
+      <c r="BC241">
+        <v>14</v>
+      </c>
+      <c r="BD241">
+        <v>1.32</v>
+      </c>
+      <c r="BE241">
+        <v>7.5</v>
+      </c>
+      <c r="BF241">
+        <v>4.46</v>
+      </c>
+      <c r="BG241">
+        <v>1.34</v>
+      </c>
+      <c r="BH241">
+        <v>2.95</v>
+      </c>
+      <c r="BI241">
+        <v>1.58</v>
+      </c>
+      <c r="BJ241">
+        <v>2.67</v>
+      </c>
+      <c r="BK241">
+        <v>1.95</v>
+      </c>
+      <c r="BL241">
+        <v>1.99</v>
+      </c>
+      <c r="BM241">
+        <v>2.2</v>
+      </c>
+      <c r="BN241">
+        <v>1.61</v>
+      </c>
+      <c r="BO241">
+        <v>2.78</v>
+      </c>
+      <c r="BP241">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -50649,7 +50649,7 @@
         <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Q240">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,12 @@
     <t>['9', '88']</t>
   </si>
   <si>
+    <t>['8', '14', '26']</t>
+  </si>
+  <si>
+    <t>['2', '25', '38']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1001,6 +1007,9 @@
   </si>
   <si>
     <t>['4', '26', '45+2']</t>
+  </si>
+  <si>
+    <t>['24', '37']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2239,7 +2248,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2317,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2445,7 +2454,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2857,7 +2866,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3350,7 +3359,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ10">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3762,7 +3771,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3887,7 +3896,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4093,7 +4102,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4917,7 +4926,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5329,7 +5338,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5535,7 +5544,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5613,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ21">
         <v>1.8</v>
@@ -5741,7 +5750,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5947,7 +5956,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6153,7 +6162,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6231,7 +6240,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.27</v>
@@ -6359,7 +6368,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6440,7 +6449,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6565,7 +6574,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6852,7 +6861,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7183,7 +7192,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7595,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7801,7 +7810,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8291,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ34">
         <v>1.13</v>
@@ -8831,7 +8840,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9115,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ38">
         <v>0.33</v>
@@ -9324,7 +9333,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -10067,7 +10076,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10273,7 +10282,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10560,7 +10569,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR45">
         <v>2.07</v>
@@ -10685,7 +10694,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10763,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.27</v>
@@ -10891,7 +10900,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11715,7 +11724,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12333,7 +12342,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12414,7 +12423,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR54">
         <v>1.14</v>
@@ -12745,7 +12754,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12951,7 +12960,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13157,7 +13166,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13363,7 +13372,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13569,7 +13578,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13775,7 +13784,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13853,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -14059,7 +14068,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>2.33</v>
@@ -14187,7 +14196,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14393,7 +14402,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15011,7 +15020,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15089,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15217,7 +15226,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15835,7 +15844,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16119,10 +16128,10 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ72">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR72">
         <v>1.09</v>
@@ -16453,7 +16462,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16534,7 +16543,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ74">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
         <v>1.27</v>
@@ -17071,7 +17080,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17277,7 +17286,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17483,7 +17492,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17689,7 +17698,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17895,7 +17904,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18179,7 +18188,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1.8</v>
@@ -18307,7 +18316,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18925,7 +18934,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19827,10 +19836,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>1.18</v>
@@ -20448,7 +20457,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ93">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -20573,7 +20582,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20779,7 +20788,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21191,7 +21200,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21269,7 +21278,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>0.93</v>
@@ -22015,7 +22024,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22302,7 +22311,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR102">
         <v>0.91</v>
@@ -22633,7 +22642,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22839,7 +22848,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22917,7 +22926,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ105">
         <v>1.27</v>
@@ -23045,7 +23054,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23457,7 +23466,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23744,7 +23753,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ109">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23869,7 +23878,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24281,7 +24290,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24977,7 +24986,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.07</v>
@@ -25105,7 +25114,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25311,7 +25320,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25517,7 +25526,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25723,7 +25732,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25804,7 +25813,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ119">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR119">
         <v>2</v>
@@ -25929,7 +25938,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26216,7 +26225,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ121">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26341,7 +26350,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27165,7 +27174,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27371,7 +27380,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27577,7 +27586,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27655,10 +27664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27783,7 +27792,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27989,7 +27998,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28195,7 +28204,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28273,7 +28282,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
         <v>1.47</v>
@@ -28401,7 +28410,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -30049,7 +30058,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30255,7 +30264,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30461,7 +30470,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30667,7 +30676,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30745,10 +30754,10 @@
         <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -30954,7 +30963,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31079,7 +31088,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31285,7 +31294,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31491,7 +31500,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31697,7 +31706,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31775,7 +31784,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ148">
         <v>1.27</v>
@@ -31903,7 +31912,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32315,7 +32324,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32521,7 +32530,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32727,7 +32736,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33139,7 +33148,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33345,7 +33354,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33629,7 +33638,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.4</v>
@@ -33757,7 +33766,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34044,7 +34053,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR159">
         <v>1.57</v>
@@ -34456,7 +34465,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR161">
         <v>1.48</v>
@@ -34581,7 +34590,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34787,7 +34796,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35199,7 +35208,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36101,7 +36110,7 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
         <v>1.13</v>
@@ -36516,7 +36525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -37053,7 +37062,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37259,7 +37268,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37465,7 +37474,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37543,7 +37552,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ176">
         <v>1.07</v>
@@ -37752,7 +37761,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ177">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
         <v>1.06</v>
@@ -37877,7 +37886,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38289,7 +38298,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38495,7 +38504,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38701,7 +38710,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39113,7 +39122,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39191,7 +39200,7 @@
         <v>1.91</v>
       </c>
       <c r="AP184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.6</v>
@@ -39606,7 +39615,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR186">
         <v>1.29</v>
@@ -39731,7 +39740,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39937,7 +39946,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40143,7 +40152,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40555,7 +40564,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40761,7 +40770,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40839,7 +40848,7 @@
         <v>2.36</v>
       </c>
       <c r="AP192">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ192">
         <v>2.33</v>
@@ -41048,7 +41057,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ193">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR193">
         <v>1.03</v>
@@ -41173,7 +41182,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41251,7 +41260,7 @@
         <v>1.67</v>
       </c>
       <c r="AP194">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ194">
         <v>1.47</v>
@@ -41585,7 +41594,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41997,7 +42006,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42203,7 +42212,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42409,7 +42418,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42899,7 +42908,7 @@
         <v>1.33</v>
       </c>
       <c r="AP202">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ202">
         <v>1.27</v>
@@ -43108,7 +43117,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ203">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -43233,7 +43242,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43314,7 +43323,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ204">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -43645,7 +43654,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43851,7 +43860,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44675,7 +44684,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44753,7 +44762,7 @@
         <v>1.23</v>
       </c>
       <c r="AP211">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.27</v>
@@ -45786,7 +45795,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ216">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR216">
         <v>1.87</v>
@@ -46323,7 +46332,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46610,7 +46619,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ220">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR220">
         <v>1.2</v>
@@ -46735,7 +46744,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46813,7 +46822,7 @@
         <v>0.77</v>
       </c>
       <c r="AP221">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ221">
         <v>0.87</v>
@@ -46941,7 +46950,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47147,7 +47156,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47353,7 +47362,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47559,7 +47568,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47846,7 +47855,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ226">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR226">
         <v>1.58</v>
@@ -48795,7 +48804,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49001,7 +49010,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49079,7 +49088,7 @@
         <v>0.36</v>
       </c>
       <c r="AP232">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ232">
         <v>0.33</v>
@@ -49207,7 +49216,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49413,7 +49422,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49491,7 +49500,7 @@
         <v>1.64</v>
       </c>
       <c r="AP234">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ234">
         <v>1.6</v>
@@ -50031,7 +50040,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50237,7 +50246,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50443,7 +50452,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50855,7 +50864,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -50936,7 +50945,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ241">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51012,6 +51021,418 @@
       </c>
       <c r="BP241">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7885806</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242" t="s">
+        <v>85</v>
+      </c>
+      <c r="H242" t="s">
+        <v>76</v>
+      </c>
+      <c r="I242">
+        <v>3</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242">
+        <v>5</v>
+      </c>
+      <c r="L242">
+        <v>3</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242" t="s">
+        <v>224</v>
+      </c>
+      <c r="P242" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q242">
+        <v>2.15</v>
+      </c>
+      <c r="R242">
+        <v>2.12</v>
+      </c>
+      <c r="S242">
+        <v>5.8</v>
+      </c>
+      <c r="T242">
+        <v>1.35</v>
+      </c>
+      <c r="U242">
+        <v>2.8</v>
+      </c>
+      <c r="V242">
+        <v>2.88</v>
+      </c>
+      <c r="W242">
+        <v>1.39</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.07</v>
+      </c>
+      <c r="Z242">
+        <v>1.58</v>
+      </c>
+      <c r="AA242">
+        <v>3.96</v>
+      </c>
+      <c r="AB242">
+        <v>5.4</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9</v>
+      </c>
+      <c r="AE242">
+        <v>1.25</v>
+      </c>
+      <c r="AF242">
+        <v>3.5</v>
+      </c>
+      <c r="AG242">
+        <v>1.82</v>
+      </c>
+      <c r="AH242">
+        <v>1.92</v>
+      </c>
+      <c r="AI242">
+        <v>2</v>
+      </c>
+      <c r="AJ242">
+        <v>1.75</v>
+      </c>
+      <c r="AK242">
+        <v>1.1</v>
+      </c>
+      <c r="AL242">
+        <v>0</v>
+      </c>
+      <c r="AM242">
+        <v>2.37</v>
+      </c>
+      <c r="AN242">
+        <v>1.4</v>
+      </c>
+      <c r="AO242">
+        <v>0.57</v>
+      </c>
+      <c r="AP242">
+        <v>1.45</v>
+      </c>
+      <c r="AQ242">
+        <v>0.55</v>
+      </c>
+      <c r="AR242">
+        <v>1.42</v>
+      </c>
+      <c r="AS242">
+        <v>1.11</v>
+      </c>
+      <c r="AT242">
+        <v>2.53</v>
+      </c>
+      <c r="AU242">
+        <v>4</v>
+      </c>
+      <c r="AV242">
+        <v>4</v>
+      </c>
+      <c r="AW242">
+        <v>0</v>
+      </c>
+      <c r="AX242">
+        <v>2</v>
+      </c>
+      <c r="AY242">
+        <v>4</v>
+      </c>
+      <c r="AZ242">
+        <v>6</v>
+      </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>3</v>
+      </c>
+      <c r="BC242">
+        <v>5</v>
+      </c>
+      <c r="BD242">
+        <v>1.45</v>
+      </c>
+      <c r="BE242">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF242">
+        <v>3.08</v>
+      </c>
+      <c r="BG242">
+        <v>1.35</v>
+      </c>
+      <c r="BH242">
+        <v>2.9</v>
+      </c>
+      <c r="BI242">
+        <v>1.46</v>
+      </c>
+      <c r="BJ242">
+        <v>2.52</v>
+      </c>
+      <c r="BK242">
+        <v>1.77</v>
+      </c>
+      <c r="BL242">
+        <v>1.98</v>
+      </c>
+      <c r="BM242">
+        <v>2.24</v>
+      </c>
+      <c r="BN242">
+        <v>1.61</v>
+      </c>
+      <c r="BO242">
+        <v>2.8</v>
+      </c>
+      <c r="BP242">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7885807</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45772.58333333334</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>73</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>3</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>225</v>
+      </c>
+      <c r="P243" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q243">
+        <v>2.48</v>
+      </c>
+      <c r="R243">
+        <v>1.98</v>
+      </c>
+      <c r="S243">
+        <v>5.2</v>
+      </c>
+      <c r="T243">
+        <v>1.53</v>
+      </c>
+      <c r="U243">
+        <v>2.32</v>
+      </c>
+      <c r="V243">
+        <v>3.4</v>
+      </c>
+      <c r="W243">
+        <v>1.24</v>
+      </c>
+      <c r="X243">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y243">
+        <v>1.03</v>
+      </c>
+      <c r="Z243">
+        <v>1.65</v>
+      </c>
+      <c r="AA243">
+        <v>3.61</v>
+      </c>
+      <c r="AB243">
+        <v>5.4</v>
+      </c>
+      <c r="AC243">
+        <v>1.02</v>
+      </c>
+      <c r="AD243">
+        <v>6.5</v>
+      </c>
+      <c r="AE243">
+        <v>1.46</v>
+      </c>
+      <c r="AF243">
+        <v>2.74</v>
+      </c>
+      <c r="AG243">
+        <v>2.35</v>
+      </c>
+      <c r="AH243">
+        <v>1.57</v>
+      </c>
+      <c r="AI243">
+        <v>2.32</v>
+      </c>
+      <c r="AJ243">
+        <v>1.55</v>
+      </c>
+      <c r="AK243">
+        <v>1.17</v>
+      </c>
+      <c r="AL243">
+        <v>0</v>
+      </c>
+      <c r="AM243">
+        <v>2.05</v>
+      </c>
+      <c r="AN243">
+        <v>1</v>
+      </c>
+      <c r="AO243">
+        <v>1</v>
+      </c>
+      <c r="AP243">
+        <v>1.06</v>
+      </c>
+      <c r="AQ243">
+        <v>0.97</v>
+      </c>
+      <c r="AR243">
+        <v>1.3</v>
+      </c>
+      <c r="AS243">
+        <v>1.06</v>
+      </c>
+      <c r="AT243">
+        <v>2.36</v>
+      </c>
+      <c r="AU243">
+        <v>7</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
+        <v>4</v>
+      </c>
+      <c r="AX243">
+        <v>2</v>
+      </c>
+      <c r="AY243">
+        <v>11</v>
+      </c>
+      <c r="AZ243">
+        <v>5</v>
+      </c>
+      <c r="BA243">
+        <v>7</v>
+      </c>
+      <c r="BB243">
+        <v>1</v>
+      </c>
+      <c r="BC243">
+        <v>8</v>
+      </c>
+      <c r="BD243">
+        <v>1.48</v>
+      </c>
+      <c r="BE243">
+        <v>8</v>
+      </c>
+      <c r="BF243">
+        <v>2.95</v>
+      </c>
+      <c r="BG243">
+        <v>1.46</v>
+      </c>
+      <c r="BH243">
+        <v>2.5</v>
+      </c>
+      <c r="BI243">
+        <v>1.76</v>
+      </c>
+      <c r="BJ243">
+        <v>2.13</v>
+      </c>
+      <c r="BK243">
+        <v>2.42</v>
+      </c>
+      <c r="BL243">
+        <v>1.7</v>
+      </c>
+      <c r="BM243">
+        <v>2.63</v>
+      </c>
+      <c r="BN243">
+        <v>1.37</v>
+      </c>
+      <c r="BO243">
+        <v>3.5</v>
+      </c>
+      <c r="BP243">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1371,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2741,7 +2741,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5210,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ30">
         <v>1.27</v>
@@ -9539,7 +9539,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -11390,7 +11390,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -13865,7 +13865,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.06</v>
@@ -15304,7 +15304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -16749,7 +16749,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -19012,7 +19012,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ86">
         <v>0.93</v>
@@ -20045,7 +20045,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ91">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.91</v>
@@ -21072,7 +21072,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ96">
         <v>1.07</v>
@@ -23135,7 +23135,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -24371,7 +24371,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.48</v>
@@ -26016,7 +26016,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ120">
         <v>2.33</v>
@@ -26222,7 +26222,7 @@
         <v>0.29</v>
       </c>
       <c r="AP121">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ121">
         <v>0.38</v>
@@ -27870,7 +27870,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -28697,7 +28697,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>0.99</v>
@@ -32608,7 +32608,7 @@
         <v>0.44</v>
       </c>
       <c r="AP152">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ152">
         <v>0.87</v>
@@ -33641,7 +33641,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -35080,7 +35080,7 @@
         <v>2.1</v>
       </c>
       <c r="AP164">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
         <v>1.6</v>
@@ -37143,7 +37143,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ174">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -38376,7 +38376,7 @@
         <v>1.55</v>
       </c>
       <c r="AP180">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
         <v>1.47</v>
@@ -40027,7 +40027,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ188">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -42290,7 +42290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ199">
         <v>1.27</v>
@@ -43735,7 +43735,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ206">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -44556,7 +44556,7 @@
         <v>0.38</v>
       </c>
       <c r="AP210">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ210">
         <v>0.33</v>
@@ -46413,7 +46413,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ219">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -47852,7 +47852,7 @@
         <v>0.79</v>
       </c>
       <c r="AP226">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ226">
         <v>0.6899999999999999</v>
@@ -49915,7 +49915,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ236">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR236">
         <v>1.19</v>
@@ -51433,6 +51433,212 @@
       </c>
       <c r="BP243">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7885804</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45773.47916666666</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>84</v>
+      </c>
+      <c r="H244" t="s">
+        <v>80</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
+        <v>86</v>
+      </c>
+      <c r="P244" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q244">
+        <v>5</v>
+      </c>
+      <c r="R244">
+        <v>2.35</v>
+      </c>
+      <c r="S244">
+        <v>2.1</v>
+      </c>
+      <c r="T244">
+        <v>1.42</v>
+      </c>
+      <c r="U244">
+        <v>2.8</v>
+      </c>
+      <c r="V244">
+        <v>2.59</v>
+      </c>
+      <c r="W244">
+        <v>1.45</v>
+      </c>
+      <c r="X244">
+        <v>7.75</v>
+      </c>
+      <c r="Y244">
+        <v>1.07</v>
+      </c>
+      <c r="Z244">
+        <v>4.5</v>
+      </c>
+      <c r="AA244">
+        <v>3.7</v>
+      </c>
+      <c r="AB244">
+        <v>1.6</v>
+      </c>
+      <c r="AC244">
+        <v>1.02</v>
+      </c>
+      <c r="AD244">
+        <v>11.5</v>
+      </c>
+      <c r="AE244">
+        <v>1.33</v>
+      </c>
+      <c r="AF244">
+        <v>3</v>
+      </c>
+      <c r="AG244">
+        <v>1.98</v>
+      </c>
+      <c r="AH244">
+        <v>1.72</v>
+      </c>
+      <c r="AI244">
+        <v>2</v>
+      </c>
+      <c r="AJ244">
+        <v>1.72</v>
+      </c>
+      <c r="AK244">
+        <v>1.25</v>
+      </c>
+      <c r="AL244">
+        <v>0</v>
+      </c>
+      <c r="AM244">
+        <v>1.16</v>
+      </c>
+      <c r="AN244">
+        <v>1.6</v>
+      </c>
+      <c r="AO244">
+        <v>1.57</v>
+      </c>
+      <c r="AP244">
+        <v>1.55</v>
+      </c>
+      <c r="AQ244">
+        <v>1.61</v>
+      </c>
+      <c r="AR244">
+        <v>1.33</v>
+      </c>
+      <c r="AS244">
+        <v>1.93</v>
+      </c>
+      <c r="AT244">
+        <v>3.26</v>
+      </c>
+      <c r="AU244">
+        <v>5</v>
+      </c>
+      <c r="AV244">
+        <v>6</v>
+      </c>
+      <c r="AW244">
+        <v>4</v>
+      </c>
+      <c r="AX244">
+        <v>2</v>
+      </c>
+      <c r="AY244">
+        <v>9</v>
+      </c>
+      <c r="AZ244">
+        <v>8</v>
+      </c>
+      <c r="BA244">
+        <v>7</v>
+      </c>
+      <c r="BB244">
+        <v>4</v>
+      </c>
+      <c r="BC244">
+        <v>11</v>
+      </c>
+      <c r="BD244">
+        <v>4.06</v>
+      </c>
+      <c r="BE244">
+        <v>9</v>
+      </c>
+      <c r="BF244">
+        <v>1.49</v>
+      </c>
+      <c r="BG244">
+        <v>1.3</v>
+      </c>
+      <c r="BH244">
+        <v>3.15</v>
+      </c>
+      <c r="BI244">
+        <v>1.52</v>
+      </c>
+      <c r="BJ244">
+        <v>2.36</v>
+      </c>
+      <c r="BK244">
+        <v>2.11</v>
+      </c>
+      <c r="BL244">
+        <v>1.87</v>
+      </c>
+      <c r="BM244">
+        <v>2.28</v>
+      </c>
+      <c r="BN244">
+        <v>1.54</v>
+      </c>
+      <c r="BO244">
+        <v>3.07</v>
+      </c>
+      <c r="BP244">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['2', '25', '38']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1371,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2123,7 +2126,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ4">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2248,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2454,7 +2457,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2866,7 +2869,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3562,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3896,7 +3899,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4102,7 +4105,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4926,7 +4929,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5338,7 +5341,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5419,7 +5422,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ20">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5544,7 +5547,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5750,7 +5753,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5956,7 +5959,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6162,7 +6165,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6368,7 +6371,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6574,7 +6577,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6858,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ27">
         <v>0.6899999999999999</v>
@@ -7192,7 +7195,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7479,7 +7482,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7604,7 +7607,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7810,7 +7813,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8840,7 +8843,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9330,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>0.38</v>
@@ -10076,7 +10079,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10282,7 +10285,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10694,7 +10697,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10775,7 +10778,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.81</v>
@@ -10900,7 +10903,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11724,7 +11727,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12342,7 +12345,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12754,7 +12757,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12960,7 +12963,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13166,7 +13169,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13247,7 +13250,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13372,7 +13375,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13578,7 +13581,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13784,7 +13787,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14196,7 +14199,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14402,7 +14405,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15020,7 +15023,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15226,7 +15229,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15844,7 +15847,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16462,7 +16465,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17080,7 +17083,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17158,10 +17161,10 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17286,7 +17289,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17492,7 +17495,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17698,7 +17701,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17904,7 +17907,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18316,7 +18319,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18934,7 +18937,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20042,7 +20045,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20582,7 +20585,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20788,7 +20791,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20869,7 +20872,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21200,7 +21203,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -22024,7 +22027,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22102,7 +22105,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ101">
         <v>1.47</v>
@@ -22642,7 +22645,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22848,7 +22851,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22929,7 +22932,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23054,7 +23057,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23466,7 +23469,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23878,7 +23881,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24290,7 +24293,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25114,7 +25117,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25320,7 +25323,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25398,7 +25401,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>1.27</v>
@@ -25526,7 +25529,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25732,7 +25735,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25938,7 +25941,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26350,7 +26353,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26840,7 +26843,7 @@
         <v>0.71</v>
       </c>
       <c r="AP124">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ124">
         <v>0.93</v>
@@ -27174,7 +27177,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27380,7 +27383,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27586,7 +27589,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27792,7 +27795,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27998,7 +28001,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28204,7 +28207,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28410,7 +28413,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29109,7 +29112,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ135">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -30058,7 +30061,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30264,7 +30267,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30470,7 +30473,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30548,7 +30551,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -30676,7 +30679,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31088,7 +31091,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31294,7 +31297,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31500,7 +31503,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31706,7 +31709,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31912,7 +31915,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32324,7 +32327,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32405,7 +32408,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR151">
         <v>0.99</v>
@@ -32530,7 +32533,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32736,7 +32739,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33148,7 +33151,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33354,7 +33357,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33766,7 +33769,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34256,7 +34259,7 @@
         <v>2.78</v>
       </c>
       <c r="AP160">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ160">
         <v>2.33</v>
@@ -34590,7 +34593,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34796,7 +34799,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35208,7 +35211,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35907,7 +35910,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ168">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>2.21</v>
@@ -36728,7 +36731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -37062,7 +37065,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37268,7 +37271,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37474,7 +37477,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37886,7 +37889,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38298,7 +38301,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38504,7 +38507,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38710,7 +38713,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39122,7 +39125,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39740,7 +39743,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39946,7 +39949,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40152,7 +40155,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40439,7 +40442,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ190">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR190">
         <v>1.56</v>
@@ -40564,7 +40567,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40642,7 +40645,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ191">
         <v>0.87</v>
@@ -40770,7 +40773,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41182,7 +41185,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41594,7 +41597,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42006,7 +42009,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42212,7 +42215,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42418,7 +42421,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43242,7 +43245,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43654,7 +43657,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43860,7 +43863,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -43941,7 +43944,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ207">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.6</v>
@@ -44350,7 +44353,7 @@
         <v>1.75</v>
       </c>
       <c r="AP209">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ209">
         <v>1.6</v>
@@ -44684,7 +44687,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45998,7 +46001,7 @@
         <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ217">
         <v>1.13</v>
@@ -46332,7 +46335,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46744,7 +46747,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46950,7 +46953,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47156,7 +47159,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47237,7 +47240,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ223">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR223">
         <v>1.07</v>
@@ -47362,7 +47365,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47568,7 +47571,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48804,7 +48807,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48882,7 +48885,7 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ231">
         <v>1.8</v>
@@ -49010,7 +49013,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49216,7 +49219,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49422,7 +49425,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50040,7 +50043,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50121,7 +50124,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ237">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR237">
         <v>1.35</v>
@@ -50246,7 +50249,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50452,7 +50455,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50864,7 +50867,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51070,7 +51073,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51639,6 +51642,212 @@
       </c>
       <c r="BP244">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7884930</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>79</v>
+      </c>
+      <c r="H245" t="s">
+        <v>78</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>226</v>
+      </c>
+      <c r="P245" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q245">
+        <v>2.15</v>
+      </c>
+      <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
+        <v>5.2</v>
+      </c>
+      <c r="T245">
+        <v>1.4</v>
+      </c>
+      <c r="U245">
+        <v>2.6</v>
+      </c>
+      <c r="V245">
+        <v>2.89</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>6.85</v>
+      </c>
+      <c r="Y245">
+        <v>1.06</v>
+      </c>
+      <c r="Z245">
+        <v>1.61</v>
+      </c>
+      <c r="AA245">
+        <v>3.57</v>
+      </c>
+      <c r="AB245">
+        <v>5.9</v>
+      </c>
+      <c r="AC245">
+        <v>1.05</v>
+      </c>
+      <c r="AD245">
+        <v>8.1</v>
+      </c>
+      <c r="AE245">
+        <v>1.34</v>
+      </c>
+      <c r="AF245">
+        <v>3</v>
+      </c>
+      <c r="AG245">
+        <v>2.1</v>
+      </c>
+      <c r="AH245">
+        <v>1.67</v>
+      </c>
+      <c r="AI245">
+        <v>1.87</v>
+      </c>
+      <c r="AJ245">
+        <v>1.58</v>
+      </c>
+      <c r="AK245">
+        <v>1.19</v>
+      </c>
+      <c r="AL245">
+        <v>1.26</v>
+      </c>
+      <c r="AM245">
+        <v>2.35</v>
+      </c>
+      <c r="AN245">
+        <v>2.07</v>
+      </c>
+      <c r="AO245">
+        <v>1.77</v>
+      </c>
+      <c r="AP245">
+        <v>2.03</v>
+      </c>
+      <c r="AQ245">
+        <v>1.74</v>
+      </c>
+      <c r="AR245">
+        <v>1.91</v>
+      </c>
+      <c r="AS245">
+        <v>1.4</v>
+      </c>
+      <c r="AT245">
+        <v>3.31</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>4</v>
+      </c>
+      <c r="AX245">
+        <v>2</v>
+      </c>
+      <c r="AY245">
+        <v>8</v>
+      </c>
+      <c r="AZ245">
+        <v>4</v>
+      </c>
+      <c r="BA245">
+        <v>6</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>7</v>
+      </c>
+      <c r="BD245">
+        <v>1.38</v>
+      </c>
+      <c r="BE245">
+        <v>7</v>
+      </c>
+      <c r="BF245">
+        <v>5.3</v>
+      </c>
+      <c r="BG245">
+        <v>1.35</v>
+      </c>
+      <c r="BH245">
+        <v>2.84</v>
+      </c>
+      <c r="BI245">
+        <v>1.66</v>
+      </c>
+      <c r="BJ245">
+        <v>2.11</v>
+      </c>
+      <c r="BK245">
+        <v>2.09</v>
+      </c>
+      <c r="BL245">
+        <v>1.63</v>
+      </c>
+      <c r="BM245">
+        <v>2.74</v>
+      </c>
+      <c r="BN245">
+        <v>1.35</v>
+      </c>
+      <c r="BO245">
+        <v>3.48</v>
+      </c>
+      <c r="BP245">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['45+3', '68']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2251,7 +2254,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2457,7 +2460,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2869,7 +2872,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3156,7 +3159,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ9">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3899,7 +3902,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4105,7 +4108,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>1.07</v>
@@ -4929,7 +4932,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5341,7 +5344,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5419,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5547,7 +5550,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5628,7 +5631,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5753,7 +5756,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5959,7 +5962,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6040,7 +6043,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ23">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>0.91</v>
@@ -6165,7 +6168,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6371,7 +6374,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6577,7 +6580,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7195,7 +7198,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7607,7 +7610,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7688,7 +7691,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ31">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7813,7 +7816,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8097,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8843,7 +8846,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8924,7 +8927,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR37">
         <v>1.15</v>
@@ -9745,7 +9748,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>1.27</v>
@@ -10079,7 +10082,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10285,7 +10288,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10697,7 +10700,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10903,7 +10906,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11727,7 +11730,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12014,7 +12017,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>0.93</v>
@@ -12217,10 +12220,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ53">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12345,7 +12348,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12757,7 +12760,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12963,7 +12966,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13169,7 +13172,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13375,7 +13378,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13581,7 +13584,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13787,7 +13790,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14199,7 +14202,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14405,7 +14408,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14692,7 +14695,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.93</v>
@@ -14895,7 +14898,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ66">
         <v>0.93</v>
@@ -15023,7 +15026,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15229,7 +15232,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15310,7 +15313,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR68">
         <v>1.26</v>
@@ -15847,7 +15850,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16465,7 +16468,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17083,7 +17086,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17289,7 +17292,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17495,7 +17498,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17701,7 +17704,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17907,7 +17910,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17988,7 +17991,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ81">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18194,7 +18197,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR82">
         <v>1.21</v>
@@ -18319,7 +18322,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18603,7 +18606,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18937,7 +18940,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19221,7 +19224,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87">
         <v>1.07</v>
@@ -20251,7 +20254,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92">
         <v>0.87</v>
@@ -20585,7 +20588,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20791,7 +20794,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21203,7 +21206,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21899,10 +21902,10 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR100">
         <v>1.22</v>
@@ -22027,7 +22030,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22108,7 +22111,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ101">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.85</v>
@@ -22517,7 +22520,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -22645,7 +22648,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22851,7 +22854,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23057,7 +23060,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23469,7 +23472,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23550,7 +23553,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23753,7 +23756,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ109">
         <v>0.38</v>
@@ -23881,7 +23884,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24293,7 +24296,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24783,7 +24786,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>0.93</v>
@@ -25117,7 +25120,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25198,7 +25201,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR116">
         <v>1.24</v>
@@ -25323,7 +25326,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25529,7 +25532,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25735,7 +25738,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25941,7 +25944,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26353,7 +26356,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26637,7 +26640,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123">
         <v>0.33</v>
@@ -27177,7 +27180,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27258,7 +27261,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27383,7 +27386,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27589,7 +27592,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27795,7 +27798,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28001,7 +28004,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28082,7 +28085,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ130">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR130">
         <v>1.03</v>
@@ -28207,7 +28210,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28288,7 +28291,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28413,7 +28416,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29315,7 +29318,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ136">
         <v>0.87</v>
@@ -30061,7 +30064,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30267,7 +30270,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30473,7 +30476,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30679,7 +30682,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30963,7 +30966,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>0.6899999999999999</v>
@@ -31091,7 +31094,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31172,7 +31175,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ145">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.27</v>
@@ -31297,7 +31300,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31378,7 +31381,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ146">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31503,7 +31506,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31709,7 +31712,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31915,7 +31918,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32199,7 +32202,7 @@
         <v>2.33</v>
       </c>
       <c r="AP150">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -32327,7 +32330,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32533,7 +32536,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32739,7 +32742,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32817,7 +32820,7 @@
         <v>2.75</v>
       </c>
       <c r="AP153">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ153">
         <v>2.33</v>
@@ -33151,7 +33154,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33357,7 +33360,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33769,7 +33772,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34053,7 +34056,7 @@
         <v>0.22</v>
       </c>
       <c r="AP159">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
         <v>0.38</v>
@@ -34593,7 +34596,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34799,7 +34802,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34880,7 +34883,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ163">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35211,7 +35214,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35701,10 +35704,10 @@
         <v>1.7</v>
       </c>
       <c r="AP167">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ167">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -37065,7 +37068,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37143,7 +37146,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ174">
         <v>1.5</v>
@@ -37271,7 +37274,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37477,7 +37480,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37889,7 +37892,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38301,7 +38304,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38382,7 +38385,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ180">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR180">
         <v>1.56</v>
@@ -38507,7 +38510,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38713,7 +38716,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -38794,7 +38797,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ182">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR182">
         <v>1.01</v>
@@ -39125,7 +39128,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39409,7 +39412,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ185">
         <v>1.27</v>
@@ -39743,7 +39746,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39949,7 +39952,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40155,7 +40158,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40439,7 +40442,7 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ190">
         <v>1.25</v>
@@ -40567,7 +40570,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40773,7 +40776,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41185,7 +41188,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41266,7 +41269,7 @@
         <v>2</v>
       </c>
       <c r="AQ194">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR194">
         <v>1.45</v>
@@ -41597,7 +41600,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41881,7 +41884,7 @@
         <v>0.42</v>
       </c>
       <c r="AP197">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ197">
         <v>0.33</v>
@@ -42009,7 +42012,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42090,7 +42093,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ198">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR198">
         <v>2.05</v>
@@ -42215,7 +42218,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42421,7 +42424,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42499,7 +42502,7 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ200">
         <v>1.13</v>
@@ -43245,7 +43248,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43657,7 +43660,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43863,7 +43866,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44687,7 +44690,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44974,7 +44977,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ212">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR212">
         <v>1.44</v>
@@ -45177,10 +45180,10 @@
         <v>1.54</v>
       </c>
       <c r="AP213">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR213">
         <v>1.54</v>
@@ -45795,7 +45798,7 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ216">
         <v>0.6899999999999999</v>
@@ -46335,7 +46338,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46747,7 +46750,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46953,7 +46956,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47159,7 +47162,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47365,7 +47368,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47571,7 +47574,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48267,7 +48270,7 @@
         <v>1.36</v>
       </c>
       <c r="AP228">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ228">
         <v>1.27</v>
@@ -48807,7 +48810,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48888,7 +48891,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ231">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR231">
         <v>2.07</v>
@@ -49013,7 +49016,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49219,7 +49222,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49425,7 +49428,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49712,7 +49715,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ235">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR235">
         <v>1.72</v>
@@ -50043,7 +50046,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50249,7 +50252,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50455,7 +50458,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50533,7 +50536,7 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ239">
         <v>1.27</v>
@@ -50867,7 +50870,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51073,7 +51076,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51848,6 +51851,418 @@
       </c>
       <c r="BP245">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7885805</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45774.38541666666</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>82</v>
+      </c>
+      <c r="H246" t="s">
+        <v>83</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>221</v>
+      </c>
+      <c r="P246" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q246">
+        <v>2.72</v>
+      </c>
+      <c r="R246">
+        <v>1.96</v>
+      </c>
+      <c r="S246">
+        <v>5.01</v>
+      </c>
+      <c r="T246">
+        <v>1.46</v>
+      </c>
+      <c r="U246">
+        <v>2.5</v>
+      </c>
+      <c r="V246">
+        <v>3.2</v>
+      </c>
+      <c r="W246">
+        <v>1.27</v>
+      </c>
+      <c r="X246">
+        <v>6.7</v>
+      </c>
+      <c r="Y246">
+        <v>1.06</v>
+      </c>
+      <c r="Z246">
+        <v>1.86</v>
+      </c>
+      <c r="AA246">
+        <v>3.25</v>
+      </c>
+      <c r="AB246">
+        <v>3.9</v>
+      </c>
+      <c r="AC246">
+        <v>1</v>
+      </c>
+      <c r="AD246">
+        <v>7.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.4</v>
+      </c>
+      <c r="AF246">
+        <v>2.8</v>
+      </c>
+      <c r="AG246">
+        <v>2.19</v>
+      </c>
+      <c r="AH246">
+        <v>1.62</v>
+      </c>
+      <c r="AI246">
+        <v>2.05</v>
+      </c>
+      <c r="AJ246">
+        <v>1.68</v>
+      </c>
+      <c r="AK246">
+        <v>1.33</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+      <c r="AM246">
+        <v>1.93</v>
+      </c>
+      <c r="AN246">
+        <v>1.63</v>
+      </c>
+      <c r="AO246">
+        <v>1.4</v>
+      </c>
+      <c r="AP246">
+        <v>1.61</v>
+      </c>
+      <c r="AQ246">
+        <v>1.39</v>
+      </c>
+      <c r="AR246">
+        <v>1.5</v>
+      </c>
+      <c r="AS246">
+        <v>1.38</v>
+      </c>
+      <c r="AT246">
+        <v>2.88</v>
+      </c>
+      <c r="AU246">
+        <v>2</v>
+      </c>
+      <c r="AV246">
+        <v>2</v>
+      </c>
+      <c r="AW246">
+        <v>1</v>
+      </c>
+      <c r="AX246">
+        <v>1</v>
+      </c>
+      <c r="AY246">
+        <v>3</v>
+      </c>
+      <c r="AZ246">
+        <v>3</v>
+      </c>
+      <c r="BA246">
+        <v>8</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>12</v>
+      </c>
+      <c r="BD246">
+        <v>1.51</v>
+      </c>
+      <c r="BE246">
+        <v>7.7</v>
+      </c>
+      <c r="BF246">
+        <v>3.35</v>
+      </c>
+      <c r="BG246">
+        <v>1.33</v>
+      </c>
+      <c r="BH246">
+        <v>3.02</v>
+      </c>
+      <c r="BI246">
+        <v>1.64</v>
+      </c>
+      <c r="BJ246">
+        <v>2.2</v>
+      </c>
+      <c r="BK246">
+        <v>2.01</v>
+      </c>
+      <c r="BL246">
+        <v>1.78</v>
+      </c>
+      <c r="BM246">
+        <v>2.48</v>
+      </c>
+      <c r="BN246">
+        <v>1.48</v>
+      </c>
+      <c r="BO246">
+        <v>3.25</v>
+      </c>
+      <c r="BP246">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7884931</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45774.61458333334</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>75</v>
+      </c>
+      <c r="H247" t="s">
+        <v>70</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>227</v>
+      </c>
+      <c r="P247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q247">
+        <v>2.02</v>
+      </c>
+      <c r="R247">
+        <v>2.1</v>
+      </c>
+      <c r="S247">
+        <v>6.7</v>
+      </c>
+      <c r="T247">
+        <v>1.4</v>
+      </c>
+      <c r="U247">
+        <v>2.53</v>
+      </c>
+      <c r="V247">
+        <v>3.37</v>
+      </c>
+      <c r="W247">
+        <v>1.32</v>
+      </c>
+      <c r="X247">
+        <v>8.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.06</v>
+      </c>
+      <c r="Z247">
+        <v>1.45</v>
+      </c>
+      <c r="AA247">
+        <v>3.9</v>
+      </c>
+      <c r="AB247">
+        <v>7.5</v>
+      </c>
+      <c r="AC247">
+        <v>1.08</v>
+      </c>
+      <c r="AD247">
+        <v>8</v>
+      </c>
+      <c r="AE247">
+        <v>1.4</v>
+      </c>
+      <c r="AF247">
+        <v>2.88</v>
+      </c>
+      <c r="AG247">
+        <v>2.15</v>
+      </c>
+      <c r="AH247">
+        <v>1.65</v>
+      </c>
+      <c r="AI247">
+        <v>2.4</v>
+      </c>
+      <c r="AJ247">
+        <v>1.51</v>
+      </c>
+      <c r="AK247">
+        <v>1.25</v>
+      </c>
+      <c r="AL247">
+        <v>1.26</v>
+      </c>
+      <c r="AM247">
+        <v>2.7</v>
+      </c>
+      <c r="AN247">
+        <v>2.53</v>
+      </c>
+      <c r="AO247">
+        <v>1.77</v>
+      </c>
+      <c r="AP247">
+        <v>2.55</v>
+      </c>
+      <c r="AQ247">
+        <v>1.71</v>
+      </c>
+      <c r="AR247">
+        <v>1.77</v>
+      </c>
+      <c r="AS247">
+        <v>1.55</v>
+      </c>
+      <c r="AT247">
+        <v>3.32</v>
+      </c>
+      <c r="AU247">
+        <v>5</v>
+      </c>
+      <c r="AV247">
+        <v>3</v>
+      </c>
+      <c r="AW247">
+        <v>3</v>
+      </c>
+      <c r="AX247">
+        <v>6</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>9</v>
+      </c>
+      <c r="BA247">
+        <v>7</v>
+      </c>
+      <c r="BB247">
+        <v>3</v>
+      </c>
+      <c r="BC247">
+        <v>10</v>
+      </c>
+      <c r="BD247">
+        <v>1.3</v>
+      </c>
+      <c r="BE247">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF247">
+        <v>4.05</v>
+      </c>
+      <c r="BG247">
+        <v>1.41</v>
+      </c>
+      <c r="BH247">
+        <v>2.6</v>
+      </c>
+      <c r="BI247">
+        <v>1.78</v>
+      </c>
+      <c r="BJ247">
+        <v>1.97</v>
+      </c>
+      <c r="BK247">
+        <v>2.62</v>
+      </c>
+      <c r="BL247">
+        <v>1.6</v>
+      </c>
+      <c r="BM247">
+        <v>2.88</v>
+      </c>
+      <c r="BN247">
+        <v>1.29</v>
+      </c>
+      <c r="BO247">
+        <v>3.92</v>
+      </c>
+      <c r="BP247">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['45+3', '68']</t>
   </si>
   <si>
+    <t>['49', '85']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1377,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2254,7 +2257,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2460,7 +2463,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2872,7 +2875,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3156,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -3571,7 +3574,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3902,7 +3905,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3980,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13">
         <v>1.27</v>
@@ -4108,7 +4111,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4189,7 +4192,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4932,7 +4935,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5344,7 +5347,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -5550,7 +5553,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5756,7 +5759,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5962,7 +5965,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6168,7 +6171,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6374,7 +6377,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6580,7 +6583,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6661,7 +6664,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -7070,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
         <v>0.93</v>
@@ -7198,7 +7201,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7279,7 +7282,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>2.25</v>
@@ -7610,7 +7613,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7816,7 +7819,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8846,7 +8849,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9133,7 +9136,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>0.86</v>
@@ -9954,7 +9957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
         <v>0.87</v>
@@ -10082,7 +10085,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10288,7 +10291,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10366,10 +10369,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>0.95</v>
@@ -10700,7 +10703,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10906,7 +10909,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11730,7 +11733,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12348,7 +12351,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12760,7 +12763,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12838,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ56">
         <v>0.87</v>
@@ -12966,7 +12969,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13172,7 +13175,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13378,7 +13381,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13456,7 +13459,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13584,7 +13587,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13790,7 +13793,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14202,7 +14205,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14408,7 +14411,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15026,7 +15029,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15232,7 +15235,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15519,7 +15522,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15850,7 +15853,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15928,7 +15931,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16468,7 +16471,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16958,7 +16961,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ76">
         <v>1.6</v>
@@ -17086,7 +17089,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17292,7 +17295,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17498,7 +17501,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17576,7 +17579,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>1.27</v>
@@ -17704,7 +17707,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17910,7 +17913,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18322,7 +18325,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18815,7 +18818,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ85">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>0.85</v>
@@ -18940,7 +18943,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19227,7 +19230,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19639,7 +19642,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -20588,7 +20591,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20666,7 +20669,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ94">
         <v>2.33</v>
@@ -20794,7 +20797,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20872,7 +20875,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ95">
         <v>1.25</v>
@@ -21081,7 +21084,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.46</v>
@@ -21206,7 +21209,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21493,7 +21496,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ98">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.84</v>
@@ -22030,7 +22033,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22648,7 +22651,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22854,7 +22857,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23060,7 +23063,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23472,7 +23475,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23550,7 +23553,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ108">
         <v>1.44</v>
@@ -23884,7 +23887,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24168,7 +24171,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ111">
         <v>1.6</v>
@@ -24296,7 +24299,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24374,7 +24377,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24583,7 +24586,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ113">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.41</v>
@@ -24995,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.42</v>
@@ -25120,7 +25123,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25326,7 +25329,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25532,7 +25535,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25738,7 +25741,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25944,7 +25947,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26356,7 +26359,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26437,7 +26440,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ122">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -26643,7 +26646,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ123">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27180,7 +27183,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27258,7 +27261,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126">
         <v>1.69</v>
@@ -27386,7 +27389,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27592,7 +27595,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27798,7 +27801,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28004,7 +28007,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28082,7 +28085,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ130">
         <v>1.69</v>
@@ -28210,7 +28213,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28416,7 +28419,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29524,7 +29527,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -30064,7 +30067,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30145,7 +30148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30270,7 +30273,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30476,7 +30479,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30557,7 +30560,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>2.2</v>
@@ -30682,7 +30685,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31094,7 +31097,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31300,7 +31303,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31506,7 +31509,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31712,7 +31715,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31918,7 +31921,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32330,7 +32333,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32536,7 +32539,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32742,7 +32745,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33154,7 +33157,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33232,10 +33235,10 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ155">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33360,7 +33363,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33441,7 +33444,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ156">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33772,7 +33775,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33850,7 +33853,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ158">
         <v>0.93</v>
@@ -34596,7 +34599,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34802,7 +34805,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35214,7 +35217,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36322,10 +36325,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
         <v>1.7</v>
@@ -37068,7 +37071,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37274,7 +37277,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37480,7 +37483,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37561,7 +37564,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ176">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -37764,7 +37767,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ177">
         <v>0.6899999999999999</v>
@@ -37892,7 +37895,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38179,7 +38182,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ179">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38304,7 +38307,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38510,7 +38513,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38716,7 +38719,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39128,7 +39131,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39746,7 +39749,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39824,10 +39827,10 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>1.74</v>
@@ -39952,7 +39955,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40158,7 +40161,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40570,7 +40573,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40776,7 +40779,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41060,7 +41063,7 @@
         <v>0.27</v>
       </c>
       <c r="AP193">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ193">
         <v>0.38</v>
@@ -41188,7 +41191,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41475,7 +41478,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ195">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -41600,7 +41603,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41887,7 +41890,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ197">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR197">
         <v>1.84</v>
@@ -42012,7 +42015,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42218,7 +42221,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42424,7 +42427,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43248,7 +43251,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43326,7 +43329,7 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ204">
         <v>0.6899999999999999</v>
@@ -43660,7 +43663,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43738,7 +43741,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ206">
         <v>1.5</v>
@@ -43866,7 +43869,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44565,7 +44568,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ210">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44690,7 +44693,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45595,7 +45598,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ215">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR215">
         <v>1.1</v>
@@ -46338,7 +46341,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46750,7 +46753,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46956,7 +46959,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47162,7 +47165,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47240,7 +47243,7 @@
         <v>1.23</v>
       </c>
       <c r="AP223">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ223">
         <v>1.25</v>
@@ -47368,7 +47371,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47574,7 +47577,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47652,7 +47655,7 @@
         <v>2.23</v>
       </c>
       <c r="AP225">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
         <v>2.33</v>
@@ -48479,7 +48482,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ229">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR229">
         <v>1.96</v>
@@ -48810,7 +48813,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49016,7 +49019,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49097,7 +49100,7 @@
         <v>2</v>
       </c>
       <c r="AQ232">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49222,7 +49225,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49428,7 +49431,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50046,7 +50049,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50252,7 +50255,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50458,7 +50461,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50742,7 +50745,7 @@
         <v>1.93</v>
       </c>
       <c r="AP240">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ240">
         <v>2</v>
@@ -50870,7 +50873,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -50948,7 +50951,7 @@
         <v>0.21</v>
       </c>
       <c r="AP241">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ241">
         <v>0.38</v>
@@ -51076,7 +51079,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51375,22 +51378,22 @@
         <v>2.36</v>
       </c>
       <c r="AU243">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV243">
         <v>3</v>
       </c>
       <c r="AW243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY243">
         <v>11</v>
       </c>
       <c r="AZ243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA243">
         <v>7</v>
@@ -52073,7 +52076,7 @@
         <v>69</v>
       </c>
       <c r="E247" s="2">
-        <v>45774.61458333334</v>
+        <v>45774.60416666666</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -52263,6 +52266,418 @@
       </c>
       <c r="BP247">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7885808</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>72</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>228</v>
+      </c>
+      <c r="P248" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q248">
+        <v>3.85</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>2.88</v>
+      </c>
+      <c r="T248">
+        <v>1.46</v>
+      </c>
+      <c r="U248">
+        <v>2.55</v>
+      </c>
+      <c r="V248">
+        <v>3.2</v>
+      </c>
+      <c r="W248">
+        <v>1.32</v>
+      </c>
+      <c r="X248">
+        <v>8.5</v>
+      </c>
+      <c r="Y248">
+        <v>1.02</v>
+      </c>
+      <c r="Z248">
+        <v>3.35</v>
+      </c>
+      <c r="AA248">
+        <v>3.25</v>
+      </c>
+      <c r="AB248">
+        <v>2.16</v>
+      </c>
+      <c r="AC248">
+        <v>1.08</v>
+      </c>
+      <c r="AD248">
+        <v>7.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.36</v>
+      </c>
+      <c r="AF248">
+        <v>2.8</v>
+      </c>
+      <c r="AG248">
+        <v>2.2</v>
+      </c>
+      <c r="AH248">
+        <v>1.55</v>
+      </c>
+      <c r="AI248">
+        <v>1.85</v>
+      </c>
+      <c r="AJ248">
+        <v>1.85</v>
+      </c>
+      <c r="AK248">
+        <v>1.36</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>1.27</v>
+      </c>
+      <c r="AN248">
+        <v>1.1</v>
+      </c>
+      <c r="AO248">
+        <v>0.93</v>
+      </c>
+      <c r="AP248">
+        <v>1.16</v>
+      </c>
+      <c r="AQ248">
+        <v>0.9</v>
+      </c>
+      <c r="AR248">
+        <v>1.12</v>
+      </c>
+      <c r="AS248">
+        <v>1.37</v>
+      </c>
+      <c r="AT248">
+        <v>2.49</v>
+      </c>
+      <c r="AU248">
+        <v>8</v>
+      </c>
+      <c r="AV248">
+        <v>3</v>
+      </c>
+      <c r="AW248">
+        <v>6</v>
+      </c>
+      <c r="AX248">
+        <v>2</v>
+      </c>
+      <c r="AY248">
+        <v>14</v>
+      </c>
+      <c r="AZ248">
+        <v>5</v>
+      </c>
+      <c r="BA248">
+        <v>5</v>
+      </c>
+      <c r="BB248">
+        <v>4</v>
+      </c>
+      <c r="BC248">
+        <v>9</v>
+      </c>
+      <c r="BD248">
+        <v>2.38</v>
+      </c>
+      <c r="BE248">
+        <v>6.3</v>
+      </c>
+      <c r="BF248">
+        <v>1.87</v>
+      </c>
+      <c r="BG248">
+        <v>1.33</v>
+      </c>
+      <c r="BH248">
+        <v>2.75</v>
+      </c>
+      <c r="BI248">
+        <v>1.54</v>
+      </c>
+      <c r="BJ248">
+        <v>2.26</v>
+      </c>
+      <c r="BK248">
+        <v>2.27</v>
+      </c>
+      <c r="BL248">
+        <v>1.79</v>
+      </c>
+      <c r="BM248">
+        <v>2.46</v>
+      </c>
+      <c r="BN248">
+        <v>1.48</v>
+      </c>
+      <c r="BO248">
+        <v>3.4</v>
+      </c>
+      <c r="BP248">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7885809</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" t="s">
+        <v>74</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>86</v>
+      </c>
+      <c r="P249" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q249">
+        <v>2.03</v>
+      </c>
+      <c r="R249">
+        <v>2.32</v>
+      </c>
+      <c r="S249">
+        <v>5.1</v>
+      </c>
+      <c r="T249">
+        <v>1.28</v>
+      </c>
+      <c r="U249">
+        <v>3.2</v>
+      </c>
+      <c r="V249">
+        <v>2.53</v>
+      </c>
+      <c r="W249">
+        <v>1.47</v>
+      </c>
+      <c r="X249">
+        <v>6.3</v>
+      </c>
+      <c r="Y249">
+        <v>1.12</v>
+      </c>
+      <c r="Z249">
+        <v>1.53</v>
+      </c>
+      <c r="AA249">
+        <v>4.1</v>
+      </c>
+      <c r="AB249">
+        <v>5.5</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>12</v>
+      </c>
+      <c r="AE249">
+        <v>1.17</v>
+      </c>
+      <c r="AF249">
+        <v>4</v>
+      </c>
+      <c r="AG249">
+        <v>1.65</v>
+      </c>
+      <c r="AH249">
+        <v>2.09</v>
+      </c>
+      <c r="AI249">
+        <v>1.8</v>
+      </c>
+      <c r="AJ249">
+        <v>1.83</v>
+      </c>
+      <c r="AK249">
+        <v>1.22</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>2.5</v>
+      </c>
+      <c r="AN249">
+        <v>1.13</v>
+      </c>
+      <c r="AO249">
+        <v>0.7</v>
+      </c>
+      <c r="AP249">
+        <v>1.1</v>
+      </c>
+      <c r="AQ249">
+        <v>0.77</v>
+      </c>
+      <c r="AR249">
+        <v>1.7</v>
+      </c>
+      <c r="AS249">
+        <v>1.23</v>
+      </c>
+      <c r="AT249">
+        <v>2.93</v>
+      </c>
+      <c r="AU249">
+        <v>7</v>
+      </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
+      <c r="AW249">
+        <v>14</v>
+      </c>
+      <c r="AX249">
+        <v>4</v>
+      </c>
+      <c r="AY249">
+        <v>21</v>
+      </c>
+      <c r="AZ249">
+        <v>6</v>
+      </c>
+      <c r="BA249">
+        <v>4</v>
+      </c>
+      <c r="BB249">
+        <v>3</v>
+      </c>
+      <c r="BC249">
+        <v>7</v>
+      </c>
+      <c r="BD249">
+        <v>1.31</v>
+      </c>
+      <c r="BE249">
+        <v>8.6</v>
+      </c>
+      <c r="BF249">
+        <v>4.76</v>
+      </c>
+      <c r="BG249">
+        <v>1.38</v>
+      </c>
+      <c r="BH249">
+        <v>2.82</v>
+      </c>
+      <c r="BI249">
+        <v>1.64</v>
+      </c>
+      <c r="BJ249">
+        <v>2.17</v>
+      </c>
+      <c r="BK249">
+        <v>2.05</v>
+      </c>
+      <c r="BL249">
+        <v>1.72</v>
+      </c>
+      <c r="BM249">
+        <v>2.58</v>
+      </c>
+      <c r="BN249">
+        <v>1.44</v>
+      </c>
+      <c r="BO249">
+        <v>3.42</v>
+      </c>
+      <c r="BP249">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['49', '85']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -719,9 +722,6 @@
   </si>
   <si>
     <t>['9', '85']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['90+8']</t>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>['24', '37']</t>
+  </si>
+  <si>
+    <t>['18', '39', '80']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2257,7 +2260,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2463,7 +2466,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2875,7 +2878,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ8">
         <v>1.27</v>
@@ -3368,7 +3371,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3905,7 +3908,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4111,7 +4114,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4807,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ17">
         <v>0.87</v>
@@ -4935,7 +4938,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5347,7 +5350,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>1.91</v>
@@ -6870,7 +6873,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ27">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -8515,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -10578,7 +10581,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR45">
         <v>2.07</v>
@@ -12017,7 +12020,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -14489,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.27</v>
@@ -16552,7 +16555,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ74">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.27</v>
@@ -18815,7 +18818,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -19848,7 +19851,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ90">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR90">
         <v>1.18</v>
@@ -22317,10 +22320,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ102">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR102">
         <v>0.91</v>
@@ -25613,7 +25616,7 @@
         <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
         <v>1.13</v>
@@ -25822,7 +25825,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ119">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR119">
         <v>2</v>
@@ -27676,7 +27679,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -28703,7 +28706,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -30972,7 +30975,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ144">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -32411,7 +32414,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
         <v>1.25</v>
@@ -34474,7 +34477,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR161">
         <v>1.48</v>
@@ -35295,7 +35298,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -37770,7 +37773,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR177">
         <v>1.06</v>
@@ -38797,7 +38800,7 @@
         <v>1.82</v>
       </c>
       <c r="AP182">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ182">
         <v>1.69</v>
@@ -39624,7 +39627,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR186">
         <v>1.29</v>
@@ -41681,7 +41684,7 @@
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ196">
         <v>0.93</v>
@@ -43332,7 +43335,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ204">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -45595,7 +45598,7 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ215">
         <v>1</v>
@@ -45804,7 +45807,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ216">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR216">
         <v>1.87</v>
@@ -47864,7 +47867,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ226">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR226">
         <v>1.58</v>
@@ -49303,7 +49306,7 @@
         <v>2.29</v>
       </c>
       <c r="AP233">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ233">
         <v>2.33</v>
@@ -51160,7 +51163,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ242">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51366,7 +51369,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ243">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -52521,7 +52524,7 @@
         <v>86</v>
       </c>
       <c r="P249" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q249">
         <v>2.03</v>
@@ -52678,6 +52681,212 @@
       </c>
       <c r="BP249">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7886147</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45778.5625</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>76</v>
+      </c>
+      <c r="H250" t="s">
+        <v>71</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>2</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>4</v>
+      </c>
+      <c r="O250" t="s">
+        <v>229</v>
+      </c>
+      <c r="P250" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q250">
+        <v>3.05</v>
+      </c>
+      <c r="R250">
+        <v>1.94</v>
+      </c>
+      <c r="S250">
+        <v>3.8</v>
+      </c>
+      <c r="T250">
+        <v>1.48</v>
+      </c>
+      <c r="U250">
+        <v>2.55</v>
+      </c>
+      <c r="V250">
+        <v>3.28</v>
+      </c>
+      <c r="W250">
+        <v>1.32</v>
+      </c>
+      <c r="X250">
+        <v>6.7</v>
+      </c>
+      <c r="Y250">
+        <v>1.06</v>
+      </c>
+      <c r="Z250">
+        <v>2.3</v>
+      </c>
+      <c r="AA250">
+        <v>2.9</v>
+      </c>
+      <c r="AB250">
+        <v>3.08</v>
+      </c>
+      <c r="AC250">
+        <v>1.02</v>
+      </c>
+      <c r="AD250">
+        <v>7.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.4</v>
+      </c>
+      <c r="AF250">
+        <v>2.67</v>
+      </c>
+      <c r="AG250">
+        <v>2.3</v>
+      </c>
+      <c r="AH250">
+        <v>1.57</v>
+      </c>
+      <c r="AI250">
+        <v>1.94</v>
+      </c>
+      <c r="AJ250">
+        <v>1.77</v>
+      </c>
+      <c r="AK250">
+        <v>1.36</v>
+      </c>
+      <c r="AL250">
+        <v>1.32</v>
+      </c>
+      <c r="AM250">
+        <v>1.53</v>
+      </c>
+      <c r="AN250">
+        <v>0.55</v>
+      </c>
+      <c r="AO250">
+        <v>0.97</v>
+      </c>
+      <c r="AP250">
+        <v>0.53</v>
+      </c>
+      <c r="AQ250">
+        <v>1.03</v>
+      </c>
+      <c r="AR250">
+        <v>1.11</v>
+      </c>
+      <c r="AS250">
+        <v>1.05</v>
+      </c>
+      <c r="AT250">
+        <v>2.16</v>
+      </c>
+      <c r="AU250">
+        <v>6</v>
+      </c>
+      <c r="AV250">
+        <v>7</v>
+      </c>
+      <c r="AW250">
+        <v>11</v>
+      </c>
+      <c r="AX250">
+        <v>6</v>
+      </c>
+      <c r="AY250">
+        <v>17</v>
+      </c>
+      <c r="AZ250">
+        <v>13</v>
+      </c>
+      <c r="BA250">
+        <v>7</v>
+      </c>
+      <c r="BB250">
+        <v>2</v>
+      </c>
+      <c r="BC250">
+        <v>9</v>
+      </c>
+      <c r="BD250">
+        <v>1.48</v>
+      </c>
+      <c r="BE250">
+        <v>6.75</v>
+      </c>
+      <c r="BF250">
+        <v>3.55</v>
+      </c>
+      <c r="BG250">
+        <v>1.42</v>
+      </c>
+      <c r="BH250">
+        <v>2.63</v>
+      </c>
+      <c r="BI250">
+        <v>1.73</v>
+      </c>
+      <c r="BJ250">
+        <v>2.04</v>
+      </c>
+      <c r="BK250">
+        <v>2.52</v>
+      </c>
+      <c r="BL250">
+        <v>1.64</v>
+      </c>
+      <c r="BM250">
+        <v>2.78</v>
+      </c>
+      <c r="BN250">
+        <v>1.39</v>
+      </c>
+      <c r="BO250">
+        <v>3.75</v>
+      </c>
+      <c r="BP250">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['9', '45+2', '48']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1022,6 +1028,9 @@
   </si>
   <si>
     <t>['18', '39', '80']</t>
+  </si>
+  <si>
+    <t>['53', '86']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1732,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2132,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -2260,7 +2269,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2466,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2544,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2878,7 +2887,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3908,7 +3917,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4114,7 +4123,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4401,7 +4410,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4607,7 +4616,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ16">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4938,7 +4947,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5016,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5556,7 +5565,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5762,7 +5771,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5968,7 +5977,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6046,7 +6055,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6174,7 +6183,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6252,7 +6261,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>1.27</v>
@@ -6380,7 +6389,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6586,7 +6595,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7079,7 +7088,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>0.91</v>
@@ -7204,7 +7213,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7616,7 +7625,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7822,7 +7831,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8315,7 +8324,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>0.89</v>
@@ -8724,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8852,7 +8861,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8930,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ37">
         <v>1.69</v>
@@ -10088,7 +10097,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10294,7 +10303,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10706,7 +10715,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10784,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
         <v>1.25</v>
@@ -10912,7 +10921,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10990,10 +10999,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.32</v>
@@ -11611,7 +11620,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ50">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR50">
         <v>1.44</v>
@@ -11736,7 +11745,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11814,10 +11823,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.13</v>
@@ -12354,7 +12363,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12432,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ54">
         <v>0.38</v>
@@ -12638,7 +12647,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ55">
         <v>1.27</v>
@@ -12766,7 +12775,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12972,7 +12981,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13178,7 +13187,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13384,7 +13393,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13590,7 +13599,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13796,7 +13805,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14080,7 +14089,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>2.33</v>
@@ -14208,7 +14217,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14286,10 +14295,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14414,7 +14423,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14495,7 +14504,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14907,7 +14916,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
@@ -15032,7 +15041,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15110,7 +15119,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15238,7 +15247,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15856,7 +15865,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15937,7 +15946,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16474,7 +16483,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16552,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -17092,7 +17101,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17298,7 +17307,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17376,7 +17385,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ78">
         <v>2.33</v>
@@ -17504,7 +17513,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17710,7 +17719,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17791,7 +17800,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -17916,7 +17925,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18200,7 +18209,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82">
         <v>1.69</v>
@@ -18328,7 +18337,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18409,7 +18418,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR83">
         <v>1.8</v>
@@ -18946,7 +18955,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19027,7 +19036,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ86">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.23</v>
@@ -19642,7 +19651,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20594,7 +20603,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20800,7 +20809,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21212,7 +21221,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21290,10 +21299,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR97">
         <v>1.31</v>
@@ -21705,7 +21714,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -22036,7 +22045,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22529,7 +22538,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.72</v>
@@ -22654,7 +22663,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22732,7 +22741,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ104">
         <v>0.87</v>
@@ -22860,7 +22869,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23066,7 +23075,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23144,7 +23153,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23478,7 +23487,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23890,7 +23899,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24302,7 +24311,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24795,7 +24804,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
         <v>1.09</v>
@@ -24998,7 +25007,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25126,7 +25135,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25332,7 +25341,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25413,7 +25422,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ117">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR117">
         <v>1.99</v>
@@ -25538,7 +25547,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25619,7 +25628,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR118">
         <v>0.95</v>
@@ -25744,7 +25753,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25950,7 +25959,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26362,7 +26371,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26855,7 +26864,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ124">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>2.17</v>
@@ -27061,7 +27070,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR125">
         <v>1.25</v>
@@ -27186,7 +27195,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27392,7 +27401,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27598,7 +27607,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27676,7 +27685,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ128">
         <v>0.82</v>
@@ -27804,7 +27813,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27885,7 +27894,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28010,7 +28019,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28216,7 +28225,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28422,7 +28431,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28500,7 +28509,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -28912,7 +28921,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ134">
         <v>1.6</v>
@@ -29533,7 +29542,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR137">
         <v>1.54</v>
@@ -29739,7 +29748,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.67</v>
@@ -30070,7 +30079,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30276,7 +30285,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30482,7 +30491,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30688,7 +30697,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30766,7 +30775,7 @@
         <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ143">
         <v>0.38</v>
@@ -31100,7 +31109,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31178,7 +31187,7 @@
         <v>1.56</v>
       </c>
       <c r="AP145">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31306,7 +31315,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31384,7 +31393,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ146">
         <v>1.69</v>
@@ -31512,7 +31521,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31593,7 +31602,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ147">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR147">
         <v>2.12</v>
@@ -31718,7 +31727,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31799,7 +31808,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR148">
         <v>1.13</v>
@@ -31924,7 +31933,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32336,7 +32345,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32542,7 +32551,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32748,7 +32757,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33160,7 +33169,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33366,7 +33375,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33650,7 +33659,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33778,7 +33787,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33859,7 +33868,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ158">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.62</v>
@@ -34602,7 +34611,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34680,10 +34689,10 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR162">
         <v>1.31</v>
@@ -34808,7 +34817,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35220,7 +35229,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35504,10 +35513,10 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ166">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR166">
         <v>1.31</v>
@@ -36122,10 +36131,10 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -37074,7 +37083,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37280,7 +37289,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37486,7 +37495,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37898,7 +37907,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37979,7 +37988,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ178">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38182,7 +38191,7 @@
         <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ179">
         <v>0.5</v>
@@ -38310,7 +38319,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38516,7 +38525,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38722,7 +38731,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39009,7 +39018,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ183">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR183">
         <v>1.48</v>
@@ -39134,7 +39143,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39212,7 +39221,7 @@
         <v>1.91</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ184">
         <v>1.6</v>
@@ -39421,7 +39430,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR185">
         <v>1.72</v>
@@ -39624,7 +39633,7 @@
         <v>0.91</v>
       </c>
       <c r="AP186">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ186">
         <v>0.82</v>
@@ -39752,7 +39761,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39958,7 +39967,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40164,7 +40173,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40576,7 +40585,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40782,7 +40791,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41194,7 +41203,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41272,7 +41281,7 @@
         <v>1.67</v>
       </c>
       <c r="AP194">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ194">
         <v>1.44</v>
@@ -41606,7 +41615,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41687,7 +41696,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ196">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR196">
         <v>0.97</v>
@@ -42018,7 +42027,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42224,7 +42233,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42305,7 +42314,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ199">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42430,7 +42439,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42511,7 +42520,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ200">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -43126,7 +43135,7 @@
         <v>0.25</v>
       </c>
       <c r="AP203">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ203">
         <v>0.38</v>
@@ -43254,7 +43263,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43666,7 +43675,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43872,7 +43881,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44156,7 +44165,7 @@
         <v>2.42</v>
       </c>
       <c r="AP208">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ208">
         <v>2.33</v>
@@ -44696,7 +44705,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44774,10 +44783,10 @@
         <v>1.23</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ211">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR211">
         <v>1.45</v>
@@ -45395,7 +45404,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ214">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>2</v>
@@ -46013,7 +46022,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR217">
         <v>2.09</v>
@@ -46344,7 +46353,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46422,7 +46431,7 @@
         <v>1.54</v>
       </c>
       <c r="AP219">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ219">
         <v>1.5</v>
@@ -46756,7 +46765,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46962,7 +46971,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47168,7 +47177,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47374,7 +47383,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47452,7 +47461,7 @@
         <v>1.23</v>
       </c>
       <c r="AP224">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
         <v>1.27</v>
@@ -47580,7 +47589,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48073,7 +48082,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ227">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR227">
         <v>1.53</v>
@@ -48279,7 +48288,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR228">
         <v>1.61</v>
@@ -48691,7 +48700,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ230">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR230">
         <v>1.45</v>
@@ -48816,7 +48825,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49022,7 +49031,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49100,7 +49109,7 @@
         <v>0.36</v>
       </c>
       <c r="AP232">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ232">
         <v>0.5</v>
@@ -49228,7 +49237,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49434,7 +49443,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50052,7 +50061,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50130,7 +50139,7 @@
         <v>1.36</v>
       </c>
       <c r="AP237">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ237">
         <v>1.25</v>
@@ -50258,7 +50267,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50336,7 +50345,7 @@
         <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ238">
         <v>0.87</v>
@@ -50464,7 +50473,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50876,7 +50885,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51082,7 +51091,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51160,7 +51169,7 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AQ242">
         <v>0.53</v>
@@ -52396,10 +52405,10 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AQ248">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -52602,10 +52611,10 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ249">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52730,7 +52739,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52887,6 +52896,624 @@
       </c>
       <c r="BP250">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7886149</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45779.375</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" t="s">
+        <v>77</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>3</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>5</v>
+      </c>
+      <c r="O251" t="s">
+        <v>230</v>
+      </c>
+      <c r="P251" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q251">
+        <v>2.88</v>
+      </c>
+      <c r="R251">
+        <v>2.03</v>
+      </c>
+      <c r="S251">
+        <v>3.45</v>
+      </c>
+      <c r="T251">
+        <v>1.4</v>
+      </c>
+      <c r="U251">
+        <v>2.8</v>
+      </c>
+      <c r="V251">
+        <v>2.8</v>
+      </c>
+      <c r="W251">
+        <v>1.4</v>
+      </c>
+      <c r="X251">
+        <v>7</v>
+      </c>
+      <c r="Y251">
+        <v>1.07</v>
+      </c>
+      <c r="Z251">
+        <v>2.15</v>
+      </c>
+      <c r="AA251">
+        <v>3</v>
+      </c>
+      <c r="AB251">
+        <v>3</v>
+      </c>
+      <c r="AC251">
+        <v>1.03</v>
+      </c>
+      <c r="AD251">
+        <v>9</v>
+      </c>
+      <c r="AE251">
+        <v>1.29</v>
+      </c>
+      <c r="AF251">
+        <v>3.3</v>
+      </c>
+      <c r="AG251">
+        <v>1.91</v>
+      </c>
+      <c r="AH251">
+        <v>1.8</v>
+      </c>
+      <c r="AI251">
+        <v>1.75</v>
+      </c>
+      <c r="AJ251">
+        <v>1.95</v>
+      </c>
+      <c r="AK251">
+        <v>1.33</v>
+      </c>
+      <c r="AL251">
+        <v>1.3</v>
+      </c>
+      <c r="AM251">
+        <v>1.57</v>
+      </c>
+      <c r="AN251">
+        <v>0.77</v>
+      </c>
+      <c r="AO251">
+        <v>1.16</v>
+      </c>
+      <c r="AP251">
+        <v>0.84</v>
+      </c>
+      <c r="AQ251">
+        <v>1.13</v>
+      </c>
+      <c r="AR251">
+        <v>1.21</v>
+      </c>
+      <c r="AS251">
+        <v>1.15</v>
+      </c>
+      <c r="AT251">
+        <v>2.36</v>
+      </c>
+      <c r="AU251">
+        <v>7</v>
+      </c>
+      <c r="AV251">
+        <v>5</v>
+      </c>
+      <c r="AW251">
+        <v>6</v>
+      </c>
+      <c r="AX251">
+        <v>4</v>
+      </c>
+      <c r="AY251">
+        <v>13</v>
+      </c>
+      <c r="AZ251">
+        <v>9</v>
+      </c>
+      <c r="BA251">
+        <v>3</v>
+      </c>
+      <c r="BB251">
+        <v>3</v>
+      </c>
+      <c r="BC251">
+        <v>6</v>
+      </c>
+      <c r="BD251">
+        <v>1.76</v>
+      </c>
+      <c r="BE251">
+        <v>8</v>
+      </c>
+      <c r="BF251">
+        <v>2.81</v>
+      </c>
+      <c r="BG251">
+        <v>1.25</v>
+      </c>
+      <c r="BH251">
+        <v>3.25</v>
+      </c>
+      <c r="BI251">
+        <v>1.45</v>
+      </c>
+      <c r="BJ251">
+        <v>2.55</v>
+      </c>
+      <c r="BK251">
+        <v>2.09</v>
+      </c>
+      <c r="BL251">
+        <v>1.9</v>
+      </c>
+      <c r="BM251">
+        <v>2.12</v>
+      </c>
+      <c r="BN251">
+        <v>1.64</v>
+      </c>
+      <c r="BO251">
+        <v>3.02</v>
+      </c>
+      <c r="BP251">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7886150</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>85</v>
+      </c>
+      <c r="H252" t="s">
+        <v>81</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>86</v>
+      </c>
+      <c r="P252" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q252">
+        <v>2.9</v>
+      </c>
+      <c r="R252">
+        <v>2.12</v>
+      </c>
+      <c r="S252">
+        <v>3.6</v>
+      </c>
+      <c r="T252">
+        <v>1.36</v>
+      </c>
+      <c r="U252">
+        <v>2.94</v>
+      </c>
+      <c r="V252">
+        <v>2.88</v>
+      </c>
+      <c r="W252">
+        <v>1.4</v>
+      </c>
+      <c r="X252">
+        <v>6.9</v>
+      </c>
+      <c r="Y252">
+        <v>1.04</v>
+      </c>
+      <c r="Z252">
+        <v>2.3</v>
+      </c>
+      <c r="AA252">
+        <v>3.15</v>
+      </c>
+      <c r="AB252">
+        <v>2.85</v>
+      </c>
+      <c r="AC252">
+        <v>1.01</v>
+      </c>
+      <c r="AD252">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE252">
+        <v>1.24</v>
+      </c>
+      <c r="AF252">
+        <v>3.36</v>
+      </c>
+      <c r="AG252">
+        <v>2.1</v>
+      </c>
+      <c r="AH252">
+        <v>1.6</v>
+      </c>
+      <c r="AI252">
+        <v>1.75</v>
+      </c>
+      <c r="AJ252">
+        <v>2.04</v>
+      </c>
+      <c r="AK252">
+        <v>1.25</v>
+      </c>
+      <c r="AL252">
+        <v>1.3</v>
+      </c>
+      <c r="AM252">
+        <v>1.49</v>
+      </c>
+      <c r="AN252">
+        <v>1.45</v>
+      </c>
+      <c r="AO252">
+        <v>1.1</v>
+      </c>
+      <c r="AP252">
+        <v>1.41</v>
+      </c>
+      <c r="AQ252">
+        <v>1.16</v>
+      </c>
+      <c r="AR252">
+        <v>1.4</v>
+      </c>
+      <c r="AS252">
+        <v>1.72</v>
+      </c>
+      <c r="AT252">
+        <v>3.12</v>
+      </c>
+      <c r="AU252">
+        <v>3</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>6</v>
+      </c>
+      <c r="AX252">
+        <v>8</v>
+      </c>
+      <c r="AY252">
+        <v>9</v>
+      </c>
+      <c r="AZ252">
+        <v>13</v>
+      </c>
+      <c r="BA252">
+        <v>6</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>8</v>
+      </c>
+      <c r="BD252">
+        <v>1.9</v>
+      </c>
+      <c r="BE252">
+        <v>8</v>
+      </c>
+      <c r="BF252">
+        <v>2.05</v>
+      </c>
+      <c r="BG252">
+        <v>1.32</v>
+      </c>
+      <c r="BH252">
+        <v>2.87</v>
+      </c>
+      <c r="BI252">
+        <v>1.5</v>
+      </c>
+      <c r="BJ252">
+        <v>2.4</v>
+      </c>
+      <c r="BK252">
+        <v>1.79</v>
+      </c>
+      <c r="BL252">
+        <v>1.9</v>
+      </c>
+      <c r="BM252">
+        <v>2.52</v>
+      </c>
+      <c r="BN252">
+        <v>1.48</v>
+      </c>
+      <c r="BO252">
+        <v>3.74</v>
+      </c>
+      <c r="BP252">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7886148</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>72</v>
+      </c>
+      <c r="H253" t="s">
+        <v>73</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>231</v>
+      </c>
+      <c r="P253" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q253">
+        <v>2.39</v>
+      </c>
+      <c r="R253">
+        <v>1.83</v>
+      </c>
+      <c r="S253">
+        <v>4.3</v>
+      </c>
+      <c r="T253">
+        <v>1.42</v>
+      </c>
+      <c r="U253">
+        <v>2.7</v>
+      </c>
+      <c r="V253">
+        <v>2.9</v>
+      </c>
+      <c r="W253">
+        <v>1.36</v>
+      </c>
+      <c r="X253">
+        <v>7</v>
+      </c>
+      <c r="Y253">
+        <v>1.02</v>
+      </c>
+      <c r="Z253">
+        <v>1.8</v>
+      </c>
+      <c r="AA253">
+        <v>3.3</v>
+      </c>
+      <c r="AB253">
+        <v>4.33</v>
+      </c>
+      <c r="AC253">
+        <v>1.01</v>
+      </c>
+      <c r="AD253">
+        <v>8.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.33</v>
+      </c>
+      <c r="AF253">
+        <v>3.27</v>
+      </c>
+      <c r="AG253">
+        <v>2.05</v>
+      </c>
+      <c r="AH253">
+        <v>1.73</v>
+      </c>
+      <c r="AI253">
+        <v>1.91</v>
+      </c>
+      <c r="AJ253">
+        <v>1.8</v>
+      </c>
+      <c r="AK253">
+        <v>1.28</v>
+      </c>
+      <c r="AL253">
+        <v>1.28</v>
+      </c>
+      <c r="AM253">
+        <v>2</v>
+      </c>
+      <c r="AN253">
+        <v>0.9</v>
+      </c>
+      <c r="AO253">
+        <v>1.06</v>
+      </c>
+      <c r="AP253">
+        <v>0.91</v>
+      </c>
+      <c r="AQ253">
+        <v>1.06</v>
+      </c>
+      <c r="AR253">
+        <v>1.36</v>
+      </c>
+      <c r="AS253">
+        <v>1.31</v>
+      </c>
+      <c r="AT253">
+        <v>2.67</v>
+      </c>
+      <c r="AU253">
+        <v>3</v>
+      </c>
+      <c r="AV253">
+        <v>8</v>
+      </c>
+      <c r="AW253">
+        <v>3</v>
+      </c>
+      <c r="AX253">
+        <v>8</v>
+      </c>
+      <c r="AY253">
+        <v>6</v>
+      </c>
+      <c r="AZ253">
+        <v>16</v>
+      </c>
+      <c r="BA253">
+        <v>1</v>
+      </c>
+      <c r="BB253">
+        <v>5</v>
+      </c>
+      <c r="BC253">
+        <v>6</v>
+      </c>
+      <c r="BD253">
+        <v>1.61</v>
+      </c>
+      <c r="BE253">
+        <v>8</v>
+      </c>
+      <c r="BF253">
+        <v>2.55</v>
+      </c>
+      <c r="BG253">
+        <v>1.38</v>
+      </c>
+      <c r="BH253">
+        <v>2.83</v>
+      </c>
+      <c r="BI253">
+        <v>1.64</v>
+      </c>
+      <c r="BJ253">
+        <v>2.02</v>
+      </c>
+      <c r="BK253">
+        <v>2.04</v>
+      </c>
+      <c r="BL253">
+        <v>1.73</v>
+      </c>
+      <c r="BM253">
+        <v>2.58</v>
+      </c>
+      <c r="BN253">
+        <v>1.44</v>
+      </c>
+      <c r="BO253">
+        <v>3.4</v>
+      </c>
+      <c r="BP253">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,9 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -737,9 +740,6 @@
   </si>
   <si>
     <t>['20', '88']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>['53', '86']</t>
+  </si>
+  <si>
+    <t>['14', '76', '82']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2269,7 +2272,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2350,7 +2353,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2475,7 +2478,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2759,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2887,7 +2890,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3917,7 +3920,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4123,7 +4126,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4407,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4947,7 +4950,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5028,7 +5031,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -5234,7 +5237,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5437,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5565,7 +5568,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5771,7 +5774,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5977,7 +5980,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6183,7 +6186,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -6673,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -8115,10 +8118,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -9560,7 +9563,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -10175,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>2.33</v>
@@ -11414,7 +11417,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -12235,7 +12238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ53">
         <v>1.69</v>
@@ -13059,7 +13062,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.6</v>
@@ -13474,7 +13477,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13886,7 +13889,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR61">
         <v>1.06</v>
@@ -14913,7 +14916,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15122,7 +15125,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -16355,7 +16358,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>0.87</v>
@@ -16770,7 +16773,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -18624,7 +18627,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.5</v>
@@ -19239,7 +19242,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19445,7 +19448,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>1.27</v>
@@ -20066,7 +20069,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR91">
         <v>1.91</v>
@@ -22535,7 +22538,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -23156,7 +23159,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23771,7 +23774,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ109">
         <v>0.38</v>
@@ -23980,7 +23983,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -24392,7 +24395,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR112">
         <v>1.48</v>
@@ -25213,7 +25216,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
         <v>1.69</v>
@@ -27067,7 +27070,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
         <v>1.19</v>
@@ -28512,7 +28515,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -28718,7 +28721,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR133">
         <v>0.99</v>
@@ -29333,7 +29336,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ136">
         <v>0.87</v>
@@ -30157,7 +30160,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ140">
         <v>0.5</v>
@@ -32014,7 +32017,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
         <v>1.37</v>
@@ -32217,7 +32220,7 @@
         <v>2.33</v>
       </c>
       <c r="AP150">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -33662,7 +33665,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -34483,7 +34486,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -35310,7 +35313,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR165">
         <v>1.02</v>
@@ -35719,7 +35722,7 @@
         <v>1.7</v>
       </c>
       <c r="AP167">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -36543,7 +36546,7 @@
         <v>0.3</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
         <v>0.38</v>
@@ -37164,7 +37167,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -38606,7 +38609,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR181">
         <v>2.15</v>
@@ -39427,7 +39430,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ185">
         <v>1.19</v>
@@ -40045,10 +40048,10 @@
         <v>1.27</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -41899,7 +41902,7 @@
         <v>0.42</v>
       </c>
       <c r="AP197">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ197">
         <v>0.5</v>
@@ -42726,7 +42729,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ201">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -43756,7 +43759,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ206">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -43959,7 +43962,7 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ207">
         <v>1.25</v>
@@ -45813,7 +45816,7 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ216">
         <v>0.82</v>
@@ -46434,7 +46437,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ219">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -47049,10 +47052,10 @@
         <v>1.85</v>
       </c>
       <c r="AP222">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ222">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR222">
         <v>1.61</v>
@@ -48079,7 +48082,7 @@
         <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
         <v>1.25</v>
@@ -49936,7 +49939,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ236">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR236">
         <v>1.19</v>
@@ -50551,7 +50554,7 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ239">
         <v>1.27</v>
@@ -50760,7 +50763,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ240">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR240">
         <v>1.1</v>
@@ -51584,7 +51587,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ244">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51787,7 +51790,7 @@
         <v>1.77</v>
       </c>
       <c r="AP245">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ245">
         <v>1.74</v>
@@ -51996,7 +51999,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ246">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AR246">
         <v>1.5</v>
@@ -52199,7 +52202,7 @@
         <v>1.77</v>
       </c>
       <c r="AP247">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AQ247">
         <v>1.71</v>
@@ -53514,6 +53517,418 @@
       </c>
       <c r="BP253">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7886137</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254" t="s">
+        <v>83</v>
+      </c>
+      <c r="H254" t="s">
+        <v>80</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>3</v>
+      </c>
+      <c r="N254">
+        <v>3</v>
+      </c>
+      <c r="O254" t="s">
+        <v>86</v>
+      </c>
+      <c r="P254" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q254">
+        <v>4.95</v>
+      </c>
+      <c r="R254">
+        <v>1.98</v>
+      </c>
+      <c r="S254">
+        <v>2.36</v>
+      </c>
+      <c r="T254">
+        <v>1.4</v>
+      </c>
+      <c r="U254">
+        <v>2.6</v>
+      </c>
+      <c r="V254">
+        <v>3.1</v>
+      </c>
+      <c r="W254">
+        <v>1.33</v>
+      </c>
+      <c r="X254">
+        <v>7.5</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>4.2</v>
+      </c>
+      <c r="AA254">
+        <v>3.3</v>
+      </c>
+      <c r="AB254">
+        <v>1.73</v>
+      </c>
+      <c r="AC254">
+        <v>1.01</v>
+      </c>
+      <c r="AD254">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE254">
+        <v>1.34</v>
+      </c>
+      <c r="AF254">
+        <v>2.79</v>
+      </c>
+      <c r="AG254">
+        <v>2.1</v>
+      </c>
+      <c r="AH254">
+        <v>1.61</v>
+      </c>
+      <c r="AI254">
+        <v>1.95</v>
+      </c>
+      <c r="AJ254">
+        <v>1.75</v>
+      </c>
+      <c r="AK254">
+        <v>1.3</v>
+      </c>
+      <c r="AL254">
+        <v>1.28</v>
+      </c>
+      <c r="AM254">
+        <v>1.2</v>
+      </c>
+      <c r="AN254">
+        <v>1.39</v>
+      </c>
+      <c r="AO254">
+        <v>1.61</v>
+      </c>
+      <c r="AP254">
+        <v>1.34</v>
+      </c>
+      <c r="AQ254">
+        <v>1.66</v>
+      </c>
+      <c r="AR254">
+        <v>1.36</v>
+      </c>
+      <c r="AS254">
+        <v>1.91</v>
+      </c>
+      <c r="AT254">
+        <v>3.27</v>
+      </c>
+      <c r="AU254">
+        <v>4</v>
+      </c>
+      <c r="AV254">
+        <v>7</v>
+      </c>
+      <c r="AW254">
+        <v>7</v>
+      </c>
+      <c r="AX254">
+        <v>10</v>
+      </c>
+      <c r="AY254">
+        <v>11</v>
+      </c>
+      <c r="AZ254">
+        <v>17</v>
+      </c>
+      <c r="BA254">
+        <v>1</v>
+      </c>
+      <c r="BB254">
+        <v>3</v>
+      </c>
+      <c r="BC254">
+        <v>4</v>
+      </c>
+      <c r="BD254">
+        <v>3.06</v>
+      </c>
+      <c r="BE254">
+        <v>7.6</v>
+      </c>
+      <c r="BF254">
+        <v>1.54</v>
+      </c>
+      <c r="BG254">
+        <v>1.38</v>
+      </c>
+      <c r="BH254">
+        <v>2.75</v>
+      </c>
+      <c r="BI254">
+        <v>1.61</v>
+      </c>
+      <c r="BJ254">
+        <v>2.22</v>
+      </c>
+      <c r="BK254">
+        <v>2.3</v>
+      </c>
+      <c r="BL254">
+        <v>1.76</v>
+      </c>
+      <c r="BM254">
+        <v>2.52</v>
+      </c>
+      <c r="BN254">
+        <v>1.46</v>
+      </c>
+      <c r="BO254">
+        <v>3.32</v>
+      </c>
+      <c r="BP254">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7884933</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>75</v>
+      </c>
+      <c r="H255" t="s">
+        <v>79</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" t="s">
+        <v>232</v>
+      </c>
+      <c r="P255" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q255">
+        <v>2.37</v>
+      </c>
+      <c r="R255">
+        <v>2.05</v>
+      </c>
+      <c r="S255">
+        <v>4.75</v>
+      </c>
+      <c r="T255">
+        <v>1.44</v>
+      </c>
+      <c r="U255">
+        <v>2.55</v>
+      </c>
+      <c r="V255">
+        <v>2.94</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>8</v>
+      </c>
+      <c r="Y255">
+        <v>1.06</v>
+      </c>
+      <c r="Z255">
+        <v>1.73</v>
+      </c>
+      <c r="AA255">
+        <v>3.4</v>
+      </c>
+      <c r="AB255">
+        <v>4</v>
+      </c>
+      <c r="AC255">
+        <v>1.06</v>
+      </c>
+      <c r="AD255">
+        <v>6.5</v>
+      </c>
+      <c r="AE255">
+        <v>1.28</v>
+      </c>
+      <c r="AF255">
+        <v>3.1</v>
+      </c>
+      <c r="AG255">
+        <v>2.07</v>
+      </c>
+      <c r="AH255">
+        <v>1.75</v>
+      </c>
+      <c r="AI255">
+        <v>2</v>
+      </c>
+      <c r="AJ255">
+        <v>1.79</v>
+      </c>
+      <c r="AK255">
+        <v>1.29</v>
+      </c>
+      <c r="AL255">
+        <v>1.29</v>
+      </c>
+      <c r="AM255">
+        <v>2</v>
+      </c>
+      <c r="AN255">
+        <v>2.55</v>
+      </c>
+      <c r="AO255">
+        <v>2.03</v>
+      </c>
+      <c r="AP255">
+        <v>2.5</v>
+      </c>
+      <c r="AQ255">
+        <v>2</v>
+      </c>
+      <c r="AR255">
+        <v>1.76</v>
+      </c>
+      <c r="AS255">
+        <v>1.89</v>
+      </c>
+      <c r="AT255">
+        <v>3.65</v>
+      </c>
+      <c r="AU255">
+        <v>3</v>
+      </c>
+      <c r="AV255">
+        <v>7</v>
+      </c>
+      <c r="AW255">
+        <v>3</v>
+      </c>
+      <c r="AX255">
+        <v>7</v>
+      </c>
+      <c r="AY255">
+        <v>6</v>
+      </c>
+      <c r="AZ255">
+        <v>14</v>
+      </c>
+      <c r="BA255">
+        <v>1</v>
+      </c>
+      <c r="BB255">
+        <v>12</v>
+      </c>
+      <c r="BC255">
+        <v>13</v>
+      </c>
+      <c r="BD255">
+        <v>1.58</v>
+      </c>
+      <c r="BE255">
+        <v>7.8</v>
+      </c>
+      <c r="BF255">
+        <v>2.91</v>
+      </c>
+      <c r="BG255">
+        <v>1.37</v>
+      </c>
+      <c r="BH255">
+        <v>2.63</v>
+      </c>
+      <c r="BI255">
+        <v>1.76</v>
+      </c>
+      <c r="BJ255">
+        <v>2.03</v>
+      </c>
+      <c r="BK255">
+        <v>2.23</v>
+      </c>
+      <c r="BL255">
+        <v>1.63</v>
+      </c>
+      <c r="BM255">
+        <v>2.83</v>
+      </c>
+      <c r="BN255">
+        <v>1.33</v>
+      </c>
+      <c r="BO255">
+        <v>3.75</v>
+      </c>
+      <c r="BP255">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['15', '21', '81']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -952,9 +958,6 @@
     <t>['90+5', '90+13']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['24', '57']</t>
   </si>
   <si>
@@ -1034,6 +1037,9 @@
   </si>
   <si>
     <t>['14', '76', '82']</t>
+  </si>
+  <si>
+    <t>['31', '66']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -2147,7 +2153,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2272,7 +2278,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2478,7 +2484,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2890,7 +2896,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2971,7 +2977,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3920,7 +3926,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4001,7 +4007,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4126,7 +4132,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4616,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ16">
         <v>1.19</v>
@@ -4950,7 +4956,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5443,7 +5449,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5568,7 +5574,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5774,7 +5780,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5980,7 +5986,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6267,7 +6273,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6392,7 +6398,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6598,7 +6604,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7216,7 +7222,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7294,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7503,7 +7509,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7628,7 +7634,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7834,7 +7840,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8864,7 +8870,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9766,10 +9772,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -10100,7 +10106,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10306,7 +10312,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10590,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45">
         <v>0.82</v>
@@ -10718,7 +10724,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10799,7 +10805,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR46">
         <v>1.81</v>
@@ -10924,7 +10930,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11748,7 +11754,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12366,7 +12372,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12653,7 +12659,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ55">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12778,7 +12784,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12984,7 +12990,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13190,7 +13196,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13268,10 +13274,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13396,7 +13402,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13602,7 +13608,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13808,7 +13814,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14220,7 +14226,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14426,7 +14432,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15044,7 +15050,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15250,7 +15256,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15868,7 +15874,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16486,7 +16492,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16770,7 +16776,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75">
         <v>1.59</v>
@@ -17104,7 +17110,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17185,7 +17191,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17310,7 +17316,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17516,7 +17522,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17597,7 +17603,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ79">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR79">
         <v>1.25</v>
@@ -17722,7 +17728,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17928,7 +17934,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18340,7 +18346,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18624,7 +18630,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ84">
         <v>1.94</v>
@@ -18958,7 +18964,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19451,7 +19457,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -20272,7 +20278,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ92">
         <v>0.87</v>
@@ -20478,7 +20484,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ93">
         <v>0.38</v>
@@ -20606,7 +20612,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20812,7 +20818,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20893,7 +20899,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21224,7 +21230,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21920,7 +21926,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
         <v>1.69</v>
@@ -22048,7 +22054,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22666,7 +22672,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22872,7 +22878,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22953,7 +22959,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23078,7 +23084,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23365,7 +23371,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ107">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23490,7 +23496,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23902,7 +23908,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23980,7 +23986,7 @@
         <v>1.86</v>
       </c>
       <c r="AP110">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ110">
         <v>1.94</v>
@@ -24314,7 +24320,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24804,7 +24810,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
         <v>0.9399999999999999</v>
@@ -25138,7 +25144,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25344,7 +25350,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25550,7 +25556,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25756,7 +25762,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25962,7 +25968,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26374,7 +26380,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26658,7 +26664,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123">
         <v>0.5</v>
@@ -27198,7 +27204,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27404,7 +27410,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27610,7 +27616,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27816,7 +27822,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28022,7 +28028,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28228,7 +28234,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28434,7 +28440,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29133,7 +29139,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29748,7 +29754,7 @@
         <v>0.63</v>
       </c>
       <c r="AP138">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ138">
         <v>0.9399999999999999</v>
@@ -29957,7 +29963,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR139">
         <v>1.95</v>
@@ -30082,7 +30088,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30288,7 +30294,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30494,7 +30500,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30700,7 +30706,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30984,7 +30990,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ144">
         <v>0.82</v>
@@ -31112,7 +31118,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31318,7 +31324,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31524,7 +31530,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31730,7 +31736,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31936,7 +31942,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32348,7 +32354,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32429,7 +32435,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>0.99</v>
@@ -32554,7 +32560,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32760,7 +32766,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32838,7 +32844,7 @@
         <v>2.75</v>
       </c>
       <c r="AP153">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ153">
         <v>2.33</v>
@@ -33047,7 +33053,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ154">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33172,7 +33178,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33378,7 +33384,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33456,7 +33462,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33790,7 +33796,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34074,7 +34080,7 @@
         <v>0.22</v>
       </c>
       <c r="AP159">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
         <v>0.38</v>
@@ -34614,7 +34620,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34820,7 +34826,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35232,7 +35238,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35931,7 +35937,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR168">
         <v>2.21</v>
@@ -36755,7 +36761,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR172">
         <v>2.02</v>
@@ -37086,7 +37092,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37164,7 +37170,7 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ174">
         <v>1.59</v>
@@ -37292,7 +37298,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37370,7 +37376,7 @@
         <v>2.5</v>
       </c>
       <c r="AP175">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175">
         <v>2.33</v>
@@ -37498,7 +37504,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37910,7 +37916,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38322,7 +38328,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38528,7 +38534,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38734,7 +38740,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="Q182">
         <v>8.5</v>
@@ -39146,7 +39152,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39764,7 +39770,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39970,7 +39976,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40176,7 +40182,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40254,10 +40260,10 @@
         <v>1.36</v>
       </c>
       <c r="AP189">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ189">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR189">
         <v>1.65</v>
@@ -40460,10 +40466,10 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ190">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR190">
         <v>1.56</v>
@@ -40588,7 +40594,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40794,7 +40800,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41206,7 +41212,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41618,7 +41624,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42030,7 +42036,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42236,7 +42242,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42442,7 +42448,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42520,7 +42526,7 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ200">
         <v>1.25</v>
@@ -42935,7 +42941,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ202">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR202">
         <v>1.33</v>
@@ -43266,7 +43272,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43550,7 +43556,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ205">
         <v>0.87</v>
@@ -43678,7 +43684,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43884,7 +43890,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -43965,7 +43971,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR207">
         <v>1.6</v>
@@ -44708,7 +44714,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45198,7 +45204,7 @@
         <v>1.54</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213">
         <v>1.44</v>
@@ -46228,7 +46234,7 @@
         <v>1.69</v>
       </c>
       <c r="AP218">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ218">
         <v>1.6</v>
@@ -46356,7 +46362,7 @@
         <v>102</v>
       </c>
       <c r="P219" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="Q219">
         <v>8.5</v>
@@ -46768,7 +46774,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46974,7 +46980,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47180,7 +47186,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47261,7 +47267,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ223">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR223">
         <v>1.07</v>
@@ -47386,7 +47392,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47467,7 +47473,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR224">
         <v>1.32</v>
@@ -47592,7 +47598,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48288,7 +48294,7 @@
         <v>1.36</v>
       </c>
       <c r="AP228">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ228">
         <v>1.19</v>
@@ -48828,7 +48834,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49034,7 +49040,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49240,7 +49246,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49446,7 +49452,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49730,7 +49736,7 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ235">
         <v>1.44</v>
@@ -50064,7 +50070,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50145,7 +50151,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ237">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR237">
         <v>1.35</v>
@@ -50270,7 +50276,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50476,7 +50482,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50557,7 +50563,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ239">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR239">
         <v>1.86</v>
@@ -50888,7 +50894,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51094,7 +51100,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51584,7 +51590,7 @@
         <v>1.57</v>
       </c>
       <c r="AP244">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ244">
         <v>1.66</v>
@@ -51793,7 +51799,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -51996,7 +52002,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ246">
         <v>1.34</v>
@@ -52205,7 +52211,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ247">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AR247">
         <v>1.77</v>
@@ -52742,7 +52748,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52948,7 +52954,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53566,7 +53572,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53929,6 +53935,418 @@
       </c>
       <c r="BP255">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7884932</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256" t="s">
+        <v>70</v>
+      </c>
+      <c r="H256" t="s">
+        <v>78</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>233</v>
+      </c>
+      <c r="P256" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q256">
+        <v>2.6</v>
+      </c>
+      <c r="R256">
+        <v>1.87</v>
+      </c>
+      <c r="S256">
+        <v>5</v>
+      </c>
+      <c r="T256">
+        <v>1.57</v>
+      </c>
+      <c r="U256">
+        <v>2.35</v>
+      </c>
+      <c r="V256">
+        <v>3.5</v>
+      </c>
+      <c r="W256">
+        <v>1.24</v>
+      </c>
+      <c r="X256">
+        <v>7.5</v>
+      </c>
+      <c r="Y256">
+        <v>1.03</v>
+      </c>
+      <c r="Z256">
+        <v>1.91</v>
+      </c>
+      <c r="AA256">
+        <v>3.01</v>
+      </c>
+      <c r="AB256">
+        <v>4</v>
+      </c>
+      <c r="AC256">
+        <v>1.1</v>
+      </c>
+      <c r="AD256">
+        <v>6.25</v>
+      </c>
+      <c r="AE256">
+        <v>1.49</v>
+      </c>
+      <c r="AF256">
+        <v>2.5</v>
+      </c>
+      <c r="AG256">
+        <v>2.55</v>
+      </c>
+      <c r="AH256">
+        <v>1.49</v>
+      </c>
+      <c r="AI256">
+        <v>2.19</v>
+      </c>
+      <c r="AJ256">
+        <v>1.7</v>
+      </c>
+      <c r="AK256">
+        <v>1.36</v>
+      </c>
+      <c r="AL256">
+        <v>1.35</v>
+      </c>
+      <c r="AM256">
+        <v>1.8</v>
+      </c>
+      <c r="AN256">
+        <v>1.71</v>
+      </c>
+      <c r="AO256">
+        <v>1.74</v>
+      </c>
+      <c r="AP256">
+        <v>1.69</v>
+      </c>
+      <c r="AQ256">
+        <v>1.72</v>
+      </c>
+      <c r="AR256">
+        <v>1.54</v>
+      </c>
+      <c r="AS256">
+        <v>1.38</v>
+      </c>
+      <c r="AT256">
+        <v>2.92</v>
+      </c>
+      <c r="AU256">
+        <v>2</v>
+      </c>
+      <c r="AV256">
+        <v>3</v>
+      </c>
+      <c r="AW256">
+        <v>8</v>
+      </c>
+      <c r="AX256">
+        <v>0</v>
+      </c>
+      <c r="AY256">
+        <v>10</v>
+      </c>
+      <c r="AZ256">
+        <v>3</v>
+      </c>
+      <c r="BA256">
+        <v>10</v>
+      </c>
+      <c r="BB256">
+        <v>2</v>
+      </c>
+      <c r="BC256">
+        <v>12</v>
+      </c>
+      <c r="BD256">
+        <v>1.49</v>
+      </c>
+      <c r="BE256">
+        <v>6.75</v>
+      </c>
+      <c r="BF256">
+        <v>3.35</v>
+      </c>
+      <c r="BG256">
+        <v>1.53</v>
+      </c>
+      <c r="BH256">
+        <v>2.4</v>
+      </c>
+      <c r="BI256">
+        <v>1.89</v>
+      </c>
+      <c r="BJ256">
+        <v>1.85</v>
+      </c>
+      <c r="BK256">
+        <v>2.3</v>
+      </c>
+      <c r="BL256">
+        <v>1.5</v>
+      </c>
+      <c r="BM256">
+        <v>3.25</v>
+      </c>
+      <c r="BN256">
+        <v>1.3</v>
+      </c>
+      <c r="BO256">
+        <v>4.35</v>
+      </c>
+      <c r="BP256">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7886138</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257" t="s">
+        <v>82</v>
+      </c>
+      <c r="H257" t="s">
+        <v>84</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <v>3</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257" t="s">
+        <v>234</v>
+      </c>
+      <c r="P257" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q257">
+        <v>2.05</v>
+      </c>
+      <c r="R257">
+        <v>2.12</v>
+      </c>
+      <c r="S257">
+        <v>4.9</v>
+      </c>
+      <c r="T257">
+        <v>1.36</v>
+      </c>
+      <c r="U257">
+        <v>2.95</v>
+      </c>
+      <c r="V257">
+        <v>2.8</v>
+      </c>
+      <c r="W257">
+        <v>1.38</v>
+      </c>
+      <c r="X257">
+        <v>6.75</v>
+      </c>
+      <c r="Y257">
+        <v>1.06</v>
+      </c>
+      <c r="Z257">
+        <v>1.73</v>
+      </c>
+      <c r="AA257">
+        <v>3.6</v>
+      </c>
+      <c r="AB257">
+        <v>4.5</v>
+      </c>
+      <c r="AC257">
+        <v>1.06</v>
+      </c>
+      <c r="AD257">
+        <v>9.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.28</v>
+      </c>
+      <c r="AF257">
+        <v>3.3</v>
+      </c>
+      <c r="AG257">
+        <v>1.9</v>
+      </c>
+      <c r="AH257">
+        <v>1.8</v>
+      </c>
+      <c r="AI257">
+        <v>1.91</v>
+      </c>
+      <c r="AJ257">
+        <v>1.85</v>
+      </c>
+      <c r="AK257">
+        <v>1.22</v>
+      </c>
+      <c r="AL257">
+        <v>1.24</v>
+      </c>
+      <c r="AM257">
+        <v>2</v>
+      </c>
+      <c r="AN257">
+        <v>1.61</v>
+      </c>
+      <c r="AO257">
+        <v>1.55</v>
+      </c>
+      <c r="AP257">
+        <v>1.66</v>
+      </c>
+      <c r="AQ257">
+        <v>1.5</v>
+      </c>
+      <c r="AR257">
+        <v>1.48</v>
+      </c>
+      <c r="AS257">
+        <v>1.34</v>
+      </c>
+      <c r="AT257">
+        <v>2.82</v>
+      </c>
+      <c r="AU257">
+        <v>9</v>
+      </c>
+      <c r="AV257">
+        <v>7</v>
+      </c>
+      <c r="AW257">
+        <v>7</v>
+      </c>
+      <c r="AX257">
+        <v>6</v>
+      </c>
+      <c r="AY257">
+        <v>16</v>
+      </c>
+      <c r="AZ257">
+        <v>13</v>
+      </c>
+      <c r="BA257">
+        <v>8</v>
+      </c>
+      <c r="BB257">
+        <v>3</v>
+      </c>
+      <c r="BC257">
+        <v>11</v>
+      </c>
+      <c r="BD257">
+        <v>1.39</v>
+      </c>
+      <c r="BE257">
+        <v>8.5</v>
+      </c>
+      <c r="BF257">
+        <v>3.15</v>
+      </c>
+      <c r="BG257">
+        <v>1.23</v>
+      </c>
+      <c r="BH257">
+        <v>3.65</v>
+      </c>
+      <c r="BI257">
+        <v>1.31</v>
+      </c>
+      <c r="BJ257">
+        <v>2.92</v>
+      </c>
+      <c r="BK257">
+        <v>1.85</v>
+      </c>
+      <c r="BL257">
+        <v>2.08</v>
+      </c>
+      <c r="BM257">
+        <v>1.96</v>
+      </c>
+      <c r="BN257">
+        <v>1.75</v>
+      </c>
+      <c r="BO257">
+        <v>2.53</v>
+      </c>
+      <c r="BP257">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,9 @@
     <t>['15', '21', '81']</t>
   </si>
   <si>
+    <t>['37', '45+3', '76']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1040,6 +1043,9 @@
   </si>
   <si>
     <t>['31', '66']</t>
+  </si>
+  <si>
+    <t>['10', '26', '75', '87']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1944,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ3">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2278,7 +2284,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2484,7 +2490,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2896,7 +2902,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3180,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -3926,7 +3932,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4132,7 +4138,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4213,7 +4219,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4831,7 +4837,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ17">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR17">
         <v>1.12</v>
@@ -4956,7 +4962,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5574,7 +5580,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5780,7 +5786,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5858,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -5986,7 +5992,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6398,7 +6404,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6604,7 +6610,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6685,7 +6691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -7094,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7222,7 +7228,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7634,7 +7640,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7712,7 +7718,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ31">
         <v>1.44</v>
@@ -7840,7 +7846,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7921,7 +7927,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR32">
         <v>2.55</v>
@@ -8870,7 +8876,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9981,7 +9987,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -10106,7 +10112,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10312,7 +10318,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10390,10 +10396,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR44">
         <v>0.95</v>
@@ -10724,7 +10730,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10930,7 +10936,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11626,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ50">
         <v>1.19</v>
@@ -11754,7 +11760,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12372,7 +12378,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12784,7 +12790,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12862,10 +12868,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12990,7 +12996,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13196,7 +13202,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13402,7 +13408,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13608,7 +13614,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13686,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ60">
         <v>2.33</v>
@@ -13814,7 +13820,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14226,7 +14232,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14432,7 +14438,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15050,7 +15056,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15256,7 +15262,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15540,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15874,7 +15880,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15952,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -16367,7 +16373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16492,7 +16498,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17110,7 +17116,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17316,7 +17322,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17522,7 +17528,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17600,7 +17606,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
         <v>1.19</v>
@@ -17728,7 +17734,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17806,7 +17812,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -17934,7 +17940,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18346,7 +18352,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18964,7 +18970,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19251,7 +19257,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19663,7 +19669,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -20281,7 +20287,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.22</v>
@@ -20612,7 +20618,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20690,7 +20696,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ94">
         <v>2.33</v>
@@ -20818,7 +20824,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21105,7 +21111,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR96">
         <v>1.46</v>
@@ -21230,7 +21236,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -22054,7 +22060,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22672,7 +22678,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22753,7 +22759,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22878,7 +22884,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23084,7 +23090,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23368,7 +23374,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ107">
         <v>1.19</v>
@@ -23496,7 +23502,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23908,7 +23914,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24192,7 +24198,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
         <v>1.6</v>
@@ -24320,7 +24326,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25019,7 +25025,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR115">
         <v>1.42</v>
@@ -25144,7 +25150,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25350,7 +25356,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25556,7 +25562,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25762,7 +25768,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25968,7 +25974,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26380,7 +26386,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26461,7 +26467,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -27204,7 +27210,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27410,7 +27416,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27616,7 +27622,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27822,7 +27828,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28028,7 +28034,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28106,7 +28112,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130">
         <v>1.69</v>
@@ -28234,7 +28240,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28440,7 +28446,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29136,7 +29142,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ135">
         <v>1.24</v>
@@ -29345,7 +29351,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ136">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR136">
         <v>1.69</v>
@@ -30088,7 +30094,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30294,7 +30300,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30500,7 +30506,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30581,7 +30587,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR142">
         <v>2.2</v>
@@ -30706,7 +30712,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31118,7 +31124,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31324,7 +31330,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31530,7 +31536,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31736,7 +31742,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31942,7 +31948,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32020,7 +32026,7 @@
         <v>1.78</v>
       </c>
       <c r="AP149">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ149">
         <v>1.94</v>
@@ -32354,7 +32360,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32560,7 +32566,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32641,7 +32647,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ152">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32766,7 +32772,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33178,7 +33184,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33256,7 +33262,7 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ155">
         <v>0.5</v>
@@ -33384,7 +33390,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33465,7 +33471,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33796,7 +33802,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34620,7 +34626,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34826,7 +34832,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34904,7 +34910,7 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ163">
         <v>1.69</v>
@@ -35238,7 +35244,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36967,7 +36973,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ173">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37092,7 +37098,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37298,7 +37304,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37504,7 +37510,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37585,7 +37591,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -37788,7 +37794,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
         <v>0.82</v>
@@ -37916,7 +37922,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37994,7 +38000,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ178">
         <v>0.9399999999999999</v>
@@ -38328,7 +38334,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38534,7 +38540,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39152,7 +39158,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39770,7 +39776,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39851,7 +39857,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR187">
         <v>1.74</v>
@@ -39976,7 +39982,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40182,7 +40188,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40594,7 +40600,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40675,7 +40681,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ191">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR191">
         <v>2.07</v>
@@ -40800,7 +40806,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41084,7 +41090,7 @@
         <v>0.27</v>
       </c>
       <c r="AP193">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ193">
         <v>0.38</v>
@@ -41212,7 +41218,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41496,10 +41502,10 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -41624,7 +41630,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42036,7 +42042,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42242,7 +42248,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42448,7 +42454,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43272,7 +43278,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43559,7 +43565,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ205">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -43684,7 +43690,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43762,7 +43768,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ206">
         <v>1.59</v>
@@ -43890,7 +43896,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44714,7 +44720,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45619,7 +45625,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ215">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR215">
         <v>1.1</v>
@@ -46646,7 +46652,7 @@
         <v>0.23</v>
       </c>
       <c r="AP220">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ220">
         <v>0.38</v>
@@ -46774,7 +46780,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46855,7 +46861,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ221">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR221">
         <v>1.35</v>
@@ -46980,7 +46986,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47186,7 +47192,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47264,7 +47270,7 @@
         <v>1.23</v>
       </c>
       <c r="AP223">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ223">
         <v>1.24</v>
@@ -47392,7 +47398,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47598,7 +47604,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48503,7 +48509,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR229">
         <v>1.96</v>
@@ -48834,7 +48840,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49040,7 +49046,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49246,7 +49252,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49452,7 +49458,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49942,7 +49948,7 @@
         <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ236">
         <v>1.59</v>
@@ -50070,7 +50076,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50276,7 +50282,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50357,7 +50363,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ238">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR238">
         <v>1.35</v>
@@ -50482,7 +50488,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50766,7 +50772,7 @@
         <v>1.93</v>
       </c>
       <c r="AP240">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ240">
         <v>1.94</v>
@@ -50894,7 +50900,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51100,7 +51106,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51178,7 +51184,7 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ242">
         <v>0.53</v>
@@ -51387,7 +51393,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ243">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -52414,10 +52420,10 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AQ248">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -52748,7 +52754,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52829,7 +52835,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ250">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR250">
         <v>1.11</v>
@@ -52954,7 +52960,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53035,7 +53041,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ251">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AR251">
         <v>1.21</v>
@@ -53238,7 +53244,7 @@
         <v>1.1</v>
       </c>
       <c r="AP252">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ252">
         <v>1.16</v>
@@ -53444,7 +53450,7 @@
         <v>1.06</v>
       </c>
       <c r="AP253">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ253">
         <v>1.06</v>
@@ -53572,7 +53578,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54190,7 +54196,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54347,6 +54353,418 @@
       </c>
       <c r="BP257">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7886154</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45783.45833333334</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>71</v>
+      </c>
+      <c r="H258" t="s">
+        <v>72</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>2</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>4</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>86</v>
+      </c>
+      <c r="P258" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q258">
+        <v>4.35</v>
+      </c>
+      <c r="R258">
+        <v>1.86</v>
+      </c>
+      <c r="S258">
+        <v>3.4</v>
+      </c>
+      <c r="T258">
+        <v>1.57</v>
+      </c>
+      <c r="U258">
+        <v>2.25</v>
+      </c>
+      <c r="V258">
+        <v>3.75</v>
+      </c>
+      <c r="W258">
+        <v>1.2</v>
+      </c>
+      <c r="X258">
+        <v>7.5</v>
+      </c>
+      <c r="Y258">
+        <v>1.02</v>
+      </c>
+      <c r="Z258">
+        <v>2.75</v>
+      </c>
+      <c r="AA258">
+        <v>3.3</v>
+      </c>
+      <c r="AB258">
+        <v>2.3</v>
+      </c>
+      <c r="AC258">
+        <v>1.14</v>
+      </c>
+      <c r="AD258">
+        <v>5.8</v>
+      </c>
+      <c r="AE258">
+        <v>1.5</v>
+      </c>
+      <c r="AF258">
+        <v>2.3</v>
+      </c>
+      <c r="AG258">
+        <v>2.81</v>
+      </c>
+      <c r="AH258">
+        <v>1.38</v>
+      </c>
+      <c r="AI258">
+        <v>2.1</v>
+      </c>
+      <c r="AJ258">
+        <v>1.67</v>
+      </c>
+      <c r="AK258">
+        <v>1.4</v>
+      </c>
+      <c r="AL258">
+        <v>1.35</v>
+      </c>
+      <c r="AM258">
+        <v>1.35</v>
+      </c>
+      <c r="AN258">
+        <v>1.03</v>
+      </c>
+      <c r="AO258">
+        <v>0.91</v>
+      </c>
+      <c r="AP258">
+        <v>1</v>
+      </c>
+      <c r="AQ258">
+        <v>0.97</v>
+      </c>
+      <c r="AR258">
+        <v>1.07</v>
+      </c>
+      <c r="AS258">
+        <v>1.34</v>
+      </c>
+      <c r="AT258">
+        <v>2.41</v>
+      </c>
+      <c r="AU258">
+        <v>3</v>
+      </c>
+      <c r="AV258">
+        <v>6</v>
+      </c>
+      <c r="AW258">
+        <v>4</v>
+      </c>
+      <c r="AX258">
+        <v>6</v>
+      </c>
+      <c r="AY258">
+        <v>7</v>
+      </c>
+      <c r="AZ258">
+        <v>12</v>
+      </c>
+      <c r="BA258">
+        <v>3</v>
+      </c>
+      <c r="BB258">
+        <v>4</v>
+      </c>
+      <c r="BC258">
+        <v>7</v>
+      </c>
+      <c r="BD258">
+        <v>2.84</v>
+      </c>
+      <c r="BE258">
+        <v>7.7</v>
+      </c>
+      <c r="BF258">
+        <v>1.69</v>
+      </c>
+      <c r="BG258">
+        <v>1.55</v>
+      </c>
+      <c r="BH258">
+        <v>2.36</v>
+      </c>
+      <c r="BI258">
+        <v>1.91</v>
+      </c>
+      <c r="BJ258">
+        <v>1.83</v>
+      </c>
+      <c r="BK258">
+        <v>2.92</v>
+      </c>
+      <c r="BL258">
+        <v>1.49</v>
+      </c>
+      <c r="BM258">
+        <v>3.22</v>
+      </c>
+      <c r="BN258">
+        <v>1.28</v>
+      </c>
+      <c r="BO258">
+        <v>4.45</v>
+      </c>
+      <c r="BP258">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7886152</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45783.5625</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>77</v>
+      </c>
+      <c r="H259" t="s">
+        <v>85</v>
+      </c>
+      <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>3</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>4</v>
+      </c>
+      <c r="O259" t="s">
+        <v>235</v>
+      </c>
+      <c r="P259" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q259">
+        <v>2.9</v>
+      </c>
+      <c r="R259">
+        <v>2.07</v>
+      </c>
+      <c r="S259">
+        <v>3.1</v>
+      </c>
+      <c r="T259">
+        <v>1.35</v>
+      </c>
+      <c r="U259">
+        <v>2.8</v>
+      </c>
+      <c r="V259">
+        <v>2.75</v>
+      </c>
+      <c r="W259">
+        <v>1.37</v>
+      </c>
+      <c r="X259">
+        <v>6.5</v>
+      </c>
+      <c r="Y259">
+        <v>1.08</v>
+      </c>
+      <c r="Z259">
+        <v>2.05</v>
+      </c>
+      <c r="AA259">
+        <v>3.35</v>
+      </c>
+      <c r="AB259">
+        <v>2.86</v>
+      </c>
+      <c r="AC259">
+        <v>1.04</v>
+      </c>
+      <c r="AD259">
+        <v>8.5</v>
+      </c>
+      <c r="AE259">
+        <v>1.3</v>
+      </c>
+      <c r="AF259">
+        <v>3.3</v>
+      </c>
+      <c r="AG259">
+        <v>1.9</v>
+      </c>
+      <c r="AH259">
+        <v>1.8</v>
+      </c>
+      <c r="AI259">
+        <v>1.78</v>
+      </c>
+      <c r="AJ259">
+        <v>1.91</v>
+      </c>
+      <c r="AK259">
+        <v>1.33</v>
+      </c>
+      <c r="AL259">
+        <v>1.32</v>
+      </c>
+      <c r="AM259">
+        <v>1.57</v>
+      </c>
+      <c r="AN259">
+        <v>1.13</v>
+      </c>
+      <c r="AO259">
+        <v>1.41</v>
+      </c>
+      <c r="AP259">
+        <v>1.18</v>
+      </c>
+      <c r="AQ259">
+        <v>1.36</v>
+      </c>
+      <c r="AR259">
+        <v>1.16</v>
+      </c>
+      <c r="AS259">
+        <v>1.4</v>
+      </c>
+      <c r="AT259">
+        <v>2.56</v>
+      </c>
+      <c r="AU259">
+        <v>6</v>
+      </c>
+      <c r="AV259">
+        <v>11</v>
+      </c>
+      <c r="AW259">
+        <v>6</v>
+      </c>
+      <c r="AX259">
+        <v>3</v>
+      </c>
+      <c r="AY259">
+        <v>12</v>
+      </c>
+      <c r="AZ259">
+        <v>14</v>
+      </c>
+      <c r="BA259">
+        <v>3</v>
+      </c>
+      <c r="BB259">
+        <v>9</v>
+      </c>
+      <c r="BC259">
+        <v>12</v>
+      </c>
+      <c r="BD259">
+        <v>2.14</v>
+      </c>
+      <c r="BE259">
+        <v>6.35</v>
+      </c>
+      <c r="BF259">
+        <v>2.23</v>
+      </c>
+      <c r="BG259">
+        <v>1.32</v>
+      </c>
+      <c r="BH259">
+        <v>3.2</v>
+      </c>
+      <c r="BI259">
+        <v>1.55</v>
+      </c>
+      <c r="BJ259">
+        <v>2.35</v>
+      </c>
+      <c r="BK259">
+        <v>2.12</v>
+      </c>
+      <c r="BL259">
+        <v>1.87</v>
+      </c>
+      <c r="BM259">
+        <v>2.37</v>
+      </c>
+      <c r="BN259">
+        <v>1.55</v>
+      </c>
+      <c r="BO259">
+        <v>3.07</v>
+      </c>
+      <c r="BP259">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1407,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3807,7 +3807,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ25">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -9369,7 +9369,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -12459,7 +12459,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ54">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR54">
         <v>1.14</v>
@@ -16167,7 +16167,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ72">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR72">
         <v>1.09</v>
@@ -20493,7 +20493,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ93">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -23789,7 +23789,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ109">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -26261,7 +26261,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ121">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -30793,7 +30793,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ143">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -34089,7 +34089,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR159">
         <v>1.57</v>
@@ -36561,7 +36561,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ171">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -41093,7 +41093,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ193">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR193">
         <v>1.03</v>
@@ -43153,7 +43153,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ203">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -46655,7 +46655,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ220">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR220">
         <v>1.2</v>
@@ -50981,7 +50981,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ241">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51187,7 +51187,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ242">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -52626,7 +52626,7 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ249">
         <v>0.84</v>
@@ -52832,7 +52832,7 @@
         <v>0.97</v>
       </c>
       <c r="AP250">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="AQ250">
         <v>1</v>
@@ -53247,7 +53247,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ252">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -54765,6 +54765,212 @@
       </c>
       <c r="BP259">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7886151</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45784.45833333334</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>81</v>
+      </c>
+      <c r="H260" t="s">
+        <v>76</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260" t="s">
+        <v>86</v>
+      </c>
+      <c r="P260" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q260">
+        <v>1.52</v>
+      </c>
+      <c r="R260">
+        <v>2.55</v>
+      </c>
+      <c r="S260">
+        <v>8.1</v>
+      </c>
+      <c r="T260">
+        <v>1.25</v>
+      </c>
+      <c r="U260">
+        <v>3.4</v>
+      </c>
+      <c r="V260">
+        <v>2.25</v>
+      </c>
+      <c r="W260">
+        <v>1.55</v>
+      </c>
+      <c r="X260">
+        <v>4.8</v>
+      </c>
+      <c r="Y260">
+        <v>1.13</v>
+      </c>
+      <c r="Z260">
+        <v>1.55</v>
+      </c>
+      <c r="AA260">
+        <v>3.85</v>
+      </c>
+      <c r="AB260">
+        <v>5</v>
+      </c>
+      <c r="AC260">
+        <v>1.04</v>
+      </c>
+      <c r="AD260">
+        <v>13</v>
+      </c>
+      <c r="AE260">
+        <v>1.2</v>
+      </c>
+      <c r="AF260">
+        <v>4.2</v>
+      </c>
+      <c r="AG260">
+        <v>1.65</v>
+      </c>
+      <c r="AH260">
+        <v>2.05</v>
+      </c>
+      <c r="AI260">
+        <v>2.1</v>
+      </c>
+      <c r="AJ260">
+        <v>1.7</v>
+      </c>
+      <c r="AK260">
+        <v>1.17</v>
+      </c>
+      <c r="AL260">
+        <v>1.16</v>
+      </c>
+      <c r="AM260">
+        <v>3.4</v>
+      </c>
+      <c r="AN260">
+        <v>1.16</v>
+      </c>
+      <c r="AO260">
+        <v>0.53</v>
+      </c>
+      <c r="AP260">
+        <v>1.15</v>
+      </c>
+      <c r="AQ260">
+        <v>0.55</v>
+      </c>
+      <c r="AR260">
+        <v>1.72</v>
+      </c>
+      <c r="AS260">
+        <v>1.14</v>
+      </c>
+      <c r="AT260">
+        <v>2.86</v>
+      </c>
+      <c r="AU260">
+        <v>5</v>
+      </c>
+      <c r="AV260">
+        <v>3</v>
+      </c>
+      <c r="AW260">
+        <v>4</v>
+      </c>
+      <c r="AX260">
+        <v>2</v>
+      </c>
+      <c r="AY260">
+        <v>9</v>
+      </c>
+      <c r="AZ260">
+        <v>5</v>
+      </c>
+      <c r="BA260">
+        <v>6</v>
+      </c>
+      <c r="BB260">
+        <v>7</v>
+      </c>
+      <c r="BC260">
+        <v>13</v>
+      </c>
+      <c r="BD260">
+        <v>1.39</v>
+      </c>
+      <c r="BE260">
+        <v>8</v>
+      </c>
+      <c r="BF260">
+        <v>4.06</v>
+      </c>
+      <c r="BG260">
+        <v>1.25</v>
+      </c>
+      <c r="BH260">
+        <v>3.38</v>
+      </c>
+      <c r="BI260">
+        <v>1.48</v>
+      </c>
+      <c r="BJ260">
+        <v>2.48</v>
+      </c>
+      <c r="BK260">
+        <v>2.01</v>
+      </c>
+      <c r="BL260">
+        <v>1.96</v>
+      </c>
+      <c r="BM260">
+        <v>2.25</v>
+      </c>
+      <c r="BN260">
+        <v>1.6</v>
+      </c>
+      <c r="BO260">
+        <v>2.83</v>
+      </c>
+      <c r="BP260">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['37', '45+3', '76']</t>
   </si>
   <si>
+    <t>['33', '35', '90+6']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1407,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2284,7 +2287,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2362,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
         <v>1.94</v>
@@ -2490,7 +2493,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2902,7 +2905,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3601,7 +3604,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3932,7 +3935,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4138,7 +4141,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4962,7 +4965,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5580,7 +5583,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5658,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
         <v>1.69</v>
@@ -5786,7 +5789,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5992,7 +5995,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6404,7 +6407,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6610,7 +6613,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7228,7 +7231,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7309,7 +7312,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR29">
         <v>2.25</v>
@@ -7640,7 +7643,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7846,7 +7849,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8336,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8876,7 +8879,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9160,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR38">
         <v>0.86</v>
@@ -10112,7 +10115,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10318,7 +10321,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10730,7 +10733,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10936,7 +10939,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11760,7 +11763,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12378,7 +12381,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12790,7 +12793,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12996,7 +12999,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13202,7 +13205,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13408,7 +13411,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13614,7 +13617,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13820,7 +13823,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13898,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>1.59</v>
@@ -14232,7 +14235,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14438,7 +14441,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15056,7 +15059,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15262,7 +15265,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15549,7 +15552,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15880,7 +15883,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16164,7 +16167,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>0.41</v>
@@ -16498,7 +16501,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17116,7 +17119,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17322,7 +17325,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17528,7 +17531,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17734,7 +17737,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17940,7 +17943,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18352,7 +18355,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18845,7 +18848,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR85">
         <v>0.85</v>
@@ -18970,7 +18973,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19872,7 +19875,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>0.82</v>
@@ -20618,7 +20621,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20824,7 +20827,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21236,7 +21239,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21523,7 +21526,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ98">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR98">
         <v>1.84</v>
@@ -22060,7 +22063,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22678,7 +22681,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22884,7 +22887,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22962,7 +22965,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105">
         <v>1.24</v>
@@ -23090,7 +23093,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23502,7 +23505,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23914,7 +23917,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24326,7 +24329,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24613,7 +24616,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR113">
         <v>1.41</v>
@@ -25150,7 +25153,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25356,7 +25359,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25562,7 +25565,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25768,7 +25771,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25974,7 +25977,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26386,7 +26389,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26673,7 +26676,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27210,7 +27213,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27416,7 +27419,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27622,7 +27625,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27828,7 +27831,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28034,7 +28037,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28240,7 +28243,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28318,7 +28321,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131">
         <v>1.44</v>
@@ -28446,7 +28449,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -30094,7 +30097,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30175,7 +30178,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ140">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30300,7 +30303,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30506,7 +30509,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30712,7 +30715,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31124,7 +31127,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31330,7 +31333,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31536,7 +31539,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31742,7 +31745,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31820,7 +31823,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
         <v>1.19</v>
@@ -31948,7 +31951,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32360,7 +32363,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32566,7 +32569,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32772,7 +32775,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33184,7 +33187,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33265,7 +33268,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ155">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33390,7 +33393,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33802,7 +33805,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34626,7 +34629,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34832,7 +34835,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35244,7 +35247,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36355,7 +36358,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR170">
         <v>1.7</v>
@@ -37098,7 +37101,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37304,7 +37307,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37510,7 +37513,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37588,7 +37591,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ176">
         <v>1.12</v>
@@ -37922,7 +37925,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38209,7 +38212,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ179">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38334,7 +38337,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38540,7 +38543,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39158,7 +39161,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39776,7 +39779,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39982,7 +39985,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40188,7 +40191,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40600,7 +40603,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40806,7 +40809,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40884,7 +40887,7 @@
         <v>2.36</v>
       </c>
       <c r="AP192">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ192">
         <v>2.33</v>
@@ -41218,7 +41221,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41630,7 +41633,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41917,7 +41920,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ197">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR197">
         <v>1.84</v>
@@ -42042,7 +42045,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42248,7 +42251,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42454,7 +42457,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42944,7 +42947,7 @@
         <v>1.33</v>
       </c>
       <c r="AP202">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ202">
         <v>1.19</v>
@@ -43278,7 +43281,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43690,7 +43693,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43896,7 +43899,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44595,7 +44598,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ210">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44720,7 +44723,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46780,7 +46783,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46858,7 +46861,7 @@
         <v>0.77</v>
       </c>
       <c r="AP221">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ221">
         <v>0.8100000000000001</v>
@@ -46986,7 +46989,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47192,7 +47195,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47398,7 +47401,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47604,7 +47607,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48840,7 +48843,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49046,7 +49049,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49127,7 +49130,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ232">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49252,7 +49255,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49458,7 +49461,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49536,7 +49539,7 @@
         <v>1.64</v>
       </c>
       <c r="AP234">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
         <v>1.6</v>
@@ -50076,7 +50079,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50282,7 +50285,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50488,7 +50491,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50900,7 +50903,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51106,7 +51109,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51390,7 +51393,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -52629,7 +52632,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ249">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52754,7 +52757,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52960,7 +52963,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53038,7 +53041,7 @@
         <v>1.16</v>
       </c>
       <c r="AP251">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="AQ251">
         <v>1.18</v>
@@ -53453,7 +53456,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ253">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR253">
         <v>1.36</v>
@@ -53578,7 +53581,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54196,7 +54199,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54402,7 +54405,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54608,7 +54611,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54971,6 +54974,212 @@
       </c>
       <c r="BP260">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7886153</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45784.5625</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>73</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>236</v>
+      </c>
+      <c r="P261" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q261">
+        <v>2.3</v>
+      </c>
+      <c r="R261">
+        <v>2.11</v>
+      </c>
+      <c r="S261">
+        <v>5.35</v>
+      </c>
+      <c r="T261">
+        <v>1.38</v>
+      </c>
+      <c r="U261">
+        <v>2.7</v>
+      </c>
+      <c r="V261">
+        <v>3.2</v>
+      </c>
+      <c r="W261">
+        <v>1.38</v>
+      </c>
+      <c r="X261">
+        <v>6.5</v>
+      </c>
+      <c r="Y261">
+        <v>1.08</v>
+      </c>
+      <c r="Z261">
+        <v>1.65</v>
+      </c>
+      <c r="AA261">
+        <v>3.7</v>
+      </c>
+      <c r="AB261">
+        <v>4.75</v>
+      </c>
+      <c r="AC261">
+        <v>1.04</v>
+      </c>
+      <c r="AD261">
+        <v>9.5</v>
+      </c>
+      <c r="AE261">
+        <v>1.33</v>
+      </c>
+      <c r="AF261">
+        <v>3.2</v>
+      </c>
+      <c r="AG261">
+        <v>2.09</v>
+      </c>
+      <c r="AH261">
+        <v>1.72</v>
+      </c>
+      <c r="AI261">
+        <v>2</v>
+      </c>
+      <c r="AJ261">
+        <v>1.74</v>
+      </c>
+      <c r="AK261">
+        <v>1.26</v>
+      </c>
+      <c r="AL261">
+        <v>1.28</v>
+      </c>
+      <c r="AM261">
+        <v>2.05</v>
+      </c>
+      <c r="AN261">
+        <v>1.06</v>
+      </c>
+      <c r="AO261">
+        <v>0.84</v>
+      </c>
+      <c r="AP261">
+        <v>1.12</v>
+      </c>
+      <c r="AQ261">
+        <v>0.82</v>
+      </c>
+      <c r="AR261">
+        <v>1.33</v>
+      </c>
+      <c r="AS261">
+        <v>1.23</v>
+      </c>
+      <c r="AT261">
+        <v>2.56</v>
+      </c>
+      <c r="AU261">
+        <v>6</v>
+      </c>
+      <c r="AV261">
+        <v>2</v>
+      </c>
+      <c r="AW261">
+        <v>7</v>
+      </c>
+      <c r="AX261">
+        <v>5</v>
+      </c>
+      <c r="AY261">
+        <v>13</v>
+      </c>
+      <c r="AZ261">
+        <v>7</v>
+      </c>
+      <c r="BA261">
+        <v>2</v>
+      </c>
+      <c r="BB261">
+        <v>3</v>
+      </c>
+      <c r="BC261">
+        <v>5</v>
+      </c>
+      <c r="BD261">
+        <v>1.53</v>
+      </c>
+      <c r="BE261">
+        <v>6.75</v>
+      </c>
+      <c r="BF261">
+        <v>2.8</v>
+      </c>
+      <c r="BG261">
+        <v>1.35</v>
+      </c>
+      <c r="BH261">
+        <v>2.93</v>
+      </c>
+      <c r="BI261">
+        <v>1.64</v>
+      </c>
+      <c r="BJ261">
+        <v>2.12</v>
+      </c>
+      <c r="BK261">
+        <v>1.98</v>
+      </c>
+      <c r="BL261">
+        <v>1.77</v>
+      </c>
+      <c r="BM261">
+        <v>2.5</v>
+      </c>
+      <c r="BN261">
+        <v>1.47</v>
+      </c>
+      <c r="BO261">
+        <v>3.3</v>
+      </c>
+      <c r="BP261">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,9 @@
     <t>['33', '35', '90+6']</t>
   </si>
   <si>
+    <t>['12', '27', '58']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2287,7 +2290,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2493,7 +2496,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2574,7 +2577,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2905,7 +2908,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3395,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ10">
         <v>0.82</v>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
         <v>0.41</v>
@@ -3935,7 +3938,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4141,7 +4144,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4965,7 +4968,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5583,7 +5586,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5789,7 +5792,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5870,7 +5873,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.34</v>
@@ -5995,7 +5998,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6407,7 +6410,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6485,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ25">
         <v>0.41</v>
@@ -6613,7 +6616,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7231,7 +7234,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7643,7 +7646,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7849,7 +7852,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7927,7 +7930,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>0.8100000000000001</v>
@@ -8548,7 +8551,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>0.9399999999999999</v>
@@ -8879,7 +8882,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9575,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ40">
         <v>1.59</v>
@@ -10115,7 +10118,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10196,7 +10199,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10321,7 +10324,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10733,7 +10736,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10939,7 +10942,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11223,10 +11226,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>2.19</v>
@@ -11763,7 +11766,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12381,7 +12384,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12793,7 +12796,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12999,7 +13002,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13080,7 +13083,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.15</v>
@@ -13205,7 +13208,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13411,7 +13414,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13617,7 +13620,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13698,7 +13701,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ60">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13823,7 +13826,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14110,7 +14113,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14235,7 +14238,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14441,7 +14444,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14725,7 +14728,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -15059,7 +15062,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15265,7 +15268,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15755,10 +15758,10 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.49</v>
@@ -15883,7 +15886,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16501,7 +16504,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16994,7 +16997,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17119,7 +17122,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17325,7 +17328,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17406,7 +17409,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ78">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17531,7 +17534,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17737,7 +17740,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17943,7 +17946,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18021,7 +18024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18355,7 +18358,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18433,7 +18436,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ83">
         <v>1.19</v>
@@ -18973,7 +18976,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20621,7 +20624,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20702,7 +20705,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ94">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20827,7 +20830,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21239,7 +21242,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21523,7 +21526,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ98">
         <v>0.47</v>
@@ -21729,7 +21732,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ99">
         <v>1.19</v>
@@ -22063,7 +22066,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22681,7 +22684,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22887,7 +22890,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23093,7 +23096,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23505,7 +23508,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23917,7 +23920,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24204,7 +24207,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.08</v>
@@ -24329,7 +24332,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24613,7 +24616,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ113">
         <v>0.47</v>
@@ -25153,7 +25156,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25359,7 +25362,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25565,7 +25568,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25771,7 +25774,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25849,7 +25852,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ119">
         <v>0.82</v>
@@ -25977,7 +25980,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26058,7 +26061,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ120">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR120">
         <v>1.46</v>
@@ -26389,7 +26392,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26467,7 +26470,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ122">
         <v>1.12</v>
@@ -27213,7 +27216,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27419,7 +27422,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27497,10 +27500,10 @@
         <v>3</v>
       </c>
       <c r="AP127">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ127">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR127">
         <v>2.03</v>
@@ -27625,7 +27628,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27831,7 +27834,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28037,7 +28040,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28243,7 +28246,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28449,7 +28452,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28942,7 +28945,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ134">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -29969,7 +29972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ139">
         <v>1.19</v>
@@ -30097,7 +30100,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30303,7 +30306,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30381,10 +30384,10 @@
         <v>2.71</v>
       </c>
       <c r="AP141">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ141">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30509,7 +30512,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30715,7 +30718,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31127,7 +31130,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31333,7 +31336,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31539,7 +31542,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31617,7 +31620,7 @@
         <v>1.33</v>
       </c>
       <c r="AP147">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ147">
         <v>1.25</v>
@@ -31745,7 +31748,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31951,7 +31954,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32238,7 +32241,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ150">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.74</v>
@@ -32363,7 +32366,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32569,7 +32572,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32775,7 +32778,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32856,7 +32859,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ153">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR153">
         <v>1.54</v>
@@ -33059,7 +33062,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ154">
         <v>1.19</v>
@@ -33187,7 +33190,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33393,7 +33396,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33805,7 +33808,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34298,7 +34301,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ160">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR160">
         <v>2.11</v>
@@ -34629,7 +34632,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34835,7 +34838,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35122,7 +35125,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35247,7 +35250,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35943,7 +35946,7 @@
         <v>1.2</v>
       </c>
       <c r="AP168">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ168">
         <v>1.24</v>
@@ -36973,7 +36976,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ173">
         <v>0.8100000000000001</v>
@@ -37101,7 +37104,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37307,7 +37310,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37388,7 +37391,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ175">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR175">
         <v>1.71</v>
@@ -37513,7 +37516,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37925,7 +37928,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38337,7 +38340,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38543,7 +38546,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38621,7 +38624,7 @@
         <v>2</v>
       </c>
       <c r="AP181">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ181">
         <v>1.94</v>
@@ -39033,7 +39036,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ183">
         <v>1.25</v>
@@ -39161,7 +39164,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39242,7 +39245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ184">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR184">
         <v>1.43</v>
@@ -39779,7 +39782,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39985,7 +39988,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40191,7 +40194,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40603,7 +40606,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40809,7 +40812,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40890,7 +40893,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ192">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -41221,7 +41224,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41633,7 +41636,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42045,7 +42048,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42123,7 +42126,7 @@
         <v>1.92</v>
       </c>
       <c r="AP198">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ198">
         <v>1.69</v>
@@ -42251,7 +42254,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42457,7 +42460,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42741,7 +42744,7 @@
         <v>1.92</v>
       </c>
       <c r="AP201">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ201">
         <v>1.94</v>
@@ -43281,7 +43284,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43693,7 +43696,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43899,7 +43902,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44186,7 +44189,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ208">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44392,7 +44395,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ209">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>2.05</v>
@@ -44723,7 +44726,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45007,7 +45010,7 @@
         <v>1.85</v>
       </c>
       <c r="AP212">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ212">
         <v>1.69</v>
@@ -45419,7 +45422,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -46246,7 +46249,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ218">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR218">
         <v>1.69</v>
@@ -46783,7 +46786,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46989,7 +46992,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47195,7 +47198,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47401,7 +47404,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47607,7 +47610,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47688,7 +47691,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR225">
         <v>1.8</v>
@@ -48509,7 +48512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP229">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ229">
         <v>1.12</v>
@@ -48715,7 +48718,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -48843,7 +48846,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49049,7 +49052,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49255,7 +49258,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49336,7 +49339,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ233">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR233">
         <v>1.16</v>
@@ -49461,7 +49464,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49542,7 +49545,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR234">
         <v>1.36</v>
@@ -50079,7 +50082,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50285,7 +50288,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50491,7 +50494,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50903,7 +50906,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51109,7 +51112,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51602,7 +51605,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ244">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51808,7 +51811,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -52011,7 +52014,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AQ246">
         <v>1.34</v>
@@ -52217,7 +52220,7 @@
         <v>1.77</v>
       </c>
       <c r="AP247">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AQ247">
         <v>1.69</v>
@@ -52757,7 +52760,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52963,7 +52966,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53581,7 +53584,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53662,7 +53665,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ254">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -53865,7 +53868,7 @@
         <v>2.03</v>
       </c>
       <c r="AP255">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AQ255">
         <v>2</v>
@@ -54074,7 +54077,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ256">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -54199,7 +54202,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54277,7 +54280,7 @@
         <v>1.55</v>
       </c>
       <c r="AP257">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AQ257">
         <v>1.5</v>
@@ -54405,7 +54408,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54611,7 +54614,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -55180,6 +55183,418 @@
       </c>
       <c r="BP261">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7884935</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45786.48958333334</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>78</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" t="s">
+        <v>214</v>
+      </c>
+      <c r="P262" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q262">
+        <v>3.8</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262">
+        <v>2.82</v>
+      </c>
+      <c r="T262">
+        <v>1.46</v>
+      </c>
+      <c r="U262">
+        <v>2.5</v>
+      </c>
+      <c r="V262">
+        <v>2.88</v>
+      </c>
+      <c r="W262">
+        <v>1.36</v>
+      </c>
+      <c r="X262">
+        <v>6.2</v>
+      </c>
+      <c r="Y262">
+        <v>1.07</v>
+      </c>
+      <c r="Z262">
+        <v>2.98</v>
+      </c>
+      <c r="AA262">
+        <v>3.2</v>
+      </c>
+      <c r="AB262">
+        <v>2.12</v>
+      </c>
+      <c r="AC262">
+        <v>1.03</v>
+      </c>
+      <c r="AD262">
+        <v>8</v>
+      </c>
+      <c r="AE262">
+        <v>1.36</v>
+      </c>
+      <c r="AF262">
+        <v>2.87</v>
+      </c>
+      <c r="AG262">
+        <v>2.05</v>
+      </c>
+      <c r="AH262">
+        <v>1.67</v>
+      </c>
+      <c r="AI262">
+        <v>1.83</v>
+      </c>
+      <c r="AJ262">
+        <v>1.8</v>
+      </c>
+      <c r="AK262">
+        <v>1.61</v>
+      </c>
+      <c r="AL262">
+        <v>1.31</v>
+      </c>
+      <c r="AM262">
+        <v>1.28</v>
+      </c>
+      <c r="AN262">
+        <v>1.72</v>
+      </c>
+      <c r="AO262">
+        <v>2.5</v>
+      </c>
+      <c r="AP262">
+        <v>1.7</v>
+      </c>
+      <c r="AQ262">
+        <v>2.45</v>
+      </c>
+      <c r="AR262">
+        <v>1.36</v>
+      </c>
+      <c r="AS262">
+        <v>1.73</v>
+      </c>
+      <c r="AT262">
+        <v>3.09</v>
+      </c>
+      <c r="AU262">
+        <v>5</v>
+      </c>
+      <c r="AV262">
+        <v>4</v>
+      </c>
+      <c r="AW262">
+        <v>4</v>
+      </c>
+      <c r="AX262">
+        <v>5</v>
+      </c>
+      <c r="AY262">
+        <v>9</v>
+      </c>
+      <c r="AZ262">
+        <v>9</v>
+      </c>
+      <c r="BA262">
+        <v>1</v>
+      </c>
+      <c r="BB262">
+        <v>5</v>
+      </c>
+      <c r="BC262">
+        <v>6</v>
+      </c>
+      <c r="BD262">
+        <v>2.65</v>
+      </c>
+      <c r="BE262">
+        <v>7.8</v>
+      </c>
+      <c r="BF262">
+        <v>1.63</v>
+      </c>
+      <c r="BG262">
+        <v>1.67</v>
+      </c>
+      <c r="BH262">
+        <v>2.18</v>
+      </c>
+      <c r="BI262">
+        <v>2.13</v>
+      </c>
+      <c r="BJ262">
+        <v>1.69</v>
+      </c>
+      <c r="BK262">
+        <v>2.42</v>
+      </c>
+      <c r="BL262">
+        <v>1.53</v>
+      </c>
+      <c r="BM262">
+        <v>3.55</v>
+      </c>
+      <c r="BN262">
+        <v>1.24</v>
+      </c>
+      <c r="BO262">
+        <v>5.3</v>
+      </c>
+      <c r="BP262">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7886140</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45786.59375</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>237</v>
+      </c>
+      <c r="P263" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q263">
+        <v>1.8</v>
+      </c>
+      <c r="R263">
+        <v>2.41</v>
+      </c>
+      <c r="S263">
+        <v>7</v>
+      </c>
+      <c r="T263">
+        <v>1.33</v>
+      </c>
+      <c r="U263">
+        <v>3.1</v>
+      </c>
+      <c r="V263">
+        <v>2.53</v>
+      </c>
+      <c r="W263">
+        <v>1.46</v>
+      </c>
+      <c r="X263">
+        <v>6.1</v>
+      </c>
+      <c r="Y263">
+        <v>1.11</v>
+      </c>
+      <c r="Z263">
+        <v>1.33</v>
+      </c>
+      <c r="AA263">
+        <v>4.4</v>
+      </c>
+      <c r="AB263">
+        <v>8</v>
+      </c>
+      <c r="AC263">
+        <v>1.02</v>
+      </c>
+      <c r="AD263">
+        <v>11.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.22</v>
+      </c>
+      <c r="AF263">
+        <v>3.93</v>
+      </c>
+      <c r="AG263">
+        <v>1.76</v>
+      </c>
+      <c r="AH263">
+        <v>2.05</v>
+      </c>
+      <c r="AI263">
+        <v>1.9</v>
+      </c>
+      <c r="AJ263">
+        <v>1.7</v>
+      </c>
+      <c r="AK263">
+        <v>1.09</v>
+      </c>
+      <c r="AL263">
+        <v>1.19</v>
+      </c>
+      <c r="AM263">
+        <v>2.9</v>
+      </c>
+      <c r="AN263">
+        <v>1.66</v>
+      </c>
+      <c r="AO263">
+        <v>1.66</v>
+      </c>
+      <c r="AP263">
+        <v>1.7</v>
+      </c>
+      <c r="AQ263">
+        <v>1.61</v>
+      </c>
+      <c r="AR263">
+        <v>1.92</v>
+      </c>
+      <c r="AS263">
+        <v>1.5</v>
+      </c>
+      <c r="AT263">
+        <v>3.42</v>
+      </c>
+      <c r="AU263">
+        <v>9</v>
+      </c>
+      <c r="AV263">
+        <v>6</v>
+      </c>
+      <c r="AW263">
+        <v>7</v>
+      </c>
+      <c r="AX263">
+        <v>4</v>
+      </c>
+      <c r="AY263">
+        <v>16</v>
+      </c>
+      <c r="AZ263">
+        <v>10</v>
+      </c>
+      <c r="BA263">
+        <v>11</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>14</v>
+      </c>
+      <c r="BD263">
+        <v>1.29</v>
+      </c>
+      <c r="BE263">
+        <v>10</v>
+      </c>
+      <c r="BF263">
+        <v>3.55</v>
+      </c>
+      <c r="BG263">
+        <v>1.17</v>
+      </c>
+      <c r="BH263">
+        <v>3.72</v>
+      </c>
+      <c r="BI263">
+        <v>1.41</v>
+      </c>
+      <c r="BJ263">
+        <v>2.68</v>
+      </c>
+      <c r="BK263">
+        <v>1.69</v>
+      </c>
+      <c r="BL263">
+        <v>2.1</v>
+      </c>
+      <c r="BM263">
+        <v>2.08</v>
+      </c>
+      <c r="BN263">
+        <v>1.7</v>
+      </c>
+      <c r="BO263">
+        <v>2.6</v>
+      </c>
+      <c r="BP263">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['12', '27', '58']</t>
   </si>
   <si>
+    <t>['33', '90+3']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1052,6 +1055,9 @@
   </si>
   <si>
     <t>['10', '26', '75', '87']</t>
+  </si>
+  <si>
+    <t>['50', '76']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2290,7 +2296,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2496,7 +2502,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2908,7 +2914,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3195,7 +3201,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3604,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ11">
         <v>0.47</v>
@@ -3938,7 +3944,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4144,7 +4150,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4968,7 +4974,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5252,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1.59</v>
@@ -5586,7 +5592,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5667,7 +5673,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5792,7 +5798,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5998,7 +6004,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6079,7 +6085,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR23">
         <v>0.91</v>
@@ -6282,7 +6288,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>1.19</v>
@@ -6410,7 +6416,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6616,7 +6622,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6900,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ27">
         <v>0.82</v>
@@ -7234,7 +7240,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7518,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>1.24</v>
@@ -7646,7 +7652,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7727,7 +7733,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7852,7 +7858,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8882,7 +8888,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8963,7 +8969,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ37">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR37">
         <v>1.15</v>
@@ -9372,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ39">
         <v>0.41</v>
@@ -10118,7 +10124,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10324,7 +10330,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10736,7 +10742,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10814,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.24</v>
@@ -10942,7 +10948,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11432,7 +11438,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>1.94</v>
@@ -11766,7 +11772,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12053,7 +12059,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR52">
         <v>0.93</v>
@@ -12259,7 +12265,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ53">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12384,7 +12390,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12796,7 +12802,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13002,7 +13008,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13208,7 +13214,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13414,7 +13420,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13620,7 +13626,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13826,7 +13832,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14110,7 +14116,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
         <v>2.25</v>
@@ -14238,7 +14244,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14444,7 +14450,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14731,7 +14737,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR65">
         <v>1.93</v>
@@ -15062,7 +15068,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15140,7 +15146,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>1.94</v>
@@ -15268,7 +15274,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15346,10 +15352,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR68">
         <v>1.26</v>
@@ -15886,7 +15892,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16504,7 +16510,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17122,7 +17128,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17200,7 +17206,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ77">
         <v>1.24</v>
@@ -17328,7 +17334,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17534,7 +17540,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17740,7 +17746,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17946,7 +17952,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18027,7 +18033,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18230,10 +18236,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR82">
         <v>1.21</v>
@@ -18358,7 +18364,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18976,7 +18982,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19054,7 +19060,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -20084,7 +20090,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ91">
         <v>1.59</v>
@@ -20624,7 +20630,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20830,7 +20836,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21114,7 +21120,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>1.12</v>
@@ -21242,7 +21248,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21320,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>0.9399999999999999</v>
@@ -21941,7 +21947,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR100">
         <v>1.22</v>
@@ -22066,7 +22072,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22144,10 +22150,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ101">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR101">
         <v>1.85</v>
@@ -22684,7 +22690,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22890,7 +22896,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23096,7 +23102,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23508,7 +23514,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23589,7 +23595,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ108">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23920,7 +23926,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24332,7 +24338,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25028,7 +25034,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115">
         <v>1.12</v>
@@ -25156,7 +25162,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25237,7 +25243,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR116">
         <v>1.24</v>
@@ -25362,7 +25368,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25440,7 +25446,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ117">
         <v>1.19</v>
@@ -25568,7 +25574,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25774,7 +25780,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25980,7 +25986,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26058,7 +26064,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
         <v>2.25</v>
@@ -26264,7 +26270,7 @@
         <v>0.29</v>
       </c>
       <c r="AP121">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121">
         <v>0.41</v>
@@ -26392,7 +26398,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26882,7 +26888,7 @@
         <v>0.71</v>
       </c>
       <c r="AP124">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -27216,7 +27222,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27297,7 +27303,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27422,7 +27428,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27628,7 +27634,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27706,7 +27712,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ128">
         <v>0.82</v>
@@ -27834,7 +27840,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27912,7 +27918,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ129">
         <v>1.25</v>
@@ -28040,7 +28046,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28121,7 +28127,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ130">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR130">
         <v>1.03</v>
@@ -28246,7 +28252,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28327,7 +28333,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28452,7 +28458,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -30100,7 +30106,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30306,7 +30312,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30512,7 +30518,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30590,7 +30596,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ142">
         <v>1.12</v>
@@ -30718,7 +30724,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30796,7 +30802,7 @@
         <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ143">
         <v>0.41</v>
@@ -31130,7 +31136,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31211,7 +31217,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ145">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR145">
         <v>1.27</v>
@@ -31336,7 +31342,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31417,7 +31423,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ146">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31542,7 +31548,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31748,7 +31754,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31954,7 +31960,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32366,7 +32372,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32572,7 +32578,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32650,7 +32656,7 @@
         <v>0.44</v>
       </c>
       <c r="AP152">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ152">
         <v>0.8100000000000001</v>
@@ -32778,7 +32784,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33190,7 +33196,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33396,7 +33402,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33680,7 +33686,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ157">
         <v>1.59</v>
@@ -33808,7 +33814,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34298,7 +34304,7 @@
         <v>2.78</v>
       </c>
       <c r="AP160">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ160">
         <v>2.25</v>
@@ -34632,7 +34638,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34838,7 +34844,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34919,7 +34925,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ163">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35122,7 +35128,7 @@
         <v>2.1</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164">
         <v>1.5</v>
@@ -35250,7 +35256,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35743,7 +35749,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ167">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -36152,7 +36158,7 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ169">
         <v>1.25</v>
@@ -36770,7 +36776,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ172">
         <v>1.19</v>
@@ -37104,7 +37110,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37310,7 +37316,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37516,7 +37522,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37928,7 +37934,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38340,7 +38346,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38418,10 +38424,10 @@
         <v>1.55</v>
       </c>
       <c r="AP180">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ180">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR180">
         <v>1.56</v>
@@ -38546,7 +38552,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38833,7 +38839,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ182">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR182">
         <v>1.01</v>
@@ -39164,7 +39170,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39242,7 +39248,7 @@
         <v>1.91</v>
       </c>
       <c r="AP184">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ184">
         <v>1.5</v>
@@ -39782,7 +39788,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39988,7 +39994,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40194,7 +40200,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40606,7 +40612,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40684,7 +40690,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ191">
         <v>0.8100000000000001</v>
@@ -40812,7 +40818,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41224,7 +41230,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41302,10 +41308,10 @@
         <v>1.67</v>
       </c>
       <c r="AP194">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ194">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR194">
         <v>1.45</v>
@@ -41636,7 +41642,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42048,7 +42054,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42129,7 +42135,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ198">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR198">
         <v>2.05</v>
@@ -42254,7 +42260,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42332,7 +42338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ199">
         <v>1.19</v>
@@ -42460,7 +42466,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43284,7 +43290,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43696,7 +43702,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43902,7 +43908,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44392,7 +44398,7 @@
         <v>1.75</v>
       </c>
       <c r="AP209">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ209">
         <v>1.5</v>
@@ -44598,7 +44604,7 @@
         <v>0.38</v>
       </c>
       <c r="AP210">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ210">
         <v>0.47</v>
@@ -44726,7 +44732,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44804,7 +44810,7 @@
         <v>1.23</v>
       </c>
       <c r="AP211">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ211">
         <v>1.19</v>
@@ -45013,7 +45019,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ212">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR212">
         <v>1.44</v>
@@ -45219,7 +45225,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ213">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR213">
         <v>1.54</v>
@@ -46040,7 +46046,7 @@
         <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ217">
         <v>1.25</v>
@@ -46786,7 +46792,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46992,7 +46998,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47198,7 +47204,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47404,7 +47410,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47610,7 +47616,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47894,7 +47900,7 @@
         <v>0.79</v>
       </c>
       <c r="AP226">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ226">
         <v>0.82</v>
@@ -48846,7 +48852,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48924,10 +48930,10 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ231">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR231">
         <v>2.07</v>
@@ -49052,7 +49058,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49130,7 +49136,7 @@
         <v>0.36</v>
       </c>
       <c r="AP232">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ232">
         <v>0.47</v>
@@ -49258,7 +49264,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49464,7 +49470,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49751,7 +49757,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ235">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR235">
         <v>1.72</v>
@@ -50082,7 +50088,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50288,7 +50294,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50494,7 +50500,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50906,7 +50912,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51112,7 +51118,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51190,7 +51196,7 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ242">
         <v>0.55</v>
@@ -51602,7 +51608,7 @@
         <v>1.57</v>
       </c>
       <c r="AP244">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ244">
         <v>1.7</v>
@@ -51808,7 +51814,7 @@
         <v>1.77</v>
       </c>
       <c r="AP245">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ245">
         <v>1.7</v>
@@ -52017,7 +52023,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ246">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AR246">
         <v>1.5</v>
@@ -52223,7 +52229,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ247">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR247">
         <v>1.77</v>
@@ -52760,7 +52766,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52966,7 +52972,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53250,7 +53256,7 @@
         <v>1.1</v>
       </c>
       <c r="AP252">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ252">
         <v>1.15</v>
@@ -53584,7 +53590,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53662,7 +53668,7 @@
         <v>1.61</v>
       </c>
       <c r="AP254">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AQ254">
         <v>1.7</v>
@@ -53871,7 +53877,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ255">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR255">
         <v>1.76</v>
@@ -54074,7 +54080,7 @@
         <v>1.74</v>
       </c>
       <c r="AP256">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ256">
         <v>1.7</v>
@@ -54202,7 +54208,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54283,7 +54289,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ257">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR257">
         <v>1.48</v>
@@ -54408,7 +54414,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54614,7 +54620,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54695,7 +54701,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ259">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR259">
         <v>1.16</v>
@@ -55232,7 +55238,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55595,6 +55601,624 @@
       </c>
       <c r="BP263">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7886157</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45787.375</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264" t="s">
+        <v>85</v>
+      </c>
+      <c r="H264" t="s">
+        <v>73</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264" t="s">
+        <v>86</v>
+      </c>
+      <c r="P264" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q264">
+        <v>4.17</v>
+      </c>
+      <c r="R264">
+        <v>2.05</v>
+      </c>
+      <c r="S264">
+        <v>2.7</v>
+      </c>
+      <c r="T264">
+        <v>1.33</v>
+      </c>
+      <c r="U264">
+        <v>2.65</v>
+      </c>
+      <c r="V264">
+        <v>2.75</v>
+      </c>
+      <c r="W264">
+        <v>1.38</v>
+      </c>
+      <c r="X264">
+        <v>7.5</v>
+      </c>
+      <c r="Y264">
+        <v>1.08</v>
+      </c>
+      <c r="Z264">
+        <v>3.55</v>
+      </c>
+      <c r="AA264">
+        <v>3</v>
+      </c>
+      <c r="AB264">
+        <v>2.05</v>
+      </c>
+      <c r="AC264">
+        <v>1.02</v>
+      </c>
+      <c r="AD264">
+        <v>7.9</v>
+      </c>
+      <c r="AE264">
+        <v>1.28</v>
+      </c>
+      <c r="AF264">
+        <v>3.2</v>
+      </c>
+      <c r="AG264">
+        <v>1.95</v>
+      </c>
+      <c r="AH264">
+        <v>1.79</v>
+      </c>
+      <c r="AI264">
+        <v>1.7</v>
+      </c>
+      <c r="AJ264">
+        <v>1.97</v>
+      </c>
+      <c r="AK264">
+        <v>1.33</v>
+      </c>
+      <c r="AL264">
+        <v>1.31</v>
+      </c>
+      <c r="AM264">
+        <v>1.3</v>
+      </c>
+      <c r="AN264">
+        <v>1.36</v>
+      </c>
+      <c r="AO264">
+        <v>1.12</v>
+      </c>
+      <c r="AP264">
+        <v>1.35</v>
+      </c>
+      <c r="AQ264">
+        <v>1.12</v>
+      </c>
+      <c r="AR264">
+        <v>1.42</v>
+      </c>
+      <c r="AS264">
+        <v>1.34</v>
+      </c>
+      <c r="AT264">
+        <v>2.76</v>
+      </c>
+      <c r="AU264">
+        <v>4</v>
+      </c>
+      <c r="AV264">
+        <v>0</v>
+      </c>
+      <c r="AW264">
+        <v>2</v>
+      </c>
+      <c r="AX264">
+        <v>3</v>
+      </c>
+      <c r="AY264">
+        <v>6</v>
+      </c>
+      <c r="AZ264">
+        <v>3</v>
+      </c>
+      <c r="BA264">
+        <v>3</v>
+      </c>
+      <c r="BB264">
+        <v>1</v>
+      </c>
+      <c r="BC264">
+        <v>4</v>
+      </c>
+      <c r="BD264">
+        <v>1.92</v>
+      </c>
+      <c r="BE264">
+        <v>6.3</v>
+      </c>
+      <c r="BF264">
+        <v>2.32</v>
+      </c>
+      <c r="BG264">
+        <v>1.27</v>
+      </c>
+      <c r="BH264">
+        <v>3.14</v>
+      </c>
+      <c r="BI264">
+        <v>1.53</v>
+      </c>
+      <c r="BJ264">
+        <v>2.28</v>
+      </c>
+      <c r="BK264">
+        <v>2.23</v>
+      </c>
+      <c r="BL264">
+        <v>1.8</v>
+      </c>
+      <c r="BM264">
+        <v>2.51</v>
+      </c>
+      <c r="BN264">
+        <v>1.44</v>
+      </c>
+      <c r="BO264">
+        <v>2.95</v>
+      </c>
+      <c r="BP264">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7886139</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45787.47916666666</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265" t="s">
+        <v>84</v>
+      </c>
+      <c r="H265" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>231</v>
+      </c>
+      <c r="P265" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q265">
+        <v>2.62</v>
+      </c>
+      <c r="R265">
+        <v>2.06</v>
+      </c>
+      <c r="S265">
+        <v>3.95</v>
+      </c>
+      <c r="T265">
+        <v>1.37</v>
+      </c>
+      <c r="U265">
+        <v>2.55</v>
+      </c>
+      <c r="V265">
+        <v>3.1</v>
+      </c>
+      <c r="W265">
+        <v>1.32</v>
+      </c>
+      <c r="X265">
+        <v>7.2</v>
+      </c>
+      <c r="Y265">
+        <v>1.06</v>
+      </c>
+      <c r="Z265">
+        <v>1.99</v>
+      </c>
+      <c r="AA265">
+        <v>3.3</v>
+      </c>
+      <c r="AB265">
+        <v>3.15</v>
+      </c>
+      <c r="AC265">
+        <v>1.03</v>
+      </c>
+      <c r="AD265">
+        <v>7.7</v>
+      </c>
+      <c r="AE265">
+        <v>1.33</v>
+      </c>
+      <c r="AF265">
+        <v>3</v>
+      </c>
+      <c r="AG265">
+        <v>2.18</v>
+      </c>
+      <c r="AH265">
+        <v>1.7</v>
+      </c>
+      <c r="AI265">
+        <v>1.95</v>
+      </c>
+      <c r="AJ265">
+        <v>1.83</v>
+      </c>
+      <c r="AK265">
+        <v>1.35</v>
+      </c>
+      <c r="AL265">
+        <v>1.33</v>
+      </c>
+      <c r="AM265">
+        <v>1.75</v>
+      </c>
+      <c r="AN265">
+        <v>1.5</v>
+      </c>
+      <c r="AO265">
+        <v>1.34</v>
+      </c>
+      <c r="AP265">
+        <v>1.45</v>
+      </c>
+      <c r="AQ265">
+        <v>1.39</v>
+      </c>
+      <c r="AR265">
+        <v>1.34</v>
+      </c>
+      <c r="AS265">
+        <v>1.36</v>
+      </c>
+      <c r="AT265">
+        <v>2.7</v>
+      </c>
+      <c r="AU265">
+        <v>3</v>
+      </c>
+      <c r="AV265">
+        <v>6</v>
+      </c>
+      <c r="AW265">
+        <v>9</v>
+      </c>
+      <c r="AX265">
+        <v>9</v>
+      </c>
+      <c r="AY265">
+        <v>12</v>
+      </c>
+      <c r="AZ265">
+        <v>15</v>
+      </c>
+      <c r="BA265">
+        <v>3</v>
+      </c>
+      <c r="BB265">
+        <v>8</v>
+      </c>
+      <c r="BC265">
+        <v>11</v>
+      </c>
+      <c r="BD265">
+        <v>1.6</v>
+      </c>
+      <c r="BE265">
+        <v>7.8</v>
+      </c>
+      <c r="BF265">
+        <v>2.84</v>
+      </c>
+      <c r="BG265">
+        <v>1.32</v>
+      </c>
+      <c r="BH265">
+        <v>3.1</v>
+      </c>
+      <c r="BI265">
+        <v>1.54</v>
+      </c>
+      <c r="BJ265">
+        <v>2.25</v>
+      </c>
+      <c r="BK265">
+        <v>2.27</v>
+      </c>
+      <c r="BL265">
+        <v>1.76</v>
+      </c>
+      <c r="BM265">
+        <v>2.54</v>
+      </c>
+      <c r="BN265">
+        <v>1.47</v>
+      </c>
+      <c r="BO265">
+        <v>3.2</v>
+      </c>
+      <c r="BP265">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7884934</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
+      <c r="G266" t="s">
+        <v>79</v>
+      </c>
+      <c r="H266" t="s">
+        <v>70</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>238</v>
+      </c>
+      <c r="P266" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q266">
+        <v>2.4</v>
+      </c>
+      <c r="R266">
+        <v>2</v>
+      </c>
+      <c r="S266">
+        <v>5</v>
+      </c>
+      <c r="T266">
+        <v>1.42</v>
+      </c>
+      <c r="U266">
+        <v>2.62</v>
+      </c>
+      <c r="V266">
+        <v>2.9</v>
+      </c>
+      <c r="W266">
+        <v>1.34</v>
+      </c>
+      <c r="X266">
+        <v>7.4</v>
+      </c>
+      <c r="Y266">
+        <v>1.03</v>
+      </c>
+      <c r="Z266">
+        <v>1.68</v>
+      </c>
+      <c r="AA266">
+        <v>3.4</v>
+      </c>
+      <c r="AB266">
+        <v>4.9</v>
+      </c>
+      <c r="AC266">
+        <v>1.04</v>
+      </c>
+      <c r="AD266">
+        <v>7.8</v>
+      </c>
+      <c r="AE266">
+        <v>1.41</v>
+      </c>
+      <c r="AF266">
+        <v>2.75</v>
+      </c>
+      <c r="AG266">
+        <v>2.15</v>
+      </c>
+      <c r="AH266">
+        <v>1.67</v>
+      </c>
+      <c r="AI266">
+        <v>2</v>
+      </c>
+      <c r="AJ266">
+        <v>1.75</v>
+      </c>
+      <c r="AK266">
+        <v>1.25</v>
+      </c>
+      <c r="AL266">
+        <v>1.29</v>
+      </c>
+      <c r="AM266">
+        <v>2.25</v>
+      </c>
+      <c r="AN266">
+        <v>2</v>
+      </c>
+      <c r="AO266">
+        <v>1.69</v>
+      </c>
+      <c r="AP266">
+        <v>2.03</v>
+      </c>
+      <c r="AQ266">
+        <v>1.64</v>
+      </c>
+      <c r="AR266">
+        <v>1.89</v>
+      </c>
+      <c r="AS266">
+        <v>1.53</v>
+      </c>
+      <c r="AT266">
+        <v>3.42</v>
+      </c>
+      <c r="AU266">
+        <v>6</v>
+      </c>
+      <c r="AV266">
+        <v>2</v>
+      </c>
+      <c r="AW266">
+        <v>4</v>
+      </c>
+      <c r="AX266">
+        <v>1</v>
+      </c>
+      <c r="AY266">
+        <v>10</v>
+      </c>
+      <c r="AZ266">
+        <v>3</v>
+      </c>
+      <c r="BA266">
+        <v>7</v>
+      </c>
+      <c r="BB266">
+        <v>3</v>
+      </c>
+      <c r="BC266">
+        <v>10</v>
+      </c>
+      <c r="BD266">
+        <v>1.44</v>
+      </c>
+      <c r="BE266">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF266">
+        <v>4.36</v>
+      </c>
+      <c r="BG266">
+        <v>1.47</v>
+      </c>
+      <c r="BH266">
+        <v>2.85</v>
+      </c>
+      <c r="BI266">
+        <v>1.61</v>
+      </c>
+      <c r="BJ266">
+        <v>2.14</v>
+      </c>
+      <c r="BK266">
+        <v>2.18</v>
+      </c>
+      <c r="BL266">
+        <v>1.69</v>
+      </c>
+      <c r="BM266">
+        <v>2.6</v>
+      </c>
+      <c r="BN266">
+        <v>1.43</v>
+      </c>
+      <c r="BO266">
+        <v>3.5</v>
+      </c>
+      <c r="BP266">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1059,6 +1059,9 @@
   <si>
     <t>['50', '76']</t>
   </si>
+  <si>
+    <t>['54', '72']</t>
+  </si>
 </sst>
 </file>
 
@@ -1419,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2580,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2992,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ8">
         <v>1.19</v>
@@ -3407,7 +3410,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ10">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4846,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ17">
         <v>0.8100000000000001</v>
@@ -6082,7 +6085,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
         <v>1.53</v>
@@ -6703,7 +6706,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6909,7 +6912,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -8554,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8760,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>1.19</v>
@@ -10411,7 +10414,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>0.95</v>
@@ -10617,7 +10620,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ45">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR45">
         <v>2.07</v>
@@ -11026,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -12056,7 +12059,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ52">
         <v>1.53</v>
@@ -12674,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>1.19</v>
@@ -14528,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ64">
         <v>1.19</v>
@@ -16591,7 +16594,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR74">
         <v>1.27</v>
@@ -17412,7 +17415,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>2.25</v>
@@ -18854,7 +18857,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ85">
         <v>0.47</v>
@@ -19269,7 +19272,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ87">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19678,10 +19681,10 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -19887,7 +19890,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>1.18</v>
@@ -21123,7 +21126,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.46</v>
@@ -22356,10 +22359,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ102">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR102">
         <v>0.91</v>
@@ -22768,7 +22771,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>0.8100000000000001</v>
@@ -25037,7 +25040,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.42</v>
@@ -25652,7 +25655,7 @@
         <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ118">
         <v>1.25</v>
@@ -25861,7 +25864,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ119">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR119">
         <v>2</v>
@@ -26479,7 +26482,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ122">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -27715,7 +27718,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ128">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -28536,7 +28539,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>1.94</v>
@@ -28742,7 +28745,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ133">
         <v>1.59</v>
@@ -30599,7 +30602,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ142">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR142">
         <v>2.2</v>
@@ -31011,7 +31014,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ144">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31420,7 +31423,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ146">
         <v>1.59</v>
@@ -32450,7 +32453,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ151">
         <v>1.24</v>
@@ -33483,7 +33486,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ156">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -34513,7 +34516,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR161">
         <v>1.48</v>
@@ -34716,7 +34719,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>0.9399999999999999</v>
@@ -35334,7 +35337,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ165">
         <v>1.94</v>
@@ -37603,7 +37606,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ176">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -37809,7 +37812,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR177">
         <v>1.06</v>
@@ -38836,7 +38839,7 @@
         <v>1.82</v>
       </c>
       <c r="AP182">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ182">
         <v>1.59</v>
@@ -39660,10 +39663,10 @@
         <v>0.91</v>
       </c>
       <c r="AP186">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ186">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR186">
         <v>1.29</v>
@@ -39869,7 +39872,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR187">
         <v>1.74</v>
@@ -41517,7 +41520,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ195">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -41720,7 +41723,7 @@
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ196">
         <v>0.9399999999999999</v>
@@ -43162,7 +43165,7 @@
         <v>0.25</v>
       </c>
       <c r="AP203">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ203">
         <v>0.41</v>
@@ -43371,7 +43374,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ204">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -45634,10 +45637,10 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ215">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR215">
         <v>1.1</v>
@@ -45843,7 +45846,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ216">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR216">
         <v>1.87</v>
@@ -46458,7 +46461,7 @@
         <v>1.54</v>
       </c>
       <c r="AP219">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ219">
         <v>1.59</v>
@@ -47903,7 +47906,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ226">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR226">
         <v>1.58</v>
@@ -48521,7 +48524,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ229">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR229">
         <v>1.96</v>
@@ -49342,7 +49345,7 @@
         <v>2.29</v>
       </c>
       <c r="AP233">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ233">
         <v>2.25</v>
@@ -50166,7 +50169,7 @@
         <v>1.36</v>
       </c>
       <c r="AP237">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ237">
         <v>1.24</v>
@@ -51199,7 +51202,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ242">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51405,7 +51408,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -52435,7 +52438,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ248">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -52641,7 +52644,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ249">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52844,10 +52847,10 @@
         <v>0.97</v>
       </c>
       <c r="AP250">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR250">
         <v>1.11</v>
@@ -53050,7 +53053,7 @@
         <v>1.16</v>
       </c>
       <c r="AP251">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AQ251">
         <v>1.18</v>
@@ -53462,7 +53465,7 @@
         <v>1.06</v>
       </c>
       <c r="AP253">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ253">
         <v>1.12</v>
@@ -54492,10 +54495,10 @@
         <v>0.91</v>
       </c>
       <c r="AP258">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ258">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR258">
         <v>1.07</v>
@@ -54907,7 +54910,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ260">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AR260">
         <v>1.72</v>
@@ -55113,7 +55116,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AR261">
         <v>1.33</v>
@@ -56219,6 +56222,418 @@
       </c>
       <c r="BP266">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7886155</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45788.39583333334</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="G267" t="s">
+        <v>76</v>
+      </c>
+      <c r="H267" t="s">
+        <v>72</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>215</v>
+      </c>
+      <c r="P267" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q267">
+        <v>6</v>
+      </c>
+      <c r="R267">
+        <v>2.25</v>
+      </c>
+      <c r="S267">
+        <v>1.94</v>
+      </c>
+      <c r="T267">
+        <v>1.36</v>
+      </c>
+      <c r="U267">
+        <v>2.9</v>
+      </c>
+      <c r="V267">
+        <v>2.77</v>
+      </c>
+      <c r="W267">
+        <v>1.37</v>
+      </c>
+      <c r="X267">
+        <v>7.5</v>
+      </c>
+      <c r="Y267">
+        <v>1.06</v>
+      </c>
+      <c r="Z267">
+        <v>6.32</v>
+      </c>
+      <c r="AA267">
+        <v>4.1</v>
+      </c>
+      <c r="AB267">
+        <v>1.41</v>
+      </c>
+      <c r="AC267">
+        <v>1.06</v>
+      </c>
+      <c r="AD267">
+        <v>9.5</v>
+      </c>
+      <c r="AE267">
+        <v>1.3</v>
+      </c>
+      <c r="AF267">
+        <v>2.95</v>
+      </c>
+      <c r="AG267">
+        <v>2.1</v>
+      </c>
+      <c r="AH267">
+        <v>1.68</v>
+      </c>
+      <c r="AI267">
+        <v>1.95</v>
+      </c>
+      <c r="AJ267">
+        <v>1.8</v>
+      </c>
+      <c r="AK267">
+        <v>1.25</v>
+      </c>
+      <c r="AL267">
+        <v>1.26</v>
+      </c>
+      <c r="AM267">
+        <v>1.13</v>
+      </c>
+      <c r="AN267">
+        <v>0.55</v>
+      </c>
+      <c r="AO267">
+        <v>0.97</v>
+      </c>
+      <c r="AP267">
+        <v>0.53</v>
+      </c>
+      <c r="AQ267">
+        <v>1.03</v>
+      </c>
+      <c r="AR267">
+        <v>1.13</v>
+      </c>
+      <c r="AS267">
+        <v>1.35</v>
+      </c>
+      <c r="AT267">
+        <v>2.48</v>
+      </c>
+      <c r="AU267">
+        <v>3</v>
+      </c>
+      <c r="AV267">
+        <v>6</v>
+      </c>
+      <c r="AW267">
+        <v>7</v>
+      </c>
+      <c r="AX267">
+        <v>5</v>
+      </c>
+      <c r="AY267">
+        <v>10</v>
+      </c>
+      <c r="AZ267">
+        <v>11</v>
+      </c>
+      <c r="BA267">
+        <v>2</v>
+      </c>
+      <c r="BB267">
+        <v>12</v>
+      </c>
+      <c r="BC267">
+        <v>14</v>
+      </c>
+      <c r="BD267">
+        <v>2.48</v>
+      </c>
+      <c r="BE267">
+        <v>6.9</v>
+      </c>
+      <c r="BF267">
+        <v>1.65</v>
+      </c>
+      <c r="BG267">
+        <v>1.42</v>
+      </c>
+      <c r="BH267">
+        <v>2.65</v>
+      </c>
+      <c r="BI267">
+        <v>1.68</v>
+      </c>
+      <c r="BJ267">
+        <v>2.08</v>
+      </c>
+      <c r="BK267">
+        <v>2.45</v>
+      </c>
+      <c r="BL267">
+        <v>1.67</v>
+      </c>
+      <c r="BM267">
+        <v>2.65</v>
+      </c>
+      <c r="BN267">
+        <v>1.41</v>
+      </c>
+      <c r="BO267">
+        <v>3.55</v>
+      </c>
+      <c r="BP267">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7886156</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>74</v>
+      </c>
+      <c r="H268" t="s">
+        <v>71</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>107</v>
+      </c>
+      <c r="P268" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q268">
+        <v>2.33</v>
+      </c>
+      <c r="R268">
+        <v>1.98</v>
+      </c>
+      <c r="S268">
+        <v>5.8</v>
+      </c>
+      <c r="T268">
+        <v>1.44</v>
+      </c>
+      <c r="U268">
+        <v>2.6</v>
+      </c>
+      <c r="V268">
+        <v>3.2</v>
+      </c>
+      <c r="W268">
+        <v>1.3</v>
+      </c>
+      <c r="X268">
+        <v>8.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.06</v>
+      </c>
+      <c r="Z268">
+        <v>1.7</v>
+      </c>
+      <c r="AA268">
+        <v>3.25</v>
+      </c>
+      <c r="AB268">
+        <v>4.75</v>
+      </c>
+      <c r="AC268">
+        <v>1.08</v>
+      </c>
+      <c r="AD268">
+        <v>7</v>
+      </c>
+      <c r="AE268">
+        <v>1.42</v>
+      </c>
+      <c r="AF268">
+        <v>2.62</v>
+      </c>
+      <c r="AG268">
+        <v>2.25</v>
+      </c>
+      <c r="AH268">
+        <v>1.6</v>
+      </c>
+      <c r="AI268">
+        <v>2</v>
+      </c>
+      <c r="AJ268">
+        <v>1.7</v>
+      </c>
+      <c r="AK268">
+        <v>1.3</v>
+      </c>
+      <c r="AL268">
+        <v>1.31</v>
+      </c>
+      <c r="AM268">
+        <v>2</v>
+      </c>
+      <c r="AN268">
+        <v>0.82</v>
+      </c>
+      <c r="AO268">
+        <v>1</v>
+      </c>
+      <c r="AP268">
+        <v>0.88</v>
+      </c>
+      <c r="AQ268">
+        <v>0.97</v>
+      </c>
+      <c r="AR268">
+        <v>1.22</v>
+      </c>
+      <c r="AS268">
+        <v>1.07</v>
+      </c>
+      <c r="AT268">
+        <v>2.29</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>3</v>
+      </c>
+      <c r="AW268">
+        <v>3</v>
+      </c>
+      <c r="AX268">
+        <v>3</v>
+      </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
+      <c r="AZ268">
+        <v>6</v>
+      </c>
+      <c r="BA268">
+        <v>6</v>
+      </c>
+      <c r="BB268">
+        <v>3</v>
+      </c>
+      <c r="BC268">
+        <v>9</v>
+      </c>
+      <c r="BD268">
+        <v>1.59</v>
+      </c>
+      <c r="BE268">
+        <v>6.5</v>
+      </c>
+      <c r="BF268">
+        <v>2.94</v>
+      </c>
+      <c r="BG268">
+        <v>1.47</v>
+      </c>
+      <c r="BH268">
+        <v>2.56</v>
+      </c>
+      <c r="BI268">
+        <v>1.85</v>
+      </c>
+      <c r="BJ268">
+        <v>1.96</v>
+      </c>
+      <c r="BK268">
+        <v>2.63</v>
+      </c>
+      <c r="BL268">
+        <v>1.47</v>
+      </c>
+      <c r="BM268">
+        <v>3</v>
+      </c>
+      <c r="BN268">
+        <v>1.25</v>
+      </c>
+      <c r="BO268">
+        <v>4.1</v>
+      </c>
+      <c r="BP268">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['33', '90+3']</t>
   </si>
   <si>
+    <t>['20', '90+1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1422,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2299,7 +2302,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2505,7 +2508,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2917,7 +2920,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3947,7 +3950,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4025,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.19</v>
@@ -4153,7 +4156,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4646,7 +4649,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ16">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4977,7 +4980,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5595,7 +5598,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5801,7 +5804,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6007,7 +6010,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6419,7 +6422,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6625,7 +6628,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7243,7 +7246,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7655,7 +7658,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7861,7 +7864,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8766,7 +8769,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8891,7 +8894,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9999,7 +10002,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>0.8100000000000001</v>
@@ -10127,7 +10130,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10333,7 +10336,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10745,7 +10748,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10951,7 +10954,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11650,7 +11653,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ50">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR50">
         <v>1.44</v>
@@ -11775,7 +11778,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12393,7 +12396,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12805,7 +12808,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13011,7 +13014,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13217,7 +13220,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13423,7 +13426,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13501,7 +13504,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>1.94</v>
@@ -13629,7 +13632,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13835,7 +13838,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14247,7 +14250,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14453,7 +14456,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14534,7 +14537,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ64">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -15071,7 +15074,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15277,7 +15280,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15895,7 +15898,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16513,7 +16516,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17003,7 +17006,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -17131,7 +17134,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17337,7 +17340,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17543,7 +17546,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17749,7 +17752,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17955,7 +17958,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18367,7 +18370,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18448,7 +18451,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ83">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR83">
         <v>1.8</v>
@@ -18985,7 +18988,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20633,7 +20636,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20839,7 +20842,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20917,7 +20920,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ95">
         <v>1.24</v>
@@ -21251,7 +21254,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21744,7 +21747,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ99">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -22075,7 +22078,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22693,7 +22696,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22899,7 +22902,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23105,7 +23108,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23517,7 +23520,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23595,7 +23598,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
         <v>1.53</v>
@@ -23929,7 +23932,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24341,7 +24344,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24419,7 +24422,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ112">
         <v>1.59</v>
@@ -25165,7 +25168,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25371,7 +25374,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25452,7 +25455,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ117">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR117">
         <v>1.99</v>
@@ -25577,7 +25580,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25783,7 +25786,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25989,7 +25992,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26401,7 +26404,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27100,7 +27103,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR125">
         <v>1.25</v>
@@ -27225,7 +27228,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27303,7 +27306,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ126">
         <v>1.59</v>
@@ -27431,7 +27434,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27637,7 +27640,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27843,7 +27846,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28049,7 +28052,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28255,7 +28258,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28461,7 +28464,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29569,10 +29572,10 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR137">
         <v>1.54</v>
@@ -30109,7 +30112,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30315,7 +30318,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30521,7 +30524,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30727,7 +30730,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31139,7 +31142,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31345,7 +31348,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31551,7 +31554,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31757,7 +31760,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31838,7 +31841,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ148">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR148">
         <v>1.13</v>
@@ -31963,7 +31966,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32375,7 +32378,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32581,7 +32584,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32787,7 +32790,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33199,7 +33202,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33405,7 +33408,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33817,7 +33820,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33895,7 +33898,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -34641,7 +34644,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34847,7 +34850,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35259,7 +35262,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35546,7 +35549,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ166">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR166">
         <v>1.31</v>
@@ -36367,7 +36370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ170">
         <v>0.47</v>
@@ -37113,7 +37116,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37319,7 +37322,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37525,7 +37528,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37937,7 +37940,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38349,7 +38352,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38555,7 +38558,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39173,7 +39176,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39460,7 +39463,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ185">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR185">
         <v>1.72</v>
@@ -39791,7 +39794,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39869,7 +39872,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ187">
         <v>1.22</v>
@@ -39997,7 +40000,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40203,7 +40206,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40615,7 +40618,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40821,7 +40824,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41233,7 +41236,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41645,7 +41648,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42057,7 +42060,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42263,7 +42266,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42344,7 +42347,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ199">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42469,7 +42472,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43293,7 +43296,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43371,7 +43374,7 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ204">
         <v>0.78</v>
@@ -43705,7 +43708,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43911,7 +43914,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44735,7 +44738,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44816,7 +44819,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ211">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR211">
         <v>1.45</v>
@@ -46795,7 +46798,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47001,7 +47004,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47207,7 +47210,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47413,7 +47416,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47619,7 +47622,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47697,7 +47700,7 @@
         <v>2.23</v>
       </c>
       <c r="AP225">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ225">
         <v>2.25</v>
@@ -48318,7 +48321,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ228">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR228">
         <v>1.61</v>
@@ -48855,7 +48858,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49061,7 +49064,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49267,7 +49270,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49473,7 +49476,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50091,7 +50094,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50297,7 +50300,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50503,7 +50506,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50915,7 +50918,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -50993,7 +50996,7 @@
         <v>0.21</v>
       </c>
       <c r="AP241">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ241">
         <v>0.41</v>
@@ -51121,7 +51124,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -52435,7 +52438,7 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AQ248">
         <v>1.03</v>
@@ -52641,7 +52644,7 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AQ249">
         <v>0.88</v>
@@ -52769,7 +52772,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52975,7 +52978,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53056,7 +53059,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ251">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AR251">
         <v>1.21</v>
@@ -53262,7 +53265,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ252">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -53593,7 +53596,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54211,7 +54214,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54417,7 +54420,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54623,7 +54626,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54701,7 +54704,7 @@
         <v>1.41</v>
       </c>
       <c r="AP259">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AQ259">
         <v>1.35</v>
@@ -54907,7 +54910,7 @@
         <v>0.53</v>
       </c>
       <c r="AP260">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AQ260">
         <v>0.53</v>
@@ -55241,7 +55244,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55859,7 +55862,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -56271,7 +56274,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56634,6 +56637,212 @@
       </c>
       <c r="BP268">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7886158</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45788.60416666666</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>81</v>
+      </c>
+      <c r="H269" t="s">
+        <v>77</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>239</v>
+      </c>
+      <c r="P269" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q269">
+        <v>2.05</v>
+      </c>
+      <c r="R269">
+        <v>2.38</v>
+      </c>
+      <c r="S269">
+        <v>5</v>
+      </c>
+      <c r="T269">
+        <v>1.3</v>
+      </c>
+      <c r="U269">
+        <v>3.2</v>
+      </c>
+      <c r="V269">
+        <v>2.5</v>
+      </c>
+      <c r="W269">
+        <v>1.5</v>
+      </c>
+      <c r="X269">
+        <v>5.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.11</v>
+      </c>
+      <c r="Z269">
+        <v>1.52</v>
+      </c>
+      <c r="AA269">
+        <v>4.15</v>
+      </c>
+      <c r="AB269">
+        <v>5</v>
+      </c>
+      <c r="AC269">
+        <v>1.03</v>
+      </c>
+      <c r="AD269">
+        <v>11</v>
+      </c>
+      <c r="AE269">
+        <v>1.2</v>
+      </c>
+      <c r="AF269">
+        <v>4.3</v>
+      </c>
+      <c r="AG269">
+        <v>1.72</v>
+      </c>
+      <c r="AH269">
+        <v>2.1</v>
+      </c>
+      <c r="AI269">
+        <v>1.8</v>
+      </c>
+      <c r="AJ269">
+        <v>1.91</v>
+      </c>
+      <c r="AK269">
+        <v>1.13</v>
+      </c>
+      <c r="AL269">
+        <v>1.22</v>
+      </c>
+      <c r="AM269">
+        <v>2.5</v>
+      </c>
+      <c r="AN269">
+        <v>1.15</v>
+      </c>
+      <c r="AO269">
+        <v>1.18</v>
+      </c>
+      <c r="AP269">
+        <v>1.21</v>
+      </c>
+      <c r="AQ269">
+        <v>1.15</v>
+      </c>
+      <c r="AR269">
+        <v>1.71</v>
+      </c>
+      <c r="AS269">
+        <v>1.17</v>
+      </c>
+      <c r="AT269">
+        <v>2.88</v>
+      </c>
+      <c r="AU269">
+        <v>7</v>
+      </c>
+      <c r="AV269">
+        <v>6</v>
+      </c>
+      <c r="AW269">
+        <v>5</v>
+      </c>
+      <c r="AX269">
+        <v>9</v>
+      </c>
+      <c r="AY269">
+        <v>12</v>
+      </c>
+      <c r="AZ269">
+        <v>15</v>
+      </c>
+      <c r="BA269">
+        <v>6</v>
+      </c>
+      <c r="BB269">
+        <v>6</v>
+      </c>
+      <c r="BC269">
+        <v>12</v>
+      </c>
+      <c r="BD269">
+        <v>1.37</v>
+      </c>
+      <c r="BE269">
+        <v>8.4</v>
+      </c>
+      <c r="BF269">
+        <v>4.05</v>
+      </c>
+      <c r="BG269">
+        <v>1.22</v>
+      </c>
+      <c r="BH269">
+        <v>3.58</v>
+      </c>
+      <c r="BI269">
+        <v>1.33</v>
+      </c>
+      <c r="BJ269">
+        <v>2.93</v>
+      </c>
+      <c r="BK269">
+        <v>1.63</v>
+      </c>
+      <c r="BL269">
+        <v>2.15</v>
+      </c>
+      <c r="BM269">
+        <v>1.97</v>
+      </c>
+      <c r="BN269">
+        <v>1.74</v>
+      </c>
+      <c r="BO269">
+        <v>2.43</v>
+      </c>
+      <c r="BP269">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,12 @@
     <t>['20', '90+1']</t>
   </si>
   <si>
+    <t>['60', '66']</t>
+  </si>
+  <si>
+    <t>['28', '53', '55', '61', '83']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1425,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP269"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -2302,7 +2308,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2508,7 +2514,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2920,7 +2926,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3001,7 +3007,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ8">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3822,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>0.41</v>
@@ -3950,7 +3956,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4031,7 +4037,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4156,7 +4162,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4646,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ16">
         <v>1.12</v>
@@ -4980,7 +4986,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5598,7 +5604,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5804,7 +5810,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6010,7 +6016,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6297,7 +6303,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6422,7 +6428,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6628,7 +6634,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7246,7 +7252,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7324,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ29">
         <v>0.47</v>
@@ -7658,7 +7664,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7864,7 +7870,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7942,7 +7948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>0.8100000000000001</v>
@@ -8894,7 +8900,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9799,7 +9805,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -10130,7 +10136,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10211,7 +10217,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10336,7 +10342,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10620,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ45">
         <v>0.78</v>
@@ -10748,7 +10754,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10954,7 +10960,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11238,7 +11244,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11778,7 +11784,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12396,7 +12402,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12683,7 +12689,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12808,7 +12814,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13014,7 +13020,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13220,7 +13226,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13298,7 +13304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ58">
         <v>1.24</v>
@@ -13426,7 +13432,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13632,7 +13638,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13713,7 +13719,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ60">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13838,7 +13844,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14125,7 +14131,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14250,7 +14256,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14456,7 +14462,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14740,7 +14746,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>1.53</v>
@@ -15074,7 +15080,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15280,7 +15286,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15898,7 +15904,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16516,7 +16522,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16800,7 +16806,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ75">
         <v>1.59</v>
@@ -17134,7 +17140,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17340,7 +17346,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17421,7 +17427,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17546,7 +17552,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17627,7 +17633,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR79">
         <v>1.25</v>
@@ -17752,7 +17758,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17958,7 +17964,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18370,7 +18376,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18448,7 +18454,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ83">
         <v>1.12</v>
@@ -18988,7 +18994,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19481,7 +19487,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -20508,7 +20514,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ93">
         <v>0.41</v>
@@ -20636,7 +20642,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20717,7 +20723,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ94">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20842,7 +20848,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21254,7 +21260,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21538,7 +21544,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
         <v>0.47</v>
@@ -22078,7 +22084,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22696,7 +22702,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22902,7 +22908,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23108,7 +23114,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23395,7 +23401,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ107">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23520,7 +23526,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23932,7 +23938,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24010,7 +24016,7 @@
         <v>1.86</v>
       </c>
       <c r="AP110">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ110">
         <v>1.94</v>
@@ -24344,7 +24350,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25168,7 +25174,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25374,7 +25380,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25580,7 +25586,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25786,7 +25792,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25864,7 +25870,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
         <v>0.78</v>
@@ -25992,7 +25998,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26073,7 +26079,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR120">
         <v>1.46</v>
@@ -26404,7 +26410,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27228,7 +27234,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27434,7 +27440,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27512,10 +27518,10 @@
         <v>3</v>
       </c>
       <c r="AP127">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR127">
         <v>2.03</v>
@@ -27640,7 +27646,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27846,7 +27852,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28052,7 +28058,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28258,7 +28264,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28464,7 +28470,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29778,7 +29784,7 @@
         <v>0.63</v>
       </c>
       <c r="AP138">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ138">
         <v>0.9399999999999999</v>
@@ -29984,10 +29990,10 @@
         <v>1.75</v>
       </c>
       <c r="AP139">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ139">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR139">
         <v>1.95</v>
@@ -30112,7 +30118,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30318,7 +30324,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30399,7 +30405,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ141">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30524,7 +30530,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30730,7 +30736,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31142,7 +31148,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31348,7 +31354,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31554,7 +31560,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31632,7 +31638,7 @@
         <v>1.33</v>
       </c>
       <c r="AP147">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ147">
         <v>1.25</v>
@@ -31760,7 +31766,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31966,7 +31972,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32378,7 +32384,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32584,7 +32590,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32790,7 +32796,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32871,7 +32877,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ153">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR153">
         <v>1.54</v>
@@ -33077,7 +33083,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ154">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33202,7 +33208,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33408,7 +33414,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33486,7 +33492,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ156">
         <v>1.22</v>
@@ -33820,7 +33826,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34313,7 +34319,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ160">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR160">
         <v>2.11</v>
@@ -34644,7 +34650,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34850,7 +34856,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35262,7 +35268,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35958,7 +35964,7 @@
         <v>1.2</v>
       </c>
       <c r="AP168">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168">
         <v>1.24</v>
@@ -36785,7 +36791,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ172">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR172">
         <v>2.02</v>
@@ -37116,7 +37122,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37322,7 +37328,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37400,10 +37406,10 @@
         <v>2.5</v>
       </c>
       <c r="AP175">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ175">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR175">
         <v>1.71</v>
@@ -37528,7 +37534,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37940,7 +37946,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38352,7 +38358,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38558,7 +38564,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38636,7 +38642,7 @@
         <v>2</v>
       </c>
       <c r="AP181">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ181">
         <v>1.94</v>
@@ -39176,7 +39182,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39794,7 +39800,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40000,7 +40006,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40206,7 +40212,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40284,10 +40290,10 @@
         <v>1.36</v>
       </c>
       <c r="AP189">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ189">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR189">
         <v>1.65</v>
@@ -40618,7 +40624,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40824,7 +40830,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40905,7 +40911,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ192">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -41236,7 +41242,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41648,7 +41654,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42060,7 +42066,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42138,7 +42144,7 @@
         <v>1.92</v>
       </c>
       <c r="AP198">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198">
         <v>1.59</v>
@@ -42266,7 +42272,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42472,7 +42478,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42965,7 +42971,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ202">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR202">
         <v>1.33</v>
@@ -43296,7 +43302,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43580,7 +43586,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ205">
         <v>0.8100000000000001</v>
@@ -43708,7 +43714,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43914,7 +43920,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44201,7 +44207,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ208">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44738,7 +44744,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45434,7 +45440,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -46258,7 +46264,7 @@
         <v>1.69</v>
       </c>
       <c r="AP218">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ218">
         <v>1.5</v>
@@ -46798,7 +46804,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47004,7 +47010,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47210,7 +47216,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47416,7 +47422,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47497,7 +47503,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR224">
         <v>1.32</v>
@@ -47622,7 +47628,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47703,7 +47709,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ225">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR225">
         <v>1.8</v>
@@ -48524,7 +48530,7 @@
         <v>1.14</v>
       </c>
       <c r="AP229">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ229">
         <v>1.22</v>
@@ -48858,7 +48864,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49064,7 +49070,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49270,7 +49276,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49351,7 +49357,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ233">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AR233">
         <v>1.16</v>
@@ -49476,7 +49482,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49760,7 +49766,7 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ235">
         <v>1.53</v>
@@ -50094,7 +50100,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50300,7 +50306,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50506,7 +50512,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50587,7 +50593,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ239">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR239">
         <v>1.86</v>
@@ -50918,7 +50924,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51124,7 +51130,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51614,10 +51620,10 @@
         <v>1.57</v>
       </c>
       <c r="AP244">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AQ244">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -52232,10 +52238,10 @@
         <v>1.77</v>
       </c>
       <c r="AP247">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ247">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AR247">
         <v>1.77</v>
@@ -52772,7 +52778,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52978,7 +52984,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53596,7 +53602,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53677,7 +53683,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ254">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -53880,7 +53886,7 @@
         <v>2.03</v>
       </c>
       <c r="AP255">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AQ255">
         <v>2.03</v>
@@ -54086,7 +54092,7 @@
         <v>1.74</v>
       </c>
       <c r="AP256">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AQ256">
         <v>1.7</v>
@@ -54214,7 +54220,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54295,7 +54301,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ257">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AR257">
         <v>1.48</v>
@@ -54420,7 +54426,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54626,7 +54632,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -55244,7 +55250,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55325,7 +55331,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ262">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AR262">
         <v>1.36</v>
@@ -55528,7 +55534,7 @@
         <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AQ263">
         <v>1.61</v>
@@ -55862,7 +55868,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -55940,7 +55946,7 @@
         <v>1.34</v>
       </c>
       <c r="AP265">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AQ265">
         <v>1.39</v>
@@ -56149,7 +56155,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ266">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AR266">
         <v>1.89</v>
@@ -56274,7 +56280,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56843,6 +56849,418 @@
       </c>
       <c r="BP269">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7884936</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45790.48958333334</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>70</v>
+      </c>
+      <c r="H270" t="s">
+        <v>75</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>240</v>
+      </c>
+      <c r="P270" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q270">
+        <v>3.8</v>
+      </c>
+      <c r="R270">
+        <v>1.95</v>
+      </c>
+      <c r="S270">
+        <v>2.88</v>
+      </c>
+      <c r="T270">
+        <v>1.53</v>
+      </c>
+      <c r="U270">
+        <v>2.5</v>
+      </c>
+      <c r="V270">
+        <v>3.65</v>
+      </c>
+      <c r="W270">
+        <v>1.26</v>
+      </c>
+      <c r="X270">
+        <v>9.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.03</v>
+      </c>
+      <c r="Z270">
+        <v>3.3</v>
+      </c>
+      <c r="AA270">
+        <v>3</v>
+      </c>
+      <c r="AB270">
+        <v>2.25</v>
+      </c>
+      <c r="AC270">
+        <v>1.06</v>
+      </c>
+      <c r="AD270">
+        <v>7</v>
+      </c>
+      <c r="AE270">
+        <v>1.42</v>
+      </c>
+      <c r="AF270">
+        <v>2.76</v>
+      </c>
+      <c r="AG270">
+        <v>2.5</v>
+      </c>
+      <c r="AH270">
+        <v>1.5</v>
+      </c>
+      <c r="AI270">
+        <v>2.01</v>
+      </c>
+      <c r="AJ270">
+        <v>1.67</v>
+      </c>
+      <c r="AK270">
+        <v>1.3</v>
+      </c>
+      <c r="AL270">
+        <v>1.36</v>
+      </c>
+      <c r="AM270">
+        <v>1.2</v>
+      </c>
+      <c r="AN270">
+        <v>1.64</v>
+      </c>
+      <c r="AO270">
+        <v>2.45</v>
+      </c>
+      <c r="AP270">
+        <v>1.68</v>
+      </c>
+      <c r="AQ270">
+        <v>2.38</v>
+      </c>
+      <c r="AR270">
+        <v>1.5</v>
+      </c>
+      <c r="AS270">
+        <v>1.71</v>
+      </c>
+      <c r="AT270">
+        <v>3.21</v>
+      </c>
+      <c r="AU270">
+        <v>7</v>
+      </c>
+      <c r="AV270">
+        <v>7</v>
+      </c>
+      <c r="AW270">
+        <v>4</v>
+      </c>
+      <c r="AX270">
+        <v>5</v>
+      </c>
+      <c r="AY270">
+        <v>11</v>
+      </c>
+      <c r="AZ270">
+        <v>12</v>
+      </c>
+      <c r="BA270">
+        <v>0</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>5</v>
+      </c>
+      <c r="BD270">
+        <v>2.23</v>
+      </c>
+      <c r="BE270">
+        <v>6.9</v>
+      </c>
+      <c r="BF270">
+        <v>2.02</v>
+      </c>
+      <c r="BG270">
+        <v>1.56</v>
+      </c>
+      <c r="BH270">
+        <v>2.23</v>
+      </c>
+      <c r="BI270">
+        <v>1.85</v>
+      </c>
+      <c r="BJ270">
+        <v>1.75</v>
+      </c>
+      <c r="BK270">
+        <v>2.42</v>
+      </c>
+      <c r="BL270">
+        <v>1.47</v>
+      </c>
+      <c r="BM270">
+        <v>3.3</v>
+      </c>
+      <c r="BN270">
+        <v>1.28</v>
+      </c>
+      <c r="BO270">
+        <v>4.4</v>
+      </c>
+      <c r="BP270">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7886142</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45790.59375</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271" t="s">
+        <v>80</v>
+      </c>
+      <c r="H271" t="s">
+        <v>84</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>5</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>5</v>
+      </c>
+      <c r="O271" t="s">
+        <v>241</v>
+      </c>
+      <c r="P271" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q271">
+        <v>1.55</v>
+      </c>
+      <c r="R271">
+        <v>2.94</v>
+      </c>
+      <c r="S271">
+        <v>8.9</v>
+      </c>
+      <c r="T271">
+        <v>1.18</v>
+      </c>
+      <c r="U271">
+        <v>4.1</v>
+      </c>
+      <c r="V271">
+        <v>2.08</v>
+      </c>
+      <c r="W271">
+        <v>1.7</v>
+      </c>
+      <c r="X271">
+        <v>3.75</v>
+      </c>
+      <c r="Y271">
+        <v>1.21</v>
+      </c>
+      <c r="Z271">
+        <v>1.24</v>
+      </c>
+      <c r="AA271">
+        <v>6.75</v>
+      </c>
+      <c r="AB271">
+        <v>10</v>
+      </c>
+      <c r="AC271">
+        <v>1.01</v>
+      </c>
+      <c r="AD271">
+        <v>23</v>
+      </c>
+      <c r="AE271">
+        <v>1.09</v>
+      </c>
+      <c r="AF271">
+        <v>6.5</v>
+      </c>
+      <c r="AG271">
+        <v>1.32</v>
+      </c>
+      <c r="AH271">
+        <v>3.09</v>
+      </c>
+      <c r="AI271">
+        <v>1.76</v>
+      </c>
+      <c r="AJ271">
+        <v>1.78</v>
+      </c>
+      <c r="AK271">
+        <v>1.03</v>
+      </c>
+      <c r="AL271">
+        <v>1.11</v>
+      </c>
+      <c r="AM271">
+        <v>4.6</v>
+      </c>
+      <c r="AN271">
+        <v>1.7</v>
+      </c>
+      <c r="AO271">
+        <v>1.45</v>
+      </c>
+      <c r="AP271">
+        <v>1.74</v>
+      </c>
+      <c r="AQ271">
+        <v>1.41</v>
+      </c>
+      <c r="AR271">
+        <v>1.93</v>
+      </c>
+      <c r="AS271">
+        <v>1.35</v>
+      </c>
+      <c r="AT271">
+        <v>3.28</v>
+      </c>
+      <c r="AU271">
+        <v>7</v>
+      </c>
+      <c r="AV271">
+        <v>3</v>
+      </c>
+      <c r="AW271">
+        <v>13</v>
+      </c>
+      <c r="AX271">
+        <v>3</v>
+      </c>
+      <c r="AY271">
+        <v>20</v>
+      </c>
+      <c r="AZ271">
+        <v>6</v>
+      </c>
+      <c r="BA271">
+        <v>6</v>
+      </c>
+      <c r="BB271">
+        <v>5</v>
+      </c>
+      <c r="BC271">
+        <v>11</v>
+      </c>
+      <c r="BD271">
+        <v>1.09</v>
+      </c>
+      <c r="BE271">
+        <v>14.5</v>
+      </c>
+      <c r="BF271">
+        <v>8.9</v>
+      </c>
+      <c r="BG271">
+        <v>1.2</v>
+      </c>
+      <c r="BH271">
+        <v>3.65</v>
+      </c>
+      <c r="BI271">
+        <v>1.35</v>
+      </c>
+      <c r="BJ271">
+        <v>2.9</v>
+      </c>
+      <c r="BK271">
+        <v>1.65</v>
+      </c>
+      <c r="BL271">
+        <v>2.07</v>
+      </c>
+      <c r="BM271">
+        <v>2</v>
+      </c>
+      <c r="BN271">
+        <v>1.73</v>
+      </c>
+      <c r="BO271">
+        <v>2.65</v>
+      </c>
+      <c r="BP271">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -56167,22 +56167,22 @@
         <v>3.42</v>
       </c>
       <c r="AU266">
+        <v>5</v>
+      </c>
+      <c r="AV266">
+        <v>2</v>
+      </c>
+      <c r="AW266">
         <v>6</v>
       </c>
-      <c r="AV266">
-        <v>2</v>
-      </c>
-      <c r="AW266">
-        <v>4</v>
-      </c>
       <c r="AX266">
         <v>1</v>
       </c>
       <c r="AY266">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA266">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,9 @@
     <t>['28', '53', '55', '61', '83']</t>
   </si>
   <si>
+    <t>['52', '90+5']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1431,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1774,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2308,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2386,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ5">
         <v>1.94</v>
@@ -2514,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2926,7 +2929,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3956,7 +3959,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4162,7 +4165,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4986,7 +4989,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5604,7 +5607,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5682,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ21">
         <v>1.59</v>
@@ -5810,7 +5813,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6016,7 +6019,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6428,7 +6431,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6634,7 +6637,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7252,7 +7255,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7664,7 +7667,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7870,7 +7873,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8360,10 +8363,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR34">
         <v>0.89</v>
@@ -8900,7 +8903,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9184,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>0.47</v>
@@ -10136,7 +10139,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10342,7 +10345,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10754,7 +10757,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10960,7 +10963,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11041,7 +11044,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.32</v>
@@ -11784,7 +11787,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12402,7 +12405,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12814,7 +12817,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13020,7 +13023,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13226,7 +13229,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13432,7 +13435,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13638,7 +13641,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13844,7 +13847,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13922,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ61">
         <v>1.59</v>
@@ -14256,7 +14259,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14337,7 +14340,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14462,7 +14465,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15080,7 +15083,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15286,7 +15289,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15904,7 +15907,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15985,7 +15988,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16188,7 +16191,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72">
         <v>0.41</v>
@@ -16522,7 +16525,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17140,7 +17143,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17346,7 +17349,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17552,7 +17555,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17758,7 +17761,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17839,7 +17842,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -17964,7 +17967,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18376,7 +18379,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18994,7 +18997,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19896,7 +19899,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ90">
         <v>0.78</v>
@@ -20642,7 +20645,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20848,7 +20851,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21260,7 +21263,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -22084,7 +22087,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22577,7 +22580,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR103">
         <v>1.72</v>
@@ -22702,7 +22705,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22908,7 +22911,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22986,7 +22989,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ105">
         <v>1.24</v>
@@ -23114,7 +23117,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23526,7 +23529,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23938,7 +23941,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24350,7 +24353,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25174,7 +25177,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25380,7 +25383,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25586,7 +25589,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25667,7 +25670,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR118">
         <v>0.95</v>
@@ -25792,7 +25795,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25998,7 +26001,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26410,7 +26413,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27234,7 +27237,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27440,7 +27443,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27646,7 +27649,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27852,7 +27855,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27933,7 +27936,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28058,7 +28061,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28264,7 +28267,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28342,7 +28345,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ131">
         <v>1.53</v>
@@ -28470,7 +28473,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -30118,7 +30121,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30324,7 +30327,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30530,7 +30533,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30736,7 +30739,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31148,7 +31151,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31354,7 +31357,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31560,7 +31563,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31641,7 +31644,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ147">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR147">
         <v>2.12</v>
@@ -31766,7 +31769,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31844,7 +31847,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ148">
         <v>1.12</v>
@@ -31972,7 +31975,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32384,7 +32387,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32590,7 +32593,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32796,7 +32799,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33208,7 +33211,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33414,7 +33417,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33826,7 +33829,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34650,7 +34653,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34856,7 +34859,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35268,7 +35271,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36173,7 +36176,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ169">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -37122,7 +37125,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37328,7 +37331,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37534,7 +37537,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37612,7 +37615,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ176">
         <v>1.22</v>
@@ -37946,7 +37949,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38358,7 +38361,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38564,7 +38567,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39057,7 +39060,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ183">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR183">
         <v>1.48</v>
@@ -39182,7 +39185,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39800,7 +39803,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40006,7 +40009,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40212,7 +40215,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40624,7 +40627,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40830,7 +40833,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40908,7 +40911,7 @@
         <v>2.36</v>
       </c>
       <c r="AP192">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ192">
         <v>2.12</v>
@@ -41242,7 +41245,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41654,7 +41657,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42066,7 +42069,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42272,7 +42275,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42478,7 +42481,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42559,7 +42562,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -42968,7 +42971,7 @@
         <v>1.33</v>
       </c>
       <c r="AP202">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ202">
         <v>1.12</v>
@@ -43302,7 +43305,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43714,7 +43717,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43920,7 +43923,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44744,7 +44747,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46061,7 +46064,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ217">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR217">
         <v>2.09</v>
@@ -46804,7 +46807,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46882,7 +46885,7 @@
         <v>0.77</v>
       </c>
       <c r="AP221">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ221">
         <v>0.8100000000000001</v>
@@ -47010,7 +47013,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47216,7 +47219,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47422,7 +47425,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47628,7 +47631,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48121,7 +48124,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR227">
         <v>1.53</v>
@@ -48864,7 +48867,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49070,7 +49073,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49276,7 +49279,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49482,7 +49485,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49560,7 +49563,7 @@
         <v>1.64</v>
       </c>
       <c r="AP234">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ234">
         <v>1.5</v>
@@ -50100,7 +50103,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50306,7 +50309,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50512,7 +50515,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50924,7 +50927,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51130,7 +51133,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51414,7 +51417,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AQ243">
         <v>0.97</v>
@@ -52650,7 +52653,7 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AQ249">
         <v>0.88</v>
@@ -52778,7 +52781,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52984,7 +52987,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53271,7 +53274,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ252">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -53477,7 +53480,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ253">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AR253">
         <v>1.36</v>
@@ -53602,7 +53605,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54220,7 +54223,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54426,7 +54429,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54632,7 +54635,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54916,7 +54919,7 @@
         <v>0.53</v>
       </c>
       <c r="AP260">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AQ260">
         <v>0.53</v>
@@ -55122,7 +55125,7 @@
         <v>0.84</v>
       </c>
       <c r="AP261">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AQ261">
         <v>0.88</v>
@@ -55250,7 +55253,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55743,7 +55746,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ264">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AR264">
         <v>1.42</v>
@@ -55868,7 +55871,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -56280,7 +56283,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56770,7 +56773,7 @@
         <v>1.18</v>
       </c>
       <c r="AP269">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AQ269">
         <v>1.15</v>
@@ -57261,6 +57264,212 @@
       </c>
       <c r="BP271">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7886160</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45791.38541666666</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>73</v>
+      </c>
+      <c r="H272" t="s">
+        <v>81</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272" t="s">
+        <v>242</v>
+      </c>
+      <c r="P272" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q272">
+        <v>3</v>
+      </c>
+      <c r="R272">
+        <v>2.07</v>
+      </c>
+      <c r="S272">
+        <v>3.99</v>
+      </c>
+      <c r="T272">
+        <v>1.47</v>
+      </c>
+      <c r="U272">
+        <v>2.6</v>
+      </c>
+      <c r="V272">
+        <v>3.3</v>
+      </c>
+      <c r="W272">
+        <v>1.33</v>
+      </c>
+      <c r="X272">
+        <v>7</v>
+      </c>
+      <c r="Y272">
+        <v>1.03</v>
+      </c>
+      <c r="Z272">
+        <v>2.12</v>
+      </c>
+      <c r="AA272">
+        <v>3.1</v>
+      </c>
+      <c r="AB272">
+        <v>3</v>
+      </c>
+      <c r="AC272">
+        <v>1.04</v>
+      </c>
+      <c r="AD272">
+        <v>7.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.32</v>
+      </c>
+      <c r="AF272">
+        <v>3</v>
+      </c>
+      <c r="AG272">
+        <v>2.19</v>
+      </c>
+      <c r="AH272">
+        <v>1.65</v>
+      </c>
+      <c r="AI272">
+        <v>1.76</v>
+      </c>
+      <c r="AJ272">
+        <v>1.83</v>
+      </c>
+      <c r="AK272">
+        <v>1.38</v>
+      </c>
+      <c r="AL272">
+        <v>1.37</v>
+      </c>
+      <c r="AM272">
+        <v>1.58</v>
+      </c>
+      <c r="AN272">
+        <v>1.12</v>
+      </c>
+      <c r="AO272">
+        <v>1.21</v>
+      </c>
+      <c r="AP272">
+        <v>1.17</v>
+      </c>
+      <c r="AQ272">
+        <v>1.17</v>
+      </c>
+      <c r="AR272">
+        <v>1.31</v>
+      </c>
+      <c r="AS272">
+        <v>1.71</v>
+      </c>
+      <c r="AT272">
+        <v>3.02</v>
+      </c>
+      <c r="AU272">
+        <v>7</v>
+      </c>
+      <c r="AV272">
+        <v>7</v>
+      </c>
+      <c r="AW272">
+        <v>1</v>
+      </c>
+      <c r="AX272">
+        <v>7</v>
+      </c>
+      <c r="AY272">
+        <v>8</v>
+      </c>
+      <c r="AZ272">
+        <v>14</v>
+      </c>
+      <c r="BA272">
+        <v>3</v>
+      </c>
+      <c r="BB272">
+        <v>7</v>
+      </c>
+      <c r="BC272">
+        <v>10</v>
+      </c>
+      <c r="BD272">
+        <v>2</v>
+      </c>
+      <c r="BE272">
+        <v>7.2</v>
+      </c>
+      <c r="BF272">
+        <v>2.18</v>
+      </c>
+      <c r="BG272">
+        <v>1.28</v>
+      </c>
+      <c r="BH272">
+        <v>3.05</v>
+      </c>
+      <c r="BI272">
+        <v>1.57</v>
+      </c>
+      <c r="BJ272">
+        <v>2.23</v>
+      </c>
+      <c r="BK272">
+        <v>1.95</v>
+      </c>
+      <c r="BL272">
+        <v>1.76</v>
+      </c>
+      <c r="BM272">
+        <v>2.54</v>
+      </c>
+      <c r="BN272">
+        <v>1.43</v>
+      </c>
+      <c r="BO272">
+        <v>3.25</v>
+      </c>
+      <c r="BP272">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1074,6 +1074,12 @@
   <si>
     <t>['54', '72']</t>
   </si>
+  <si>
+    <t>['6', '24', '65', '68', '77', '85']</t>
+  </si>
+  <si>
+    <t>['6', '16', '37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1434,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2392,7 +2398,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ5">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2598,7 +2604,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3419,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ10">
         <v>0.78</v>
@@ -4449,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -5070,7 +5076,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -5894,7 +5900,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR22">
         <v>1.34</v>
@@ -6509,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ25">
         <v>0.41</v>
@@ -6715,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
         <v>1.22</v>
@@ -8160,7 +8166,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8572,7 +8578,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR35">
         <v>0.9399999999999999</v>
@@ -9599,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ40">
         <v>1.59</v>
@@ -10217,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ43">
         <v>2.12</v>
@@ -11250,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR48">
         <v>2.19</v>
@@ -11456,7 +11462,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -13101,10 +13107,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR57">
         <v>1.15</v>
@@ -13516,7 +13522,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -15164,7 +15170,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -15779,10 +15785,10 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR70">
         <v>1.49</v>
@@ -16397,7 +16403,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73">
         <v>0.8100000000000001</v>
@@ -17018,7 +17024,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -18045,7 +18051,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
         <v>1.53</v>
@@ -18666,7 +18672,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ84">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.5</v>
@@ -19487,7 +19493,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ88">
         <v>1.12</v>
@@ -21753,7 +21759,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
         <v>1.12</v>
@@ -24022,7 +24028,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ110">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -24228,7 +24234,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR111">
         <v>1.08</v>
@@ -24637,7 +24643,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ113">
         <v>0.47</v>
@@ -25255,7 +25261,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ116">
         <v>1.59</v>
@@ -26491,7 +26497,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ122">
         <v>1.22</v>
@@ -27109,7 +27115,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125">
         <v>1.12</v>
@@ -28554,7 +28560,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -28966,7 +28972,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -30199,7 +30205,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ140">
         <v>0.47</v>
@@ -30405,7 +30411,7 @@
         <v>2.71</v>
       </c>
       <c r="AP141">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ141">
         <v>2.12</v>
@@ -32056,7 +32062,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.37</v>
@@ -32262,7 +32268,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR150">
         <v>1.74</v>
@@ -33083,7 +33089,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ154">
         <v>1.12</v>
@@ -34525,7 +34531,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161">
         <v>0.78</v>
@@ -35146,7 +35152,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35352,7 +35358,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ165">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.02</v>
@@ -36585,7 +36591,7 @@
         <v>0.3</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ171">
         <v>0.41</v>
@@ -36997,7 +37003,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ173">
         <v>0.8100000000000001</v>
@@ -38648,7 +38654,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ181">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR181">
         <v>2.15</v>
@@ -39057,7 +39063,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ183">
         <v>1.18</v>
@@ -39266,7 +39272,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR184">
         <v>1.43</v>
@@ -40087,7 +40093,7 @@
         <v>1.27</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ188">
         <v>1.59</v>
@@ -42765,10 +42771,10 @@
         <v>1.92</v>
       </c>
       <c r="AP201">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ201">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -44001,7 +44007,7 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ207">
         <v>1.24</v>
@@ -44416,7 +44422,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR209">
         <v>2.05</v>
@@ -45031,7 +45037,7 @@
         <v>1.85</v>
       </c>
       <c r="AP212">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
         <v>1.59</v>
@@ -46270,7 +46276,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ218">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR218">
         <v>1.69</v>
@@ -47091,10 +47097,10 @@
         <v>1.85</v>
       </c>
       <c r="AP222">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ222">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR222">
         <v>1.61</v>
@@ -48121,7 +48127,7 @@
         <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ227">
         <v>1.18</v>
@@ -48739,7 +48745,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -49566,7 +49572,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ234">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR234">
         <v>1.36</v>
@@ -50802,7 +50808,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ240">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR240">
         <v>1.1</v>
@@ -51829,10 +51835,10 @@
         <v>1.77</v>
       </c>
       <c r="AP245">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AQ245">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -52035,10 +52041,10 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AQ246">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AR246">
         <v>1.5</v>
@@ -53683,7 +53689,7 @@
         <v>1.61</v>
       </c>
       <c r="AP254">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AQ254">
         <v>1.74</v>
@@ -53892,7 +53898,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ255">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AR255">
         <v>1.76</v>
@@ -54098,7 +54104,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ256">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -54301,7 +54307,7 @@
         <v>1.55</v>
       </c>
       <c r="AP257">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AQ257">
         <v>1.41</v>
@@ -55331,7 +55337,7 @@
         <v>2.5</v>
       </c>
       <c r="AP262">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AQ262">
         <v>2.38</v>
@@ -55540,7 +55546,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ263">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AR263">
         <v>1.92</v>
@@ -55952,7 +55958,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ265">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56155,7 +56161,7 @@
         <v>1.69</v>
       </c>
       <c r="AP266">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AQ266">
         <v>1.68</v>
@@ -57470,6 +57476,418 @@
       </c>
       <c r="BP272">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7886141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45791.48958333334</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
+      </c>
+      <c r="G273" t="s">
+        <v>83</v>
+      </c>
+      <c r="H273" t="s">
+        <v>82</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>2</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>6</v>
+      </c>
+      <c r="N273">
+        <v>6</v>
+      </c>
+      <c r="O273" t="s">
+        <v>86</v>
+      </c>
+      <c r="P273" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q273">
+        <v>3.3</v>
+      </c>
+      <c r="R273">
+        <v>2.09</v>
+      </c>
+      <c r="S273">
+        <v>2.95</v>
+      </c>
+      <c r="T273">
+        <v>1.4</v>
+      </c>
+      <c r="U273">
+        <v>2.97</v>
+      </c>
+      <c r="V273">
+        <v>2.83</v>
+      </c>
+      <c r="W273">
+        <v>1.4</v>
+      </c>
+      <c r="X273">
+        <v>6.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.08</v>
+      </c>
+      <c r="Z273">
+        <v>4</v>
+      </c>
+      <c r="AA273">
+        <v>3</v>
+      </c>
+      <c r="AB273">
+        <v>2.4</v>
+      </c>
+      <c r="AC273">
+        <v>1.02</v>
+      </c>
+      <c r="AD273">
+        <v>9.5</v>
+      </c>
+      <c r="AE273">
+        <v>1.31</v>
+      </c>
+      <c r="AF273">
+        <v>3.2</v>
+      </c>
+      <c r="AG273">
+        <v>2</v>
+      </c>
+      <c r="AH273">
+        <v>1.75</v>
+      </c>
+      <c r="AI273">
+        <v>1.8</v>
+      </c>
+      <c r="AJ273">
+        <v>1.95</v>
+      </c>
+      <c r="AK273">
+        <v>1.33</v>
+      </c>
+      <c r="AL273">
+        <v>1.32</v>
+      </c>
+      <c r="AM273">
+        <v>1.4</v>
+      </c>
+      <c r="AN273">
+        <v>1.39</v>
+      </c>
+      <c r="AO273">
+        <v>1.61</v>
+      </c>
+      <c r="AP273">
+        <v>1.35</v>
+      </c>
+      <c r="AQ273">
+        <v>1.65</v>
+      </c>
+      <c r="AR273">
+        <v>1.38</v>
+      </c>
+      <c r="AS273">
+        <v>1.5</v>
+      </c>
+      <c r="AT273">
+        <v>2.88</v>
+      </c>
+      <c r="AU273">
+        <v>0</v>
+      </c>
+      <c r="AV273">
+        <v>10</v>
+      </c>
+      <c r="AW273">
+        <v>5</v>
+      </c>
+      <c r="AX273">
+        <v>4</v>
+      </c>
+      <c r="AY273">
+        <v>5</v>
+      </c>
+      <c r="AZ273">
+        <v>14</v>
+      </c>
+      <c r="BA273">
+        <v>2</v>
+      </c>
+      <c r="BB273">
+        <v>2</v>
+      </c>
+      <c r="BC273">
+        <v>4</v>
+      </c>
+      <c r="BD273">
+        <v>2.28</v>
+      </c>
+      <c r="BE273">
+        <v>8</v>
+      </c>
+      <c r="BF273">
+        <v>1.95</v>
+      </c>
+      <c r="BG273">
+        <v>1.29</v>
+      </c>
+      <c r="BH273">
+        <v>2.95</v>
+      </c>
+      <c r="BI273">
+        <v>1.56</v>
+      </c>
+      <c r="BJ273">
+        <v>2.25</v>
+      </c>
+      <c r="BK273">
+        <v>1.9</v>
+      </c>
+      <c r="BL273">
+        <v>1.79</v>
+      </c>
+      <c r="BM273">
+        <v>2.4</v>
+      </c>
+      <c r="BN273">
+        <v>1.5</v>
+      </c>
+      <c r="BO273">
+        <v>3.05</v>
+      </c>
+      <c r="BP273">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7884937</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45791.59375</v>
+      </c>
+      <c r="F274">
+        <v>4</v>
+      </c>
+      <c r="G274" t="s">
+        <v>78</v>
+      </c>
+      <c r="H274" t="s">
+        <v>79</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>3</v>
+      </c>
+      <c r="K274">
+        <v>3</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>3</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>86</v>
+      </c>
+      <c r="P274" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q274">
+        <v>3.6</v>
+      </c>
+      <c r="R274">
+        <v>1.72</v>
+      </c>
+      <c r="S274">
+        <v>3.05</v>
+      </c>
+      <c r="T274">
+        <v>1.42</v>
+      </c>
+      <c r="U274">
+        <v>2.55</v>
+      </c>
+      <c r="V274">
+        <v>2.95</v>
+      </c>
+      <c r="W274">
+        <v>1.32</v>
+      </c>
+      <c r="X274">
+        <v>8</v>
+      </c>
+      <c r="Y274">
+        <v>1.05</v>
+      </c>
+      <c r="Z274">
+        <v>2.93</v>
+      </c>
+      <c r="AA274">
+        <v>3.01</v>
+      </c>
+      <c r="AB274">
+        <v>2.42</v>
+      </c>
+      <c r="AC274">
+        <v>1.08</v>
+      </c>
+      <c r="AD274">
+        <v>7.6</v>
+      </c>
+      <c r="AE274">
+        <v>1.44</v>
+      </c>
+      <c r="AF274">
+        <v>2.7</v>
+      </c>
+      <c r="AG274">
+        <v>2.35</v>
+      </c>
+      <c r="AH274">
+        <v>1.57</v>
+      </c>
+      <c r="AI274">
+        <v>2.01</v>
+      </c>
+      <c r="AJ274">
+        <v>1.77</v>
+      </c>
+      <c r="AK274">
+        <v>1.36</v>
+      </c>
+      <c r="AL274">
+        <v>1.36</v>
+      </c>
+      <c r="AM274">
+        <v>1.36</v>
+      </c>
+      <c r="AN274">
+        <v>1.7</v>
+      </c>
+      <c r="AO274">
+        <v>2.03</v>
+      </c>
+      <c r="AP274">
+        <v>1.65</v>
+      </c>
+      <c r="AQ274">
+        <v>2.06</v>
+      </c>
+      <c r="AR274">
+        <v>1.35</v>
+      </c>
+      <c r="AS274">
+        <v>1.88</v>
+      </c>
+      <c r="AT274">
+        <v>3.23</v>
+      </c>
+      <c r="AU274">
+        <v>2</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
+        <v>6</v>
+      </c>
+      <c r="AY274">
+        <v>5</v>
+      </c>
+      <c r="AZ274">
+        <v>12</v>
+      </c>
+      <c r="BA274">
+        <v>3</v>
+      </c>
+      <c r="BB274">
+        <v>5</v>
+      </c>
+      <c r="BC274">
+        <v>8</v>
+      </c>
+      <c r="BD274">
+        <v>3.1</v>
+      </c>
+      <c r="BE274">
+        <v>6.4</v>
+      </c>
+      <c r="BF274">
+        <v>1.52</v>
+      </c>
+      <c r="BG274">
+        <v>1.47</v>
+      </c>
+      <c r="BH274">
+        <v>2.48</v>
+      </c>
+      <c r="BI274">
+        <v>1.81</v>
+      </c>
+      <c r="BJ274">
+        <v>1.93</v>
+      </c>
+      <c r="BK274">
+        <v>2.31</v>
+      </c>
+      <c r="BL274">
+        <v>1.57</v>
+      </c>
+      <c r="BM274">
+        <v>2.97</v>
+      </c>
+      <c r="BN274">
+        <v>1.35</v>
+      </c>
+      <c r="BO274">
+        <v>4.05</v>
+      </c>
+      <c r="BP274">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['52', '90+5']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1079,6 +1082,9 @@
   </si>
   <si>
     <t>['6', '16', '37']</t>
+  </si>
+  <si>
+    <t>['38', '70', '75']</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1983,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2317,7 +2323,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2523,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2935,7 +2941,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3219,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ9">
         <v>1.53</v>
@@ -3634,7 +3640,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ11">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3965,7 +3971,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4171,7 +4177,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4870,7 +4876,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ17">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR17">
         <v>1.12</v>
@@ -4995,7 +5001,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5073,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5613,7 +5619,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5819,7 +5825,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5897,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ22">
         <v>1.59</v>
@@ -6025,7 +6031,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6437,7 +6443,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6518,7 +6524,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6643,7 +6649,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7133,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7261,7 +7267,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7342,7 +7348,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ29">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR29">
         <v>2.25</v>
@@ -7673,7 +7679,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7751,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ31">
         <v>1.53</v>
@@ -7879,7 +7885,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7960,7 +7966,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
         <v>2.55</v>
@@ -8909,7 +8915,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8987,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ37">
         <v>1.59</v>
@@ -9196,7 +9202,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ38">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR38">
         <v>0.86</v>
@@ -9402,7 +9408,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ39">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -10020,7 +10026,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -10145,7 +10151,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10351,7 +10357,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10429,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ44">
         <v>1.22</v>
@@ -10763,7 +10769,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10969,7 +10975,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11665,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ50">
         <v>1.12</v>
@@ -11793,7 +11799,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11871,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -12411,7 +12417,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12489,10 +12495,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ54">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR54">
         <v>1.14</v>
@@ -12823,7 +12829,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12901,10 +12907,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ56">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -13029,7 +13035,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13235,7 +13241,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13441,7 +13447,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13647,7 +13653,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13725,7 +13731,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
         <v>2.12</v>
@@ -13853,7 +13859,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14265,7 +14271,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14343,7 +14349,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ63">
         <v>1.18</v>
@@ -14471,7 +14477,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15089,7 +15095,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15295,7 +15301,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15579,10 +15585,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ69">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15913,7 +15919,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -15991,7 +15997,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -16200,7 +16206,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ72">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR72">
         <v>1.09</v>
@@ -16406,7 +16412,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16531,7 +16537,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16609,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ74">
         <v>0.78</v>
@@ -17149,7 +17155,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17355,7 +17361,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17561,7 +17567,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17639,7 +17645,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ79">
         <v>1.12</v>
@@ -17767,7 +17773,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17845,7 +17851,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ80">
         <v>1.18</v>
@@ -17973,7 +17979,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18385,7 +18391,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18878,7 +18884,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ85">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR85">
         <v>0.85</v>
@@ -19003,7 +19009,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20320,7 +20326,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.22</v>
@@ -20526,7 +20532,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ93">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -20651,7 +20657,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20729,7 +20735,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ94">
         <v>2.12</v>
@@ -20857,7 +20863,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21269,7 +21275,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21556,7 +21562,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR98">
         <v>1.84</v>
@@ -22093,7 +22099,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22711,7 +22717,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22792,7 +22798,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22917,7 +22923,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23123,7 +23129,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23201,7 +23207,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ106">
         <v>1.59</v>
@@ -23407,7 +23413,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
         <v>1.12</v>
@@ -23535,7 +23541,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23822,7 +23828,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ109">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23947,7 +23953,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24231,7 +24237,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ111">
         <v>1.59</v>
@@ -24359,7 +24365,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24646,7 +24652,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ113">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR113">
         <v>1.41</v>
@@ -25183,7 +25189,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25389,7 +25395,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25595,7 +25601,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25801,7 +25807,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -26007,7 +26013,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26294,7 +26300,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ121">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26419,7 +26425,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26706,7 +26712,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27243,7 +27249,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27449,7 +27455,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27655,7 +27661,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27861,7 +27867,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28067,7 +28073,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28145,7 +28151,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ130">
         <v>1.59</v>
@@ -28273,7 +28279,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28479,7 +28485,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28969,7 +28975,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ134">
         <v>1.59</v>
@@ -29175,7 +29181,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ135">
         <v>1.24</v>
@@ -29384,7 +29390,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ136">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR136">
         <v>1.69</v>
@@ -30127,7 +30133,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30208,7 +30214,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ140">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30333,7 +30339,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30539,7 +30545,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30745,7 +30751,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30826,7 +30832,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ143">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31157,7 +31163,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31235,7 +31241,7 @@
         <v>1.56</v>
       </c>
       <c r="AP145">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ145">
         <v>1.53</v>
@@ -31363,7 +31369,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31569,7 +31575,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31775,7 +31781,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31981,7 +31987,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32059,7 +32065,7 @@
         <v>1.78</v>
       </c>
       <c r="AP149">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149">
         <v>2</v>
@@ -32393,7 +32399,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32599,7 +32605,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32680,7 +32686,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ152">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32805,7 +32811,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33217,7 +33223,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33295,10 +33301,10 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ155">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33423,7 +33429,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33835,7 +33841,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34122,7 +34128,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR159">
         <v>1.57</v>
@@ -34659,7 +34665,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34865,7 +34871,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34943,7 +34949,7 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ163">
         <v>1.59</v>
@@ -35277,7 +35283,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35561,7 +35567,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ166">
         <v>1.12</v>
@@ -36388,7 +36394,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ170">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR170">
         <v>1.7</v>
@@ -36594,7 +36600,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ171">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -37006,7 +37012,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ173">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37131,7 +37137,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37337,7 +37343,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37543,7 +37549,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37827,7 +37833,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ177">
         <v>0.78</v>
@@ -37955,7 +37961,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38033,7 +38039,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ178">
         <v>0.9399999999999999</v>
@@ -38239,10 +38245,10 @@
         <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ179">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38367,7 +38373,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38573,7 +38579,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39191,7 +39197,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39809,7 +39815,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40015,7 +40021,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40221,7 +40227,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40633,7 +40639,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40714,7 +40720,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ191">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
         <v>2.07</v>
@@ -40839,7 +40845,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41123,10 +41129,10 @@
         <v>0.27</v>
       </c>
       <c r="AP193">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ193">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR193">
         <v>1.03</v>
@@ -41251,7 +41257,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41535,7 +41541,7 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ195">
         <v>1.22</v>
@@ -41663,7 +41669,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41950,7 +41956,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ197">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR197">
         <v>1.84</v>
@@ -42075,7 +42081,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42281,7 +42287,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42487,7 +42493,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43186,7 +43192,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ203">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -43311,7 +43317,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43598,7 +43604,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ205">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -43723,7 +43729,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43801,7 +43807,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ206">
         <v>1.59</v>
@@ -43929,7 +43935,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44213,7 +44219,7 @@
         <v>2.42</v>
       </c>
       <c r="AP208">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ208">
         <v>2.12</v>
@@ -44628,7 +44634,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ210">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44753,7 +44759,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46685,10 +46691,10 @@
         <v>0.23</v>
       </c>
       <c r="AP220">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ220">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR220">
         <v>1.2</v>
@@ -46813,7 +46819,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46894,7 +46900,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ221">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR221">
         <v>1.35</v>
@@ -47019,7 +47025,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47225,7 +47231,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47303,7 +47309,7 @@
         <v>1.23</v>
       </c>
       <c r="AP223">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ223">
         <v>1.24</v>
@@ -47431,7 +47437,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47509,7 +47515,7 @@
         <v>1.23</v>
       </c>
       <c r="AP224">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ224">
         <v>1.12</v>
@@ -47637,7 +47643,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48873,7 +48879,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49079,7 +49085,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49160,7 +49166,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ232">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49285,7 +49291,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49491,7 +49497,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49981,7 +49987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ236">
         <v>1.59</v>
@@ -50109,7 +50115,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50315,7 +50321,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50393,10 +50399,10 @@
         <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ238">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238">
         <v>1.35</v>
@@ -50521,7 +50527,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50805,7 +50811,7 @@
         <v>1.93</v>
       </c>
       <c r="AP240">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ240">
         <v>2</v>
@@ -50933,7 +50939,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51014,7 +51020,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ241">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51139,7 +51145,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51217,10 +51223,10 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ242">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51426,7 +51432,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ243">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -52453,10 +52459,10 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AQ248">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -52662,7 +52668,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ249">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52787,7 +52793,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52865,10 +52871,10 @@
         <v>0.97</v>
       </c>
       <c r="AP250">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AQ250">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.11</v>
@@ -52993,7 +52999,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53071,10 +53077,10 @@
         <v>1.16</v>
       </c>
       <c r="AP251">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ251">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AR251">
         <v>1.21</v>
@@ -53277,7 +53283,7 @@
         <v>1.1</v>
       </c>
       <c r="AP252">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ252">
         <v>1.17</v>
@@ -53483,7 +53489,7 @@
         <v>1.06</v>
       </c>
       <c r="AP253">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ253">
         <v>1.17</v>
@@ -53611,7 +53617,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54229,7 +54235,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54435,7 +54441,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54513,10 +54519,10 @@
         <v>0.91</v>
       </c>
       <c r="AP258">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ258">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR258">
         <v>1.07</v>
@@ -54641,7 +54647,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54719,10 +54725,10 @@
         <v>1.41</v>
       </c>
       <c r="AP259">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AQ259">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AR259">
         <v>1.16</v>
@@ -54928,7 +54934,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ260">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AR260">
         <v>1.72</v>
@@ -55134,7 +55140,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ261">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR261">
         <v>1.33</v>
@@ -55259,7 +55265,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55749,7 +55755,7 @@
         <v>1.12</v>
       </c>
       <c r="AP264">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
         <v>1.17</v>
@@ -55877,7 +55883,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -56289,7 +56295,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56367,10 +56373,10 @@
         <v>0.97</v>
       </c>
       <c r="AP267">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AQ267">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR267">
         <v>1.13</v>
@@ -56573,10 +56579,10 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR268">
         <v>1.22</v>
@@ -56782,7 +56788,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ269">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AR269">
         <v>1.71</v>
@@ -56797,13 +56803,13 @@
         <v>7</v>
       </c>
       <c r="AV269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
         <v>5</v>
-      </c>
-      <c r="AX269">
-        <v>9</v>
       </c>
       <c r="AY269">
         <v>12</v>
@@ -57206,22 +57212,22 @@
         <v>3.28</v>
       </c>
       <c r="AU271">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV271">
         <v>3</v>
       </c>
       <c r="AW271">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY271">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ271">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA271">
         <v>6</v>
@@ -57525,7 +57531,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57731,7 +57737,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57888,6 +57894,624 @@
       </c>
       <c r="BP274">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7886161</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45792.38541666666</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>71</v>
+      </c>
+      <c r="H275" t="s">
+        <v>85</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
+        <v>86</v>
+      </c>
+      <c r="P275" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q275">
+        <v>4.05</v>
+      </c>
+      <c r="R275">
+        <v>1.93</v>
+      </c>
+      <c r="S275">
+        <v>2.9</v>
+      </c>
+      <c r="T275">
+        <v>1.54</v>
+      </c>
+      <c r="U275">
+        <v>2.45</v>
+      </c>
+      <c r="V275">
+        <v>3.2</v>
+      </c>
+      <c r="W275">
+        <v>1.26</v>
+      </c>
+      <c r="X275">
+        <v>9.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.04</v>
+      </c>
+      <c r="Z275">
+        <v>2.95</v>
+      </c>
+      <c r="AA275">
+        <v>2.9</v>
+      </c>
+      <c r="AB275">
+        <v>2.21</v>
+      </c>
+      <c r="AC275">
+        <v>1.11</v>
+      </c>
+      <c r="AD275">
+        <v>6.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.42</v>
+      </c>
+      <c r="AF275">
+        <v>2.5</v>
+      </c>
+      <c r="AG275">
+        <v>2.48</v>
+      </c>
+      <c r="AH275">
+        <v>1.5</v>
+      </c>
+      <c r="AI275">
+        <v>2.1</v>
+      </c>
+      <c r="AJ275">
+        <v>1.67</v>
+      </c>
+      <c r="AK275">
+        <v>1.63</v>
+      </c>
+      <c r="AL275">
+        <v>1.33</v>
+      </c>
+      <c r="AM275">
+        <v>1.24</v>
+      </c>
+      <c r="AN275">
+        <v>0.97</v>
+      </c>
+      <c r="AO275">
+        <v>1.35</v>
+      </c>
+      <c r="AP275">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ275">
+        <v>1.4</v>
+      </c>
+      <c r="AR275">
+        <v>1.08</v>
+      </c>
+      <c r="AS275">
+        <v>1.41</v>
+      </c>
+      <c r="AT275">
+        <v>2.49</v>
+      </c>
+      <c r="AU275">
+        <v>3</v>
+      </c>
+      <c r="AV275">
+        <v>2</v>
+      </c>
+      <c r="AW275">
+        <v>8</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <v>10</v>
+      </c>
+      <c r="BA275">
+        <v>1</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>4</v>
+      </c>
+      <c r="BD275">
+        <v>2.18</v>
+      </c>
+      <c r="BE275">
+        <v>7</v>
+      </c>
+      <c r="BF275">
+        <v>1.98</v>
+      </c>
+      <c r="BG275">
+        <v>1.45</v>
+      </c>
+      <c r="BH275">
+        <v>2.62</v>
+      </c>
+      <c r="BI275">
+        <v>1.71</v>
+      </c>
+      <c r="BJ275">
+        <v>1.98</v>
+      </c>
+      <c r="BK275">
+        <v>2.21</v>
+      </c>
+      <c r="BL275">
+        <v>1.61</v>
+      </c>
+      <c r="BM275">
+        <v>2.75</v>
+      </c>
+      <c r="BN275">
+        <v>1.31</v>
+      </c>
+      <c r="BO275">
+        <v>3.65</v>
+      </c>
+      <c r="BP275">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7886162</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45792.48958333334</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>72</v>
+      </c>
+      <c r="H276" t="s">
+        <v>74</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>3</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="O276" t="s">
+        <v>243</v>
+      </c>
+      <c r="P276" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q276">
+        <v>1.97</v>
+      </c>
+      <c r="R276">
+        <v>2.22</v>
+      </c>
+      <c r="S276">
+        <v>5.3</v>
+      </c>
+      <c r="T276">
+        <v>1.48</v>
+      </c>
+      <c r="U276">
+        <v>2.55</v>
+      </c>
+      <c r="V276">
+        <v>2.65</v>
+      </c>
+      <c r="W276">
+        <v>1.37</v>
+      </c>
+      <c r="X276">
+        <v>6.23</v>
+      </c>
+      <c r="Y276">
+        <v>1.05</v>
+      </c>
+      <c r="Z276">
+        <v>1.73</v>
+      </c>
+      <c r="AA276">
+        <v>3.3</v>
+      </c>
+      <c r="AB276">
+        <v>4.75</v>
+      </c>
+      <c r="AC276">
+        <v>1.04</v>
+      </c>
+      <c r="AD276">
+        <v>9</v>
+      </c>
+      <c r="AE276">
+        <v>1.3</v>
+      </c>
+      <c r="AF276">
+        <v>2.98</v>
+      </c>
+      <c r="AG276">
+        <v>2.1</v>
+      </c>
+      <c r="AH276">
+        <v>1.72</v>
+      </c>
+      <c r="AI276">
+        <v>1.85</v>
+      </c>
+      <c r="AJ276">
+        <v>1.8</v>
+      </c>
+      <c r="AK276">
+        <v>1.18</v>
+      </c>
+      <c r="AL276">
+        <v>1.27</v>
+      </c>
+      <c r="AM276">
+        <v>2.1</v>
+      </c>
+      <c r="AN276">
+        <v>1.03</v>
+      </c>
+      <c r="AO276">
+        <v>0.88</v>
+      </c>
+      <c r="AP276">
+        <v>1</v>
+      </c>
+      <c r="AQ276">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR276">
+        <v>1.36</v>
+      </c>
+      <c r="AS276">
+        <v>1.22</v>
+      </c>
+      <c r="AT276">
+        <v>2.58</v>
+      </c>
+      <c r="AU276">
+        <v>5</v>
+      </c>
+      <c r="AV276">
+        <v>4</v>
+      </c>
+      <c r="AW276">
+        <v>4</v>
+      </c>
+      <c r="AX276">
+        <v>7</v>
+      </c>
+      <c r="AY276">
+        <v>9</v>
+      </c>
+      <c r="AZ276">
+        <v>11</v>
+      </c>
+      <c r="BA276">
+        <v>5</v>
+      </c>
+      <c r="BB276">
+        <v>1</v>
+      </c>
+      <c r="BC276">
+        <v>6</v>
+      </c>
+      <c r="BD276">
+        <v>1.44</v>
+      </c>
+      <c r="BE276">
+        <v>8.6</v>
+      </c>
+      <c r="BF276">
+        <v>2.8</v>
+      </c>
+      <c r="BG276">
+        <v>1.48</v>
+      </c>
+      <c r="BH276">
+        <v>2.23</v>
+      </c>
+      <c r="BI276">
+        <v>1.84</v>
+      </c>
+      <c r="BJ276">
+        <v>1.97</v>
+      </c>
+      <c r="BK276">
+        <v>2.33</v>
+      </c>
+      <c r="BL276">
+        <v>1.47</v>
+      </c>
+      <c r="BM276">
+        <v>3.3</v>
+      </c>
+      <c r="BN276">
+        <v>1.4</v>
+      </c>
+      <c r="BO276">
+        <v>4.4</v>
+      </c>
+      <c r="BP276">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7886159</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45792.59375</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>77</v>
+      </c>
+      <c r="H277" t="s">
+        <v>76</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>232</v>
+      </c>
+      <c r="P277" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q277">
+        <v>1.82</v>
+      </c>
+      <c r="R277">
+        <v>2.48</v>
+      </c>
+      <c r="S277">
+        <v>6.57</v>
+      </c>
+      <c r="T277">
+        <v>1.25</v>
+      </c>
+      <c r="U277">
+        <v>3.7</v>
+      </c>
+      <c r="V277">
+        <v>2.25</v>
+      </c>
+      <c r="W277">
+        <v>1.62</v>
+      </c>
+      <c r="X277">
+        <v>4.4</v>
+      </c>
+      <c r="Y277">
+        <v>1.15</v>
+      </c>
+      <c r="Z277">
+        <v>1.39</v>
+      </c>
+      <c r="AA277">
+        <v>4.6</v>
+      </c>
+      <c r="AB277">
+        <v>6.75</v>
+      </c>
+      <c r="AC277">
+        <v>1.03</v>
+      </c>
+      <c r="AD277">
+        <v>15</v>
+      </c>
+      <c r="AE277">
+        <v>1.13</v>
+      </c>
+      <c r="AF277">
+        <v>4.49</v>
+      </c>
+      <c r="AG277">
+        <v>1.53</v>
+      </c>
+      <c r="AH277">
+        <v>2.4</v>
+      </c>
+      <c r="AI277">
+        <v>1.7</v>
+      </c>
+      <c r="AJ277">
+        <v>2.1</v>
+      </c>
+      <c r="AK277">
+        <v>1.2</v>
+      </c>
+      <c r="AL277">
+        <v>1.19</v>
+      </c>
+      <c r="AM277">
+        <v>2.8</v>
+      </c>
+      <c r="AN277">
+        <v>1.15</v>
+      </c>
+      <c r="AO277">
+        <v>0.53</v>
+      </c>
+      <c r="AP277">
+        <v>1.2</v>
+      </c>
+      <c r="AQ277">
+        <v>0.51</v>
+      </c>
+      <c r="AR277">
+        <v>1.18</v>
+      </c>
+      <c r="AS277">
+        <v>1.14</v>
+      </c>
+      <c r="AT277">
+        <v>2.32</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>6</v>
+      </c>
+      <c r="AW277">
+        <v>5</v>
+      </c>
+      <c r="AX277">
+        <v>4</v>
+      </c>
+      <c r="AY277">
+        <v>9</v>
+      </c>
+      <c r="AZ277">
+        <v>10</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>2</v>
+      </c>
+      <c r="BC277">
+        <v>4</v>
+      </c>
+      <c r="BD277">
+        <v>1.64</v>
+      </c>
+      <c r="BE277">
+        <v>6.7</v>
+      </c>
+      <c r="BF277">
+        <v>2.48</v>
+      </c>
+      <c r="BG277">
+        <v>1.24</v>
+      </c>
+      <c r="BH277">
+        <v>3.34</v>
+      </c>
+      <c r="BI277">
+        <v>1.53</v>
+      </c>
+      <c r="BJ277">
+        <v>2.37</v>
+      </c>
+      <c r="BK277">
+        <v>1.83</v>
+      </c>
+      <c r="BL277">
+        <v>1.87</v>
+      </c>
+      <c r="BM277">
+        <v>2.34</v>
+      </c>
+      <c r="BN277">
+        <v>1.5</v>
+      </c>
+      <c r="BO277">
+        <v>3.05</v>
+      </c>
+      <c r="BP277">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,9 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['18', '84']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1085,6 +1088,9 @@
   </si>
   <si>
     <t>['38', '70', '75']</t>
+  </si>
+  <si>
+    <t>['36', '77']</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2323,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2529,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2941,7 +2947,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3228,7 +3234,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ9">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11">
         <v>0.61</v>
@@ -3843,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ12">
         <v>0.39</v>
@@ -3971,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4177,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5001,7 +5007,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5619,7 +5625,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5825,7 +5831,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6031,7 +6037,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6112,7 +6118,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>0.91</v>
@@ -6443,7 +6449,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6649,7 +6655,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6933,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ27">
         <v>0.78</v>
@@ -7267,7 +7273,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7679,7 +7685,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7760,7 +7766,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.36</v>
@@ -7885,7 +7891,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7963,7 +7969,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8915,7 +8921,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9405,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>0.39</v>
@@ -10151,7 +10157,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10232,7 +10238,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ43">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10357,7 +10363,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10769,7 +10775,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10975,7 +10981,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11259,7 +11265,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
         <v>1.59</v>
@@ -11799,7 +11805,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12086,7 +12092,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ52">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>0.93</v>
@@ -12417,7 +12423,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12829,7 +12835,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13035,7 +13041,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13241,7 +13247,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13447,7 +13453,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13653,7 +13659,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13734,7 +13740,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13859,7 +13865,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14146,7 +14152,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR62">
         <v>1.3</v>
@@ -14271,7 +14277,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14477,7 +14483,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14761,10 +14767,10 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.93</v>
@@ -15095,7 +15101,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15301,7 +15307,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15919,7 +15925,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16537,7 +16543,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17155,7 +17161,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17233,7 +17239,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>1.24</v>
@@ -17361,7 +17367,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17442,7 +17448,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17567,7 +17573,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17773,7 +17779,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17979,7 +17985,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18060,7 +18066,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18391,7 +18397,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18469,7 +18475,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
         <v>1.12</v>
@@ -19009,7 +19015,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20117,7 +20123,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ91">
         <v>1.59</v>
@@ -20657,7 +20663,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20738,7 +20744,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20863,7 +20869,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21275,7 +21281,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21559,7 +21565,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>0.61</v>
@@ -22099,7 +22105,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22177,10 +22183,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ101">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.85</v>
@@ -22717,7 +22723,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22923,7 +22929,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23129,7 +23135,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23541,7 +23547,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23622,7 +23628,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -23953,7 +23959,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24365,7 +24371,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25189,7 +25195,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25395,7 +25401,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25473,7 +25479,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>1.12</v>
@@ -25601,7 +25607,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25807,7 +25813,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25885,7 +25891,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ119">
         <v>0.78</v>
@@ -26013,7 +26019,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26094,7 +26100,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR120">
         <v>1.46</v>
@@ -26425,7 +26431,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26915,7 +26921,7 @@
         <v>0.71</v>
       </c>
       <c r="AP124">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -27249,7 +27255,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27455,7 +27461,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27533,10 +27539,10 @@
         <v>3</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR127">
         <v>2.03</v>
@@ -27661,7 +27667,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27867,7 +27873,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28073,7 +28079,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28279,7 +28285,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28360,7 +28366,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28485,7 +28491,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -30005,7 +30011,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
         <v>1.12</v>
@@ -30133,7 +30139,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30339,7 +30345,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30420,7 +30426,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ141">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30545,7 +30551,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30623,7 +30629,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1.22</v>
@@ -30751,7 +30757,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31163,7 +31169,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31244,7 +31250,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.27</v>
@@ -31369,7 +31375,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31575,7 +31581,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31653,7 +31659,7 @@
         <v>1.33</v>
       </c>
       <c r="AP147">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ147">
         <v>1.18</v>
@@ -31781,7 +31787,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31987,7 +31993,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32399,7 +32405,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32605,7 +32611,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32811,7 +32817,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32892,7 +32898,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ153">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR153">
         <v>1.54</v>
@@ -33223,7 +33229,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33429,7 +33435,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33841,7 +33847,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34331,10 +34337,10 @@
         <v>2.78</v>
       </c>
       <c r="AP160">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ160">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR160">
         <v>2.11</v>
@@ -34665,7 +34671,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34871,7 +34877,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35283,7 +35289,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35776,7 +35782,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ167">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35979,7 +35985,7 @@
         <v>1.2</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168">
         <v>1.24</v>
@@ -36803,7 +36809,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ172">
         <v>1.12</v>
@@ -37137,7 +37143,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37343,7 +37349,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37424,7 +37430,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ175">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR175">
         <v>1.71</v>
@@ -37549,7 +37555,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37961,7 +37967,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38373,7 +38379,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38454,7 +38460,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ180">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR180">
         <v>1.56</v>
@@ -38579,7 +38585,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38657,7 +38663,7 @@
         <v>2</v>
       </c>
       <c r="AP181">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ181">
         <v>2</v>
@@ -39197,7 +39203,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39815,7 +39821,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40021,7 +40027,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40227,7 +40233,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40639,7 +40645,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40717,7 +40723,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -40845,7 +40851,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40926,7 +40932,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
         <v>1.34</v>
@@ -41257,7 +41263,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41338,7 +41344,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ194">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR194">
         <v>1.45</v>
@@ -41669,7 +41675,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42081,7 +42087,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42159,7 +42165,7 @@
         <v>1.92</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
         <v>1.59</v>
@@ -42287,7 +42293,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42493,7 +42499,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43317,7 +43323,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43729,7 +43735,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43935,7 +43941,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44222,7 +44228,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ208">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44425,7 +44431,7 @@
         <v>1.75</v>
       </c>
       <c r="AP209">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ209">
         <v>1.59</v>
@@ -44759,7 +44765,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45252,7 +45258,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ213">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR213">
         <v>1.54</v>
@@ -45455,7 +45461,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -46073,7 +46079,7 @@
         <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ217">
         <v>1.18</v>
@@ -46819,7 +46825,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47025,7 +47031,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47231,7 +47237,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47437,7 +47443,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47643,7 +47649,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47724,7 +47730,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ225">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR225">
         <v>1.8</v>
@@ -48545,7 +48551,7 @@
         <v>1.14</v>
       </c>
       <c r="AP229">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ229">
         <v>1.22</v>
@@ -48879,7 +48885,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48957,7 +48963,7 @@
         <v>1.71</v>
       </c>
       <c r="AP231">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ231">
         <v>1.59</v>
@@ -49085,7 +49091,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49291,7 +49297,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49372,7 +49378,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ233">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AR233">
         <v>1.16</v>
@@ -49497,7 +49503,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49784,7 +49790,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ235">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR235">
         <v>1.72</v>
@@ -50115,7 +50121,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50321,7 +50327,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50527,7 +50533,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50939,7 +50945,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51145,7 +51151,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51638,7 +51644,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ244">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51841,7 +51847,7 @@
         <v>1.77</v>
       </c>
       <c r="AP245">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AQ245">
         <v>1.65</v>
@@ -52050,7 +52056,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ246">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AR246">
         <v>1.5</v>
@@ -52253,7 +52259,7 @@
         <v>1.77</v>
       </c>
       <c r="AP247">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="AQ247">
         <v>1.68</v>
@@ -52793,7 +52799,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52999,7 +53005,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53617,7 +53623,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53695,10 +53701,10 @@
         <v>1.61</v>
       </c>
       <c r="AP254">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AQ254">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -53901,10 +53907,10 @@
         <v>2.03</v>
       </c>
       <c r="AP255">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="AQ255">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AR255">
         <v>1.76</v>
@@ -54235,7 +54241,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54441,7 +54447,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54647,7 +54653,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -55265,7 +55271,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55346,7 +55352,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ262">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="AR262">
         <v>1.36</v>
@@ -55549,7 +55555,7 @@
         <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AQ263">
         <v>1.65</v>
@@ -55883,7 +55889,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -55964,7 +55970,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ265">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56167,7 +56173,7 @@
         <v>1.69</v>
       </c>
       <c r="AP266">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AQ266">
         <v>1.68</v>
@@ -56295,7 +56301,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56994,7 +57000,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ270">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="AR270">
         <v>1.5</v>
@@ -57197,7 +57203,7 @@
         <v>1.45</v>
       </c>
       <c r="AP271">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AQ271">
         <v>1.41</v>
@@ -57531,7 +57537,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57609,7 +57615,7 @@
         <v>1.61</v>
       </c>
       <c r="AP273">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AQ273">
         <v>1.65</v>
@@ -57737,7 +57743,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57818,7 +57824,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ274">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AR274">
         <v>1.35</v>
@@ -57943,7 +57949,7 @@
         <v>86</v>
       </c>
       <c r="P275" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q275">
         <v>4.05</v>
@@ -58149,7 +58155,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q276">
         <v>1.97</v>
@@ -58512,6 +58518,418 @@
       </c>
       <c r="BP277">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7886143</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45794.47916666666</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>80</v>
+      </c>
+      <c r="H278" t="s">
+        <v>83</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>244</v>
+      </c>
+      <c r="P278" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q278">
+        <v>1.62</v>
+      </c>
+      <c r="R278">
+        <v>2.67</v>
+      </c>
+      <c r="S278">
+        <v>7.34</v>
+      </c>
+      <c r="T278">
+        <v>1.25</v>
+      </c>
+      <c r="U278">
+        <v>3.5</v>
+      </c>
+      <c r="V278">
+        <v>2.25</v>
+      </c>
+      <c r="W278">
+        <v>1.57</v>
+      </c>
+      <c r="X278">
+        <v>4.9</v>
+      </c>
+      <c r="Y278">
+        <v>1.11</v>
+      </c>
+      <c r="Z278">
+        <v>1.26</v>
+      </c>
+      <c r="AA278">
+        <v>4.8</v>
+      </c>
+      <c r="AB278">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC278">
+        <v>1.03</v>
+      </c>
+      <c r="AD278">
+        <v>13.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.18</v>
+      </c>
+      <c r="AF278">
+        <v>4.7</v>
+      </c>
+      <c r="AG278">
+        <v>1.65</v>
+      </c>
+      <c r="AH278">
+        <v>2.05</v>
+      </c>
+      <c r="AI278">
+        <v>2.1</v>
+      </c>
+      <c r="AJ278">
+        <v>1.67</v>
+      </c>
+      <c r="AK278">
+        <v>1.08</v>
+      </c>
+      <c r="AL278">
+        <v>1.15</v>
+      </c>
+      <c r="AM278">
+        <v>3.28</v>
+      </c>
+      <c r="AN278">
+        <v>1.74</v>
+      </c>
+      <c r="AO278">
+        <v>1.35</v>
+      </c>
+      <c r="AP278">
+        <v>1.77</v>
+      </c>
+      <c r="AQ278">
+        <v>1.31</v>
+      </c>
+      <c r="AR278">
+        <v>1.94</v>
+      </c>
+      <c r="AS278">
+        <v>1.35</v>
+      </c>
+      <c r="AT278">
+        <v>3.29</v>
+      </c>
+      <c r="AU278">
+        <v>10</v>
+      </c>
+      <c r="AV278">
+        <v>8</v>
+      </c>
+      <c r="AW278">
+        <v>17</v>
+      </c>
+      <c r="AX278">
+        <v>3</v>
+      </c>
+      <c r="AY278">
+        <v>27</v>
+      </c>
+      <c r="AZ278">
+        <v>11</v>
+      </c>
+      <c r="BA278">
+        <v>5</v>
+      </c>
+      <c r="BB278">
+        <v>5</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>1.15</v>
+      </c>
+      <c r="BE278">
+        <v>12</v>
+      </c>
+      <c r="BF278">
+        <v>6.55</v>
+      </c>
+      <c r="BG278">
+        <v>1.23</v>
+      </c>
+      <c r="BH278">
+        <v>3.42</v>
+      </c>
+      <c r="BI278">
+        <v>1.51</v>
+      </c>
+      <c r="BJ278">
+        <v>2.39</v>
+      </c>
+      <c r="BK278">
+        <v>1.85</v>
+      </c>
+      <c r="BL278">
+        <v>1.91</v>
+      </c>
+      <c r="BM278">
+        <v>2.37</v>
+      </c>
+      <c r="BN278">
+        <v>1.54</v>
+      </c>
+      <c r="BO278">
+        <v>3.05</v>
+      </c>
+      <c r="BP278">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7884939</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279" t="s">
+        <v>79</v>
+      </c>
+      <c r="H279" t="s">
+        <v>75</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279" t="s">
+        <v>151</v>
+      </c>
+      <c r="P279" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q279">
+        <v>2.25</v>
+      </c>
+      <c r="R279">
+        <v>2.15</v>
+      </c>
+      <c r="S279">
+        <v>4.6</v>
+      </c>
+      <c r="T279">
+        <v>1.36</v>
+      </c>
+      <c r="U279">
+        <v>2.89</v>
+      </c>
+      <c r="V279">
+        <v>2.7</v>
+      </c>
+      <c r="W279">
+        <v>1.4</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.1</v>
+      </c>
+      <c r="Z279">
+        <v>1.67</v>
+      </c>
+      <c r="AA279">
+        <v>3.6</v>
+      </c>
+      <c r="AB279">
+        <v>4.6</v>
+      </c>
+      <c r="AC279">
+        <v>1.01</v>
+      </c>
+      <c r="AD279">
+        <v>12.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.25</v>
+      </c>
+      <c r="AF279">
+        <v>3.42</v>
+      </c>
+      <c r="AG279">
+        <v>1.9</v>
+      </c>
+      <c r="AH279">
+        <v>1.83</v>
+      </c>
+      <c r="AI279">
+        <v>1.8</v>
+      </c>
+      <c r="AJ279">
+        <v>1.95</v>
+      </c>
+      <c r="AK279">
+        <v>1.28</v>
+      </c>
+      <c r="AL279">
+        <v>1.29</v>
+      </c>
+      <c r="AM279">
+        <v>2.11</v>
+      </c>
+      <c r="AN279">
+        <v>2.06</v>
+      </c>
+      <c r="AO279">
+        <v>2.38</v>
+      </c>
+      <c r="AP279">
+        <v>2.03</v>
+      </c>
+      <c r="AQ279">
+        <v>2.34</v>
+      </c>
+      <c r="AR279">
+        <v>1.87</v>
+      </c>
+      <c r="AS279">
+        <v>1.71</v>
+      </c>
+      <c r="AT279">
+        <v>3.58</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>5</v>
+      </c>
+      <c r="AW279">
+        <v>9</v>
+      </c>
+      <c r="AX279">
+        <v>9</v>
+      </c>
+      <c r="AY279">
+        <v>14</v>
+      </c>
+      <c r="AZ279">
+        <v>14</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>10</v>
+      </c>
+      <c r="BD279">
+        <v>1.59</v>
+      </c>
+      <c r="BE279">
+        <v>7.8</v>
+      </c>
+      <c r="BF279">
+        <v>3</v>
+      </c>
+      <c r="BG279">
+        <v>1.44</v>
+      </c>
+      <c r="BH279">
+        <v>2.64</v>
+      </c>
+      <c r="BI279">
+        <v>1.8</v>
+      </c>
+      <c r="BJ279">
+        <v>1.98</v>
+      </c>
+      <c r="BK279">
+        <v>2.21</v>
+      </c>
+      <c r="BL279">
+        <v>1.6</v>
+      </c>
+      <c r="BM279">
+        <v>3.05</v>
+      </c>
+      <c r="BN279">
+        <v>1.3</v>
+      </c>
+      <c r="BO279">
+        <v>4.25</v>
+      </c>
+      <c r="BP279">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['18', '84']</t>
   </si>
   <si>
+    <t>['5', '24']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1452,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2329,7 +2332,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2535,7 +2538,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2616,7 +2619,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2947,7 +2950,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3977,7 +3980,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4183,7 +4186,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5007,7 +5010,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5291,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19">
         <v>1.59</v>
@@ -5625,7 +5628,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5831,7 +5834,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5912,7 +5915,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ22">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.34</v>
@@ -6037,7 +6040,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6449,7 +6452,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6655,7 +6658,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7273,7 +7276,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7557,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30">
         <v>1.24</v>
@@ -7685,7 +7688,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7891,7 +7894,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8590,7 +8593,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ35">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>0.9399999999999999</v>
@@ -8921,7 +8924,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -10157,7 +10160,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10363,7 +10366,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10775,7 +10778,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10981,7 +10984,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11268,7 +11271,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ48">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>2.19</v>
@@ -11471,7 +11474,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11805,7 +11808,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12423,7 +12426,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12835,7 +12838,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13041,7 +13044,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13122,7 +13125,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.15</v>
@@ -13247,7 +13250,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13453,7 +13456,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13659,7 +13662,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13865,7 +13868,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14277,7 +14280,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14483,7 +14486,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15101,7 +15104,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15307,7 +15310,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15385,7 +15388,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ68">
         <v>1.59</v>
@@ -15800,7 +15803,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.49</v>
@@ -15925,7 +15928,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16543,7 +16546,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17036,7 +17039,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.63</v>
@@ -17161,7 +17164,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17367,7 +17370,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17573,7 +17576,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17779,7 +17782,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17985,7 +17988,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18397,7 +18400,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -19015,7 +19018,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19093,7 +19096,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -20663,7 +20666,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20869,7 +20872,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21153,7 +21156,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
         <v>1.22</v>
@@ -21281,7 +21284,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -22105,7 +22108,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22723,7 +22726,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22929,7 +22932,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23135,7 +23138,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23547,7 +23550,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23959,7 +23962,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24246,7 +24249,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ111">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.08</v>
@@ -24371,7 +24374,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -25195,7 +25198,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25401,7 +25404,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25607,7 +25610,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25813,7 +25816,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -26019,7 +26022,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26097,7 +26100,7 @@
         <v>3</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ120">
         <v>2.06</v>
@@ -26303,7 +26306,7 @@
         <v>0.29</v>
       </c>
       <c r="AP121">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ121">
         <v>0.39</v>
@@ -26431,7 +26434,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -27255,7 +27258,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27461,7 +27464,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27667,7 +27670,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27873,7 +27876,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27951,7 +27954,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ129">
         <v>1.18</v>
@@ -28079,7 +28082,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28285,7 +28288,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28491,7 +28494,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28984,7 +28987,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ134">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.33</v>
@@ -30139,7 +30142,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30345,7 +30348,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30551,7 +30554,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30757,7 +30760,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31169,7 +31172,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31375,7 +31378,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31581,7 +31584,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31787,7 +31790,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31993,7 +31996,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32280,7 +32283,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.74</v>
@@ -32405,7 +32408,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32611,7 +32614,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32689,7 +32692,7 @@
         <v>0.44</v>
       </c>
       <c r="AP152">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ152">
         <v>0.9399999999999999</v>
@@ -32817,7 +32820,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33229,7 +33232,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33435,7 +33438,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33847,7 +33850,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34671,7 +34674,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34877,7 +34880,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35161,10 +35164,10 @@
         <v>2.1</v>
       </c>
       <c r="AP164">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ164">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35289,7 +35292,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -37143,7 +37146,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37349,7 +37352,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37555,7 +37558,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37967,7 +37970,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38379,7 +38382,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38457,7 +38460,7 @@
         <v>1.55</v>
       </c>
       <c r="AP180">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ180">
         <v>1.44</v>
@@ -38585,7 +38588,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39203,7 +39206,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39284,7 +39287,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ184">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR184">
         <v>1.43</v>
@@ -39821,7 +39824,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40027,7 +40030,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40233,7 +40236,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40645,7 +40648,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40851,7 +40854,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41263,7 +41266,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41675,7 +41678,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42087,7 +42090,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42293,7 +42296,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42371,7 +42374,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ199">
         <v>1.12</v>
@@ -42499,7 +42502,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -43323,7 +43326,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43735,7 +43738,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43941,7 +43944,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44434,7 +44437,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ209">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>2.05</v>
@@ -44637,7 +44640,7 @@
         <v>0.38</v>
       </c>
       <c r="AP210">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ210">
         <v>0.61</v>
@@ -44765,7 +44768,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -46288,7 +46291,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ218">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR218">
         <v>1.69</v>
@@ -46825,7 +46828,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47031,7 +47034,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47237,7 +47240,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47443,7 +47446,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47649,7 +47652,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47933,7 +47936,7 @@
         <v>0.79</v>
       </c>
       <c r="AP226">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ226">
         <v>0.78</v>
@@ -48885,7 +48888,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49091,7 +49094,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49297,7 +49300,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49503,7 +49506,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49584,7 +49587,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ234">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR234">
         <v>1.36</v>
@@ -50121,7 +50124,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50327,7 +50330,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50533,7 +50536,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50945,7 +50948,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51151,7 +51154,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51641,7 +51644,7 @@
         <v>1.57</v>
       </c>
       <c r="AP244">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AQ244">
         <v>1.77</v>
@@ -52053,7 +52056,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AQ246">
         <v>1.31</v>
@@ -52799,7 +52802,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -53005,7 +53008,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53623,7 +53626,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54241,7 +54244,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54319,10 +54322,10 @@
         <v>1.55</v>
       </c>
       <c r="AP257">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AQ257">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AR257">
         <v>1.48</v>
@@ -54447,7 +54450,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54653,7 +54656,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -55271,7 +55274,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55558,7 +55561,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ263">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AR263">
         <v>1.92</v>
@@ -55889,7 +55892,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -55967,7 +55970,7 @@
         <v>1.34</v>
       </c>
       <c r="AP265">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AQ265">
         <v>1.31</v>
@@ -56301,7 +56304,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -57206,7 +57209,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ271">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AR271">
         <v>1.93</v>
@@ -57537,7 +57540,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57618,7 +57621,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ273">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AR273">
         <v>1.38</v>
@@ -57743,7 +57746,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57949,7 +57952,7 @@
         <v>86</v>
       </c>
       <c r="P275" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q275">
         <v>4.05</v>
@@ -58155,7 +58158,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q276">
         <v>1.97</v>
@@ -58773,7 +58776,7 @@
         <v>151</v>
       </c>
       <c r="P279" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q279">
         <v>2.25</v>
@@ -58930,6 +58933,212 @@
       </c>
       <c r="BP279">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7886144</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>84</v>
+      </c>
+      <c r="H280" t="s">
+        <v>82</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>245</v>
+      </c>
+      <c r="P280" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q280">
+        <v>4.42</v>
+      </c>
+      <c r="R280">
+        <v>2.2</v>
+      </c>
+      <c r="S280">
+        <v>2.31</v>
+      </c>
+      <c r="T280">
+        <v>1.37</v>
+      </c>
+      <c r="U280">
+        <v>2.95</v>
+      </c>
+      <c r="V280">
+        <v>2.47</v>
+      </c>
+      <c r="W280">
+        <v>1.5</v>
+      </c>
+      <c r="X280">
+        <v>6.25</v>
+      </c>
+      <c r="Y280">
+        <v>1.1</v>
+      </c>
+      <c r="Z280">
+        <v>3.64</v>
+      </c>
+      <c r="AA280">
+        <v>3.5</v>
+      </c>
+      <c r="AB280">
+        <v>1.79</v>
+      </c>
+      <c r="AC280">
+        <v>1.02</v>
+      </c>
+      <c r="AD280">
+        <v>8.1</v>
+      </c>
+      <c r="AE280">
+        <v>1.2</v>
+      </c>
+      <c r="AF280">
+        <v>3.76</v>
+      </c>
+      <c r="AG280">
+        <v>1.7</v>
+      </c>
+      <c r="AH280">
+        <v>1.95</v>
+      </c>
+      <c r="AI280">
+        <v>1.64</v>
+      </c>
+      <c r="AJ280">
+        <v>2.12</v>
+      </c>
+      <c r="AK280">
+        <v>1.3</v>
+      </c>
+      <c r="AL280">
+        <v>1.27</v>
+      </c>
+      <c r="AM280">
+        <v>1.25</v>
+      </c>
+      <c r="AN280">
+        <v>1.41</v>
+      </c>
+      <c r="AO280">
+        <v>1.65</v>
+      </c>
+      <c r="AP280">
+        <v>1.46</v>
+      </c>
+      <c r="AQ280">
+        <v>1.6</v>
+      </c>
+      <c r="AR280">
+        <v>1.33</v>
+      </c>
+      <c r="AS280">
+        <v>1.51</v>
+      </c>
+      <c r="AT280">
+        <v>2.84</v>
+      </c>
+      <c r="AU280">
+        <v>6</v>
+      </c>
+      <c r="AV280">
+        <v>8</v>
+      </c>
+      <c r="AW280">
+        <v>3</v>
+      </c>
+      <c r="AX280">
+        <v>18</v>
+      </c>
+      <c r="AY280">
+        <v>9</v>
+      </c>
+      <c r="AZ280">
+        <v>26</v>
+      </c>
+      <c r="BA280">
+        <v>3</v>
+      </c>
+      <c r="BB280">
+        <v>9</v>
+      </c>
+      <c r="BC280">
+        <v>12</v>
+      </c>
+      <c r="BD280">
+        <v>2.86</v>
+      </c>
+      <c r="BE280">
+        <v>6.65</v>
+      </c>
+      <c r="BF280">
+        <v>1.63</v>
+      </c>
+      <c r="BG280">
+        <v>1.22</v>
+      </c>
+      <c r="BH280">
+        <v>3.62</v>
+      </c>
+      <c r="BI280">
+        <v>1.43</v>
+      </c>
+      <c r="BJ280">
+        <v>2.67</v>
+      </c>
+      <c r="BK280">
+        <v>1.7</v>
+      </c>
+      <c r="BL280">
+        <v>2.03</v>
+      </c>
+      <c r="BM280">
+        <v>2.12</v>
+      </c>
+      <c r="BN280">
+        <v>1.61</v>
+      </c>
+      <c r="BO280">
+        <v>2.67</v>
+      </c>
+      <c r="BP280">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,9 @@
     <t>['5', '24']</t>
   </si>
   <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1455,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2332,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2538,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2950,7 +2953,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3440,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3980,7 +3983,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4058,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ13">
         <v>1.12</v>
@@ -4186,7 +4189,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5010,7 +5013,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5628,7 +5631,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5709,7 +5712,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ21">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5834,7 +5837,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6040,7 +6043,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6452,7 +6455,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6530,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.39</v>
@@ -6658,7 +6661,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6945,7 +6948,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7276,7 +7279,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7688,7 +7691,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7894,7 +7897,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8924,7 +8927,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9005,7 +9008,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ37">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR37">
         <v>1.15</v>
@@ -9620,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.59</v>
@@ -10032,7 +10035,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -10160,7 +10163,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10366,7 +10369,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10653,7 +10656,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ45">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR45">
         <v>2.07</v>
@@ -10778,7 +10781,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10984,7 +10987,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11808,7 +11811,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12301,7 +12304,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ53">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12426,7 +12429,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12838,7 +12841,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13044,7 +13047,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13250,7 +13253,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13456,7 +13459,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13534,7 +13537,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13662,7 +13665,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13868,7 +13871,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14280,7 +14283,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14486,7 +14489,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15104,7 +15107,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15310,7 +15313,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15391,7 +15394,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ68">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.26</v>
@@ -15800,7 +15803,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15928,7 +15931,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16546,7 +16549,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16627,7 +16630,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR74">
         <v>1.27</v>
@@ -17036,7 +17039,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -17164,7 +17167,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17370,7 +17373,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17576,7 +17579,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17782,7 +17785,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17988,7 +17991,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18066,7 +18069,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18275,7 +18278,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.21</v>
@@ -18400,7 +18403,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -19018,7 +19021,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19923,7 +19926,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ90">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR90">
         <v>1.18</v>
@@ -20666,7 +20669,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20872,7 +20875,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20950,7 +20953,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ95">
         <v>1.24</v>
@@ -21284,7 +21287,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21774,7 +21777,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.12</v>
@@ -21983,7 +21986,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR100">
         <v>1.22</v>
@@ -22108,7 +22111,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22395,7 +22398,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ102">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR102">
         <v>0.91</v>
@@ -22726,7 +22729,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22932,7 +22935,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23138,7 +23141,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23550,7 +23553,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23628,7 +23631,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ108">
         <v>1.44</v>
@@ -23962,7 +23965,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24374,7 +24377,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24452,7 +24455,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ112">
         <v>1.59</v>
@@ -24658,7 +24661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>0.61</v>
@@ -25198,7 +25201,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25279,7 +25282,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ116">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR116">
         <v>1.24</v>
@@ -25404,7 +25407,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25610,7 +25613,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25816,7 +25819,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -25897,7 +25900,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ119">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR119">
         <v>2</v>
@@ -26022,7 +26025,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26434,7 +26437,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26512,7 +26515,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>1.22</v>
@@ -27258,7 +27261,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27336,10 +27339,10 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ126">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27464,7 +27467,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27670,7 +27673,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27751,7 +27754,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ128">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27876,7 +27879,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28082,7 +28085,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28163,7 +28166,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ130">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR130">
         <v>1.03</v>
@@ -28288,7 +28291,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28494,7 +28497,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -29602,7 +29605,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ137">
         <v>1.12</v>
@@ -30142,7 +30145,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30348,7 +30351,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30426,7 +30429,7 @@
         <v>2.71</v>
       </c>
       <c r="AP141">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>2.06</v>
@@ -30554,7 +30557,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30760,7 +30763,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31047,7 +31050,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ144">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR144">
         <v>1.48</v>
@@ -31172,7 +31175,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31378,7 +31381,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31459,7 +31462,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ146">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31584,7 +31587,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31790,7 +31793,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31996,7 +31999,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32408,7 +32411,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32614,7 +32617,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32820,7 +32823,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33104,7 +33107,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1.12</v>
@@ -33232,7 +33235,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33438,7 +33441,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33850,7 +33853,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33928,7 +33931,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -34549,7 +34552,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR161">
         <v>1.48</v>
@@ -34674,7 +34677,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34880,7 +34883,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34961,7 +34964,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ163">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35292,7 +35295,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -36400,7 +36403,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ170">
         <v>0.61</v>
@@ -37018,7 +37021,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
         <v>0.9399999999999999</v>
@@ -37146,7 +37149,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37352,7 +37355,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37558,7 +37561,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37845,7 +37848,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ177">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR177">
         <v>1.06</v>
@@ -37970,7 +37973,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38382,7 +38385,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38588,7 +38591,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38875,7 +38878,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ182">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR182">
         <v>1.01</v>
@@ -39078,7 +39081,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ183">
         <v>1.18</v>
@@ -39206,7 +39209,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39699,7 +39702,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ186">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
         <v>1.29</v>
@@ -39824,7 +39827,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -39902,7 +39905,7 @@
         <v>1.27</v>
       </c>
       <c r="AP187">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ187">
         <v>1.22</v>
@@ -40030,7 +40033,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40236,7 +40239,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40648,7 +40651,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40854,7 +40857,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41266,7 +41269,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41678,7 +41681,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42090,7 +42093,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42171,7 +42174,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ198">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR198">
         <v>2.05</v>
@@ -42296,7 +42299,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42502,7 +42505,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42786,7 +42789,7 @@
         <v>1.92</v>
       </c>
       <c r="AP201">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ201">
         <v>2</v>
@@ -43326,7 +43329,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43404,10 +43407,10 @@
         <v>0.92</v>
       </c>
       <c r="AP204">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ204">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -43738,7 +43741,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43944,7 +43947,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44768,7 +44771,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45052,10 +45055,10 @@
         <v>1.85</v>
       </c>
       <c r="AP212">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR212">
         <v>1.44</v>
@@ -45879,7 +45882,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ216">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR216">
         <v>1.87</v>
@@ -46828,7 +46831,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47034,7 +47037,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47240,7 +47243,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47446,7 +47449,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47652,7 +47655,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -47730,7 +47733,7 @@
         <v>2.23</v>
       </c>
       <c r="AP225">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ225">
         <v>2.06</v>
@@ -47939,7 +47942,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ226">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR226">
         <v>1.58</v>
@@ -48760,7 +48763,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -48888,7 +48891,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -48969,7 +48972,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ231">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR231">
         <v>2.07</v>
@@ -49094,7 +49097,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49300,7 +49303,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49506,7 +49509,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50124,7 +50127,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50330,7 +50333,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50536,7 +50539,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50948,7 +50951,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51026,7 +51029,7 @@
         <v>0.21</v>
       </c>
       <c r="AP241">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ241">
         <v>0.39</v>
@@ -51154,7 +51157,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51441,7 +51444,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ243">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -51853,7 +51856,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ245">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -52265,7 +52268,7 @@
         <v>2.34</v>
       </c>
       <c r="AQ247">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AR247">
         <v>1.77</v>
@@ -52674,7 +52677,7 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ249">
         <v>0.9399999999999999</v>
@@ -52802,7 +52805,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52883,7 +52886,7 @@
         <v>0.51</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR250">
         <v>1.11</v>
@@ -53008,7 +53011,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53295,7 +53298,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ252">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -53626,7 +53629,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -54116,10 +54119,10 @@
         <v>1.74</v>
       </c>
       <c r="AP256">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AQ256">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -54244,7 +54247,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54450,7 +54453,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54528,7 +54531,7 @@
         <v>0.91</v>
       </c>
       <c r="AP258">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AQ258">
         <v>1</v>
@@ -54656,7 +54659,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54940,7 +54943,7 @@
         <v>0.53</v>
       </c>
       <c r="AP260">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ260">
         <v>0.51</v>
@@ -55274,7 +55277,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55352,7 +55355,7 @@
         <v>2.5</v>
       </c>
       <c r="AP262">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AQ262">
         <v>2.34</v>
@@ -55892,7 +55895,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -56179,7 +56182,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ266">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AR266">
         <v>1.89</v>
@@ -56304,7 +56307,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56591,7 +56594,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR268">
         <v>1.22</v>
@@ -56794,7 +56797,7 @@
         <v>1.18</v>
       </c>
       <c r="AP269">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ269">
         <v>1.2</v>
@@ -57000,7 +57003,7 @@
         <v>2.45</v>
       </c>
       <c r="AP270">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AQ270">
         <v>2.34</v>
@@ -57415,7 +57418,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ272">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AR272">
         <v>1.31</v>
@@ -57540,7 +57543,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57746,7 +57749,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57824,7 +57827,7 @@
         <v>2.03</v>
       </c>
       <c r="AP274">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AQ274">
         <v>2.03</v>
@@ -57952,7 +57955,7 @@
         <v>86</v>
       </c>
       <c r="P275" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q275">
         <v>4.05</v>
@@ -58030,7 +58033,7 @@
         <v>1.35</v>
       </c>
       <c r="AP275">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AQ275">
         <v>1.4</v>
@@ -58158,7 +58161,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q276">
         <v>1.97</v>
@@ -58663,19 +58666,19 @@
         <v>3.29</v>
       </c>
       <c r="AU278">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV278">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW278">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AX278">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY278">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ278">
         <v>11</v>
@@ -58776,7 +58779,7 @@
         <v>151</v>
       </c>
       <c r="P279" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q279">
         <v>2.25</v>
@@ -58875,16 +58878,16 @@
         <v>5</v>
       </c>
       <c r="AW279">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX279">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY279">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ279">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA279">
         <v>5</v>
@@ -59139,6 +59142,418 @@
       </c>
       <c r="BP280">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7884938</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45795.5625</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>78</v>
+      </c>
+      <c r="H281" t="s">
+        <v>70</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281" t="s">
+        <v>86</v>
+      </c>
+      <c r="P281" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q281">
+        <v>2.5</v>
+      </c>
+      <c r="R281">
+        <v>2</v>
+      </c>
+      <c r="S281">
+        <v>4.9</v>
+      </c>
+      <c r="T281">
+        <v>1.52</v>
+      </c>
+      <c r="U281">
+        <v>2.59</v>
+      </c>
+      <c r="V281">
+        <v>3.28</v>
+      </c>
+      <c r="W281">
+        <v>1.29</v>
+      </c>
+      <c r="X281">
+        <v>8</v>
+      </c>
+      <c r="Y281">
+        <v>1.02</v>
+      </c>
+      <c r="Z281">
+        <v>1.97</v>
+      </c>
+      <c r="AA281">
+        <v>2.96</v>
+      </c>
+      <c r="AB281">
+        <v>4</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
+      </c>
+      <c r="AD281">
+        <v>7</v>
+      </c>
+      <c r="AE281">
+        <v>1.4</v>
+      </c>
+      <c r="AF281">
+        <v>2.63</v>
+      </c>
+      <c r="AG281">
+        <v>2.35</v>
+      </c>
+      <c r="AH281">
+        <v>1.6</v>
+      </c>
+      <c r="AI281">
+        <v>2.12</v>
+      </c>
+      <c r="AJ281">
+        <v>1.67</v>
+      </c>
+      <c r="AK281">
+        <v>1.35</v>
+      </c>
+      <c r="AL281">
+        <v>1.35</v>
+      </c>
+      <c r="AM281">
+        <v>1.8</v>
+      </c>
+      <c r="AN281">
+        <v>1.65</v>
+      </c>
+      <c r="AO281">
+        <v>1.68</v>
+      </c>
+      <c r="AP281">
+        <v>1.63</v>
+      </c>
+      <c r="AQ281">
+        <v>1.66</v>
+      </c>
+      <c r="AR281">
+        <v>1.34</v>
+      </c>
+      <c r="AS281">
+        <v>1.5</v>
+      </c>
+      <c r="AT281">
+        <v>2.84</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>2</v>
+      </c>
+      <c r="AW281">
+        <v>7</v>
+      </c>
+      <c r="AX281">
+        <v>9</v>
+      </c>
+      <c r="AY281">
+        <v>12</v>
+      </c>
+      <c r="AZ281">
+        <v>11</v>
+      </c>
+      <c r="BA281">
+        <v>2</v>
+      </c>
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>2</v>
+      </c>
+      <c r="BD281">
+        <v>2.09</v>
+      </c>
+      <c r="BE281">
+        <v>5.95</v>
+      </c>
+      <c r="BF281">
+        <v>2.18</v>
+      </c>
+      <c r="BG281">
+        <v>1.57</v>
+      </c>
+      <c r="BH281">
+        <v>2.3</v>
+      </c>
+      <c r="BI281">
+        <v>1.99</v>
+      </c>
+      <c r="BJ281">
+        <v>1.73</v>
+      </c>
+      <c r="BK281">
+        <v>2.5</v>
+      </c>
+      <c r="BL281">
+        <v>1.47</v>
+      </c>
+      <c r="BM281">
+        <v>3.35</v>
+      </c>
+      <c r="BN281">
+        <v>1.26</v>
+      </c>
+      <c r="BO281">
+        <v>3.9</v>
+      </c>
+      <c r="BP281">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7886165</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45796.48958333334</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>81</v>
+      </c>
+      <c r="H282" t="s">
+        <v>71</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>246</v>
+      </c>
+      <c r="P282" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q282">
+        <v>1.95</v>
+      </c>
+      <c r="R282">
+        <v>2.31</v>
+      </c>
+      <c r="S282">
+        <v>5.7</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>2.9</v>
+      </c>
+      <c r="V282">
+        <v>2.55</v>
+      </c>
+      <c r="W282">
+        <v>1.42</v>
+      </c>
+      <c r="X282">
+        <v>6</v>
+      </c>
+      <c r="Y282">
+        <v>1.1</v>
+      </c>
+      <c r="Z282">
+        <v>1.33</v>
+      </c>
+      <c r="AA282">
+        <v>4.2</v>
+      </c>
+      <c r="AB282">
+        <v>6</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>11</v>
+      </c>
+      <c r="AE282">
+        <v>1.27</v>
+      </c>
+      <c r="AF282">
+        <v>3.6</v>
+      </c>
+      <c r="AG282">
+        <v>1.83</v>
+      </c>
+      <c r="AH282">
+        <v>1.98</v>
+      </c>
+      <c r="AI282">
+        <v>1.9</v>
+      </c>
+      <c r="AJ282">
+        <v>1.75</v>
+      </c>
+      <c r="AK282">
+        <v>1.22</v>
+      </c>
+      <c r="AL282">
+        <v>1.22</v>
+      </c>
+      <c r="AM282">
+        <v>2.75</v>
+      </c>
+      <c r="AN282">
+        <v>1.17</v>
+      </c>
+      <c r="AO282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP282">
+        <v>1.22</v>
+      </c>
+      <c r="AQ282">
+        <v>0.92</v>
+      </c>
+      <c r="AR282">
+        <v>1.71</v>
+      </c>
+      <c r="AS282">
+        <v>1.09</v>
+      </c>
+      <c r="AT282">
+        <v>2.8</v>
+      </c>
+      <c r="AU282">
+        <v>11</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>13</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>24</v>
+      </c>
+      <c r="AZ282">
+        <v>8</v>
+      </c>
+      <c r="BA282">
+        <v>7</v>
+      </c>
+      <c r="BB282">
+        <v>5</v>
+      </c>
+      <c r="BC282">
+        <v>12</v>
+      </c>
+      <c r="BD282">
+        <v>1.26</v>
+      </c>
+      <c r="BE282">
+        <v>9.4</v>
+      </c>
+      <c r="BF282">
+        <v>3.8</v>
+      </c>
+      <c r="BG282">
+        <v>1.42</v>
+      </c>
+      <c r="BH282">
+        <v>2.88</v>
+      </c>
+      <c r="BI282">
+        <v>1.6</v>
+      </c>
+      <c r="BJ282">
+        <v>2.1</v>
+      </c>
+      <c r="BK282">
+        <v>2.58</v>
+      </c>
+      <c r="BL282">
+        <v>1.7</v>
+      </c>
+      <c r="BM282">
+        <v>2.9</v>
+      </c>
+      <c r="BN282">
+        <v>1.42</v>
+      </c>
+      <c r="BO282">
+        <v>4.15</v>
+      </c>
+      <c r="BP282">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1098,6 +1098,9 @@
   <si>
     <t>['36', '77']</t>
   </si>
+  <si>
+    <t>['16', '31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1458,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4270,7 +4273,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6327,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ24">
         <v>1.12</v>
@@ -6742,7 +6745,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -10450,7 +10453,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR44">
         <v>0.95</v>
@@ -10859,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ46">
         <v>1.24</v>
@@ -14155,7 +14158,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ62">
         <v>2.06</v>
@@ -15185,7 +15188,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -18275,7 +18278,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ82">
         <v>1.56</v>
@@ -19308,7 +19311,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ87">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19720,7 +19723,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -21162,7 +21165,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR96">
         <v>1.46</v>
@@ -21365,7 +21368,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ97">
         <v>0.9399999999999999</v>
@@ -25073,10 +25076,10 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR115">
         <v>1.42</v>
@@ -26518,7 +26521,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR122">
         <v>1.43</v>
@@ -27751,7 +27754,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ128">
         <v>0.74</v>
@@ -30638,7 +30641,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR142">
         <v>2.2</v>
@@ -30841,7 +30844,7 @@
         <v>0.25</v>
       </c>
       <c r="AP143">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ143">
         <v>0.39</v>
@@ -33522,7 +33525,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ156">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33725,7 +33728,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ157">
         <v>1.59</v>
@@ -36197,7 +36200,7 @@
         <v>1.3</v>
       </c>
       <c r="AP169">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ169">
         <v>1.18</v>
@@ -37642,7 +37645,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ176">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR176">
         <v>1.29</v>
@@ -39287,7 +39290,7 @@
         <v>1.91</v>
       </c>
       <c r="AP184">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ184">
         <v>1.5</v>
@@ -39908,7 +39911,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ187">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR187">
         <v>1.74</v>
@@ -41347,7 +41350,7 @@
         <v>1.67</v>
       </c>
       <c r="AP194">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ194">
         <v>1.44</v>
@@ -41556,7 +41559,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ195">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -44849,7 +44852,7 @@
         <v>1.23</v>
       </c>
       <c r="AP211">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ211">
         <v>1.12</v>
@@ -45676,7 +45679,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ215">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR215">
         <v>1.1</v>
@@ -48560,7 +48563,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ229">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR229">
         <v>1.96</v>
@@ -49175,7 +49178,7 @@
         <v>0.36</v>
       </c>
       <c r="AP232">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ232">
         <v>0.61</v>
@@ -51235,7 +51238,7 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ242">
         <v>0.51</v>
@@ -52474,7 +52477,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ248">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -53295,7 +53298,7 @@
         <v>1.1</v>
       </c>
       <c r="AP252">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ252">
         <v>1.22</v>
@@ -53501,7 +53504,7 @@
         <v>1.06</v>
       </c>
       <c r="AP253">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ253">
         <v>1.17</v>
@@ -54534,7 +54537,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR258">
         <v>1.07</v>
@@ -54740,7 +54743,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ259">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR259">
         <v>1.16</v>
@@ -55767,7 +55770,7 @@
         <v>1.12</v>
       </c>
       <c r="AP264">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ264">
         <v>1.17</v>
@@ -56388,7 +56391,7 @@
         <v>0.51</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR267">
         <v>1.13</v>
@@ -58036,7 +58039,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ275">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR275">
         <v>1.08</v>
@@ -58239,7 +58242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP276">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ276">
         <v>0.9399999999999999</v>
@@ -59554,6 +59557,212 @@
       </c>
       <c r="BP282">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7886164</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45796.59375</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>85</v>
+      </c>
+      <c r="H283" t="s">
+        <v>72</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>91</v>
+      </c>
+      <c r="P283" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q283">
+        <v>4.4</v>
+      </c>
+      <c r="R283">
+        <v>2.08</v>
+      </c>
+      <c r="S283">
+        <v>2.62</v>
+      </c>
+      <c r="T283">
+        <v>1.4</v>
+      </c>
+      <c r="U283">
+        <v>2.6</v>
+      </c>
+      <c r="V283">
+        <v>2.95</v>
+      </c>
+      <c r="W283">
+        <v>1.35</v>
+      </c>
+      <c r="X283">
+        <v>6.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.06</v>
+      </c>
+      <c r="Z283">
+        <v>5.6</v>
+      </c>
+      <c r="AA283">
+        <v>3.06</v>
+      </c>
+      <c r="AB283">
+        <v>2</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>9</v>
+      </c>
+      <c r="AE283">
+        <v>1.33</v>
+      </c>
+      <c r="AF283">
+        <v>3.1</v>
+      </c>
+      <c r="AG283">
+        <v>2.05</v>
+      </c>
+      <c r="AH283">
+        <v>1.7</v>
+      </c>
+      <c r="AI283">
+        <v>1.77</v>
+      </c>
+      <c r="AJ283">
+        <v>1.85</v>
+      </c>
+      <c r="AK283">
+        <v>1.33</v>
+      </c>
+      <c r="AL283">
+        <v>1.28</v>
+      </c>
+      <c r="AM283">
+        <v>1.29</v>
+      </c>
+      <c r="AN283">
+        <v>1.4</v>
+      </c>
+      <c r="AO283">
+        <v>1</v>
+      </c>
+      <c r="AP283">
+        <v>1.36</v>
+      </c>
+      <c r="AQ283">
+        <v>1.06</v>
+      </c>
+      <c r="AR283">
+        <v>1.41</v>
+      </c>
+      <c r="AS283">
+        <v>1.36</v>
+      </c>
+      <c r="AT283">
+        <v>2.77</v>
+      </c>
+      <c r="AU283">
+        <v>4</v>
+      </c>
+      <c r="AV283">
+        <v>8</v>
+      </c>
+      <c r="AW283">
+        <v>8</v>
+      </c>
+      <c r="AX283">
+        <v>5</v>
+      </c>
+      <c r="AY283">
+        <v>12</v>
+      </c>
+      <c r="AZ283">
+        <v>13</v>
+      </c>
+      <c r="BA283">
+        <v>7</v>
+      </c>
+      <c r="BB283">
+        <v>7</v>
+      </c>
+      <c r="BC283">
+        <v>14</v>
+      </c>
+      <c r="BD283">
+        <v>1.68</v>
+      </c>
+      <c r="BE283">
+        <v>6.05</v>
+      </c>
+      <c r="BF283">
+        <v>2.43</v>
+      </c>
+      <c r="BG283">
+        <v>1.5</v>
+      </c>
+      <c r="BH283">
+        <v>2.5</v>
+      </c>
+      <c r="BI283">
+        <v>1.84</v>
+      </c>
+      <c r="BJ283">
+        <v>1.84</v>
+      </c>
+      <c r="BK283">
+        <v>2.67</v>
+      </c>
+      <c r="BL283">
+        <v>1.58</v>
+      </c>
+      <c r="BM283">
+        <v>2.93</v>
+      </c>
+      <c r="BN283">
+        <v>1.35</v>
+      </c>
+      <c r="BO283">
+        <v>4</v>
+      </c>
+      <c r="BP283">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,9 @@
     <t>['72', '77']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -890,9 +893,6 @@
   </si>
   <si>
     <t>['34', '90+2']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['21', '33', '90+4']</t>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>['16', '31']</t>
+  </si>
+  <si>
+    <t>['12', '43']</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2338,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2544,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2956,7 +2959,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3034,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ8">
         <v>1.12</v>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -3655,7 +3658,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3986,7 +3989,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4192,7 +4195,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4479,7 +4482,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4888,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ17">
         <v>0.9399999999999999</v>
@@ -5016,7 +5019,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5634,7 +5637,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5840,7 +5843,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6046,7 +6049,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6458,7 +6461,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6664,7 +6667,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7154,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>0.91</v>
@@ -7282,7 +7285,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7363,7 +7366,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ29">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
         <v>2.25</v>
@@ -7694,7 +7697,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7900,7 +7903,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8596,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8930,7 +8933,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9217,7 +9220,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ38">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR38">
         <v>0.86</v>
@@ -10166,7 +10169,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10372,7 +10375,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10450,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ44">
         <v>1.32</v>
@@ -10784,7 +10787,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10990,7 +10993,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11814,7 +11817,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11895,7 +11898,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.13</v>
@@ -12098,7 +12101,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -12432,7 +12435,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12844,7 +12847,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12922,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ56">
         <v>0.9399999999999999</v>
@@ -13050,7 +13053,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13256,7 +13259,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13462,7 +13465,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13668,7 +13671,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13874,7 +13877,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -14286,7 +14289,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14492,7 +14495,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14570,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ64">
         <v>1.12</v>
@@ -14985,7 +14988,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ66">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
@@ -15110,7 +15113,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15316,7 +15319,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15603,7 +15606,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ69">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15934,7 +15937,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16012,7 +16015,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -16552,7 +16555,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -17170,7 +17173,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17376,7 +17379,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17582,7 +17585,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17660,7 +17663,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ79">
         <v>1.12</v>
@@ -17788,7 +17791,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17994,7 +17997,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18406,7 +18409,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18896,10 +18899,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR85">
         <v>0.85</v>
@@ -19024,7 +19027,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19105,7 +19108,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ86">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.23</v>
@@ -20672,7 +20675,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20750,7 +20753,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94">
         <v>2.06</v>
@@ -20878,7 +20881,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21290,7 +21293,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21371,7 +21374,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ97">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
         <v>1.31</v>
@@ -21577,7 +21580,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR98">
         <v>1.84</v>
@@ -22114,7 +22117,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22398,7 +22401,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102">
         <v>0.74</v>
@@ -22732,7 +22735,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22938,7 +22941,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23144,7 +23147,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23556,7 +23559,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23968,7 +23971,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24252,7 +24255,7 @@
         <v>2.57</v>
       </c>
       <c r="AP111">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24667,7 +24670,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR113">
         <v>1.41</v>
@@ -24873,7 +24876,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.09</v>
@@ -25694,7 +25697,7 @@
         <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>1.18</v>
@@ -26727,7 +26730,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26933,7 +26936,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>2.17</v>
@@ -28166,7 +28169,7 @@
         <v>1.63</v>
       </c>
       <c r="AP130">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ130">
         <v>1.56</v>
@@ -28784,7 +28787,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ133">
         <v>1.59</v>
@@ -29817,7 +29820,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
         <v>1.67</v>
@@ -30148,7 +30151,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30229,7 +30232,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ140">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -32492,7 +32495,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ151">
         <v>1.24</v>
@@ -33316,10 +33319,10 @@
         <v>0.44</v>
       </c>
       <c r="AP155">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ155">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33937,7 +33940,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.62</v>
@@ -34761,7 +34764,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR162">
         <v>1.31</v>
@@ -35376,7 +35379,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -36409,7 +36412,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ170">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR170">
         <v>1.7</v>
@@ -37358,7 +37361,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37564,7 +37567,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37848,7 +37851,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ177">
         <v>0.74</v>
@@ -38057,7 +38060,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38263,7 +38266,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ179">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38878,7 +38881,7 @@
         <v>1.82</v>
       </c>
       <c r="AP182">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ182">
         <v>1.56</v>
@@ -39830,7 +39833,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -41144,7 +41147,7 @@
         <v>0.27</v>
       </c>
       <c r="AP193">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ193">
         <v>0.39</v>
@@ -41684,7 +41687,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41762,10 +41765,10 @@
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ196">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR196">
         <v>0.97</v>
@@ -41971,7 +41974,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ197">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR197">
         <v>1.84</v>
@@ -43822,7 +43825,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ206">
         <v>1.59</v>
@@ -44649,7 +44652,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ210">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -45473,7 +45476,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR214">
         <v>2</v>
@@ -45676,7 +45679,7 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ215">
         <v>1.32</v>
@@ -47324,7 +47327,7 @@
         <v>1.23</v>
       </c>
       <c r="AP223">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ223">
         <v>1.24</v>
@@ -48769,7 +48772,7 @@
         <v>2</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR230">
         <v>1.45</v>
@@ -49181,7 +49184,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ232">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49384,7 +49387,7 @@
         <v>2.29</v>
       </c>
       <c r="AP233">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ233">
         <v>2.06</v>
@@ -50336,7 +50339,7 @@
         <v>86</v>
       </c>
       <c r="P238" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q238">
         <v>2.95</v>
@@ -50826,7 +50829,7 @@
         <v>1.93</v>
       </c>
       <c r="AP240">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ240">
         <v>2</v>
@@ -51241,7 +51244,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ242">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51444,7 +51447,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ243">
         <v>0.92</v>
@@ -52474,7 +52477,7 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -52683,7 +52686,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ249">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52886,7 +52889,7 @@
         <v>0.97</v>
       </c>
       <c r="AP250">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="AQ250">
         <v>0.92</v>
@@ -53092,10 +53095,10 @@
         <v>1.16</v>
       </c>
       <c r="AP251">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AQ251">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR251">
         <v>1.21</v>
@@ -53507,7 +53510,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ253">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AR253">
         <v>1.36</v>
@@ -54740,7 +54743,7 @@
         <v>1.41</v>
       </c>
       <c r="AP259">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ259">
         <v>1.36</v>
@@ -54949,7 +54952,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ260">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="AR260">
         <v>1.72</v>
@@ -55152,10 +55155,10 @@
         <v>0.84</v>
       </c>
       <c r="AP261">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ261">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR261">
         <v>1.33</v>
@@ -55280,7 +55283,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55773,7 +55776,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ264">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AR264">
         <v>1.42</v>
@@ -56388,7 +56391,7 @@
         <v>0.97</v>
       </c>
       <c r="AP267">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="AQ267">
         <v>1.06</v>
@@ -56594,7 +56597,7 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AQ268">
         <v>0.92</v>
@@ -56803,7 +56806,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ269">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR269">
         <v>1.71</v>
@@ -57418,7 +57421,7 @@
         <v>1.21</v>
       </c>
       <c r="AP272">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ272">
         <v>1.22</v>
@@ -58245,7 +58248,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ276">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AR276">
         <v>1.36</v>
@@ -58448,10 +58451,10 @@
         <v>0.53</v>
       </c>
       <c r="AP277">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ277">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="AR277">
         <v>1.18</v>
@@ -59763,6 +59766,418 @@
       </c>
       <c r="BP283">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7886163</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45797.48958333334</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>76</v>
+      </c>
+      <c r="H284" t="s">
+        <v>74</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>247</v>
+      </c>
+      <c r="P284" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q284">
+        <v>6</v>
+      </c>
+      <c r="R284">
+        <v>2.3</v>
+      </c>
+      <c r="S284">
+        <v>1.72</v>
+      </c>
+      <c r="T284">
+        <v>1.33</v>
+      </c>
+      <c r="U284">
+        <v>3.16</v>
+      </c>
+      <c r="V284">
+        <v>2.62</v>
+      </c>
+      <c r="W284">
+        <v>1.44</v>
+      </c>
+      <c r="X284">
+        <v>7.4</v>
+      </c>
+      <c r="Y284">
+        <v>1.03</v>
+      </c>
+      <c r="Z284">
+        <v>7</v>
+      </c>
+      <c r="AA284">
+        <v>4</v>
+      </c>
+      <c r="AB284">
+        <v>1.44</v>
+      </c>
+      <c r="AC284">
+        <v>1.02</v>
+      </c>
+      <c r="AD284">
+        <v>10</v>
+      </c>
+      <c r="AE284">
+        <v>1.3</v>
+      </c>
+      <c r="AF284">
+        <v>3.25</v>
+      </c>
+      <c r="AG284">
+        <v>1.85</v>
+      </c>
+      <c r="AH284">
+        <v>1.8</v>
+      </c>
+      <c r="AI284">
+        <v>2.2</v>
+      </c>
+      <c r="AJ284">
+        <v>1.67</v>
+      </c>
+      <c r="AK284">
+        <v>1.22</v>
+      </c>
+      <c r="AL284">
+        <v>1.18</v>
+      </c>
+      <c r="AM284">
+        <v>1.08</v>
+      </c>
+      <c r="AN284">
+        <v>0.51</v>
+      </c>
+      <c r="AO284">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP284">
+        <v>0.58</v>
+      </c>
+      <c r="AQ284">
+        <v>0.92</v>
+      </c>
+      <c r="AR284">
+        <v>1.15</v>
+      </c>
+      <c r="AS284">
+        <v>1.23</v>
+      </c>
+      <c r="AT284">
+        <v>2.38</v>
+      </c>
+      <c r="AU284">
+        <v>3</v>
+      </c>
+      <c r="AV284">
+        <v>5</v>
+      </c>
+      <c r="AW284">
+        <v>5</v>
+      </c>
+      <c r="AX284">
+        <v>8</v>
+      </c>
+      <c r="AY284">
+        <v>8</v>
+      </c>
+      <c r="AZ284">
+        <v>13</v>
+      </c>
+      <c r="BA284">
+        <v>1</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>5</v>
+      </c>
+      <c r="BD284">
+        <v>2.5</v>
+      </c>
+      <c r="BE284">
+        <v>7</v>
+      </c>
+      <c r="BF284">
+        <v>1.61</v>
+      </c>
+      <c r="BG284">
+        <v>1.28</v>
+      </c>
+      <c r="BH284">
+        <v>3.08</v>
+      </c>
+      <c r="BI284">
+        <v>1.61</v>
+      </c>
+      <c r="BJ284">
+        <v>2.28</v>
+      </c>
+      <c r="BK284">
+        <v>1.94</v>
+      </c>
+      <c r="BL284">
+        <v>1.77</v>
+      </c>
+      <c r="BM284">
+        <v>2.55</v>
+      </c>
+      <c r="BN284">
+        <v>1.48</v>
+      </c>
+      <c r="BO284">
+        <v>3.42</v>
+      </c>
+      <c r="BP284">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7886166</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45797.59375</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>77</v>
+      </c>
+      <c r="H285" t="s">
+        <v>73</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>86</v>
+      </c>
+      <c r="P285" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q285">
+        <v>4</v>
+      </c>
+      <c r="R285">
+        <v>2.02</v>
+      </c>
+      <c r="S285">
+        <v>2.94</v>
+      </c>
+      <c r="T285">
+        <v>1.61</v>
+      </c>
+      <c r="U285">
+        <v>2.17</v>
+      </c>
+      <c r="V285">
+        <v>3.3</v>
+      </c>
+      <c r="W285">
+        <v>1.29</v>
+      </c>
+      <c r="X285">
+        <v>10</v>
+      </c>
+      <c r="Y285">
+        <v>1.03</v>
+      </c>
+      <c r="Z285">
+        <v>7.5</v>
+      </c>
+      <c r="AA285">
+        <v>3.35</v>
+      </c>
+      <c r="AB285">
+        <v>1.83</v>
+      </c>
+      <c r="AC285">
+        <v>1.11</v>
+      </c>
+      <c r="AD285">
+        <v>5.3</v>
+      </c>
+      <c r="AE285">
+        <v>1.35</v>
+      </c>
+      <c r="AF285">
+        <v>2.44</v>
+      </c>
+      <c r="AG285">
+        <v>2.3</v>
+      </c>
+      <c r="AH285">
+        <v>1.57</v>
+      </c>
+      <c r="AI285">
+        <v>1.7</v>
+      </c>
+      <c r="AJ285">
+        <v>2.03</v>
+      </c>
+      <c r="AK285">
+        <v>1.36</v>
+      </c>
+      <c r="AL285">
+        <v>1.27</v>
+      </c>
+      <c r="AM285">
+        <v>1.33</v>
+      </c>
+      <c r="AN285">
+        <v>1.2</v>
+      </c>
+      <c r="AO285">
+        <v>1.17</v>
+      </c>
+      <c r="AP285">
+        <v>1.17</v>
+      </c>
+      <c r="AQ285">
+        <v>1.22</v>
+      </c>
+      <c r="AR285">
+        <v>1.19</v>
+      </c>
+      <c r="AS285">
+        <v>1.31</v>
+      </c>
+      <c r="AT285">
+        <v>2.5</v>
+      </c>
+      <c r="AU285">
+        <v>6</v>
+      </c>
+      <c r="AV285">
+        <v>6</v>
+      </c>
+      <c r="AW285">
+        <v>6</v>
+      </c>
+      <c r="AX285">
+        <v>6</v>
+      </c>
+      <c r="AY285">
+        <v>12</v>
+      </c>
+      <c r="AZ285">
+        <v>12</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>5</v>
+      </c>
+      <c r="BD285">
+        <v>2.2</v>
+      </c>
+      <c r="BE285">
+        <v>6.45</v>
+      </c>
+      <c r="BF285">
+        <v>1.99</v>
+      </c>
+      <c r="BG285">
+        <v>1.36</v>
+      </c>
+      <c r="BH285">
+        <v>2.8</v>
+      </c>
+      <c r="BI285">
+        <v>1.61</v>
+      </c>
+      <c r="BJ285">
+        <v>2.71</v>
+      </c>
+      <c r="BK285">
+        <v>1.74</v>
+      </c>
+      <c r="BL285">
+        <v>1.74</v>
+      </c>
+      <c r="BM285">
+        <v>2.5</v>
+      </c>
+      <c r="BN285">
+        <v>1.62</v>
+      </c>
+      <c r="BO285">
+        <v>3.25</v>
+      </c>
+      <c r="BP285">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -60120,13 +60120,13 @@
         <v>6</v>
       </c>
       <c r="AW285">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX285">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY285">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ285">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,18 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['25', '80']</t>
+  </si>
+  <si>
+    <t>['79', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['33', '77']</t>
+  </si>
+  <si>
+    <t>['25', '43', '50']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1103,6 +1115,18 @@
   </si>
   <si>
     <t>['12', '43']</t>
+  </si>
+  <si>
+    <t>['71', '90+6']</t>
+  </si>
+  <si>
+    <t>['6', '85']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['28', '51', '62', '81']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ2">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2007,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2213,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2341,7 +2365,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2419,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2547,7 +2571,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2625,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2831,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ7">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2959,7 +2983,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3040,7 +3064,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ8">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3864,7 +3888,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ12">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3989,7 +4013,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4070,7 +4094,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ13">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4195,7 +4219,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4273,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ14">
         <v>1.32</v>
@@ -4479,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4685,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4894,7 +4918,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ17">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>1.12</v>
@@ -5019,7 +5043,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5097,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -5306,7 +5330,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5509,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ20">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>0.96</v>
@@ -5637,7 +5661,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5715,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21">
         <v>1.56</v>
@@ -5843,7 +5867,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5921,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -6049,7 +6073,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6127,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6336,7 +6360,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ24">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6461,7 +6485,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6542,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6667,7 +6691,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -6745,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ26">
         <v>1.32</v>
@@ -7285,7 +7309,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7363,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29">
         <v>0.58</v>
@@ -7572,7 +7596,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7697,7 +7721,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7775,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ31">
         <v>1.44</v>
@@ -7903,7 +7927,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7984,7 +8008,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>2.55</v>
@@ -8187,10 +8211,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8393,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ34">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR34">
         <v>0.89</v>
@@ -8805,10 +8829,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8933,7 +8957,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9011,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ37">
         <v>1.56</v>
@@ -9217,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ38">
         <v>0.58</v>
@@ -9426,7 +9450,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9632,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9835,10 +9859,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -10044,7 +10068,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -10169,7 +10193,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10247,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ43">
         <v>2.06</v>
@@ -10375,7 +10399,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10659,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ45">
         <v>0.74</v>
@@ -10787,7 +10811,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -10868,7 +10892,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.81</v>
@@ -10993,7 +11017,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11071,10 +11095,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR47">
         <v>1.32</v>
@@ -11486,7 +11510,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11689,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.44</v>
@@ -11817,7 +11841,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11895,7 +11919,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12307,7 +12331,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ53">
         <v>1.56</v>
@@ -12435,7 +12459,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12513,10 +12537,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ54">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR54">
         <v>1.14</v>
@@ -12719,10 +12743,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12847,7 +12871,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12928,7 +12952,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -13053,7 +13077,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13131,7 +13155,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -13259,7 +13283,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13337,10 +13361,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ58">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13465,7 +13489,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13546,7 +13570,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13671,7 +13695,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13749,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ60">
         <v>2.06</v>
@@ -13877,7 +13901,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13955,10 +13979,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.06</v>
@@ -14289,7 +14313,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14367,10 +14391,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ63">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14495,7 +14519,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14576,7 +14600,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ64">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14985,7 +15009,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15113,7 +15137,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15194,7 +15218,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -15319,7 +15343,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15603,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ69">
         <v>0.58</v>
@@ -15937,7 +15961,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16018,7 +16042,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16221,10 +16245,10 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR72">
         <v>1.09</v>
@@ -16427,10 +16451,10 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16555,7 +16579,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16633,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ74">
         <v>0.74</v>
@@ -16839,10 +16863,10 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ75">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -17173,7 +17197,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17254,7 +17278,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17379,7 +17403,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17457,7 +17481,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17585,7 +17609,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17666,7 +17690,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ79">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.25</v>
@@ -17791,7 +17815,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17869,10 +17893,10 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR80">
         <v>1.54</v>
@@ -17997,7 +18021,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18409,7 +18433,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -18490,7 +18514,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
         <v>1.8</v>
@@ -18693,10 +18717,10 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.5</v>
@@ -19027,7 +19051,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19311,7 +19335,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ87">
         <v>1.32</v>
@@ -19517,10 +19541,10 @@
         <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ88">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19723,7 +19747,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ89">
         <v>1.32</v>
@@ -19929,7 +19953,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ90">
         <v>0.74</v>
@@ -20138,7 +20162,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ91">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.91</v>
@@ -20341,10 +20365,10 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>1.22</v>
@@ -20547,10 +20571,10 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ93">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -20675,7 +20699,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20881,7 +20905,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20962,7 +20986,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ95">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -21293,7 +21317,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21786,7 +21810,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21989,7 +22013,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ100">
         <v>1.56</v>
@@ -22117,7 +22141,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22607,10 +22631,10 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ103">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR103">
         <v>1.72</v>
@@ -22735,7 +22759,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22813,10 +22837,10 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22941,7 +22965,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23019,10 +23043,10 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23147,7 +23171,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23225,10 +23249,10 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ106">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23431,10 +23455,10 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ107">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR107">
         <v>1.46</v>
@@ -23843,10 +23867,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23971,7 +23995,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24049,10 +24073,10 @@
         <v>1.86</v>
       </c>
       <c r="AP110">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -24383,7 +24407,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24464,7 +24488,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.48</v>
@@ -24873,7 +24897,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25207,7 +25231,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25285,7 +25309,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ116">
         <v>1.56</v>
@@ -25413,7 +25437,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25494,7 +25518,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ117">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR117">
         <v>1.99</v>
@@ -25619,7 +25643,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25700,7 +25724,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ118">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR118">
         <v>0.95</v>
@@ -25825,7 +25849,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -26031,7 +26055,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26318,7 +26342,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ121">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR121">
         <v>1.4</v>
@@ -26443,7 +26467,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26727,7 +26751,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ123">
         <v>0.58</v>
@@ -27139,10 +27163,10 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ125">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR125">
         <v>1.25</v>
@@ -27267,7 +27291,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27473,7 +27497,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27679,7 +27703,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27885,7 +27909,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27966,7 +27990,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR129">
         <v>1.45</v>
@@ -28091,7 +28115,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28297,7 +28321,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28375,7 +28399,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131">
         <v>1.44</v>
@@ -28503,7 +28527,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28581,10 +28605,10 @@
         <v>1.63</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -28790,7 +28814,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ133">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR133">
         <v>0.99</v>
@@ -28993,7 +29017,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29199,10 +29223,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ135">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29405,10 +29429,10 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ136">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR136">
         <v>1.69</v>
@@ -29614,7 +29638,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ137">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR137">
         <v>1.54</v>
@@ -29817,7 +29841,7 @@
         <v>0.63</v>
       </c>
       <c r="AP138">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -30026,7 +30050,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.95</v>
@@ -30151,7 +30175,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30229,7 +30253,7 @@
         <v>0.5</v>
       </c>
       <c r="AP140">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ140">
         <v>0.58</v>
@@ -30357,7 +30381,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30563,7 +30587,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30769,7 +30793,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30850,7 +30874,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ143">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31053,7 +31077,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ144">
         <v>0.74</v>
@@ -31181,7 +31205,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31259,7 +31283,7 @@
         <v>1.56</v>
       </c>
       <c r="AP145">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31387,7 +31411,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31465,7 +31489,7 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ146">
         <v>1.56</v>
@@ -31593,7 +31617,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31674,7 +31698,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ147">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR147">
         <v>2.12</v>
@@ -31799,7 +31823,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -31877,10 +31901,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR148">
         <v>1.13</v>
@@ -32005,7 +32029,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32083,10 +32107,10 @@
         <v>1.78</v>
       </c>
       <c r="AP149">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
         <v>1.37</v>
@@ -32289,7 +32313,7 @@
         <v>2.33</v>
       </c>
       <c r="AP150">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -32417,7 +32441,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32498,7 +32522,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR151">
         <v>0.99</v>
@@ -32623,7 +32647,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32704,7 +32728,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ152">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32829,7 +32853,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -32907,7 +32931,7 @@
         <v>2.75</v>
       </c>
       <c r="AP153">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ153">
         <v>2.06</v>
@@ -33116,7 +33140,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR154">
         <v>1.41</v>
@@ -33241,7 +33265,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33447,7 +33471,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33525,7 +33549,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ156">
         <v>1.32</v>
@@ -33734,7 +33758,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ157">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -33859,7 +33883,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34143,10 +34167,10 @@
         <v>0.22</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ159">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR159">
         <v>1.57</v>
@@ -34555,7 +34579,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ161">
         <v>0.74</v>
@@ -34683,7 +34707,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34761,7 +34785,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ162">
         <v>1.06</v>
@@ -34889,7 +34913,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -34967,7 +34991,7 @@
         <v>1.9</v>
       </c>
       <c r="AP163">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -35301,7 +35325,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -35382,7 +35406,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR165">
         <v>1.02</v>
@@ -35585,10 +35609,10 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ166">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR166">
         <v>1.31</v>
@@ -35791,7 +35815,7 @@
         <v>1.7</v>
       </c>
       <c r="AP167">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -36000,7 +36024,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ168">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR168">
         <v>2.21</v>
@@ -36206,7 +36230,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36615,10 +36639,10 @@
         <v>0.3</v>
       </c>
       <c r="AP171">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ171">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36824,7 +36848,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ172">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR172">
         <v>2.02</v>
@@ -37030,7 +37054,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37155,7 +37179,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37233,10 +37257,10 @@
         <v>1.1</v>
       </c>
       <c r="AP174">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ174">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -37361,7 +37385,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37439,7 +37463,7 @@
         <v>2.5</v>
       </c>
       <c r="AP175">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ175">
         <v>2.06</v>
@@ -37567,7 +37591,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37645,7 +37669,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>1.32</v>
@@ -37979,7 +38003,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38057,7 +38081,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38263,7 +38287,7 @@
         <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ179">
         <v>0.58</v>
@@ -38391,7 +38415,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38597,7 +38621,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38678,7 +38702,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR181">
         <v>2.15</v>
@@ -39090,7 +39114,7 @@
         <v>2</v>
       </c>
       <c r="AQ183">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR183">
         <v>1.48</v>
@@ -39215,7 +39239,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39499,10 +39523,10 @@
         <v>1.36</v>
       </c>
       <c r="AP185">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ185">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR185">
         <v>1.72</v>
@@ -39705,7 +39729,7 @@
         <v>0.91</v>
       </c>
       <c r="AP186">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ186">
         <v>0.74</v>
@@ -39833,7 +39857,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40039,7 +40063,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40117,10 +40141,10 @@
         <v>1.27</v>
       </c>
       <c r="AP188">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40245,7 +40269,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40323,10 +40347,10 @@
         <v>1.36</v>
       </c>
       <c r="AP189">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ189">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR189">
         <v>1.65</v>
@@ -40529,10 +40553,10 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ190">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR190">
         <v>1.56</v>
@@ -40657,7 +40681,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40738,7 +40762,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR191">
         <v>2.07</v>
@@ -40863,7 +40887,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -40941,7 +40965,7 @@
         <v>2.36</v>
       </c>
       <c r="AP192">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ192">
         <v>2.06</v>
@@ -41150,7 +41174,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ193">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR193">
         <v>1.03</v>
@@ -41275,7 +41299,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41559,7 +41583,7 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ195">
         <v>1.32</v>
@@ -41687,7 +41711,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41971,7 +41995,7 @@
         <v>0.42</v>
       </c>
       <c r="AP197">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ197">
         <v>0.58</v>
@@ -42099,7 +42123,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42305,7 +42329,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42386,7 +42410,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ199">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR199">
         <v>1.57</v>
@@ -42511,7 +42535,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42589,10 +42613,10 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ200">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -42798,7 +42822,7 @@
         <v>2</v>
       </c>
       <c r="AQ201">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -43001,10 +43025,10 @@
         <v>1.33</v>
       </c>
       <c r="AP202">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
         <v>1.33</v>
@@ -43207,10 +43231,10 @@
         <v>0.25</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ203">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR203">
         <v>1.32</v>
@@ -43335,7 +43359,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43619,10 +43643,10 @@
         <v>0.75</v>
       </c>
       <c r="AP205">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ205">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR205">
         <v>1.74</v>
@@ -43747,7 +43771,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43828,7 +43852,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ206">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -43953,7 +43977,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44031,10 +44055,10 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ207">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR207">
         <v>1.6</v>
@@ -44237,7 +44261,7 @@
         <v>2.42</v>
       </c>
       <c r="AP208">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ208">
         <v>2.06</v>
@@ -44777,7 +44801,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -44858,7 +44882,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ211">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR211">
         <v>1.45</v>
@@ -45267,7 +45291,7 @@
         <v>1.54</v>
       </c>
       <c r="AP213">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ213">
         <v>1.44</v>
@@ -45885,7 +45909,7 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ216">
         <v>0.74</v>
@@ -46094,7 +46118,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ217">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR217">
         <v>2.09</v>
@@ -46297,7 +46321,7 @@
         <v>1.69</v>
       </c>
       <c r="AP218">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ218">
         <v>1.5</v>
@@ -46503,10 +46527,10 @@
         <v>1.54</v>
       </c>
       <c r="AP219">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ219">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -46709,10 +46733,10 @@
         <v>0.23</v>
       </c>
       <c r="AP220">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ220">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR220">
         <v>1.2</v>
@@ -46837,7 +46861,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -46915,10 +46939,10 @@
         <v>0.77</v>
       </c>
       <c r="AP221">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR221">
         <v>1.35</v>
@@ -47043,7 +47067,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47121,10 +47145,10 @@
         <v>1.85</v>
       </c>
       <c r="AP222">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ222">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR222">
         <v>1.61</v>
@@ -47249,7 +47273,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47330,7 +47354,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ223">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR223">
         <v>1.07</v>
@@ -47455,7 +47479,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47533,10 +47557,10 @@
         <v>1.23</v>
       </c>
       <c r="AP224">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ224">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
         <v>1.32</v>
@@ -47661,7 +47685,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48151,10 +48175,10 @@
         <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ227">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR227">
         <v>1.53</v>
@@ -48357,10 +48381,10 @@
         <v>1.36</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ228">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR228">
         <v>1.61</v>
@@ -48897,7 +48921,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49103,7 +49127,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49309,7 +49333,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49515,7 +49539,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49593,7 +49617,7 @@
         <v>1.64</v>
       </c>
       <c r="AP234">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ234">
         <v>1.5</v>
@@ -49799,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ235">
         <v>1.44</v>
@@ -50005,10 +50029,10 @@
         <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ236">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR236">
         <v>1.19</v>
@@ -50133,7 +50157,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50211,10 +50235,10 @@
         <v>1.36</v>
       </c>
       <c r="AP237">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ237">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR237">
         <v>1.35</v>
@@ -50417,10 +50441,10 @@
         <v>0.71</v>
       </c>
       <c r="AP238">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ238">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR238">
         <v>1.35</v>
@@ -50545,7 +50569,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50623,10 +50647,10 @@
         <v>1.36</v>
       </c>
       <c r="AP239">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ239">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
         <v>1.86</v>
@@ -50832,7 +50856,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ240">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR240">
         <v>1.1</v>
@@ -50957,7 +50981,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51038,7 +51062,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ241">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="AR241">
         <v>1.77</v>
@@ -51163,7 +51187,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51241,10 +51265,10 @@
         <v>0.57</v>
       </c>
       <c r="AP242">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AQ242">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AR242">
         <v>1.42</v>
@@ -51447,10 +51471,10 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ243">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR243">
         <v>1.3</v>
@@ -51653,10 +51677,10 @@
         <v>1.57</v>
       </c>
       <c r="AP244">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AQ244">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51859,10 +51883,10 @@
         <v>1.77</v>
       </c>
       <c r="AP245">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -52065,10 +52089,10 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ246">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AR246">
         <v>1.5</v>
@@ -52271,10 +52295,10 @@
         <v>1.77</v>
       </c>
       <c r="AP247">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AQ247">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AR247">
         <v>1.77</v>
@@ -52477,10 +52501,10 @@
         <v>0.93</v>
       </c>
       <c r="AP248">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AR248">
         <v>1.12</v>
@@ -52683,10 +52707,10 @@
         <v>0.7</v>
       </c>
       <c r="AP249">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ249">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -52811,7 +52835,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -52889,10 +52913,10 @@
         <v>0.97</v>
       </c>
       <c r="AP250">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AQ250">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR250">
         <v>1.11</v>
@@ -53017,7 +53041,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53095,10 +53119,10 @@
         <v>1.16</v>
       </c>
       <c r="AP251">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AQ251">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
         <v>1.21</v>
@@ -53301,10 +53325,10 @@
         <v>1.1</v>
       </c>
       <c r="AP252">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AQ252">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AR252">
         <v>1.4</v>
@@ -53507,10 +53531,10 @@
         <v>1.06</v>
       </c>
       <c r="AP253">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AQ253">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AR253">
         <v>1.36</v>
@@ -53635,7 +53659,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53713,10 +53737,10 @@
         <v>1.61</v>
       </c>
       <c r="AP254">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AQ254">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -53919,10 +53943,10 @@
         <v>2.03</v>
       </c>
       <c r="AP255">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AQ255">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR255">
         <v>1.76</v>
@@ -54125,10 +54149,10 @@
         <v>1.74</v>
       </c>
       <c r="AP256">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AQ256">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -54253,7 +54277,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54331,10 +54355,10 @@
         <v>1.55</v>
       </c>
       <c r="AP257">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ257">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AR257">
         <v>1.48</v>
@@ -54459,7 +54483,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54537,10 +54561,10 @@
         <v>0.91</v>
       </c>
       <c r="AP258">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ258">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AR258">
         <v>1.07</v>
@@ -54665,7 +54689,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -54743,10 +54767,10 @@
         <v>1.41</v>
       </c>
       <c r="AP259">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ259">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AR259">
         <v>1.16</v>
@@ -54949,10 +54973,10 @@
         <v>0.53</v>
       </c>
       <c r="AP260">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ260">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AR260">
         <v>1.72</v>
@@ -55155,10 +55179,10 @@
         <v>0.84</v>
       </c>
       <c r="AP261">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ261">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AR261">
         <v>1.33</v>
@@ -55283,7 +55307,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55361,10 +55385,10 @@
         <v>2.5</v>
       </c>
       <c r="AP262">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AR262">
         <v>1.36</v>
@@ -55567,10 +55591,10 @@
         <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AQ263">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR263">
         <v>1.92</v>
@@ -55773,10 +55797,10 @@
         <v>1.12</v>
       </c>
       <c r="AP264">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AQ264">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AR264">
         <v>1.42</v>
@@ -55901,7 +55925,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -55979,10 +56003,10 @@
         <v>1.34</v>
       </c>
       <c r="AP265">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AQ265">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56185,10 +56209,10 @@
         <v>1.69</v>
       </c>
       <c r="AP266">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ266">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AR266">
         <v>1.89</v>
@@ -56313,7 +56337,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -56391,10 +56415,10 @@
         <v>0.97</v>
       </c>
       <c r="AP267">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AQ267">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AR267">
         <v>1.13</v>
@@ -56597,10 +56621,10 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AQ268">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR268">
         <v>1.22</v>
@@ -56803,10 +56827,10 @@
         <v>1.18</v>
       </c>
       <c r="AP269">
+        <v>1.27</v>
+      </c>
+      <c r="AQ269">
         <v>1.22</v>
-      </c>
-      <c r="AQ269">
-        <v>1.17</v>
       </c>
       <c r="AR269">
         <v>1.71</v>
@@ -57009,10 +57033,10 @@
         <v>2.45</v>
       </c>
       <c r="AP270">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AQ270">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AR270">
         <v>1.5</v>
@@ -57215,10 +57239,10 @@
         <v>1.45</v>
       </c>
       <c r="AP271">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AQ271">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AR271">
         <v>1.93</v>
@@ -57421,10 +57445,10 @@
         <v>1.21</v>
       </c>
       <c r="AP272">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ272">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AR272">
         <v>1.31</v>
@@ -57549,7 +57573,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57627,10 +57651,10 @@
         <v>1.61</v>
       </c>
       <c r="AP273">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AQ273">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR273">
         <v>1.38</v>
@@ -57755,7 +57779,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57833,10 +57857,10 @@
         <v>2.03</v>
       </c>
       <c r="AP274">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AQ274">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR274">
         <v>1.35</v>
@@ -57961,7 +57985,7 @@
         <v>86</v>
       </c>
       <c r="P275" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q275">
         <v>4.05</v>
@@ -58039,10 +58063,10 @@
         <v>1.35</v>
       </c>
       <c r="AP275">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ275">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AR275">
         <v>1.08</v>
@@ -58167,7 +58191,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q276">
         <v>1.97</v>
@@ -58245,10 +58269,10 @@
         <v>0.88</v>
       </c>
       <c r="AP276">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AQ276">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AR276">
         <v>1.36</v>
@@ -58451,10 +58475,10 @@
         <v>0.53</v>
       </c>
       <c r="AP277">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ277">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AR277">
         <v>1.18</v>
@@ -58657,10 +58681,10 @@
         <v>1.35</v>
       </c>
       <c r="AP278">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AQ278">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AR278">
         <v>1.94</v>
@@ -58785,7 +58809,7 @@
         <v>151</v>
       </c>
       <c r="P279" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q279">
         <v>2.25</v>
@@ -58863,10 +58887,10 @@
         <v>2.38</v>
       </c>
       <c r="AP279">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ279">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AR279">
         <v>1.87</v>
@@ -59069,10 +59093,10 @@
         <v>1.65</v>
       </c>
       <c r="AP280">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AQ280">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR280">
         <v>1.33</v>
@@ -59275,10 +59299,10 @@
         <v>1.68</v>
       </c>
       <c r="AP281">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AQ281">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AR281">
         <v>1.34</v>
@@ -59481,10 +59505,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP282">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AQ282">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR282">
         <v>1.71</v>
@@ -59609,7 +59633,7 @@
         <v>91</v>
       </c>
       <c r="P283" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q283">
         <v>4.4</v>
@@ -59687,10 +59711,10 @@
         <v>1</v>
       </c>
       <c r="AP283">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AQ283">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AR283">
         <v>1.41</v>
@@ -59893,10 +59917,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP284">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AQ284">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="AR284">
         <v>1.15</v>
@@ -60021,7 +60045,7 @@
         <v>86</v>
       </c>
       <c r="P285" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60099,10 +60123,10 @@
         <v>1.17</v>
       </c>
       <c r="AP285">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ285">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AR285">
         <v>1.19</v>
@@ -60178,6 +60202,1654 @@
       </c>
       <c r="BP285">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7886170</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45802.61458333334</v>
+      </c>
+      <c r="F286">
+        <v>7</v>
+      </c>
+      <c r="G286" t="s">
+        <v>74</v>
+      </c>
+      <c r="H286" t="s">
+        <v>85</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>248</v>
+      </c>
+      <c r="P286" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q286">
+        <v>1.7</v>
+      </c>
+      <c r="R286">
+        <v>2.3</v>
+      </c>
+      <c r="S286">
+        <v>8</v>
+      </c>
+      <c r="T286">
+        <v>1.38</v>
+      </c>
+      <c r="U286">
+        <v>3</v>
+      </c>
+      <c r="V286">
+        <v>2.6</v>
+      </c>
+      <c r="W286">
+        <v>1.44</v>
+      </c>
+      <c r="X286">
+        <v>6</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>1.25</v>
+      </c>
+      <c r="AA286">
+        <v>4.4</v>
+      </c>
+      <c r="AB286">
+        <v>7.4</v>
+      </c>
+      <c r="AC286">
+        <v>1</v>
+      </c>
+      <c r="AD286">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE286">
+        <v>1.22</v>
+      </c>
+      <c r="AF286">
+        <v>3.8</v>
+      </c>
+      <c r="AG286">
+        <v>1.8</v>
+      </c>
+      <c r="AH286">
+        <v>2</v>
+      </c>
+      <c r="AI286">
+        <v>2.2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.48</v>
+      </c>
+      <c r="AK286">
+        <v>1.17</v>
+      </c>
+      <c r="AL286">
+        <v>1.18</v>
+      </c>
+      <c r="AM286">
+        <v>3.8</v>
+      </c>
+      <c r="AN286">
+        <v>0.92</v>
+      </c>
+      <c r="AO286">
+        <v>1.36</v>
+      </c>
+      <c r="AP286">
+        <v>0.97</v>
+      </c>
+      <c r="AQ286">
+        <v>1.32</v>
+      </c>
+      <c r="AR286">
+        <v>1.24</v>
+      </c>
+      <c r="AS286">
+        <v>1.41</v>
+      </c>
+      <c r="AT286">
+        <v>2.65</v>
+      </c>
+      <c r="AU286">
+        <v>9</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>19</v>
+      </c>
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>28</v>
+      </c>
+      <c r="AZ286">
+        <v>6</v>
+      </c>
+      <c r="BA286">
+        <v>5</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>7</v>
+      </c>
+      <c r="BD286">
+        <v>1.56</v>
+      </c>
+      <c r="BE286">
+        <v>6.05</v>
+      </c>
+      <c r="BF286">
+        <v>2.42</v>
+      </c>
+      <c r="BG286">
+        <v>1.5</v>
+      </c>
+      <c r="BH286">
+        <v>2.41</v>
+      </c>
+      <c r="BI286">
+        <v>1.88</v>
+      </c>
+      <c r="BJ286">
+        <v>1.86</v>
+      </c>
+      <c r="BK286">
+        <v>2.39</v>
+      </c>
+      <c r="BL286">
+        <v>1.55</v>
+      </c>
+      <c r="BM286">
+        <v>3.42</v>
+      </c>
+      <c r="BN286">
+        <v>1.3</v>
+      </c>
+      <c r="BO286">
+        <v>4.3</v>
+      </c>
+      <c r="BP286">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7886167</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45802.61458333334</v>
+      </c>
+      <c r="F287">
+        <v>7</v>
+      </c>
+      <c r="G287" t="s">
+        <v>73</v>
+      </c>
+      <c r="H287" t="s">
+        <v>76</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>249</v>
+      </c>
+      <c r="P287" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q287">
+        <v>2.13</v>
+      </c>
+      <c r="R287">
+        <v>2.24</v>
+      </c>
+      <c r="S287">
+        <v>4.9</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>3.2</v>
+      </c>
+      <c r="V287">
+        <v>2.54</v>
+      </c>
+      <c r="W287">
+        <v>1.47</v>
+      </c>
+      <c r="X287">
+        <v>5</v>
+      </c>
+      <c r="Y287">
+        <v>1.12</v>
+      </c>
+      <c r="Z287">
+        <v>1.61</v>
+      </c>
+      <c r="AA287">
+        <v>4.15</v>
+      </c>
+      <c r="AB287">
+        <v>4.34</v>
+      </c>
+      <c r="AC287">
+        <v>1.02</v>
+      </c>
+      <c r="AD287">
+        <v>12</v>
+      </c>
+      <c r="AE287">
+        <v>1.22</v>
+      </c>
+      <c r="AF287">
+        <v>4</v>
+      </c>
+      <c r="AG287">
+        <v>1.62</v>
+      </c>
+      <c r="AH287">
+        <v>2.07</v>
+      </c>
+      <c r="AI287">
+        <v>1.71</v>
+      </c>
+      <c r="AJ287">
+        <v>2.05</v>
+      </c>
+      <c r="AK287">
+        <v>1.22</v>
+      </c>
+      <c r="AL287">
+        <v>1.18</v>
+      </c>
+      <c r="AM287">
+        <v>2.22</v>
+      </c>
+      <c r="AN287">
+        <v>1.22</v>
+      </c>
+      <c r="AO287">
+        <v>0.58</v>
+      </c>
+      <c r="AP287">
+        <v>1.27</v>
+      </c>
+      <c r="AQ287">
+        <v>0.57</v>
+      </c>
+      <c r="AR287">
+        <v>1.32</v>
+      </c>
+      <c r="AS287">
+        <v>1.15</v>
+      </c>
+      <c r="AT287">
+        <v>2.47</v>
+      </c>
+      <c r="AU287">
+        <v>8</v>
+      </c>
+      <c r="AV287">
+        <v>4</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>4</v>
+      </c>
+      <c r="AY287">
+        <v>12</v>
+      </c>
+      <c r="AZ287">
+        <v>8</v>
+      </c>
+      <c r="BA287">
+        <v>5</v>
+      </c>
+      <c r="BB287">
+        <v>2</v>
+      </c>
+      <c r="BC287">
+        <v>7</v>
+      </c>
+      <c r="BD287">
+        <v>1.68</v>
+      </c>
+      <c r="BE287">
+        <v>8.4</v>
+      </c>
+      <c r="BF287">
+        <v>2.4</v>
+      </c>
+      <c r="BG287">
+        <v>1.36</v>
+      </c>
+      <c r="BH287">
+        <v>2.8</v>
+      </c>
+      <c r="BI287">
+        <v>1.61</v>
+      </c>
+      <c r="BJ287">
+        <v>2.01</v>
+      </c>
+      <c r="BK287">
+        <v>2.26</v>
+      </c>
+      <c r="BL287">
+        <v>1.68</v>
+      </c>
+      <c r="BM287">
+        <v>2.71</v>
+      </c>
+      <c r="BN287">
+        <v>1.38</v>
+      </c>
+      <c r="BO287">
+        <v>3.2</v>
+      </c>
+      <c r="BP287">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7886168</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45802.61458333334</v>
+      </c>
+      <c r="F288">
+        <v>7</v>
+      </c>
+      <c r="G288" t="s">
+        <v>71</v>
+      </c>
+      <c r="H288" t="s">
+        <v>77</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>120</v>
+      </c>
+      <c r="P288" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q288">
+        <v>1.98</v>
+      </c>
+      <c r="R288">
+        <v>2.4</v>
+      </c>
+      <c r="S288">
+        <v>5.5</v>
+      </c>
+      <c r="T288">
+        <v>1.33</v>
+      </c>
+      <c r="U288">
+        <v>3</v>
+      </c>
+      <c r="V288">
+        <v>2.65</v>
+      </c>
+      <c r="W288">
+        <v>1.47</v>
+      </c>
+      <c r="X288">
+        <v>6.4</v>
+      </c>
+      <c r="Y288">
+        <v>1.06</v>
+      </c>
+      <c r="Z288">
+        <v>1.44</v>
+      </c>
+      <c r="AA288">
+        <v>3.95</v>
+      </c>
+      <c r="AB288">
+        <v>6</v>
+      </c>
+      <c r="AC288">
+        <v>1.01</v>
+      </c>
+      <c r="AD288">
+        <v>11.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.24</v>
+      </c>
+      <c r="AF288">
+        <v>3.75</v>
+      </c>
+      <c r="AG288">
+        <v>1.82</v>
+      </c>
+      <c r="AH288">
+        <v>1.95</v>
+      </c>
+      <c r="AI288">
+        <v>1.95</v>
+      </c>
+      <c r="AJ288">
+        <v>1.8</v>
+      </c>
+      <c r="AK288">
+        <v>1.19</v>
+      </c>
+      <c r="AL288">
+        <v>1.21</v>
+      </c>
+      <c r="AM288">
+        <v>2.58</v>
+      </c>
+      <c r="AN288">
+        <v>0.92</v>
+      </c>
+      <c r="AO288">
+        <v>1.17</v>
+      </c>
+      <c r="AP288">
+        <v>0.89</v>
+      </c>
+      <c r="AQ288">
+        <v>1.22</v>
+      </c>
+      <c r="AR288">
+        <v>1.09</v>
+      </c>
+      <c r="AS288">
+        <v>1.2</v>
+      </c>
+      <c r="AT288">
+        <v>2.29</v>
+      </c>
+      <c r="AU288">
+        <v>5</v>
+      </c>
+      <c r="AV288">
+        <v>9</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>7</v>
+      </c>
+      <c r="AY288">
+        <v>10</v>
+      </c>
+      <c r="AZ288">
+        <v>16</v>
+      </c>
+      <c r="BA288">
+        <v>3</v>
+      </c>
+      <c r="BB288">
+        <v>3</v>
+      </c>
+      <c r="BC288">
+        <v>6</v>
+      </c>
+      <c r="BD288">
+        <v>1.38</v>
+      </c>
+      <c r="BE288">
+        <v>7.5</v>
+      </c>
+      <c r="BF288">
+        <v>3.3</v>
+      </c>
+      <c r="BG288">
+        <v>1.23</v>
+      </c>
+      <c r="BH288">
+        <v>3.15</v>
+      </c>
+      <c r="BI288">
+        <v>1.6</v>
+      </c>
+      <c r="BJ288">
+        <v>2.25</v>
+      </c>
+      <c r="BK288">
+        <v>1.81</v>
+      </c>
+      <c r="BL288">
+        <v>1.85</v>
+      </c>
+      <c r="BM288">
+        <v>2.36</v>
+      </c>
+      <c r="BN288">
+        <v>1.56</v>
+      </c>
+      <c r="BO288">
+        <v>3.08</v>
+      </c>
+      <c r="BP288">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7886169</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45802.61458333334</v>
+      </c>
+      <c r="F289">
+        <v>7</v>
+      </c>
+      <c r="G289" t="s">
+        <v>72</v>
+      </c>
+      <c r="H289" t="s">
+        <v>81</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
+        <v>86</v>
+      </c>
+      <c r="P289" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q289">
+        <v>2.68</v>
+      </c>
+      <c r="R289">
+        <v>2.2</v>
+      </c>
+      <c r="S289">
+        <v>3.5</v>
+      </c>
+      <c r="T289">
+        <v>1.37</v>
+      </c>
+      <c r="U289">
+        <v>3.2</v>
+      </c>
+      <c r="V289">
+        <v>2.5</v>
+      </c>
+      <c r="W289">
+        <v>1.47</v>
+      </c>
+      <c r="X289">
+        <v>5.95</v>
+      </c>
+      <c r="Y289">
+        <v>1.07</v>
+      </c>
+      <c r="Z289">
+        <v>1.86</v>
+      </c>
+      <c r="AA289">
+        <v>3.3</v>
+      </c>
+      <c r="AB289">
+        <v>3.4</v>
+      </c>
+      <c r="AC289">
+        <v>1.02</v>
+      </c>
+      <c r="AD289">
+        <v>13</v>
+      </c>
+      <c r="AE289">
+        <v>1.23</v>
+      </c>
+      <c r="AF289">
+        <v>3.85</v>
+      </c>
+      <c r="AG289">
+        <v>1.78</v>
+      </c>
+      <c r="AH289">
+        <v>2</v>
+      </c>
+      <c r="AI289">
+        <v>1.67</v>
+      </c>
+      <c r="AJ289">
+        <v>2.15</v>
+      </c>
+      <c r="AK289">
+        <v>1.3</v>
+      </c>
+      <c r="AL289">
+        <v>1.28</v>
+      </c>
+      <c r="AM289">
+        <v>1.65</v>
+      </c>
+      <c r="AN289">
+        <v>1.06</v>
+      </c>
+      <c r="AO289">
+        <v>1.22</v>
+      </c>
+      <c r="AP289">
+        <v>1.03</v>
+      </c>
+      <c r="AQ289">
+        <v>1.27</v>
+      </c>
+      <c r="AR289">
+        <v>1.37</v>
+      </c>
+      <c r="AS289">
+        <v>1.74</v>
+      </c>
+      <c r="AT289">
+        <v>3.11</v>
+      </c>
+      <c r="AU289">
+        <v>0</v>
+      </c>
+      <c r="AV289">
+        <v>2</v>
+      </c>
+      <c r="AW289">
+        <v>0</v>
+      </c>
+      <c r="AX289">
+        <v>0</v>
+      </c>
+      <c r="AY289">
+        <v>0</v>
+      </c>
+      <c r="AZ289">
+        <v>2</v>
+      </c>
+      <c r="BA289">
+        <v>3</v>
+      </c>
+      <c r="BB289">
+        <v>10</v>
+      </c>
+      <c r="BC289">
+        <v>13</v>
+      </c>
+      <c r="BD289">
+        <v>1.82</v>
+      </c>
+      <c r="BE289">
+        <v>6.2</v>
+      </c>
+      <c r="BF289">
+        <v>2.47</v>
+      </c>
+      <c r="BG289">
+        <v>1.43</v>
+      </c>
+      <c r="BH289">
+        <v>2.6</v>
+      </c>
+      <c r="BI289">
+        <v>1.75</v>
+      </c>
+      <c r="BJ289">
+        <v>2.02</v>
+      </c>
+      <c r="BK289">
+        <v>2.58</v>
+      </c>
+      <c r="BL289">
+        <v>1.63</v>
+      </c>
+      <c r="BM289">
+        <v>2.8</v>
+      </c>
+      <c r="BN289">
+        <v>1.38</v>
+      </c>
+      <c r="BO289">
+        <v>3.8</v>
+      </c>
+      <c r="BP289">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7884941</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45803.48958333334</v>
+      </c>
+      <c r="F290">
+        <v>6</v>
+      </c>
+      <c r="G290" t="s">
+        <v>75</v>
+      </c>
+      <c r="H290" t="s">
+        <v>78</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>250</v>
+      </c>
+      <c r="P290" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q290">
+        <v>4.75</v>
+      </c>
+      <c r="R290">
+        <v>2.27</v>
+      </c>
+      <c r="S290">
+        <v>2.21</v>
+      </c>
+      <c r="T290">
+        <v>1.35</v>
+      </c>
+      <c r="U290">
+        <v>3.1</v>
+      </c>
+      <c r="V290">
+        <v>2.59</v>
+      </c>
+      <c r="W290">
+        <v>1.42</v>
+      </c>
+      <c r="X290">
+        <v>6.1</v>
+      </c>
+      <c r="Y290">
+        <v>1.09</v>
+      </c>
+      <c r="Z290">
+        <v>4.3</v>
+      </c>
+      <c r="AA290">
+        <v>4</v>
+      </c>
+      <c r="AB290">
+        <v>1.6</v>
+      </c>
+      <c r="AC290">
+        <v>1</v>
+      </c>
+      <c r="AD290">
+        <v>11.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.26</v>
+      </c>
+      <c r="AF290">
+        <v>3.58</v>
+      </c>
+      <c r="AG290">
+        <v>1.85</v>
+      </c>
+      <c r="AH290">
+        <v>1.95</v>
+      </c>
+      <c r="AI290">
+        <v>1.8</v>
+      </c>
+      <c r="AJ290">
+        <v>1.85</v>
+      </c>
+      <c r="AK290">
+        <v>1.25</v>
+      </c>
+      <c r="AL290">
+        <v>1.28</v>
+      </c>
+      <c r="AM290">
+        <v>1.2</v>
+      </c>
+      <c r="AN290">
+        <v>2.34</v>
+      </c>
+      <c r="AO290">
+        <v>1.63</v>
+      </c>
+      <c r="AP290">
+        <v>2.31</v>
+      </c>
+      <c r="AQ290">
+        <v>1.61</v>
+      </c>
+      <c r="AR290">
+        <v>1.7</v>
+      </c>
+      <c r="AS290">
+        <v>1.34</v>
+      </c>
+      <c r="AT290">
+        <v>3.04</v>
+      </c>
+      <c r="AU290">
+        <v>5</v>
+      </c>
+      <c r="AV290">
+        <v>7</v>
+      </c>
+      <c r="AW290">
+        <v>8</v>
+      </c>
+      <c r="AX290">
+        <v>10</v>
+      </c>
+      <c r="AY290">
+        <v>13</v>
+      </c>
+      <c r="AZ290">
+        <v>17</v>
+      </c>
+      <c r="BA290">
+        <v>6</v>
+      </c>
+      <c r="BB290">
+        <v>8</v>
+      </c>
+      <c r="BC290">
+        <v>14</v>
+      </c>
+      <c r="BD290">
+        <v>2.5</v>
+      </c>
+      <c r="BE290">
+        <v>7.8</v>
+      </c>
+      <c r="BF290">
+        <v>1.93</v>
+      </c>
+      <c r="BG290">
+        <v>1.49</v>
+      </c>
+      <c r="BH290">
+        <v>2.62</v>
+      </c>
+      <c r="BI290">
+        <v>1.88</v>
+      </c>
+      <c r="BJ290">
+        <v>1.92</v>
+      </c>
+      <c r="BK290">
+        <v>2.25</v>
+      </c>
+      <c r="BL290">
+        <v>1.49</v>
+      </c>
+      <c r="BM290">
+        <v>3.08</v>
+      </c>
+      <c r="BN290">
+        <v>1.3</v>
+      </c>
+      <c r="BO290">
+        <v>4.9</v>
+      </c>
+      <c r="BP290">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7884940</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45803.48958333334</v>
+      </c>
+      <c r="F291">
+        <v>6</v>
+      </c>
+      <c r="G291" t="s">
+        <v>70</v>
+      </c>
+      <c r="H291" t="s">
+        <v>79</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291" t="s">
+        <v>86</v>
+      </c>
+      <c r="P291" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q291">
+        <v>2.6</v>
+      </c>
+      <c r="R291">
+        <v>1.99</v>
+      </c>
+      <c r="S291">
+        <v>4.33</v>
+      </c>
+      <c r="T291">
+        <v>1.46</v>
+      </c>
+      <c r="U291">
+        <v>2.6</v>
+      </c>
+      <c r="V291">
+        <v>3.2</v>
+      </c>
+      <c r="W291">
+        <v>1.3</v>
+      </c>
+      <c r="X291">
+        <v>6.2</v>
+      </c>
+      <c r="Y291">
+        <v>1.04</v>
+      </c>
+      <c r="Z291">
+        <v>1.85</v>
+      </c>
+      <c r="AA291">
+        <v>3.1</v>
+      </c>
+      <c r="AB291">
+        <v>3.65</v>
+      </c>
+      <c r="AC291">
+        <v>1.02</v>
+      </c>
+      <c r="AD291">
+        <v>7.8</v>
+      </c>
+      <c r="AE291">
+        <v>1.33</v>
+      </c>
+      <c r="AF291">
+        <v>2.85</v>
+      </c>
+      <c r="AG291">
+        <v>2.25</v>
+      </c>
+      <c r="AH291">
+        <v>1.6</v>
+      </c>
+      <c r="AI291">
+        <v>1.95</v>
+      </c>
+      <c r="AJ291">
+        <v>1.87</v>
+      </c>
+      <c r="AK291">
+        <v>1.33</v>
+      </c>
+      <c r="AL291">
+        <v>1.28</v>
+      </c>
+      <c r="AM291">
+        <v>1.73</v>
+      </c>
+      <c r="AN291">
+        <v>1.66</v>
+      </c>
+      <c r="AO291">
+        <v>2.03</v>
+      </c>
+      <c r="AP291">
+        <v>1.64</v>
+      </c>
+      <c r="AQ291">
+        <v>2</v>
+      </c>
+      <c r="AR291">
+        <v>1.49</v>
+      </c>
+      <c r="AS291">
+        <v>1.86</v>
+      </c>
+      <c r="AT291">
+        <v>3.35</v>
+      </c>
+      <c r="AU291">
+        <v>6</v>
+      </c>
+      <c r="AV291">
+        <v>5</v>
+      </c>
+      <c r="AW291">
+        <v>4</v>
+      </c>
+      <c r="AX291">
+        <v>2</v>
+      </c>
+      <c r="AY291">
+        <v>10</v>
+      </c>
+      <c r="AZ291">
+        <v>7</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>1</v>
+      </c>
+      <c r="BC291">
+        <v>5</v>
+      </c>
+      <c r="BD291">
+        <v>1.78</v>
+      </c>
+      <c r="BE291">
+        <v>6.4</v>
+      </c>
+      <c r="BF291">
+        <v>2.2</v>
+      </c>
+      <c r="BG291">
+        <v>1.52</v>
+      </c>
+      <c r="BH291">
+        <v>2.43</v>
+      </c>
+      <c r="BI291">
+        <v>1.81</v>
+      </c>
+      <c r="BJ291">
+        <v>1.83</v>
+      </c>
+      <c r="BK291">
+        <v>2.58</v>
+      </c>
+      <c r="BL291">
+        <v>1.5</v>
+      </c>
+      <c r="BM291">
+        <v>3.4</v>
+      </c>
+      <c r="BN291">
+        <v>1.3</v>
+      </c>
+      <c r="BO291">
+        <v>5</v>
+      </c>
+      <c r="BP291">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7886145</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45803.61458333334</v>
+      </c>
+      <c r="F292">
+        <v>6</v>
+      </c>
+      <c r="G292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H292" t="s">
+        <v>84</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>3</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>4</v>
+      </c>
+      <c r="O292" t="s">
+        <v>251</v>
+      </c>
+      <c r="P292" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q292">
+        <v>2.1</v>
+      </c>
+      <c r="R292">
+        <v>2.28</v>
+      </c>
+      <c r="S292">
+        <v>4.4</v>
+      </c>
+      <c r="T292">
+        <v>1.29</v>
+      </c>
+      <c r="U292">
+        <v>3.23</v>
+      </c>
+      <c r="V292">
+        <v>2.5</v>
+      </c>
+      <c r="W292">
+        <v>1.45</v>
+      </c>
+      <c r="X292">
+        <v>6.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.08</v>
+      </c>
+      <c r="Z292">
+        <v>1.72</v>
+      </c>
+      <c r="AA292">
+        <v>3.47</v>
+      </c>
+      <c r="AB292">
+        <v>4</v>
+      </c>
+      <c r="AC292">
+        <v>1.02</v>
+      </c>
+      <c r="AD292">
+        <v>8.1</v>
+      </c>
+      <c r="AE292">
+        <v>1.18</v>
+      </c>
+      <c r="AF292">
+        <v>3.9</v>
+      </c>
+      <c r="AG292">
+        <v>1.76</v>
+      </c>
+      <c r="AH292">
+        <v>1.94</v>
+      </c>
+      <c r="AI292">
+        <v>1.78</v>
+      </c>
+      <c r="AJ292">
+        <v>1.93</v>
+      </c>
+      <c r="AK292">
+        <v>1.22</v>
+      </c>
+      <c r="AL292">
+        <v>1.25</v>
+      </c>
+      <c r="AM292">
+        <v>2.3</v>
+      </c>
+      <c r="AN292">
+        <v>1.31</v>
+      </c>
+      <c r="AO292">
+        <v>1.46</v>
+      </c>
+      <c r="AP292">
+        <v>1.36</v>
+      </c>
+      <c r="AQ292">
+        <v>1.42</v>
+      </c>
+      <c r="AR292">
+        <v>1.36</v>
+      </c>
+      <c r="AS292">
+        <v>1.34</v>
+      </c>
+      <c r="AT292">
+        <v>2.7</v>
+      </c>
+      <c r="AU292">
+        <v>7</v>
+      </c>
+      <c r="AV292">
+        <v>8</v>
+      </c>
+      <c r="AW292">
+        <v>8</v>
+      </c>
+      <c r="AX292">
+        <v>7</v>
+      </c>
+      <c r="AY292">
+        <v>15</v>
+      </c>
+      <c r="AZ292">
+        <v>15</v>
+      </c>
+      <c r="BA292">
+        <v>4</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>8</v>
+      </c>
+      <c r="BD292">
+        <v>1.57</v>
+      </c>
+      <c r="BE292">
+        <v>7</v>
+      </c>
+      <c r="BF292">
+        <v>2.9</v>
+      </c>
+      <c r="BG292">
+        <v>1.36</v>
+      </c>
+      <c r="BH292">
+        <v>3.3</v>
+      </c>
+      <c r="BI292">
+        <v>1.62</v>
+      </c>
+      <c r="BJ292">
+        <v>2.21</v>
+      </c>
+      <c r="BK292">
+        <v>2.01</v>
+      </c>
+      <c r="BL292">
+        <v>1.76</v>
+      </c>
+      <c r="BM292">
+        <v>2.23</v>
+      </c>
+      <c r="BN292">
+        <v>1.57</v>
+      </c>
+      <c r="BO292">
+        <v>2.8</v>
+      </c>
+      <c r="BP292">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7886146</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45803.61458333334</v>
+      </c>
+      <c r="F293">
+        <v>6</v>
+      </c>
+      <c r="G293" t="s">
+        <v>82</v>
+      </c>
+      <c r="H293" t="s">
+        <v>80</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>4</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293" t="s">
+        <v>86</v>
+      </c>
+      <c r="P293" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q293">
+        <v>2.6</v>
+      </c>
+      <c r="R293">
+        <v>2.22</v>
+      </c>
+      <c r="S293">
+        <v>3.65</v>
+      </c>
+      <c r="T293">
+        <v>1.34</v>
+      </c>
+      <c r="U293">
+        <v>3.02</v>
+      </c>
+      <c r="V293">
+        <v>2.62</v>
+      </c>
+      <c r="W293">
+        <v>1.42</v>
+      </c>
+      <c r="X293">
+        <v>6</v>
+      </c>
+      <c r="Y293">
+        <v>1.06</v>
+      </c>
+      <c r="Z293">
+        <v>2.12</v>
+      </c>
+      <c r="AA293">
+        <v>3.11</v>
+      </c>
+      <c r="AB293">
+        <v>3.06</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>11</v>
+      </c>
+      <c r="AE293">
+        <v>1.25</v>
+      </c>
+      <c r="AF293">
+        <v>3.5</v>
+      </c>
+      <c r="AG293">
+        <v>1.76</v>
+      </c>
+      <c r="AH293">
+        <v>1.94</v>
+      </c>
+      <c r="AI293">
+        <v>1.65</v>
+      </c>
+      <c r="AJ293">
+        <v>2.08</v>
+      </c>
+      <c r="AK293">
+        <v>1.3</v>
+      </c>
+      <c r="AL293">
+        <v>1.28</v>
+      </c>
+      <c r="AM293">
+        <v>1.66</v>
+      </c>
+      <c r="AN293">
+        <v>1.6</v>
+      </c>
+      <c r="AO293">
+        <v>1.77</v>
+      </c>
+      <c r="AP293">
+        <v>1.56</v>
+      </c>
+      <c r="AQ293">
+        <v>1.81</v>
+      </c>
+      <c r="AR293">
+        <v>1.55</v>
+      </c>
+      <c r="AS293">
+        <v>1.96</v>
+      </c>
+      <c r="AT293">
+        <v>3.51</v>
+      </c>
+      <c r="AU293">
+        <v>8</v>
+      </c>
+      <c r="AV293">
+        <v>9</v>
+      </c>
+      <c r="AW293">
+        <v>4</v>
+      </c>
+      <c r="AX293">
+        <v>12</v>
+      </c>
+      <c r="AY293">
+        <v>12</v>
+      </c>
+      <c r="AZ293">
+        <v>21</v>
+      </c>
+      <c r="BA293">
+        <v>1</v>
+      </c>
+      <c r="BB293">
+        <v>4</v>
+      </c>
+      <c r="BC293">
+        <v>5</v>
+      </c>
+      <c r="BD293">
+        <v>1.96</v>
+      </c>
+      <c r="BE293">
+        <v>6.4</v>
+      </c>
+      <c r="BF293">
+        <v>2.23</v>
+      </c>
+      <c r="BG293">
+        <v>1.22</v>
+      </c>
+      <c r="BH293">
+        <v>3.5</v>
+      </c>
+      <c r="BI293">
+        <v>1.52</v>
+      </c>
+      <c r="BJ293">
+        <v>2.38</v>
+      </c>
+      <c r="BK293">
+        <v>1.84</v>
+      </c>
+      <c r="BL293">
+        <v>1.84</v>
+      </c>
+      <c r="BM293">
+        <v>2.3</v>
+      </c>
+      <c r="BN293">
+        <v>1.53</v>
+      </c>
+      <c r="BO293">
+        <v>2.9</v>
+      </c>
+      <c r="BP293">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1488,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2858,7 +2858,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10">
         <v>0.74</v>
@@ -5330,7 +5330,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ25">
         <v>0.37</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -13982,7 +13982,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.06</v>
@@ -15833,7 +15833,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -16866,7 +16866,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -18099,7 +18099,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -20162,7 +20162,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.91</v>
@@ -21807,7 +21807,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -23252,7 +23252,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -24488,7 +24488,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR112">
         <v>1.48</v>
@@ -24691,7 +24691,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ113">
         <v>0.58</v>
@@ -26545,7 +26545,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ122">
         <v>1.32</v>
@@ -28814,7 +28814,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ133">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
         <v>0.99</v>
@@ -30459,7 +30459,7 @@
         <v>2.71</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ141">
         <v>2.06</v>
@@ -33137,7 +33137,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33758,7 +33758,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -37051,7 +37051,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ173">
         <v>0.89</v>
@@ -37260,7 +37260,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ174">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -39111,7 +39111,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ183">
         <v>1.28</v>
@@ -40144,7 +40144,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -42819,7 +42819,7 @@
         <v>1.92</v>
       </c>
       <c r="AP201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
         <v>1.94</v>
@@ -43852,7 +43852,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ206">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -45085,7 +45085,7 @@
         <v>1.85</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ212">
         <v>1.56</v>
@@ -46530,7 +46530,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ219">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -48793,7 +48793,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ230">
         <v>1.06</v>
@@ -50032,7 +50032,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ236">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR236">
         <v>1.19</v>
@@ -51680,7 +51680,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ244">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51886,7 +51886,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -53740,7 +53740,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ254">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -54152,7 +54152,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ256">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -55385,7 +55385,7 @@
         <v>2.5</v>
       </c>
       <c r="AP262">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AQ262">
         <v>2.31</v>
@@ -55591,7 +55591,7 @@
         <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AQ263">
         <v>1.56</v>
@@ -57239,7 +57239,7 @@
         <v>1.45</v>
       </c>
       <c r="AP271">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AQ271">
         <v>1.42</v>
@@ -57857,7 +57857,7 @@
         <v>2.03</v>
       </c>
       <c r="AP274">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AQ274">
         <v>2</v>
@@ -58681,7 +58681,7 @@
         <v>1.35</v>
       </c>
       <c r="AP278">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AQ278">
         <v>1.36</v>
@@ -59299,7 +59299,7 @@
         <v>1.68</v>
       </c>
       <c r="AP281">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AQ281">
         <v>1.64</v>
@@ -61156,7 +61156,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ290">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AR290">
         <v>1.7</v>
@@ -61774,7 +61774,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ293">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AR293">
         <v>1.55</v>
@@ -61850,6 +61850,212 @@
       </c>
       <c r="BP293">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7905556</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45808.52083333334</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>78</v>
+      </c>
+      <c r="H294" t="s">
+        <v>80</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>122</v>
+      </c>
+      <c r="P294" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q294">
+        <v>6.34</v>
+      </c>
+      <c r="R294">
+        <v>2.12</v>
+      </c>
+      <c r="S294">
+        <v>2.14</v>
+      </c>
+      <c r="T294">
+        <v>1.4</v>
+      </c>
+      <c r="U294">
+        <v>2.7</v>
+      </c>
+      <c r="V294">
+        <v>3.4</v>
+      </c>
+      <c r="W294">
+        <v>1.34</v>
+      </c>
+      <c r="X294">
+        <v>7.5</v>
+      </c>
+      <c r="Y294">
+        <v>1.06</v>
+      </c>
+      <c r="Z294">
+        <v>5.8</v>
+      </c>
+      <c r="AA294">
+        <v>3.85</v>
+      </c>
+      <c r="AB294">
+        <v>1.51</v>
+      </c>
+      <c r="AC294">
+        <v>1.01</v>
+      </c>
+      <c r="AD294">
+        <v>7</v>
+      </c>
+      <c r="AE294">
+        <v>1.44</v>
+      </c>
+      <c r="AF294">
+        <v>3</v>
+      </c>
+      <c r="AG294">
+        <v>2</v>
+      </c>
+      <c r="AH294">
+        <v>1.8</v>
+      </c>
+      <c r="AI294">
+        <v>2.1</v>
+      </c>
+      <c r="AJ294">
+        <v>1.67</v>
+      </c>
+      <c r="AK294">
+        <v>1.29</v>
+      </c>
+      <c r="AL294">
+        <v>1.3</v>
+      </c>
+      <c r="AM294">
+        <v>1.13</v>
+      </c>
+      <c r="AN294">
+        <v>1.61</v>
+      </c>
+      <c r="AO294">
+        <v>1.81</v>
+      </c>
+      <c r="AP294">
+        <v>1.59</v>
+      </c>
+      <c r="AQ294">
+        <v>1.78</v>
+      </c>
+      <c r="AR294">
+        <v>1.36</v>
+      </c>
+      <c r="AS294">
+        <v>1.98</v>
+      </c>
+      <c r="AT294">
+        <v>3.34</v>
+      </c>
+      <c r="AU294">
+        <v>3</v>
+      </c>
+      <c r="AV294">
+        <v>6</v>
+      </c>
+      <c r="AW294">
+        <v>6</v>
+      </c>
+      <c r="AX294">
+        <v>12</v>
+      </c>
+      <c r="AY294">
+        <v>9</v>
+      </c>
+      <c r="AZ294">
+        <v>18</v>
+      </c>
+      <c r="BA294">
+        <v>2</v>
+      </c>
+      <c r="BB294">
+        <v>11</v>
+      </c>
+      <c r="BC294">
+        <v>13</v>
+      </c>
+      <c r="BD294">
+        <v>2.91</v>
+      </c>
+      <c r="BE294">
+        <v>6.65</v>
+      </c>
+      <c r="BF294">
+        <v>1.62</v>
+      </c>
+      <c r="BG294">
+        <v>1.38</v>
+      </c>
+      <c r="BH294">
+        <v>2.8</v>
+      </c>
+      <c r="BI294">
+        <v>1.6</v>
+      </c>
+      <c r="BJ294">
+        <v>2.17</v>
+      </c>
+      <c r="BK294">
+        <v>1.95</v>
+      </c>
+      <c r="BL294">
+        <v>1.7</v>
+      </c>
+      <c r="BM294">
+        <v>2.6</v>
+      </c>
+      <c r="BN294">
+        <v>1.43</v>
+      </c>
+      <c r="BO294">
+        <v>3.48</v>
+      </c>
+      <c r="BP294">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['25', '43', '50']</t>
   </si>
   <si>
+    <t>['-1', '-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -1127,6 +1130,9 @@
   </si>
   <si>
     <t>['28', '51', '62', '81']</t>
+  </si>
+  <si>
+    <t>['-1', '-1']</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2371,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2571,7 +2577,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2858,7 +2864,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2983,7 +2989,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ10">
         <v>0.74</v>
@@ -4013,7 +4019,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4219,7 +4225,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5043,7 +5049,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5330,7 +5336,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5661,7 +5667,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5867,7 +5873,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6073,7 +6079,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6485,7 +6491,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6563,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ25">
         <v>0.37</v>
@@ -6691,7 +6697,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>3.4</v>
@@ -7309,7 +7315,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7721,7 +7727,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7927,7 +7933,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8957,7 +8963,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9653,10 +9659,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -10193,7 +10199,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -10399,7 +10405,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10811,7 +10817,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q46">
         <v>2.5</v>
@@ -11017,7 +11023,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -11841,7 +11847,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -12459,7 +12465,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12871,7 +12877,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -13077,7 +13083,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13283,7 +13289,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13489,7 +13495,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13695,7 +13701,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13901,7 +13907,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>6.5</v>
@@ -13982,7 +13988,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
         <v>1.06</v>
@@ -14313,7 +14319,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14519,7 +14525,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -15137,7 +15143,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -15343,7 +15349,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15833,7 +15839,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15961,7 +15967,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>9.5</v>
@@ -16579,7 +16585,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16866,7 +16872,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -17197,7 +17203,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>1.83</v>
@@ -17403,7 +17409,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -17609,7 +17615,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>3.75</v>
@@ -17815,7 +17821,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -18021,7 +18027,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -18099,7 +18105,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ81">
         <v>1.44</v>
@@ -18433,7 +18439,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>1.67</v>
@@ -19051,7 +19057,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20162,7 +20168,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR91">
         <v>1.91</v>
@@ -20699,7 +20705,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>13</v>
@@ -20905,7 +20911,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -21317,7 +21323,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>2.4</v>
@@ -21807,7 +21813,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -22141,7 +22147,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22759,7 +22765,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22965,7 +22971,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -23171,7 +23177,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23252,7 +23258,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23995,7 +24001,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24407,7 +24413,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24488,7 +24494,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR112">
         <v>1.48</v>
@@ -24691,7 +24697,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ113">
         <v>0.58</v>
@@ -25231,7 +25237,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>4.5</v>
@@ -25437,7 +25443,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25643,7 +25649,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25849,7 +25855,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>1.8</v>
@@ -26055,7 +26061,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26467,7 +26473,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>2.63</v>
@@ -26545,7 +26551,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ122">
         <v>1.32</v>
@@ -27291,7 +27297,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27497,7 +27503,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27703,7 +27709,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.4</v>
@@ -27909,7 +27915,7 @@
         <v>138</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28115,7 +28121,7 @@
         <v>98</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>6.5</v>
@@ -28321,7 +28327,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q131">
         <v>4.33</v>
@@ -28527,7 +28533,7 @@
         <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -28814,7 +28820,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR133">
         <v>0.99</v>
@@ -30175,7 +30181,7 @@
         <v>167</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30381,7 +30387,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>7.5</v>
@@ -30459,7 +30465,7 @@
         <v>2.71</v>
       </c>
       <c r="AP141">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ141">
         <v>2.06</v>
@@ -30587,7 +30593,7 @@
         <v>168</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>1.8</v>
@@ -30793,7 +30799,7 @@
         <v>169</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -31205,7 +31211,7 @@
         <v>171</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.75</v>
@@ -31411,7 +31417,7 @@
         <v>172</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>7.5</v>
@@ -31617,7 +31623,7 @@
         <v>173</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -31823,7 +31829,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>2.75</v>
@@ -32029,7 +32035,7 @@
         <v>86</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>7.5</v>
@@ -32441,7 +32447,7 @@
         <v>86</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>6.5</v>
@@ -32647,7 +32653,7 @@
         <v>176</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>2.75</v>
@@ -32853,7 +32859,7 @@
         <v>177</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>4.75</v>
@@ -33137,7 +33143,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33265,7 +33271,7 @@
         <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33471,7 +33477,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33758,7 +33764,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ157">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -33883,7 +33889,7 @@
         <v>181</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34707,7 +34713,7 @@
         <v>86</v>
       </c>
       <c r="P162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>3.5</v>
@@ -34913,7 +34919,7 @@
         <v>184</v>
       </c>
       <c r="P163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>5.5</v>
@@ -35325,7 +35331,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>9.5</v>
@@ -37051,7 +37057,7 @@
         <v>0.7</v>
       </c>
       <c r="AP173">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ173">
         <v>0.89</v>
@@ -37179,7 +37185,7 @@
         <v>86</v>
       </c>
       <c r="P174" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37260,7 +37266,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ174">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR174">
         <v>1.58</v>
@@ -37385,7 +37391,7 @@
         <v>124</v>
       </c>
       <c r="P175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q175">
         <v>5.5</v>
@@ -37591,7 +37597,7 @@
         <v>86</v>
       </c>
       <c r="P176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38003,7 +38009,7 @@
         <v>86</v>
       </c>
       <c r="P178" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38415,7 +38421,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38621,7 +38627,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39111,7 +39117,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ183">
         <v>1.28</v>
@@ -39239,7 +39245,7 @@
         <v>195</v>
       </c>
       <c r="P184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>3.6</v>
@@ -39857,7 +39863,7 @@
         <v>196</v>
       </c>
       <c r="P187" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q187">
         <v>2.4</v>
@@ -40063,7 +40069,7 @@
         <v>86</v>
       </c>
       <c r="P188" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>6</v>
@@ -40144,7 +40150,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40269,7 +40275,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>2.3</v>
@@ -40681,7 +40687,7 @@
         <v>197</v>
       </c>
       <c r="P191" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -40887,7 +40893,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>8.5</v>
@@ -41299,7 +41305,7 @@
         <v>200</v>
       </c>
       <c r="P194" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41711,7 +41717,7 @@
         <v>201</v>
       </c>
       <c r="P196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -42123,7 +42129,7 @@
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42329,7 +42335,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q199">
         <v>2.4</v>
@@ -42535,7 +42541,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q200">
         <v>2.25</v>
@@ -42819,7 +42825,7 @@
         <v>1.92</v>
       </c>
       <c r="AP201">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ201">
         <v>1.94</v>
@@ -43359,7 +43365,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q204">
         <v>2.25</v>
@@ -43771,7 +43777,7 @@
         <v>86</v>
       </c>
       <c r="P206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -43852,7 +43858,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ206">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR206">
         <v>1.07</v>
@@ -43977,7 +43983,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -44801,7 +44807,7 @@
         <v>141</v>
       </c>
       <c r="P211" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>2.3</v>
@@ -45085,7 +45091,7 @@
         <v>1.85</v>
       </c>
       <c r="AP212">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ212">
         <v>1.56</v>
@@ -46530,7 +46536,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ219">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -46861,7 +46867,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>3.14</v>
@@ -47067,7 +47073,7 @@
         <v>86</v>
       </c>
       <c r="P222" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>6.1</v>
@@ -47273,7 +47279,7 @@
         <v>86</v>
       </c>
       <c r="P223" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q223">
         <v>4.78</v>
@@ -47479,7 +47485,7 @@
         <v>214</v>
       </c>
       <c r="P224" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q224">
         <v>3.25</v>
@@ -47685,7 +47691,7 @@
         <v>129</v>
       </c>
       <c r="P225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -48793,7 +48799,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ230">
         <v>1.06</v>
@@ -48921,7 +48927,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q231">
         <v>2.41</v>
@@ -49127,7 +49133,7 @@
         <v>220</v>
       </c>
       <c r="P232" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q232">
         <v>2.03</v>
@@ -49333,7 +49339,7 @@
         <v>86</v>
       </c>
       <c r="P233" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -49539,7 +49545,7 @@
         <v>98</v>
       </c>
       <c r="P234" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -50032,7 +50038,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ236">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AR236">
         <v>1.19</v>
@@ -50157,7 +50163,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q237">
         <v>5.75</v>
@@ -50569,7 +50575,7 @@
         <v>223</v>
       </c>
       <c r="P239" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q239">
         <v>1.65</v>
@@ -50981,7 +50987,7 @@
         <v>98</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>1.84</v>
@@ -51187,7 +51193,7 @@
         <v>224</v>
       </c>
       <c r="P242" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q242">
         <v>2.15</v>
@@ -51680,7 +51686,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ244">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -51886,7 +51892,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR245">
         <v>1.91</v>
@@ -52835,7 +52841,7 @@
         <v>229</v>
       </c>
       <c r="P250" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q250">
         <v>3.05</v>
@@ -53041,7 +53047,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53659,7 +53665,7 @@
         <v>86</v>
       </c>
       <c r="P254" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q254">
         <v>4.95</v>
@@ -53740,7 +53746,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ254">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AR254">
         <v>1.36</v>
@@ -54152,7 +54158,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ256">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR256">
         <v>1.54</v>
@@ -54277,7 +54283,7 @@
         <v>234</v>
       </c>
       <c r="P257" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q257">
         <v>2.05</v>
@@ -54483,7 +54489,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q258">
         <v>4.35</v>
@@ -54689,7 +54695,7 @@
         <v>235</v>
       </c>
       <c r="P259" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q259">
         <v>2.9</v>
@@ -55307,7 +55313,7 @@
         <v>214</v>
       </c>
       <c r="P262" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q262">
         <v>3.8</v>
@@ -55385,7 +55391,7 @@
         <v>2.5</v>
       </c>
       <c r="AP262">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ262">
         <v>2.31</v>
@@ -55591,7 +55597,7 @@
         <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AQ263">
         <v>1.56</v>
@@ -55925,7 +55931,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q265">
         <v>2.62</v>
@@ -56337,7 +56343,7 @@
         <v>215</v>
       </c>
       <c r="P267" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -57239,7 +57245,7 @@
         <v>1.45</v>
       </c>
       <c r="AP271">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AQ271">
         <v>1.42</v>
@@ -57573,7 +57579,7 @@
         <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57779,7 +57785,7 @@
         <v>86</v>
       </c>
       <c r="P274" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q274">
         <v>3.6</v>
@@ -57857,7 +57863,7 @@
         <v>2.03</v>
       </c>
       <c r="AP274">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ274">
         <v>2</v>
@@ -57985,7 +57991,7 @@
         <v>86</v>
       </c>
       <c r="P275" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q275">
         <v>4.05</v>
@@ -58191,7 +58197,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q276">
         <v>1.97</v>
@@ -58681,7 +58687,7 @@
         <v>1.35</v>
       </c>
       <c r="AP278">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AQ278">
         <v>1.36</v>
@@ -58809,7 +58815,7 @@
         <v>151</v>
       </c>
       <c r="P279" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q279">
         <v>2.25</v>
@@ -59299,7 +59305,7 @@
         <v>1.68</v>
       </c>
       <c r="AP281">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ281">
         <v>1.64</v>
@@ -59633,7 +59639,7 @@
         <v>91</v>
       </c>
       <c r="P283" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q283">
         <v>4.4</v>
@@ -60045,7 +60051,7 @@
         <v>86</v>
       </c>
       <c r="P285" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60251,7 +60257,7 @@
         <v>248</v>
       </c>
       <c r="P286" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q286">
         <v>1.7</v>
@@ -60663,7 +60669,7 @@
         <v>120</v>
       </c>
       <c r="P288" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q288">
         <v>1.98</v>
@@ -60869,7 +60875,7 @@
         <v>86</v>
       </c>
       <c r="P289" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q289">
         <v>2.68</v>
@@ -61075,7 +61081,7 @@
         <v>250</v>
       </c>
       <c r="P290" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q290">
         <v>4.75</v>
@@ -61156,7 +61162,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ290">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AR290">
         <v>1.7</v>
@@ -61487,7 +61493,7 @@
         <v>251</v>
       </c>
       <c r="P292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q292">
         <v>2.1</v>
@@ -61693,7 +61699,7 @@
         <v>86</v>
       </c>
       <c r="P293" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q293">
         <v>2.6</v>
@@ -61774,7 +61780,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ293">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AR293">
         <v>1.55</v>
@@ -61887,19 +61893,19 @@
         <v>0</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N294">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O294" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="P294" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="Q294">
         <v>6.34</v>
@@ -61977,10 +61983,10 @@
         <v>1.81</v>
       </c>
       <c r="AP294">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AQ294">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AR294">
         <v>1.36</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Bulgaria First League_20242025.xlsx
@@ -1858,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA2">
         <v>10</v>
@@ -2064,10 +2064,10 @@
         <v>8</v>
       </c>
       <c r="AY3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
+        <v>6</v>
+      </c>
+      <c r="AZ4">
         <v>8</v>
-      </c>
-      <c r="AZ4">
-        <v>10</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2476,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2682,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>6</v>
@@ -2888,10 +2888,10 @@
         <v>4</v>
       </c>
       <c r="AY7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -3094,10 +3094,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>2</v>
@@ -3300,10 +3300,10 @@
         <v>9</v>
       </c>
       <c r="AY9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -3506,10 +3506,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3712,10 +3712,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3918,10 +3918,10 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="AY13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
         <v>4</v>
@@ -4330,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
         <v>12</v>
-      </c>
-      <c r="AZ14">
-        <v>14</v>
       </c>
       <c r="BA14">
         <v>11</v>
@@ -4536,10 +4536,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA15">
         <v>6</v>
@@ -4742,10 +4742,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -4948,19 +4948,19 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB17">
         <v>10</v>
       </c>
       <c r="BC17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="AZ18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5566,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ20">
         <v>5</v>
@@ -5772,10 +5772,10 @@
         <v>8</v>
       </c>
       <c r="AY21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5978,10 +5978,10 @@
         <v>11</v>
       </c>
       <c r="AY22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -6184,7 +6184,7 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
         <v>9</v>
@@ -6390,10 +6390,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6599,7 +6599,7 @@
         <v>12</v>
       </c>
       <c r="AZ25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6802,10 +6802,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA26">
         <v>5</v>
@@ -7008,10 +7008,10 @@
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -7214,10 +7214,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
+        <v>6</v>
+      </c>
+      <c r="AZ28">
         <v>10</v>
-      </c>
-      <c r="AZ28">
-        <v>12</v>
       </c>
       <c r="BA28">
         <v>2</v>
@@ -7420,7 +7420,7 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ29">
         <v>7</v>
@@ -7626,10 +7626,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7832,10 +7832,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -8038,10 +8038,10 @@
         <v>5</v>
       </c>
       <c r="AY32">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -8247,7 +8247,7 @@
         <v>10</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -8450,10 +8450,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8656,19 +8656,19 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA35">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BB35">
         <v>11</v>
       </c>
       <c r="BC35">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BD35">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -9068,10 +9068,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9274,10 +9274,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA38">
         <v>8</v>
@@ -9480,10 +9480,10 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9686,10 +9686,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BA40">
         <v>1</v>
@@ -9892,7 +9892,7 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ41">
         <v>12</v>
@@ -10098,10 +10098,10 @@
         <v>9</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -10304,10 +10304,10 @@
         <v>9</v>
       </c>
       <c r="AY43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ43">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10513,7 +10513,7 @@
         <v>10</v>
       </c>
       <c r="AZ44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10716,10 +10716,10 @@
         <v>8</v>
       </c>
       <c r="AY45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10922,10 +10922,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ46">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -11128,10 +11128,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ48">
         <v>6</v>
@@ -11540,10 +11540,10 @@
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11746,10 +11746,10 @@
         <v>4</v>
       </c>
       <c r="AY50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -11955,7 +11955,7 @@
         <v>6</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -12161,16 +12161,16 @@
         <v>6</v>
       </c>
       <c r="AZ52">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB52">
         <v>4</v>
       </c>
       <c r="BC52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD52">
         <v>0</v>
@@ -12364,10 +12364,10 @@
         <v>5</v>
       </c>
       <c r="AY53">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12570,10 +12570,10 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12776,10 +12776,10 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA55">
         <v>4</v>
@@ -12985,7 +12985,7 @@
         <v>12</v>
       </c>
       <c r="AZ56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -13188,10 +13188,10 @@
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA57">
         <v>0</v>
@@ -13394,10 +13394,10 @@
         <v>7</v>
       </c>
       <c r="AY58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -13600,10 +13600,10 @@
         <v>4</v>
       </c>
       <c r="AY59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA59">
         <v>6</v>
@@ -13809,7 +13809,7 @@
         <v>6</v>
       </c>
       <c r="AZ60">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA60">
         <v>4</v>
@@ -14012,10 +14012,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ61">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -14218,10 +14218,10 @@
         <v>7</v>
       </c>
       <c r="AY62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ62">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -14633,7 +14633,7 @@
         <v>3</v>
       </c>
       <c r="AZ64">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA64">
         <v>1</v>
@@ -14836,10 +14836,10 @@
         <v>1</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -15042,7 +15042,7 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
         <v>8</v>
@@ -15248,10 +15248,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
         <v>14</v>
-      </c>
-      <c r="AZ67">
-        <v>16</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -15454,10 +15454,10 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA68">
         <v>2</v>
@@ -15660,10 +15660,10 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA69">
         <v>2</v>
@@ -15866,10 +15866,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA70">
         <v>2</v>
@@ -16075,7 +16075,7 @@
         <v>8</v>
       </c>
       <c r="AZ71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA71">
         <v>4</v>
@@ -16278,10 +16278,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -16487,7 +16487,7 @@
         <v>10</v>
       </c>
       <c r="AZ73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16690,10 +16690,10 @@
         <v>2</v>
       </c>
       <c r="AY74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16896,10 +16896,10 @@
         <v>3</v>
       </c>
       <c r="AY75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -17102,10 +17102,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -17308,10 +17308,10 @@
         <v>1</v>
       </c>
       <c r="AY77">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -17514,19 +17514,19 @@
         <v>8</v>
       </c>
       <c r="AY78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ78">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB78">
         <v>3</v>
       </c>
       <c r="BC78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17720,7 +17720,7 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ79">
         <v>6</v>
@@ -17926,10 +17926,10 @@
         <v>11</v>
       </c>
       <c r="AY80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ80">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -18135,7 +18135,7 @@
         <v>10</v>
       </c>
       <c r="AZ81">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA81">
         <v>1</v>
@@ -18338,10 +18338,10 @@
         <v>6</v>
       </c>
       <c r="AY82">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18544,10 +18544,10 @@
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA83">
         <v>11</v>
@@ -18753,7 +18753,7 @@
         <v>3</v>
       </c>
       <c r="AZ84">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BA84">
         <v>5</v>
@@ -18959,7 +18959,7 @@
         <v>9</v>
       </c>
       <c r="AZ85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -19162,10 +19162,10 @@
         <v>4</v>
       </c>
       <c r="AY86">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AZ86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -19368,10 +19368,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA87">
         <v>9</v>
@@ -19574,10 +19574,10 @@
         <v>3</v>
       </c>
       <c r="AY88">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA88">
         <v>8</v>
@@ -19780,10 +19780,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA89">
         <v>2</v>
@@ -19989,7 +19989,7 @@
         <v>7</v>
       </c>
       <c r="AZ90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA90">
         <v>2</v>
@@ -20192,10 +20192,10 @@
         <v>4</v>
       </c>
       <c r="AY91">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ91">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA91">
         <v>8</v>
@@ -20398,10 +20398,10 @@
         <v>2</v>
       </c>
       <c r="AY92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20604,7 +20604,7 @@
         <v>5</v>
       </c>
       <c r="AY93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ93">
         <v>8</v>
@@ -20810,10 +20810,10 @@
         <v>8</v>
       </c>
       <c r="AY94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ94">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BA94">
         <v>1</v>
@@ -21016,10 +21016,10 @@
         <v>7</v>
       </c>
       <c r="AY95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ95">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA95">
         <v>2</v>
@@ -21222,10 +21222,10 @@
         <v>0</v>
       </c>
       <c r="AY96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA96">
         <v>6</v>
@@ -21428,10 +21428,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
+        <v>13</v>
+      </c>
+      <c r="AZ97">
         <v>16</v>
-      </c>
-      <c r="AZ97">
-        <v>23</v>
       </c>
       <c r="BA97">
         <v>8</v>
@@ -21634,7 +21634,7 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AZ98">
         <v>4</v>
@@ -21840,7 +21840,7 @@
         <v>1</v>
       </c>
       <c r="AY99">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ99">
         <v>5</v>
@@ -22046,10 +22046,10 @@
         <v>2</v>
       </c>
       <c r="AY100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA100">
         <v>6</v>
@@ -22252,7 +22252,7 @@
         <v>3</v>
       </c>
       <c r="AY101">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AZ101">
         <v>9</v>
@@ -22458,19 +22458,19 @@
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ102">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB102">
         <v>6</v>
       </c>
       <c r="BC102">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD102">
         <v>0</v>
@@ -22664,10 +22664,10 @@
         <v>6</v>
       </c>
       <c r="AY103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA103">
         <v>4</v>
@@ -22870,10 +22870,10 @@
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ104">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA104">
         <v>10</v>
@@ -23076,7 +23076,7 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ105">
         <v>14</v>
@@ -23282,10 +23282,10 @@
         <v>5</v>
       </c>
       <c r="AY106">
+        <v>11</v>
+      </c>
+      <c r="AZ106">
         <v>13</v>
-      </c>
-      <c r="AZ106">
-        <v>14</v>
       </c>
       <c r="BA106">
         <v>2</v>
@@ -23488,10 +23488,10 @@
         <v>6</v>
       </c>
       <c r="AY107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ107">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="AY108">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ108">
         <v>5</v>
@@ -23900,7 +23900,7 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
         <v>7</v>
@@ -24106,10 +24106,10 @@
         <v>11</v>
       </c>
       <c r="AY110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AZ110">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA110">
         <v>3</v>
@@ -24312,10 +24312,10 @@
         <v>14</v>
       </c>
       <c r="AY111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ111">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA111">
         <v>3</v>
@@ -24518,10 +24518,10 @@
         <v>7</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ112">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA112">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>11</v>
       </c>
       <c r="AZ113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA113">
         <v>5</v>
@@ -24930,7 +24930,7 @@
         <v>1</v>
       </c>
       <c r="AY114">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ114">
         <v>5</v>
@@ -25139,7 +25139,7 @@
         <v>5</v>
       </c>
       <c r="AZ115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA115">
         <v>1</v>
@@ -25342,10 +25342,10 @@
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ116">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25548,10 +25548,10 @@
         <v>3</v>
       </c>
       <c r="AY117">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AZ117">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>14</v>
@@ -25754,19 +25754,19 @@
         <v>2</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB118">
         <v>7</v>
       </c>
       <c r="BC118">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD118">
         <v>0</v>
@@ -25960,7 +25960,7 @@
         <v>3</v>
       </c>
       <c r="AY119">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ119">
         <v>7</v>
@@ -26169,7 +26169,7 @@
         <v>8</v>
       </c>
       <c r="AZ120">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26372,10 +26372,10 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA121">
         <v>3</v>
@@ -26578,10 +26578,10 @@
         <v>7</v>
       </c>
       <c r="AY122">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26784,10 +26784,10 @@
         <v>2</v>
       </c>
       <c r="AY123">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA123">
         <v>6</v>
@@ -26990,10 +26990,10 @@
         <v>4</v>
       </c>
       <c r="AY124">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA124">
         <v>7</v>
@@ -27196,10 +27196,10 @@
         <v>6</v>
       </c>
       <c r="AY125">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ125">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA125">
         <v>7</v>
@@ -27402,10 +27402,10 @@
         <v>5</v>
       </c>
       <c r="AY126">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ126">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA126">
         <v>7</v>
@@ -27608,10 +27608,10 @@
         <v>8</v>
       </c>
       <c r="AY127">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ127">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA127">
         <v>5</v>
@@ -27814,10 +27814,10 @@
         <v>1</v>
       </c>
       <c r="AY128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ128">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -28020,7 +28020,7 @@
         <v>8</v>
       </c>
       <c r="AY129">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ129">
         <v>14</v>
@@ -28226,10 +28226,10 @@
         <v>1</v>
       </c>
       <c r="AY130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ130">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA130">
         <v>3</v>
@@ -28432,10 +28432,10 @@
         <v>6</v>
       </c>
       <c r="AY131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ131">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA131">
         <v>1</v>
@@ -28638,10 +28638,10 @@
         <v>8</v>
       </c>
       <c r="AY132">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ132">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA132">
         <v>4</v>
@@ -28844,10 +28844,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ133">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA133">
         <v>5</v>
@@ -29050,7 +29050,7 @@
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ134">
         <v>7</v>
@@ -29259,7 +29259,7 @@
         <v>6</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA135">
         <v>3</v>
@@ -29462,7 +29462,7 @@
         <v>2</v>
       </c>
       <c r="AY136">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ136">
         <v>6</v>
@@ -29668,10 +29668,10 @@
         <v>6</v>
       </c>
       <c r="AY137">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ137">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA137">
         <v>3</v>
@@ -29874,10 +29874,10 @@
         <v>1</v>
       </c>
       <c r="AY138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ138">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA138">
         <v>7</v>
@@ -30080,10 +30080,10 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AZ139">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA139">
         <v>16</v>
@@ -30286,10 +30286,10 @@
         <v>5</v>
       </c>
       <c r="AY140">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AZ140">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA140">
         <v>7</v>
@@ -30492,10 +30492,10 @@
         <v>4</v>
       </c>
       <c r="AY141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA141">
         <v>2</v>
@@ -30698,10 +30698,10 @@
         <v>5</v>
       </c>
       <c r="AY142">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA142">
         <v>6</v>
@@ -30904,10 +30904,10 @@
         <v>4</v>
       </c>
       <c r="AY143">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA143">
         <v>12</v>
@@ -31110,7 +31110,7 @@
         <v>2</v>
       </c>
       <c r="AY144">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AZ144">
         <v>4</v>
@@ -31316,10 +31316,10 @@
         <v>3</v>
       </c>
       <c r="AY145">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ145">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA145">
         <v>7</v>
@@ -31522,10 +31522,10 @@
         <v>13</v>
       </c>
       <c r="AY146">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ146">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31728,7 +31728,7 @@
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AZ147">
         <v>10</v>
@@ -31934,10 +31934,10 @@
         <v>3</v>
       </c>
       <c r="AY148">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AZ148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA148">
         <v>15</v>
@@ -32140,10 +32140,10 @@
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ149">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA149">
         <v>3</v>
@@ -32346,10 +32346,10 @@
         <v>10</v>
       </c>
       <c r="AY150">
+        <v>9</v>
+      </c>
+      <c r="AZ150">
         <v>10</v>
-      </c>
-      <c r="AZ150">
-        <v>11</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32552,10 +32552,10 @@
         <v>3</v>
       </c>
       <c r="AY151">
+        <v>9</v>
+      </c>
+      <c r="AZ151">
         <v>11</v>
-      </c>
-      <c r="AZ151">
-        <v>12</v>
       </c>
       <c r="BA151">
         <v>5</v>
@@ -32758,10 +32758,10 @@
         <v>6</v>
       </c>
       <c r="AY152">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ152">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA152">
         <v>6</v>
@@ -32964,10 +32964,10 @@
         <v>8</v>
       </c>
       <c r="AY153">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ153">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA153">
         <v>5</v>
@@ -46766,10 +46766,10 @@
         <v>3</v>
       </c>
       <c r="AY220">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ220">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA220">
         <v>5</v>
@@ -47178,10 +47178,10 @@
         <v>5</v>
       </c>
       <c r="AY222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ222">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA222">
         <v>1</v>
@@ -47387,7 +47387,7 @@
         <v>9</v>
       </c>
       <c r="AZ223">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA223">
         <v>7</v>
@@ -47590,10 +47590,10 @@
         <v>4</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ224">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA224">
         <v>8</v>
@@ -47796,10 +47796,10 @@
         <v>1</v>
       </c>
       <c r="AY225">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA225">
         <v>4</v>
@@ -49032,10 +49032,10 @@
         <v>4</v>
       </c>
       <c r="AY231">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ231">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA231">
         <v>7</v>
@@ -49444,10 +49444,10 @@
         <v>2</v>
       </c>
       <c r="AY233">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ233">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA233">
         <v>5</v>
@@ -50680,7 +50680,7 @@
         <v>2</v>
       </c>
       <c r="AY239">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ239">
         <v>5</v>
@@ -51504,10 +51504,10 @@
         <v>0</v>
       </c>
       <c r="AY243">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA243">
         <v>7</v>
@@ -56242,10 +56242,10 @@
         <v>1</v>
       </c>
       <c r="AY266">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ266">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA266">
         <v>7</v>
@@ -56860,10 +56860,10 @@
         <v>5</v>
       </c>
       <c r="AY269">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ269">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA269">
         <v>6</v>
@@ -57272,10 +57272,10 @@
         <v>2</v>
       </c>
       <c r="AY271">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ271">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA271">
         <v>6</v>
@@ -58714,7 +58714,7 @@
         <v>5</v>
       </c>
       <c r="AY278">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ278">
         <v>11</v>
@@ -58920,10 +58920,10 @@
         <v>7</v>
       </c>
       <c r="AY279">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ279">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA279">
         <v>5</v>
@@ -60156,10 +60156,10 @@
         <v>4</v>
       </c>
       <c r="AY285">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ285">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA285">
         <v>2</v>
